--- a/Documentation/Reference Stories and Requirements Stack.xlsx
+++ b/Documentation/Reference Stories and Requirements Stack.xlsx
@@ -554,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -623,9 +623,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -29752,7 +29749,9 @@
       <c r="B17" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="16">
+        <v>3.0</v>
+      </c>
       <c r="D17" s="16">
         <v>3.0</v>
       </c>
@@ -30106,7 +30105,7 @@
       </c>
       <c r="G26" s="21">
         <f>sum(C15:C27)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
@@ -31051,7 +31050,7 @@
       <c r="Z50" s="20"/>
     </row>
     <row r="51">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -31079,7 +31078,7 @@
       <c r="Z51" s="20"/>
     </row>
     <row r="52">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
@@ -31107,7 +31106,7 @@
       <c r="Z52" s="20"/>
     </row>
     <row r="53">
-      <c r="A53" s="24"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -31135,7 +31134,7 @@
       <c r="Z53" s="20"/>
     </row>
     <row r="54">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -31163,7 +31162,7 @@
       <c r="Z54" s="20"/>
     </row>
     <row r="55">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -31191,7 +31190,7 @@
       <c r="Z55" s="20"/>
     </row>
     <row r="56">
-      <c r="A56" s="24"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -31219,7 +31218,7 @@
       <c r="Z56" s="20"/>
     </row>
     <row r="57">
-      <c r="A57" s="24"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -31247,7 +31246,7 @@
       <c r="Z57" s="20"/>
     </row>
     <row r="58">
-      <c r="A58" s="24"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -31275,7 +31274,7 @@
       <c r="Z58" s="20"/>
     </row>
     <row r="59">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -31303,7 +31302,7 @@
       <c r="Z59" s="20"/>
     </row>
     <row r="60">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -31331,7 +31330,7 @@
       <c r="Z60" s="20"/>
     </row>
     <row r="61">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -31359,7 +31358,7 @@
       <c r="Z61" s="20"/>
     </row>
     <row r="62">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -31387,7 +31386,7 @@
       <c r="Z62" s="20"/>
     </row>
     <row r="63">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -31415,7 +31414,7 @@
       <c r="Z63" s="20"/>
     </row>
     <row r="64">
-      <c r="A64" s="24"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -31443,7 +31442,7 @@
       <c r="Z64" s="20"/>
     </row>
     <row r="65">
-      <c r="A65" s="24"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -31471,7 +31470,7 @@
       <c r="Z65" s="20"/>
     </row>
     <row r="66">
-      <c r="A66" s="24"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -31499,7 +31498,7 @@
       <c r="Z66" s="20"/>
     </row>
     <row r="67">
-      <c r="A67" s="24"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -31527,7 +31526,7 @@
       <c r="Z67" s="20"/>
     </row>
     <row r="68">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -31555,7 +31554,7 @@
       <c r="Z68" s="20"/>
     </row>
     <row r="69">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -31583,7 +31582,7 @@
       <c r="Z69" s="20"/>
     </row>
     <row r="70">
-      <c r="A70" s="24"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -31611,7 +31610,7 @@
       <c r="Z70" s="20"/>
     </row>
     <row r="71">
-      <c r="A71" s="24"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -31639,7 +31638,7 @@
       <c r="Z71" s="20"/>
     </row>
     <row r="72">
-      <c r="A72" s="24"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -31667,7 +31666,7 @@
       <c r="Z72" s="20"/>
     </row>
     <row r="73">
-      <c r="A73" s="24"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="20"/>
@@ -31695,7 +31694,7 @@
       <c r="Z73" s="20"/>
     </row>
     <row r="74">
-      <c r="A74" s="24"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="20"/>
@@ -31723,7 +31722,7 @@
       <c r="Z74" s="20"/>
     </row>
     <row r="75">
-      <c r="A75" s="24"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="20"/>
@@ -31751,7 +31750,7 @@
       <c r="Z75" s="20"/>
     </row>
     <row r="76">
-      <c r="A76" s="24"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="20"/>
@@ -31779,7 +31778,7 @@
       <c r="Z76" s="20"/>
     </row>
     <row r="77">
-      <c r="A77" s="24"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="20"/>
@@ -31807,7 +31806,7 @@
       <c r="Z77" s="20"/>
     </row>
     <row r="78">
-      <c r="A78" s="24"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -31835,7 +31834,7 @@
       <c r="Z78" s="20"/>
     </row>
     <row r="79">
-      <c r="A79" s="24"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -31863,7 +31862,7 @@
       <c r="Z79" s="20"/>
     </row>
     <row r="80">
-      <c r="A80" s="24"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -31891,7 +31890,7 @@
       <c r="Z80" s="20"/>
     </row>
     <row r="81">
-      <c r="A81" s="24"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -31919,7 +31918,7 @@
       <c r="Z81" s="20"/>
     </row>
     <row r="82">
-      <c r="A82" s="24"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -31947,7 +31946,7 @@
       <c r="Z82" s="20"/>
     </row>
     <row r="83">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -31975,7 +31974,7 @@
       <c r="Z83" s="20"/>
     </row>
     <row r="84">
-      <c r="A84" s="24"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -32003,7 +32002,7 @@
       <c r="Z84" s="20"/>
     </row>
     <row r="85">
-      <c r="A85" s="24"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -32031,7 +32030,7 @@
       <c r="Z85" s="20"/>
     </row>
     <row r="86">
-      <c r="A86" s="24"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -32059,7 +32058,7 @@
       <c r="Z86" s="20"/>
     </row>
     <row r="87">
-      <c r="A87" s="24"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
@@ -32087,7 +32086,7 @@
       <c r="Z87" s="20"/>
     </row>
     <row r="88">
-      <c r="A88" s="24"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -32115,7 +32114,7 @@
       <c r="Z88" s="20"/>
     </row>
     <row r="89">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -32143,7 +32142,7 @@
       <c r="Z89" s="20"/>
     </row>
     <row r="90">
-      <c r="A90" s="24"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
@@ -32171,7 +32170,7 @@
       <c r="Z90" s="20"/>
     </row>
     <row r="91">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -32199,7 +32198,7 @@
       <c r="Z91" s="20"/>
     </row>
     <row r="92">
-      <c r="A92" s="24"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -32227,7 +32226,7 @@
       <c r="Z92" s="20"/>
     </row>
     <row r="93">
-      <c r="A93" s="24"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
@@ -32255,7 +32254,7 @@
       <c r="Z93" s="20"/>
     </row>
     <row r="94">
-      <c r="A94" s="24"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -32283,7 +32282,7 @@
       <c r="Z94" s="20"/>
     </row>
     <row r="95">
-      <c r="A95" s="24"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
@@ -32311,7 +32310,7 @@
       <c r="Z95" s="20"/>
     </row>
     <row r="96">
-      <c r="A96" s="24"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -32339,7 +32338,7 @@
       <c r="Z96" s="20"/>
     </row>
     <row r="97">
-      <c r="A97" s="24"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -32367,7 +32366,7 @@
       <c r="Z97" s="20"/>
     </row>
     <row r="98">
-      <c r="A98" s="24"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -32395,7 +32394,7 @@
       <c r="Z98" s="20"/>
     </row>
     <row r="99">
-      <c r="A99" s="24"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -32423,7 +32422,7 @@
       <c r="Z99" s="20"/>
     </row>
     <row r="100">
-      <c r="A100" s="24"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -32451,7 +32450,7 @@
       <c r="Z100" s="20"/>
     </row>
     <row r="101">
-      <c r="A101" s="24"/>
+      <c r="A101" s="23"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -32479,7 +32478,7 @@
       <c r="Z101" s="20"/>
     </row>
     <row r="102">
-      <c r="A102" s="24"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -32507,7 +32506,7 @@
       <c r="Z102" s="20"/>
     </row>
     <row r="103">
-      <c r="A103" s="24"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -32535,7 +32534,7 @@
       <c r="Z103" s="20"/>
     </row>
     <row r="104">
-      <c r="A104" s="24"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -32563,7 +32562,7 @@
       <c r="Z104" s="20"/>
     </row>
     <row r="105">
-      <c r="A105" s="24"/>
+      <c r="A105" s="23"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -32591,7 +32590,7 @@
       <c r="Z105" s="20"/>
     </row>
     <row r="106">
-      <c r="A106" s="24"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -32619,7 +32618,7 @@
       <c r="Z106" s="20"/>
     </row>
     <row r="107">
-      <c r="A107" s="24"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -32647,7 +32646,7 @@
       <c r="Z107" s="20"/>
     </row>
     <row r="108">
-      <c r="A108" s="24"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -32675,7 +32674,7 @@
       <c r="Z108" s="20"/>
     </row>
     <row r="109">
-      <c r="A109" s="24"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -32703,7 +32702,7 @@
       <c r="Z109" s="20"/>
     </row>
     <row r="110">
-      <c r="A110" s="24"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -32731,7 +32730,7 @@
       <c r="Z110" s="20"/>
     </row>
     <row r="111">
-      <c r="A111" s="24"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -32759,7 +32758,7 @@
       <c r="Z111" s="20"/>
     </row>
     <row r="112">
-      <c r="A112" s="24"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -32787,7 +32786,7 @@
       <c r="Z112" s="20"/>
     </row>
     <row r="113">
-      <c r="A113" s="24"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -32815,7 +32814,7 @@
       <c r="Z113" s="20"/>
     </row>
     <row r="114">
-      <c r="A114" s="24"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -32843,7 +32842,7 @@
       <c r="Z114" s="20"/>
     </row>
     <row r="115">
-      <c r="A115" s="24"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -32871,7 +32870,7 @@
       <c r="Z115" s="20"/>
     </row>
     <row r="116">
-      <c r="A116" s="24"/>
+      <c r="A116" s="23"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -32899,7 +32898,7 @@
       <c r="Z116" s="20"/>
     </row>
     <row r="117">
-      <c r="A117" s="24"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -32927,7 +32926,7 @@
       <c r="Z117" s="20"/>
     </row>
     <row r="118">
-      <c r="A118" s="24"/>
+      <c r="A118" s="23"/>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -32955,7 +32954,7 @@
       <c r="Z118" s="20"/>
     </row>
     <row r="119">
-      <c r="A119" s="24"/>
+      <c r="A119" s="23"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -32983,7 +32982,7 @@
       <c r="Z119" s="20"/>
     </row>
     <row r="120">
-      <c r="A120" s="24"/>
+      <c r="A120" s="23"/>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -33011,7 +33010,7 @@
       <c r="Z120" s="20"/>
     </row>
     <row r="121">
-      <c r="A121" s="24"/>
+      <c r="A121" s="23"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -33039,7 +33038,7 @@
       <c r="Z121" s="20"/>
     </row>
     <row r="122">
-      <c r="A122" s="24"/>
+      <c r="A122" s="23"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -33067,7 +33066,7 @@
       <c r="Z122" s="20"/>
     </row>
     <row r="123">
-      <c r="A123" s="24"/>
+      <c r="A123" s="23"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -33095,7 +33094,7 @@
       <c r="Z123" s="20"/>
     </row>
     <row r="124">
-      <c r="A124" s="24"/>
+      <c r="A124" s="23"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -33123,7 +33122,7 @@
       <c r="Z124" s="20"/>
     </row>
     <row r="125">
-      <c r="A125" s="24"/>
+      <c r="A125" s="23"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -33151,7 +33150,7 @@
       <c r="Z125" s="20"/>
     </row>
     <row r="126">
-      <c r="A126" s="24"/>
+      <c r="A126" s="23"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -33179,7 +33178,7 @@
       <c r="Z126" s="20"/>
     </row>
     <row r="127">
-      <c r="A127" s="24"/>
+      <c r="A127" s="23"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -33207,7 +33206,7 @@
       <c r="Z127" s="20"/>
     </row>
     <row r="128">
-      <c r="A128" s="24"/>
+      <c r="A128" s="23"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
@@ -33235,7 +33234,7 @@
       <c r="Z128" s="20"/>
     </row>
     <row r="129">
-      <c r="A129" s="24"/>
+      <c r="A129" s="23"/>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -33263,7 +33262,7 @@
       <c r="Z129" s="20"/>
     </row>
     <row r="130">
-      <c r="A130" s="24"/>
+      <c r="A130" s="23"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -33291,7 +33290,7 @@
       <c r="Z130" s="20"/>
     </row>
     <row r="131">
-      <c r="A131" s="24"/>
+      <c r="A131" s="23"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
@@ -33319,7 +33318,7 @@
       <c r="Z131" s="20"/>
     </row>
     <row r="132">
-      <c r="A132" s="24"/>
+      <c r="A132" s="23"/>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -33347,7 +33346,7 @@
       <c r="Z132" s="20"/>
     </row>
     <row r="133">
-      <c r="A133" s="24"/>
+      <c r="A133" s="23"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -33375,7 +33374,7 @@
       <c r="Z133" s="20"/>
     </row>
     <row r="134">
-      <c r="A134" s="24"/>
+      <c r="A134" s="23"/>
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -33403,7 +33402,7 @@
       <c r="Z134" s="20"/>
     </row>
     <row r="135">
-      <c r="A135" s="24"/>
+      <c r="A135" s="23"/>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -33431,7 +33430,7 @@
       <c r="Z135" s="20"/>
     </row>
     <row r="136">
-      <c r="A136" s="24"/>
+      <c r="A136" s="23"/>
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -33459,7 +33458,7 @@
       <c r="Z136" s="20"/>
     </row>
     <row r="137">
-      <c r="A137" s="24"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -33487,7 +33486,7 @@
       <c r="Z137" s="20"/>
     </row>
     <row r="138">
-      <c r="A138" s="24"/>
+      <c r="A138" s="23"/>
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -33515,7 +33514,7 @@
       <c r="Z138" s="20"/>
     </row>
     <row r="139">
-      <c r="A139" s="24"/>
+      <c r="A139" s="23"/>
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -33543,7 +33542,7 @@
       <c r="Z139" s="20"/>
     </row>
     <row r="140">
-      <c r="A140" s="24"/>
+      <c r="A140" s="23"/>
       <c r="B140" s="20"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -33571,7 +33570,7 @@
       <c r="Z140" s="20"/>
     </row>
     <row r="141">
-      <c r="A141" s="24"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -33599,7 +33598,7 @@
       <c r="Z141" s="20"/>
     </row>
     <row r="142">
-      <c r="A142" s="24"/>
+      <c r="A142" s="23"/>
       <c r="B142" s="20"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -33627,7 +33626,7 @@
       <c r="Z142" s="20"/>
     </row>
     <row r="143">
-      <c r="A143" s="24"/>
+      <c r="A143" s="23"/>
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -33655,7 +33654,7 @@
       <c r="Z143" s="20"/>
     </row>
     <row r="144">
-      <c r="A144" s="24"/>
+      <c r="A144" s="23"/>
       <c r="B144" s="20"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
@@ -33683,7 +33682,7 @@
       <c r="Z144" s="20"/>
     </row>
     <row r="145">
-      <c r="A145" s="24"/>
+      <c r="A145" s="23"/>
       <c r="B145" s="20"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -33711,7 +33710,7 @@
       <c r="Z145" s="20"/>
     </row>
     <row r="146">
-      <c r="A146" s="24"/>
+      <c r="A146" s="23"/>
       <c r="B146" s="20"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -33739,7 +33738,7 @@
       <c r="Z146" s="20"/>
     </row>
     <row r="147">
-      <c r="A147" s="24"/>
+      <c r="A147" s="23"/>
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -33767,7 +33766,7 @@
       <c r="Z147" s="20"/>
     </row>
     <row r="148">
-      <c r="A148" s="24"/>
+      <c r="A148" s="23"/>
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -33795,7 +33794,7 @@
       <c r="Z148" s="20"/>
     </row>
     <row r="149">
-      <c r="A149" s="24"/>
+      <c r="A149" s="23"/>
       <c r="B149" s="20"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -33823,7 +33822,7 @@
       <c r="Z149" s="20"/>
     </row>
     <row r="150">
-      <c r="A150" s="24"/>
+      <c r="A150" s="23"/>
       <c r="B150" s="20"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -33851,7 +33850,7 @@
       <c r="Z150" s="20"/>
     </row>
     <row r="151">
-      <c r="A151" s="24"/>
+      <c r="A151" s="23"/>
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -33879,7 +33878,7 @@
       <c r="Z151" s="20"/>
     </row>
     <row r="152">
-      <c r="A152" s="24"/>
+      <c r="A152" s="23"/>
       <c r="B152" s="20"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -33907,7 +33906,7 @@
       <c r="Z152" s="20"/>
     </row>
     <row r="153">
-      <c r="A153" s="24"/>
+      <c r="A153" s="23"/>
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -33935,7 +33934,7 @@
       <c r="Z153" s="20"/>
     </row>
     <row r="154">
-      <c r="A154" s="24"/>
+      <c r="A154" s="23"/>
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -33963,7 +33962,7 @@
       <c r="Z154" s="20"/>
     </row>
     <row r="155">
-      <c r="A155" s="24"/>
+      <c r="A155" s="23"/>
       <c r="B155" s="20"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -33991,7 +33990,7 @@
       <c r="Z155" s="20"/>
     </row>
     <row r="156">
-      <c r="A156" s="24"/>
+      <c r="A156" s="23"/>
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -34019,7 +34018,7 @@
       <c r="Z156" s="20"/>
     </row>
     <row r="157">
-      <c r="A157" s="24"/>
+      <c r="A157" s="23"/>
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
@@ -34047,7 +34046,7 @@
       <c r="Z157" s="20"/>
     </row>
     <row r="158">
-      <c r="A158" s="24"/>
+      <c r="A158" s="23"/>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
@@ -34075,7 +34074,7 @@
       <c r="Z158" s="20"/>
     </row>
     <row r="159">
-      <c r="A159" s="24"/>
+      <c r="A159" s="23"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
@@ -34103,7 +34102,7 @@
       <c r="Z159" s="20"/>
     </row>
     <row r="160">
-      <c r="A160" s="24"/>
+      <c r="A160" s="23"/>
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
@@ -34131,7 +34130,7 @@
       <c r="Z160" s="20"/>
     </row>
     <row r="161">
-      <c r="A161" s="24"/>
+      <c r="A161" s="23"/>
       <c r="B161" s="20"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
@@ -34159,7 +34158,7 @@
       <c r="Z161" s="20"/>
     </row>
     <row r="162">
-      <c r="A162" s="24"/>
+      <c r="A162" s="23"/>
       <c r="B162" s="20"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
@@ -34187,7 +34186,7 @@
       <c r="Z162" s="20"/>
     </row>
     <row r="163">
-      <c r="A163" s="24"/>
+      <c r="A163" s="23"/>
       <c r="B163" s="20"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
@@ -34215,7 +34214,7 @@
       <c r="Z163" s="20"/>
     </row>
     <row r="164">
-      <c r="A164" s="24"/>
+      <c r="A164" s="23"/>
       <c r="B164" s="20"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
@@ -34243,7 +34242,7 @@
       <c r="Z164" s="20"/>
     </row>
     <row r="165">
-      <c r="A165" s="24"/>
+      <c r="A165" s="23"/>
       <c r="B165" s="20"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
@@ -34271,7 +34270,7 @@
       <c r="Z165" s="20"/>
     </row>
     <row r="166">
-      <c r="A166" s="24"/>
+      <c r="A166" s="23"/>
       <c r="B166" s="20"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
@@ -34299,7 +34298,7 @@
       <c r="Z166" s="20"/>
     </row>
     <row r="167">
-      <c r="A167" s="24"/>
+      <c r="A167" s="23"/>
       <c r="B167" s="20"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
@@ -34327,7 +34326,7 @@
       <c r="Z167" s="20"/>
     </row>
     <row r="168">
-      <c r="A168" s="24"/>
+      <c r="A168" s="23"/>
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
@@ -34355,7 +34354,7 @@
       <c r="Z168" s="20"/>
     </row>
     <row r="169">
-      <c r="A169" s="24"/>
+      <c r="A169" s="23"/>
       <c r="B169" s="20"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
@@ -34383,7 +34382,7 @@
       <c r="Z169" s="20"/>
     </row>
     <row r="170">
-      <c r="A170" s="24"/>
+      <c r="A170" s="23"/>
       <c r="B170" s="20"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
@@ -34411,7 +34410,7 @@
       <c r="Z170" s="20"/>
     </row>
     <row r="171">
-      <c r="A171" s="24"/>
+      <c r="A171" s="23"/>
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
@@ -34439,7 +34438,7 @@
       <c r="Z171" s="20"/>
     </row>
     <row r="172">
-      <c r="A172" s="24"/>
+      <c r="A172" s="23"/>
       <c r="B172" s="20"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
@@ -34467,7 +34466,7 @@
       <c r="Z172" s="20"/>
     </row>
     <row r="173">
-      <c r="A173" s="24"/>
+      <c r="A173" s="23"/>
       <c r="B173" s="20"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
@@ -34495,7 +34494,7 @@
       <c r="Z173" s="20"/>
     </row>
     <row r="174">
-      <c r="A174" s="24"/>
+      <c r="A174" s="23"/>
       <c r="B174" s="20"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
@@ -34523,7 +34522,7 @@
       <c r="Z174" s="20"/>
     </row>
     <row r="175">
-      <c r="A175" s="24"/>
+      <c r="A175" s="23"/>
       <c r="B175" s="20"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
@@ -34551,7 +34550,7 @@
       <c r="Z175" s="20"/>
     </row>
     <row r="176">
-      <c r="A176" s="24"/>
+      <c r="A176" s="23"/>
       <c r="B176" s="20"/>
       <c r="C176" s="20"/>
       <c r="D176" s="20"/>
@@ -34579,7 +34578,7 @@
       <c r="Z176" s="20"/>
     </row>
     <row r="177">
-      <c r="A177" s="24"/>
+      <c r="A177" s="23"/>
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
@@ -34607,7 +34606,7 @@
       <c r="Z177" s="20"/>
     </row>
     <row r="178">
-      <c r="A178" s="24"/>
+      <c r="A178" s="23"/>
       <c r="B178" s="20"/>
       <c r="C178" s="20"/>
       <c r="D178" s="20"/>
@@ -34635,7 +34634,7 @@
       <c r="Z178" s="20"/>
     </row>
     <row r="179">
-      <c r="A179" s="24"/>
+      <c r="A179" s="23"/>
       <c r="B179" s="20"/>
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
@@ -34663,7 +34662,7 @@
       <c r="Z179" s="20"/>
     </row>
     <row r="180">
-      <c r="A180" s="24"/>
+      <c r="A180" s="23"/>
       <c r="B180" s="20"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
@@ -34691,7 +34690,7 @@
       <c r="Z180" s="20"/>
     </row>
     <row r="181">
-      <c r="A181" s="24"/>
+      <c r="A181" s="23"/>
       <c r="B181" s="20"/>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
@@ -34719,7 +34718,7 @@
       <c r="Z181" s="20"/>
     </row>
     <row r="182">
-      <c r="A182" s="24"/>
+      <c r="A182" s="23"/>
       <c r="B182" s="20"/>
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
@@ -34747,7 +34746,7 @@
       <c r="Z182" s="20"/>
     </row>
     <row r="183">
-      <c r="A183" s="24"/>
+      <c r="A183" s="23"/>
       <c r="B183" s="20"/>
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
@@ -34775,7 +34774,7 @@
       <c r="Z183" s="20"/>
     </row>
     <row r="184">
-      <c r="A184" s="24"/>
+      <c r="A184" s="23"/>
       <c r="B184" s="20"/>
       <c r="C184" s="20"/>
       <c r="D184" s="20"/>
@@ -34803,7 +34802,7 @@
       <c r="Z184" s="20"/>
     </row>
     <row r="185">
-      <c r="A185" s="24"/>
+      <c r="A185" s="23"/>
       <c r="B185" s="20"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
@@ -34831,7 +34830,7 @@
       <c r="Z185" s="20"/>
     </row>
     <row r="186">
-      <c r="A186" s="24"/>
+      <c r="A186" s="23"/>
       <c r="B186" s="20"/>
       <c r="C186" s="20"/>
       <c r="D186" s="20"/>
@@ -34859,7 +34858,7 @@
       <c r="Z186" s="20"/>
     </row>
     <row r="187">
-      <c r="A187" s="24"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="20"/>
       <c r="C187" s="20"/>
       <c r="D187" s="20"/>
@@ -34887,7 +34886,7 @@
       <c r="Z187" s="20"/>
     </row>
     <row r="188">
-      <c r="A188" s="24"/>
+      <c r="A188" s="23"/>
       <c r="B188" s="20"/>
       <c r="C188" s="20"/>
       <c r="D188" s="20"/>
@@ -34915,7 +34914,7 @@
       <c r="Z188" s="20"/>
     </row>
     <row r="189">
-      <c r="A189" s="24"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="20"/>
       <c r="C189" s="20"/>
       <c r="D189" s="20"/>
@@ -34943,7 +34942,7 @@
       <c r="Z189" s="20"/>
     </row>
     <row r="190">
-      <c r="A190" s="24"/>
+      <c r="A190" s="23"/>
       <c r="B190" s="20"/>
       <c r="C190" s="20"/>
       <c r="D190" s="20"/>
@@ -34971,7 +34970,7 @@
       <c r="Z190" s="20"/>
     </row>
     <row r="191">
-      <c r="A191" s="24"/>
+      <c r="A191" s="23"/>
       <c r="B191" s="20"/>
       <c r="C191" s="20"/>
       <c r="D191" s="20"/>
@@ -34999,7 +34998,7 @@
       <c r="Z191" s="20"/>
     </row>
     <row r="192">
-      <c r="A192" s="24"/>
+      <c r="A192" s="23"/>
       <c r="B192" s="20"/>
       <c r="C192" s="20"/>
       <c r="D192" s="20"/>
@@ -35027,7 +35026,7 @@
       <c r="Z192" s="20"/>
     </row>
     <row r="193">
-      <c r="A193" s="24"/>
+      <c r="A193" s="23"/>
       <c r="B193" s="20"/>
       <c r="C193" s="20"/>
       <c r="D193" s="20"/>
@@ -35055,7 +35054,7 @@
       <c r="Z193" s="20"/>
     </row>
     <row r="194">
-      <c r="A194" s="24"/>
+      <c r="A194" s="23"/>
       <c r="B194" s="20"/>
       <c r="C194" s="20"/>
       <c r="D194" s="20"/>
@@ -35083,7 +35082,7 @@
       <c r="Z194" s="20"/>
     </row>
     <row r="195">
-      <c r="A195" s="24"/>
+      <c r="A195" s="23"/>
       <c r="B195" s="20"/>
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
@@ -35111,7 +35110,7 @@
       <c r="Z195" s="20"/>
     </row>
     <row r="196">
-      <c r="A196" s="24"/>
+      <c r="A196" s="23"/>
       <c r="B196" s="20"/>
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
@@ -35139,7 +35138,7 @@
       <c r="Z196" s="20"/>
     </row>
     <row r="197">
-      <c r="A197" s="24"/>
+      <c r="A197" s="23"/>
       <c r="B197" s="20"/>
       <c r="C197" s="20"/>
       <c r="D197" s="20"/>
@@ -35167,7 +35166,7 @@
       <c r="Z197" s="20"/>
     </row>
     <row r="198">
-      <c r="A198" s="24"/>
+      <c r="A198" s="23"/>
       <c r="B198" s="20"/>
       <c r="C198" s="20"/>
       <c r="D198" s="20"/>
@@ -35195,7 +35194,7 @@
       <c r="Z198" s="20"/>
     </row>
     <row r="199">
-      <c r="A199" s="24"/>
+      <c r="A199" s="23"/>
       <c r="B199" s="20"/>
       <c r="C199" s="20"/>
       <c r="D199" s="20"/>
@@ -35223,7 +35222,7 @@
       <c r="Z199" s="20"/>
     </row>
     <row r="200">
-      <c r="A200" s="24"/>
+      <c r="A200" s="23"/>
       <c r="B200" s="20"/>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
@@ -35251,7 +35250,7 @@
       <c r="Z200" s="20"/>
     </row>
     <row r="201">
-      <c r="A201" s="24"/>
+      <c r="A201" s="23"/>
       <c r="B201" s="20"/>
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
@@ -35279,7 +35278,7 @@
       <c r="Z201" s="20"/>
     </row>
     <row r="202">
-      <c r="A202" s="24"/>
+      <c r="A202" s="23"/>
       <c r="B202" s="20"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
@@ -35307,7 +35306,7 @@
       <c r="Z202" s="20"/>
     </row>
     <row r="203">
-      <c r="A203" s="24"/>
+      <c r="A203" s="23"/>
       <c r="B203" s="20"/>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
@@ -35335,7 +35334,7 @@
       <c r="Z203" s="20"/>
     </row>
     <row r="204">
-      <c r="A204" s="24"/>
+      <c r="A204" s="23"/>
       <c r="B204" s="20"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
@@ -35363,7 +35362,7 @@
       <c r="Z204" s="20"/>
     </row>
     <row r="205">
-      <c r="A205" s="24"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="20"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
@@ -35391,7 +35390,7 @@
       <c r="Z205" s="20"/>
     </row>
     <row r="206">
-      <c r="A206" s="24"/>
+      <c r="A206" s="23"/>
       <c r="B206" s="20"/>
       <c r="C206" s="20"/>
       <c r="D206" s="20"/>
@@ -35419,7 +35418,7 @@
       <c r="Z206" s="20"/>
     </row>
     <row r="207">
-      <c r="A207" s="24"/>
+      <c r="A207" s="23"/>
       <c r="B207" s="20"/>
       <c r="C207" s="20"/>
       <c r="D207" s="20"/>
@@ -35447,7 +35446,7 @@
       <c r="Z207" s="20"/>
     </row>
     <row r="208">
-      <c r="A208" s="24"/>
+      <c r="A208" s="23"/>
       <c r="B208" s="20"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
@@ -35475,7 +35474,7 @@
       <c r="Z208" s="20"/>
     </row>
     <row r="209">
-      <c r="A209" s="24"/>
+      <c r="A209" s="23"/>
       <c r="B209" s="20"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
@@ -35503,7 +35502,7 @@
       <c r="Z209" s="20"/>
     </row>
     <row r="210">
-      <c r="A210" s="24"/>
+      <c r="A210" s="23"/>
       <c r="B210" s="20"/>
       <c r="C210" s="20"/>
       <c r="D210" s="20"/>
@@ -35531,7 +35530,7 @@
       <c r="Z210" s="20"/>
     </row>
     <row r="211">
-      <c r="A211" s="24"/>
+      <c r="A211" s="23"/>
       <c r="B211" s="20"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
@@ -35559,7 +35558,7 @@
       <c r="Z211" s="20"/>
     </row>
     <row r="212">
-      <c r="A212" s="24"/>
+      <c r="A212" s="23"/>
       <c r="B212" s="20"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
@@ -35587,7 +35586,7 @@
       <c r="Z212" s="20"/>
     </row>
     <row r="213">
-      <c r="A213" s="24"/>
+      <c r="A213" s="23"/>
       <c r="B213" s="20"/>
       <c r="C213" s="20"/>
       <c r="D213" s="20"/>
@@ -35615,7 +35614,7 @@
       <c r="Z213" s="20"/>
     </row>
     <row r="214">
-      <c r="A214" s="24"/>
+      <c r="A214" s="23"/>
       <c r="B214" s="20"/>
       <c r="C214" s="20"/>
       <c r="D214" s="20"/>
@@ -35643,7 +35642,7 @@
       <c r="Z214" s="20"/>
     </row>
     <row r="215">
-      <c r="A215" s="24"/>
+      <c r="A215" s="23"/>
       <c r="B215" s="20"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
@@ -35671,7 +35670,7 @@
       <c r="Z215" s="20"/>
     </row>
     <row r="216">
-      <c r="A216" s="24"/>
+      <c r="A216" s="23"/>
       <c r="B216" s="20"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
@@ -35699,7 +35698,7 @@
       <c r="Z216" s="20"/>
     </row>
     <row r="217">
-      <c r="A217" s="24"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="20"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
@@ -35727,7 +35726,7 @@
       <c r="Z217" s="20"/>
     </row>
     <row r="218">
-      <c r="A218" s="24"/>
+      <c r="A218" s="23"/>
       <c r="B218" s="20"/>
       <c r="C218" s="20"/>
       <c r="D218" s="20"/>
@@ -35755,7 +35754,7 @@
       <c r="Z218" s="20"/>
     </row>
     <row r="219">
-      <c r="A219" s="24"/>
+      <c r="A219" s="23"/>
       <c r="B219" s="20"/>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
@@ -35783,7 +35782,7 @@
       <c r="Z219" s="20"/>
     </row>
     <row r="220">
-      <c r="A220" s="24"/>
+      <c r="A220" s="23"/>
       <c r="B220" s="20"/>
       <c r="C220" s="20"/>
       <c r="D220" s="20"/>
@@ -35811,7 +35810,7 @@
       <c r="Z220" s="20"/>
     </row>
     <row r="221">
-      <c r="A221" s="24"/>
+      <c r="A221" s="23"/>
       <c r="B221" s="20"/>
       <c r="C221" s="20"/>
       <c r="D221" s="20"/>
@@ -35839,7 +35838,7 @@
       <c r="Z221" s="20"/>
     </row>
     <row r="222">
-      <c r="A222" s="24"/>
+      <c r="A222" s="23"/>
       <c r="B222" s="20"/>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
@@ -35867,7 +35866,7 @@
       <c r="Z222" s="20"/>
     </row>
     <row r="223">
-      <c r="A223" s="24"/>
+      <c r="A223" s="23"/>
       <c r="B223" s="20"/>
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
@@ -35895,7 +35894,7 @@
       <c r="Z223" s="20"/>
     </row>
     <row r="224">
-      <c r="A224" s="24"/>
+      <c r="A224" s="23"/>
       <c r="B224" s="20"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
@@ -35923,7 +35922,7 @@
       <c r="Z224" s="20"/>
     </row>
     <row r="225">
-      <c r="A225" s="24"/>
+      <c r="A225" s="23"/>
       <c r="B225" s="20"/>
       <c r="C225" s="20"/>
       <c r="D225" s="20"/>
@@ -35951,7 +35950,7 @@
       <c r="Z225" s="20"/>
     </row>
     <row r="226">
-      <c r="A226" s="24"/>
+      <c r="A226" s="23"/>
       <c r="B226" s="20"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
@@ -35979,7 +35978,7 @@
       <c r="Z226" s="20"/>
     </row>
     <row r="227">
-      <c r="A227" s="24"/>
+      <c r="A227" s="23"/>
       <c r="B227" s="20"/>
       <c r="C227" s="20"/>
       <c r="D227" s="20"/>
@@ -36007,7 +36006,7 @@
       <c r="Z227" s="20"/>
     </row>
     <row r="228">
-      <c r="A228" s="24"/>
+      <c r="A228" s="23"/>
       <c r="B228" s="20"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
@@ -36035,7 +36034,7 @@
       <c r="Z228" s="20"/>
     </row>
     <row r="229">
-      <c r="A229" s="24"/>
+      <c r="A229" s="23"/>
       <c r="B229" s="20"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
@@ -36063,7 +36062,7 @@
       <c r="Z229" s="20"/>
     </row>
     <row r="230">
-      <c r="A230" s="24"/>
+      <c r="A230" s="23"/>
       <c r="B230" s="20"/>
       <c r="C230" s="20"/>
       <c r="D230" s="20"/>
@@ -36091,7 +36090,7 @@
       <c r="Z230" s="20"/>
     </row>
     <row r="231">
-      <c r="A231" s="24"/>
+      <c r="A231" s="23"/>
       <c r="B231" s="20"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
@@ -36119,7 +36118,7 @@
       <c r="Z231" s="20"/>
     </row>
     <row r="232">
-      <c r="A232" s="24"/>
+      <c r="A232" s="23"/>
       <c r="B232" s="20"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
@@ -36147,7 +36146,7 @@
       <c r="Z232" s="20"/>
     </row>
     <row r="233">
-      <c r="A233" s="24"/>
+      <c r="A233" s="23"/>
       <c r="B233" s="20"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
@@ -36175,7 +36174,7 @@
       <c r="Z233" s="20"/>
     </row>
     <row r="234">
-      <c r="A234" s="24"/>
+      <c r="A234" s="23"/>
       <c r="B234" s="20"/>
       <c r="C234" s="20"/>
       <c r="D234" s="20"/>
@@ -36203,7 +36202,7 @@
       <c r="Z234" s="20"/>
     </row>
     <row r="235">
-      <c r="A235" s="24"/>
+      <c r="A235" s="23"/>
       <c r="B235" s="20"/>
       <c r="C235" s="20"/>
       <c r="D235" s="20"/>
@@ -36231,7 +36230,7 @@
       <c r="Z235" s="20"/>
     </row>
     <row r="236">
-      <c r="A236" s="24"/>
+      <c r="A236" s="23"/>
       <c r="B236" s="20"/>
       <c r="C236" s="20"/>
       <c r="D236" s="20"/>
@@ -36259,7 +36258,7 @@
       <c r="Z236" s="20"/>
     </row>
     <row r="237">
-      <c r="A237" s="24"/>
+      <c r="A237" s="23"/>
       <c r="B237" s="20"/>
       <c r="C237" s="20"/>
       <c r="D237" s="20"/>
@@ -36287,7 +36286,7 @@
       <c r="Z237" s="20"/>
     </row>
     <row r="238">
-      <c r="A238" s="24"/>
+      <c r="A238" s="23"/>
       <c r="B238" s="20"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
@@ -36315,7 +36314,7 @@
       <c r="Z238" s="20"/>
     </row>
     <row r="239">
-      <c r="A239" s="24"/>
+      <c r="A239" s="23"/>
       <c r="B239" s="20"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
@@ -36343,7 +36342,7 @@
       <c r="Z239" s="20"/>
     </row>
     <row r="240">
-      <c r="A240" s="24"/>
+      <c r="A240" s="23"/>
       <c r="B240" s="20"/>
       <c r="C240" s="20"/>
       <c r="D240" s="20"/>
@@ -36371,7 +36370,7 @@
       <c r="Z240" s="20"/>
     </row>
     <row r="241">
-      <c r="A241" s="24"/>
+      <c r="A241" s="23"/>
       <c r="B241" s="20"/>
       <c r="C241" s="20"/>
       <c r="D241" s="20"/>
@@ -36399,7 +36398,7 @@
       <c r="Z241" s="20"/>
     </row>
     <row r="242">
-      <c r="A242" s="24"/>
+      <c r="A242" s="23"/>
       <c r="B242" s="20"/>
       <c r="C242" s="20"/>
       <c r="D242" s="20"/>
@@ -36427,7 +36426,7 @@
       <c r="Z242" s="20"/>
     </row>
     <row r="243">
-      <c r="A243" s="24"/>
+      <c r="A243" s="23"/>
       <c r="B243" s="20"/>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
@@ -36455,7 +36454,7 @@
       <c r="Z243" s="20"/>
     </row>
     <row r="244">
-      <c r="A244" s="24"/>
+      <c r="A244" s="23"/>
       <c r="B244" s="20"/>
       <c r="C244" s="20"/>
       <c r="D244" s="20"/>
@@ -36483,7 +36482,7 @@
       <c r="Z244" s="20"/>
     </row>
     <row r="245">
-      <c r="A245" s="24"/>
+      <c r="A245" s="23"/>
       <c r="B245" s="20"/>
       <c r="C245" s="20"/>
       <c r="D245" s="20"/>
@@ -36511,7 +36510,7 @@
       <c r="Z245" s="20"/>
     </row>
     <row r="246">
-      <c r="A246" s="24"/>
+      <c r="A246" s="23"/>
       <c r="B246" s="20"/>
       <c r="C246" s="20"/>
       <c r="D246" s="20"/>
@@ -36539,7 +36538,7 @@
       <c r="Z246" s="20"/>
     </row>
     <row r="247">
-      <c r="A247" s="24"/>
+      <c r="A247" s="23"/>
       <c r="B247" s="20"/>
       <c r="C247" s="20"/>
       <c r="D247" s="20"/>
@@ -36567,7 +36566,7 @@
       <c r="Z247" s="20"/>
     </row>
     <row r="248">
-      <c r="A248" s="24"/>
+      <c r="A248" s="23"/>
       <c r="B248" s="20"/>
       <c r="C248" s="20"/>
       <c r="D248" s="20"/>
@@ -36595,7 +36594,7 @@
       <c r="Z248" s="20"/>
     </row>
     <row r="249">
-      <c r="A249" s="24"/>
+      <c r="A249" s="23"/>
       <c r="B249" s="20"/>
       <c r="C249" s="20"/>
       <c r="D249" s="20"/>
@@ -36623,7 +36622,7 @@
       <c r="Z249" s="20"/>
     </row>
     <row r="250">
-      <c r="A250" s="24"/>
+      <c r="A250" s="23"/>
       <c r="B250" s="20"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
@@ -36651,7 +36650,7 @@
       <c r="Z250" s="20"/>
     </row>
     <row r="251">
-      <c r="A251" s="24"/>
+      <c r="A251" s="23"/>
       <c r="B251" s="20"/>
       <c r="C251" s="20"/>
       <c r="D251" s="20"/>
@@ -36679,7 +36678,7 @@
       <c r="Z251" s="20"/>
     </row>
     <row r="252">
-      <c r="A252" s="24"/>
+      <c r="A252" s="23"/>
       <c r="B252" s="20"/>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
@@ -36707,7 +36706,7 @@
       <c r="Z252" s="20"/>
     </row>
     <row r="253">
-      <c r="A253" s="24"/>
+      <c r="A253" s="23"/>
       <c r="B253" s="20"/>
       <c r="C253" s="20"/>
       <c r="D253" s="20"/>
@@ -36735,7 +36734,7 @@
       <c r="Z253" s="20"/>
     </row>
     <row r="254">
-      <c r="A254" s="24"/>
+      <c r="A254" s="23"/>
       <c r="B254" s="20"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
@@ -36763,7 +36762,7 @@
       <c r="Z254" s="20"/>
     </row>
     <row r="255">
-      <c r="A255" s="24"/>
+      <c r="A255" s="23"/>
       <c r="B255" s="20"/>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>
@@ -36791,7 +36790,7 @@
       <c r="Z255" s="20"/>
     </row>
     <row r="256">
-      <c r="A256" s="24"/>
+      <c r="A256" s="23"/>
       <c r="B256" s="20"/>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
@@ -36819,7 +36818,7 @@
       <c r="Z256" s="20"/>
     </row>
     <row r="257">
-      <c r="A257" s="24"/>
+      <c r="A257" s="23"/>
       <c r="B257" s="20"/>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
@@ -36847,7 +36846,7 @@
       <c r="Z257" s="20"/>
     </row>
     <row r="258">
-      <c r="A258" s="24"/>
+      <c r="A258" s="23"/>
       <c r="B258" s="20"/>
       <c r="C258" s="20"/>
       <c r="D258" s="20"/>
@@ -36875,7 +36874,7 @@
       <c r="Z258" s="20"/>
     </row>
     <row r="259">
-      <c r="A259" s="24"/>
+      <c r="A259" s="23"/>
       <c r="B259" s="20"/>
       <c r="C259" s="20"/>
       <c r="D259" s="20"/>
@@ -36903,7 +36902,7 @@
       <c r="Z259" s="20"/>
     </row>
     <row r="260">
-      <c r="A260" s="24"/>
+      <c r="A260" s="23"/>
       <c r="B260" s="20"/>
       <c r="C260" s="20"/>
       <c r="D260" s="20"/>
@@ -36931,7 +36930,7 @@
       <c r="Z260" s="20"/>
     </row>
     <row r="261">
-      <c r="A261" s="24"/>
+      <c r="A261" s="23"/>
       <c r="B261" s="20"/>
       <c r="C261" s="20"/>
       <c r="D261" s="20"/>
@@ -36959,7 +36958,7 @@
       <c r="Z261" s="20"/>
     </row>
     <row r="262">
-      <c r="A262" s="24"/>
+      <c r="A262" s="23"/>
       <c r="B262" s="20"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
@@ -36987,7 +36986,7 @@
       <c r="Z262" s="20"/>
     </row>
     <row r="263">
-      <c r="A263" s="24"/>
+      <c r="A263" s="23"/>
       <c r="B263" s="20"/>
       <c r="C263" s="20"/>
       <c r="D263" s="20"/>
@@ -37015,7 +37014,7 @@
       <c r="Z263" s="20"/>
     </row>
     <row r="264">
-      <c r="A264" s="24"/>
+      <c r="A264" s="23"/>
       <c r="B264" s="20"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
@@ -37043,7 +37042,7 @@
       <c r="Z264" s="20"/>
     </row>
     <row r="265">
-      <c r="A265" s="24"/>
+      <c r="A265" s="23"/>
       <c r="B265" s="20"/>
       <c r="C265" s="20"/>
       <c r="D265" s="20"/>
@@ -37071,7 +37070,7 @@
       <c r="Z265" s="20"/>
     </row>
     <row r="266">
-      <c r="A266" s="24"/>
+      <c r="A266" s="23"/>
       <c r="B266" s="20"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
@@ -37099,7 +37098,7 @@
       <c r="Z266" s="20"/>
     </row>
     <row r="267">
-      <c r="A267" s="24"/>
+      <c r="A267" s="23"/>
       <c r="B267" s="20"/>
       <c r="C267" s="20"/>
       <c r="D267" s="20"/>
@@ -37127,7 +37126,7 @@
       <c r="Z267" s="20"/>
     </row>
     <row r="268">
-      <c r="A268" s="24"/>
+      <c r="A268" s="23"/>
       <c r="B268" s="20"/>
       <c r="C268" s="20"/>
       <c r="D268" s="20"/>
@@ -37155,7 +37154,7 @@
       <c r="Z268" s="20"/>
     </row>
     <row r="269">
-      <c r="A269" s="24"/>
+      <c r="A269" s="23"/>
       <c r="B269" s="20"/>
       <c r="C269" s="20"/>
       <c r="D269" s="20"/>
@@ -37183,7 +37182,7 @@
       <c r="Z269" s="20"/>
     </row>
     <row r="270">
-      <c r="A270" s="24"/>
+      <c r="A270" s="23"/>
       <c r="B270" s="20"/>
       <c r="C270" s="20"/>
       <c r="D270" s="20"/>
@@ -37211,7 +37210,7 @@
       <c r="Z270" s="20"/>
     </row>
     <row r="271">
-      <c r="A271" s="24"/>
+      <c r="A271" s="23"/>
       <c r="B271" s="20"/>
       <c r="C271" s="20"/>
       <c r="D271" s="20"/>
@@ -37239,7 +37238,7 @@
       <c r="Z271" s="20"/>
     </row>
     <row r="272">
-      <c r="A272" s="24"/>
+      <c r="A272" s="23"/>
       <c r="B272" s="20"/>
       <c r="C272" s="20"/>
       <c r="D272" s="20"/>
@@ -37267,7 +37266,7 @@
       <c r="Z272" s="20"/>
     </row>
     <row r="273">
-      <c r="A273" s="24"/>
+      <c r="A273" s="23"/>
       <c r="B273" s="20"/>
       <c r="C273" s="20"/>
       <c r="D273" s="20"/>
@@ -37295,7 +37294,7 @@
       <c r="Z273" s="20"/>
     </row>
     <row r="274">
-      <c r="A274" s="24"/>
+      <c r="A274" s="23"/>
       <c r="B274" s="20"/>
       <c r="C274" s="20"/>
       <c r="D274" s="20"/>
@@ -37323,7 +37322,7 @@
       <c r="Z274" s="20"/>
     </row>
     <row r="275">
-      <c r="A275" s="24"/>
+      <c r="A275" s="23"/>
       <c r="B275" s="20"/>
       <c r="C275" s="20"/>
       <c r="D275" s="20"/>
@@ -37351,7 +37350,7 @@
       <c r="Z275" s="20"/>
     </row>
     <row r="276">
-      <c r="A276" s="24"/>
+      <c r="A276" s="23"/>
       <c r="B276" s="20"/>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
@@ -37379,7 +37378,7 @@
       <c r="Z276" s="20"/>
     </row>
     <row r="277">
-      <c r="A277" s="24"/>
+      <c r="A277" s="23"/>
       <c r="B277" s="20"/>
       <c r="C277" s="20"/>
       <c r="D277" s="20"/>
@@ -37407,7 +37406,7 @@
       <c r="Z277" s="20"/>
     </row>
     <row r="278">
-      <c r="A278" s="24"/>
+      <c r="A278" s="23"/>
       <c r="B278" s="20"/>
       <c r="C278" s="20"/>
       <c r="D278" s="20"/>
@@ -37435,7 +37434,7 @@
       <c r="Z278" s="20"/>
     </row>
     <row r="279">
-      <c r="A279" s="24"/>
+      <c r="A279" s="23"/>
       <c r="B279" s="20"/>
       <c r="C279" s="20"/>
       <c r="D279" s="20"/>
@@ -37463,7 +37462,7 @@
       <c r="Z279" s="20"/>
     </row>
     <row r="280">
-      <c r="A280" s="24"/>
+      <c r="A280" s="23"/>
       <c r="B280" s="20"/>
       <c r="C280" s="20"/>
       <c r="D280" s="20"/>
@@ -37491,7 +37490,7 @@
       <c r="Z280" s="20"/>
     </row>
     <row r="281">
-      <c r="A281" s="24"/>
+      <c r="A281" s="23"/>
       <c r="B281" s="20"/>
       <c r="C281" s="20"/>
       <c r="D281" s="20"/>
@@ -37519,7 +37518,7 @@
       <c r="Z281" s="20"/>
     </row>
     <row r="282">
-      <c r="A282" s="24"/>
+      <c r="A282" s="23"/>
       <c r="B282" s="20"/>
       <c r="C282" s="20"/>
       <c r="D282" s="20"/>
@@ -37547,7 +37546,7 @@
       <c r="Z282" s="20"/>
     </row>
     <row r="283">
-      <c r="A283" s="24"/>
+      <c r="A283" s="23"/>
       <c r="B283" s="20"/>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
@@ -37575,7 +37574,7 @@
       <c r="Z283" s="20"/>
     </row>
     <row r="284">
-      <c r="A284" s="24"/>
+      <c r="A284" s="23"/>
       <c r="B284" s="20"/>
       <c r="C284" s="20"/>
       <c r="D284" s="20"/>
@@ -37603,7 +37602,7 @@
       <c r="Z284" s="20"/>
     </row>
     <row r="285">
-      <c r="A285" s="24"/>
+      <c r="A285" s="23"/>
       <c r="B285" s="20"/>
       <c r="C285" s="20"/>
       <c r="D285" s="20"/>
@@ -37631,7 +37630,7 @@
       <c r="Z285" s="20"/>
     </row>
     <row r="286">
-      <c r="A286" s="24"/>
+      <c r="A286" s="23"/>
       <c r="B286" s="20"/>
       <c r="C286" s="20"/>
       <c r="D286" s="20"/>
@@ -37659,7 +37658,7 @@
       <c r="Z286" s="20"/>
     </row>
     <row r="287">
-      <c r="A287" s="24"/>
+      <c r="A287" s="23"/>
       <c r="B287" s="20"/>
       <c r="C287" s="20"/>
       <c r="D287" s="20"/>
@@ -37687,7 +37686,7 @@
       <c r="Z287" s="20"/>
     </row>
     <row r="288">
-      <c r="A288" s="24"/>
+      <c r="A288" s="23"/>
       <c r="B288" s="20"/>
       <c r="C288" s="20"/>
       <c r="D288" s="20"/>
@@ -37715,7 +37714,7 @@
       <c r="Z288" s="20"/>
     </row>
     <row r="289">
-      <c r="A289" s="24"/>
+      <c r="A289" s="23"/>
       <c r="B289" s="20"/>
       <c r="C289" s="20"/>
       <c r="D289" s="20"/>
@@ -37743,7 +37742,7 @@
       <c r="Z289" s="20"/>
     </row>
     <row r="290">
-      <c r="A290" s="24"/>
+      <c r="A290" s="23"/>
       <c r="B290" s="20"/>
       <c r="C290" s="20"/>
       <c r="D290" s="20"/>
@@ -37771,7 +37770,7 @@
       <c r="Z290" s="20"/>
     </row>
     <row r="291">
-      <c r="A291" s="24"/>
+      <c r="A291" s="23"/>
       <c r="B291" s="20"/>
       <c r="C291" s="20"/>
       <c r="D291" s="20"/>
@@ -37799,7 +37798,7 @@
       <c r="Z291" s="20"/>
     </row>
     <row r="292">
-      <c r="A292" s="24"/>
+      <c r="A292" s="23"/>
       <c r="B292" s="20"/>
       <c r="C292" s="20"/>
       <c r="D292" s="20"/>
@@ -37827,7 +37826,7 @@
       <c r="Z292" s="20"/>
     </row>
     <row r="293">
-      <c r="A293" s="24"/>
+      <c r="A293" s="23"/>
       <c r="B293" s="20"/>
       <c r="C293" s="20"/>
       <c r="D293" s="20"/>
@@ -37855,7 +37854,7 @@
       <c r="Z293" s="20"/>
     </row>
     <row r="294">
-      <c r="A294" s="24"/>
+      <c r="A294" s="23"/>
       <c r="B294" s="20"/>
       <c r="C294" s="20"/>
       <c r="D294" s="20"/>
@@ -37883,7 +37882,7 @@
       <c r="Z294" s="20"/>
     </row>
     <row r="295">
-      <c r="A295" s="24"/>
+      <c r="A295" s="23"/>
       <c r="B295" s="20"/>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
@@ -37911,7 +37910,7 @@
       <c r="Z295" s="20"/>
     </row>
     <row r="296">
-      <c r="A296" s="24"/>
+      <c r="A296" s="23"/>
       <c r="B296" s="20"/>
       <c r="C296" s="20"/>
       <c r="D296" s="20"/>
@@ -37939,7 +37938,7 @@
       <c r="Z296" s="20"/>
     </row>
     <row r="297">
-      <c r="A297" s="24"/>
+      <c r="A297" s="23"/>
       <c r="B297" s="20"/>
       <c r="C297" s="20"/>
       <c r="D297" s="20"/>
@@ -37967,7 +37966,7 @@
       <c r="Z297" s="20"/>
     </row>
     <row r="298">
-      <c r="A298" s="24"/>
+      <c r="A298" s="23"/>
       <c r="B298" s="20"/>
       <c r="C298" s="20"/>
       <c r="D298" s="20"/>
@@ -37995,7 +37994,7 @@
       <c r="Z298" s="20"/>
     </row>
     <row r="299">
-      <c r="A299" s="24"/>
+      <c r="A299" s="23"/>
       <c r="B299" s="20"/>
       <c r="C299" s="20"/>
       <c r="D299" s="20"/>
@@ -38023,7 +38022,7 @@
       <c r="Z299" s="20"/>
     </row>
     <row r="300">
-      <c r="A300" s="24"/>
+      <c r="A300" s="23"/>
       <c r="B300" s="20"/>
       <c r="C300" s="20"/>
       <c r="D300" s="20"/>
@@ -38051,7 +38050,7 @@
       <c r="Z300" s="20"/>
     </row>
     <row r="301">
-      <c r="A301" s="24"/>
+      <c r="A301" s="23"/>
       <c r="B301" s="20"/>
       <c r="C301" s="20"/>
       <c r="D301" s="20"/>
@@ -38079,7 +38078,7 @@
       <c r="Z301" s="20"/>
     </row>
     <row r="302">
-      <c r="A302" s="24"/>
+      <c r="A302" s="23"/>
       <c r="B302" s="20"/>
       <c r="C302" s="20"/>
       <c r="D302" s="20"/>
@@ -38107,7 +38106,7 @@
       <c r="Z302" s="20"/>
     </row>
     <row r="303">
-      <c r="A303" s="24"/>
+      <c r="A303" s="23"/>
       <c r="B303" s="20"/>
       <c r="C303" s="20"/>
       <c r="D303" s="20"/>
@@ -38135,7 +38134,7 @@
       <c r="Z303" s="20"/>
     </row>
     <row r="304">
-      <c r="A304" s="24"/>
+      <c r="A304" s="23"/>
       <c r="B304" s="20"/>
       <c r="C304" s="20"/>
       <c r="D304" s="20"/>
@@ -38163,7 +38162,7 @@
       <c r="Z304" s="20"/>
     </row>
     <row r="305">
-      <c r="A305" s="24"/>
+      <c r="A305" s="23"/>
       <c r="B305" s="20"/>
       <c r="C305" s="20"/>
       <c r="D305" s="20"/>
@@ -38191,7 +38190,7 @@
       <c r="Z305" s="20"/>
     </row>
     <row r="306">
-      <c r="A306" s="24"/>
+      <c r="A306" s="23"/>
       <c r="B306" s="20"/>
       <c r="C306" s="20"/>
       <c r="D306" s="20"/>
@@ -38219,7 +38218,7 @@
       <c r="Z306" s="20"/>
     </row>
     <row r="307">
-      <c r="A307" s="24"/>
+      <c r="A307" s="23"/>
       <c r="B307" s="20"/>
       <c r="C307" s="20"/>
       <c r="D307" s="20"/>
@@ -38247,7 +38246,7 @@
       <c r="Z307" s="20"/>
     </row>
     <row r="308">
-      <c r="A308" s="24"/>
+      <c r="A308" s="23"/>
       <c r="B308" s="20"/>
       <c r="C308" s="20"/>
       <c r="D308" s="20"/>
@@ -38275,7 +38274,7 @@
       <c r="Z308" s="20"/>
     </row>
     <row r="309">
-      <c r="A309" s="24"/>
+      <c r="A309" s="23"/>
       <c r="B309" s="20"/>
       <c r="C309" s="20"/>
       <c r="D309" s="20"/>
@@ -38303,7 +38302,7 @@
       <c r="Z309" s="20"/>
     </row>
     <row r="310">
-      <c r="A310" s="24"/>
+      <c r="A310" s="23"/>
       <c r="B310" s="20"/>
       <c r="C310" s="20"/>
       <c r="D310" s="20"/>
@@ -38331,7 +38330,7 @@
       <c r="Z310" s="20"/>
     </row>
     <row r="311">
-      <c r="A311" s="24"/>
+      <c r="A311" s="23"/>
       <c r="B311" s="20"/>
       <c r="C311" s="20"/>
       <c r="D311" s="20"/>
@@ -38359,7 +38358,7 @@
       <c r="Z311" s="20"/>
     </row>
     <row r="312">
-      <c r="A312" s="24"/>
+      <c r="A312" s="23"/>
       <c r="B312" s="20"/>
       <c r="C312" s="20"/>
       <c r="D312" s="20"/>
@@ -38387,7 +38386,7 @@
       <c r="Z312" s="20"/>
     </row>
     <row r="313">
-      <c r="A313" s="24"/>
+      <c r="A313" s="23"/>
       <c r="B313" s="20"/>
       <c r="C313" s="20"/>
       <c r="D313" s="20"/>
@@ -38415,7 +38414,7 @@
       <c r="Z313" s="20"/>
     </row>
     <row r="314">
-      <c r="A314" s="24"/>
+      <c r="A314" s="23"/>
       <c r="B314" s="20"/>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
@@ -38443,7 +38442,7 @@
       <c r="Z314" s="20"/>
     </row>
     <row r="315">
-      <c r="A315" s="24"/>
+      <c r="A315" s="23"/>
       <c r="B315" s="20"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>
@@ -38471,7 +38470,7 @@
       <c r="Z315" s="20"/>
     </row>
     <row r="316">
-      <c r="A316" s="24"/>
+      <c r="A316" s="23"/>
       <c r="B316" s="20"/>
       <c r="C316" s="20"/>
       <c r="D316" s="20"/>
@@ -38499,7 +38498,7 @@
       <c r="Z316" s="20"/>
     </row>
     <row r="317">
-      <c r="A317" s="24"/>
+      <c r="A317" s="23"/>
       <c r="B317" s="20"/>
       <c r="C317" s="20"/>
       <c r="D317" s="20"/>
@@ -38527,7 +38526,7 @@
       <c r="Z317" s="20"/>
     </row>
     <row r="318">
-      <c r="A318" s="24"/>
+      <c r="A318" s="23"/>
       <c r="B318" s="20"/>
       <c r="C318" s="20"/>
       <c r="D318" s="20"/>
@@ -38555,7 +38554,7 @@
       <c r="Z318" s="20"/>
     </row>
     <row r="319">
-      <c r="A319" s="24"/>
+      <c r="A319" s="23"/>
       <c r="B319" s="20"/>
       <c r="C319" s="20"/>
       <c r="D319" s="20"/>
@@ -38583,7 +38582,7 @@
       <c r="Z319" s="20"/>
     </row>
     <row r="320">
-      <c r="A320" s="24"/>
+      <c r="A320" s="23"/>
       <c r="B320" s="20"/>
       <c r="C320" s="20"/>
       <c r="D320" s="20"/>
@@ -38611,7 +38610,7 @@
       <c r="Z320" s="20"/>
     </row>
     <row r="321">
-      <c r="A321" s="24"/>
+      <c r="A321" s="23"/>
       <c r="B321" s="20"/>
       <c r="C321" s="20"/>
       <c r="D321" s="20"/>
@@ -38639,7 +38638,7 @@
       <c r="Z321" s="20"/>
     </row>
     <row r="322">
-      <c r="A322" s="24"/>
+      <c r="A322" s="23"/>
       <c r="B322" s="20"/>
       <c r="C322" s="20"/>
       <c r="D322" s="20"/>
@@ -38667,7 +38666,7 @@
       <c r="Z322" s="20"/>
     </row>
     <row r="323">
-      <c r="A323" s="24"/>
+      <c r="A323" s="23"/>
       <c r="B323" s="20"/>
       <c r="C323" s="20"/>
       <c r="D323" s="20"/>
@@ -38695,7 +38694,7 @@
       <c r="Z323" s="20"/>
     </row>
     <row r="324">
-      <c r="A324" s="24"/>
+      <c r="A324" s="23"/>
       <c r="B324" s="20"/>
       <c r="C324" s="20"/>
       <c r="D324" s="20"/>
@@ -38723,7 +38722,7 @@
       <c r="Z324" s="20"/>
     </row>
     <row r="325">
-      <c r="A325" s="24"/>
+      <c r="A325" s="23"/>
       <c r="B325" s="20"/>
       <c r="C325" s="20"/>
       <c r="D325" s="20"/>
@@ -38751,7 +38750,7 @@
       <c r="Z325" s="20"/>
     </row>
     <row r="326">
-      <c r="A326" s="24"/>
+      <c r="A326" s="23"/>
       <c r="B326" s="20"/>
       <c r="C326" s="20"/>
       <c r="D326" s="20"/>
@@ -38779,7 +38778,7 @@
       <c r="Z326" s="20"/>
     </row>
     <row r="327">
-      <c r="A327" s="24"/>
+      <c r="A327" s="23"/>
       <c r="B327" s="20"/>
       <c r="C327" s="20"/>
       <c r="D327" s="20"/>
@@ -38807,7 +38806,7 @@
       <c r="Z327" s="20"/>
     </row>
     <row r="328">
-      <c r="A328" s="24"/>
+      <c r="A328" s="23"/>
       <c r="B328" s="20"/>
       <c r="C328" s="20"/>
       <c r="D328" s="20"/>
@@ -38835,7 +38834,7 @@
       <c r="Z328" s="20"/>
     </row>
     <row r="329">
-      <c r="A329" s="24"/>
+      <c r="A329" s="23"/>
       <c r="B329" s="20"/>
       <c r="C329" s="20"/>
       <c r="D329" s="20"/>
@@ -38863,7 +38862,7 @@
       <c r="Z329" s="20"/>
     </row>
     <row r="330">
-      <c r="A330" s="24"/>
+      <c r="A330" s="23"/>
       <c r="B330" s="20"/>
       <c r="C330" s="20"/>
       <c r="D330" s="20"/>
@@ -38891,7 +38890,7 @@
       <c r="Z330" s="20"/>
     </row>
     <row r="331">
-      <c r="A331" s="24"/>
+      <c r="A331" s="23"/>
       <c r="B331" s="20"/>
       <c r="C331" s="20"/>
       <c r="D331" s="20"/>
@@ -38919,7 +38918,7 @@
       <c r="Z331" s="20"/>
     </row>
     <row r="332">
-      <c r="A332" s="24"/>
+      <c r="A332" s="23"/>
       <c r="B332" s="20"/>
       <c r="C332" s="20"/>
       <c r="D332" s="20"/>
@@ -38947,7 +38946,7 @@
       <c r="Z332" s="20"/>
     </row>
     <row r="333">
-      <c r="A333" s="24"/>
+      <c r="A333" s="23"/>
       <c r="B333" s="20"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
@@ -38975,7 +38974,7 @@
       <c r="Z333" s="20"/>
     </row>
     <row r="334">
-      <c r="A334" s="24"/>
+      <c r="A334" s="23"/>
       <c r="B334" s="20"/>
       <c r="C334" s="20"/>
       <c r="D334" s="20"/>
@@ -39003,7 +39002,7 @@
       <c r="Z334" s="20"/>
     </row>
     <row r="335">
-      <c r="A335" s="24"/>
+      <c r="A335" s="23"/>
       <c r="B335" s="20"/>
       <c r="C335" s="20"/>
       <c r="D335" s="20"/>
@@ -39031,7 +39030,7 @@
       <c r="Z335" s="20"/>
     </row>
     <row r="336">
-      <c r="A336" s="24"/>
+      <c r="A336" s="23"/>
       <c r="B336" s="20"/>
       <c r="C336" s="20"/>
       <c r="D336" s="20"/>
@@ -39059,7 +39058,7 @@
       <c r="Z336" s="20"/>
     </row>
     <row r="337">
-      <c r="A337" s="24"/>
+      <c r="A337" s="23"/>
       <c r="B337" s="20"/>
       <c r="C337" s="20"/>
       <c r="D337" s="20"/>
@@ -39087,7 +39086,7 @@
       <c r="Z337" s="20"/>
     </row>
     <row r="338">
-      <c r="A338" s="24"/>
+      <c r="A338" s="23"/>
       <c r="B338" s="20"/>
       <c r="C338" s="20"/>
       <c r="D338" s="20"/>
@@ -39115,7 +39114,7 @@
       <c r="Z338" s="20"/>
     </row>
     <row r="339">
-      <c r="A339" s="24"/>
+      <c r="A339" s="23"/>
       <c r="B339" s="20"/>
       <c r="C339" s="20"/>
       <c r="D339" s="20"/>
@@ -39143,7 +39142,7 @@
       <c r="Z339" s="20"/>
     </row>
     <row r="340">
-      <c r="A340" s="24"/>
+      <c r="A340" s="23"/>
       <c r="B340" s="20"/>
       <c r="C340" s="20"/>
       <c r="D340" s="20"/>
@@ -39171,7 +39170,7 @@
       <c r="Z340" s="20"/>
     </row>
     <row r="341">
-      <c r="A341" s="24"/>
+      <c r="A341" s="23"/>
       <c r="B341" s="20"/>
       <c r="C341" s="20"/>
       <c r="D341" s="20"/>
@@ -39199,7 +39198,7 @@
       <c r="Z341" s="20"/>
     </row>
     <row r="342">
-      <c r="A342" s="24"/>
+      <c r="A342" s="23"/>
       <c r="B342" s="20"/>
       <c r="C342" s="20"/>
       <c r="D342" s="20"/>
@@ -39227,7 +39226,7 @@
       <c r="Z342" s="20"/>
     </row>
     <row r="343">
-      <c r="A343" s="24"/>
+      <c r="A343" s="23"/>
       <c r="B343" s="20"/>
       <c r="C343" s="20"/>
       <c r="D343" s="20"/>
@@ -39255,7 +39254,7 @@
       <c r="Z343" s="20"/>
     </row>
     <row r="344">
-      <c r="A344" s="24"/>
+      <c r="A344" s="23"/>
       <c r="B344" s="20"/>
       <c r="C344" s="20"/>
       <c r="D344" s="20"/>
@@ -39283,7 +39282,7 @@
       <c r="Z344" s="20"/>
     </row>
     <row r="345">
-      <c r="A345" s="24"/>
+      <c r="A345" s="23"/>
       <c r="B345" s="20"/>
       <c r="C345" s="20"/>
       <c r="D345" s="20"/>
@@ -39311,7 +39310,7 @@
       <c r="Z345" s="20"/>
     </row>
     <row r="346">
-      <c r="A346" s="24"/>
+      <c r="A346" s="23"/>
       <c r="B346" s="20"/>
       <c r="C346" s="20"/>
       <c r="D346" s="20"/>
@@ -39339,7 +39338,7 @@
       <c r="Z346" s="20"/>
     </row>
     <row r="347">
-      <c r="A347" s="24"/>
+      <c r="A347" s="23"/>
       <c r="B347" s="20"/>
       <c r="C347" s="20"/>
       <c r="D347" s="20"/>
@@ -39367,7 +39366,7 @@
       <c r="Z347" s="20"/>
     </row>
     <row r="348">
-      <c r="A348" s="24"/>
+      <c r="A348" s="23"/>
       <c r="B348" s="20"/>
       <c r="C348" s="20"/>
       <c r="D348" s="20"/>
@@ -39395,7 +39394,7 @@
       <c r="Z348" s="20"/>
     </row>
     <row r="349">
-      <c r="A349" s="24"/>
+      <c r="A349" s="23"/>
       <c r="B349" s="20"/>
       <c r="C349" s="20"/>
       <c r="D349" s="20"/>
@@ -39423,7 +39422,7 @@
       <c r="Z349" s="20"/>
     </row>
     <row r="350">
-      <c r="A350" s="24"/>
+      <c r="A350" s="23"/>
       <c r="B350" s="20"/>
       <c r="C350" s="20"/>
       <c r="D350" s="20"/>
@@ -39451,7 +39450,7 @@
       <c r="Z350" s="20"/>
     </row>
     <row r="351">
-      <c r="A351" s="24"/>
+      <c r="A351" s="23"/>
       <c r="B351" s="20"/>
       <c r="C351" s="20"/>
       <c r="D351" s="20"/>
@@ -39479,7 +39478,7 @@
       <c r="Z351" s="20"/>
     </row>
     <row r="352">
-      <c r="A352" s="24"/>
+      <c r="A352" s="23"/>
       <c r="B352" s="20"/>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
@@ -39507,7 +39506,7 @@
       <c r="Z352" s="20"/>
     </row>
     <row r="353">
-      <c r="A353" s="24"/>
+      <c r="A353" s="23"/>
       <c r="B353" s="20"/>
       <c r="C353" s="20"/>
       <c r="D353" s="20"/>
@@ -39535,7 +39534,7 @@
       <c r="Z353" s="20"/>
     </row>
     <row r="354">
-      <c r="A354" s="24"/>
+      <c r="A354" s="23"/>
       <c r="B354" s="20"/>
       <c r="C354" s="20"/>
       <c r="D354" s="20"/>
@@ -39563,7 +39562,7 @@
       <c r="Z354" s="20"/>
     </row>
     <row r="355">
-      <c r="A355" s="24"/>
+      <c r="A355" s="23"/>
       <c r="B355" s="20"/>
       <c r="C355" s="20"/>
       <c r="D355" s="20"/>
@@ -39591,7 +39590,7 @@
       <c r="Z355" s="20"/>
     </row>
     <row r="356">
-      <c r="A356" s="24"/>
+      <c r="A356" s="23"/>
       <c r="B356" s="20"/>
       <c r="C356" s="20"/>
       <c r="D356" s="20"/>
@@ -39619,7 +39618,7 @@
       <c r="Z356" s="20"/>
     </row>
     <row r="357">
-      <c r="A357" s="24"/>
+      <c r="A357" s="23"/>
       <c r="B357" s="20"/>
       <c r="C357" s="20"/>
       <c r="D357" s="20"/>
@@ -39647,7 +39646,7 @@
       <c r="Z357" s="20"/>
     </row>
     <row r="358">
-      <c r="A358" s="24"/>
+      <c r="A358" s="23"/>
       <c r="B358" s="20"/>
       <c r="C358" s="20"/>
       <c r="D358" s="20"/>
@@ -39675,7 +39674,7 @@
       <c r="Z358" s="20"/>
     </row>
     <row r="359">
-      <c r="A359" s="24"/>
+      <c r="A359" s="23"/>
       <c r="B359" s="20"/>
       <c r="C359" s="20"/>
       <c r="D359" s="20"/>
@@ -39703,7 +39702,7 @@
       <c r="Z359" s="20"/>
     </row>
     <row r="360">
-      <c r="A360" s="24"/>
+      <c r="A360" s="23"/>
       <c r="B360" s="20"/>
       <c r="C360" s="20"/>
       <c r="D360" s="20"/>
@@ -39731,7 +39730,7 @@
       <c r="Z360" s="20"/>
     </row>
     <row r="361">
-      <c r="A361" s="24"/>
+      <c r="A361" s="23"/>
       <c r="B361" s="20"/>
       <c r="C361" s="20"/>
       <c r="D361" s="20"/>
@@ -39759,7 +39758,7 @@
       <c r="Z361" s="20"/>
     </row>
     <row r="362">
-      <c r="A362" s="24"/>
+      <c r="A362" s="23"/>
       <c r="B362" s="20"/>
       <c r="C362" s="20"/>
       <c r="D362" s="20"/>
@@ -39787,7 +39786,7 @@
       <c r="Z362" s="20"/>
     </row>
     <row r="363">
-      <c r="A363" s="24"/>
+      <c r="A363" s="23"/>
       <c r="B363" s="20"/>
       <c r="C363" s="20"/>
       <c r="D363" s="20"/>
@@ -39815,7 +39814,7 @@
       <c r="Z363" s="20"/>
     </row>
     <row r="364">
-      <c r="A364" s="24"/>
+      <c r="A364" s="23"/>
       <c r="B364" s="20"/>
       <c r="C364" s="20"/>
       <c r="D364" s="20"/>
@@ -39843,7 +39842,7 @@
       <c r="Z364" s="20"/>
     </row>
     <row r="365">
-      <c r="A365" s="24"/>
+      <c r="A365" s="23"/>
       <c r="B365" s="20"/>
       <c r="C365" s="20"/>
       <c r="D365" s="20"/>
@@ -39871,7 +39870,7 @@
       <c r="Z365" s="20"/>
     </row>
     <row r="366">
-      <c r="A366" s="24"/>
+      <c r="A366" s="23"/>
       <c r="B366" s="20"/>
       <c r="C366" s="20"/>
       <c r="D366" s="20"/>
@@ -39899,7 +39898,7 @@
       <c r="Z366" s="20"/>
     </row>
     <row r="367">
-      <c r="A367" s="24"/>
+      <c r="A367" s="23"/>
       <c r="B367" s="20"/>
       <c r="C367" s="20"/>
       <c r="D367" s="20"/>
@@ -39927,7 +39926,7 @@
       <c r="Z367" s="20"/>
     </row>
     <row r="368">
-      <c r="A368" s="24"/>
+      <c r="A368" s="23"/>
       <c r="B368" s="20"/>
       <c r="C368" s="20"/>
       <c r="D368" s="20"/>
@@ -39955,7 +39954,7 @@
       <c r="Z368" s="20"/>
     </row>
     <row r="369">
-      <c r="A369" s="24"/>
+      <c r="A369" s="23"/>
       <c r="B369" s="20"/>
       <c r="C369" s="20"/>
       <c r="D369" s="20"/>
@@ -39983,7 +39982,7 @@
       <c r="Z369" s="20"/>
     </row>
     <row r="370">
-      <c r="A370" s="24"/>
+      <c r="A370" s="23"/>
       <c r="B370" s="20"/>
       <c r="C370" s="20"/>
       <c r="D370" s="20"/>
@@ -40011,7 +40010,7 @@
       <c r="Z370" s="20"/>
     </row>
     <row r="371">
-      <c r="A371" s="24"/>
+      <c r="A371" s="23"/>
       <c r="B371" s="20"/>
       <c r="C371" s="20"/>
       <c r="D371" s="20"/>
@@ -40039,7 +40038,7 @@
       <c r="Z371" s="20"/>
     </row>
     <row r="372">
-      <c r="A372" s="24"/>
+      <c r="A372" s="23"/>
       <c r="B372" s="20"/>
       <c r="C372" s="20"/>
       <c r="D372" s="20"/>
@@ -40067,7 +40066,7 @@
       <c r="Z372" s="20"/>
     </row>
     <row r="373">
-      <c r="A373" s="24"/>
+      <c r="A373" s="23"/>
       <c r="B373" s="20"/>
       <c r="C373" s="20"/>
       <c r="D373" s="20"/>
@@ -40095,7 +40094,7 @@
       <c r="Z373" s="20"/>
     </row>
     <row r="374">
-      <c r="A374" s="24"/>
+      <c r="A374" s="23"/>
       <c r="B374" s="20"/>
       <c r="C374" s="20"/>
       <c r="D374" s="20"/>
@@ -40123,7 +40122,7 @@
       <c r="Z374" s="20"/>
     </row>
     <row r="375">
-      <c r="A375" s="24"/>
+      <c r="A375" s="23"/>
       <c r="B375" s="20"/>
       <c r="C375" s="20"/>
       <c r="D375" s="20"/>
@@ -40151,7 +40150,7 @@
       <c r="Z375" s="20"/>
     </row>
     <row r="376">
-      <c r="A376" s="24"/>
+      <c r="A376" s="23"/>
       <c r="B376" s="20"/>
       <c r="C376" s="20"/>
       <c r="D376" s="20"/>
@@ -40179,7 +40178,7 @@
       <c r="Z376" s="20"/>
     </row>
     <row r="377">
-      <c r="A377" s="24"/>
+      <c r="A377" s="23"/>
       <c r="B377" s="20"/>
       <c r="C377" s="20"/>
       <c r="D377" s="20"/>
@@ -40207,7 +40206,7 @@
       <c r="Z377" s="20"/>
     </row>
     <row r="378">
-      <c r="A378" s="24"/>
+      <c r="A378" s="23"/>
       <c r="B378" s="20"/>
       <c r="C378" s="20"/>
       <c r="D378" s="20"/>
@@ -40235,7 +40234,7 @@
       <c r="Z378" s="20"/>
     </row>
     <row r="379">
-      <c r="A379" s="24"/>
+      <c r="A379" s="23"/>
       <c r="B379" s="20"/>
       <c r="C379" s="20"/>
       <c r="D379" s="20"/>
@@ -40263,7 +40262,7 @@
       <c r="Z379" s="20"/>
     </row>
     <row r="380">
-      <c r="A380" s="24"/>
+      <c r="A380" s="23"/>
       <c r="B380" s="20"/>
       <c r="C380" s="20"/>
       <c r="D380" s="20"/>
@@ -40291,7 +40290,7 @@
       <c r="Z380" s="20"/>
     </row>
     <row r="381">
-      <c r="A381" s="24"/>
+      <c r="A381" s="23"/>
       <c r="B381" s="20"/>
       <c r="C381" s="20"/>
       <c r="D381" s="20"/>
@@ -40319,7 +40318,7 @@
       <c r="Z381" s="20"/>
     </row>
     <row r="382">
-      <c r="A382" s="24"/>
+      <c r="A382" s="23"/>
       <c r="B382" s="20"/>
       <c r="C382" s="20"/>
       <c r="D382" s="20"/>
@@ -40347,7 +40346,7 @@
       <c r="Z382" s="20"/>
     </row>
     <row r="383">
-      <c r="A383" s="24"/>
+      <c r="A383" s="23"/>
       <c r="B383" s="20"/>
       <c r="C383" s="20"/>
       <c r="D383" s="20"/>
@@ -40375,7 +40374,7 @@
       <c r="Z383" s="20"/>
     </row>
     <row r="384">
-      <c r="A384" s="24"/>
+      <c r="A384" s="23"/>
       <c r="B384" s="20"/>
       <c r="C384" s="20"/>
       <c r="D384" s="20"/>
@@ -40403,7 +40402,7 @@
       <c r="Z384" s="20"/>
     </row>
     <row r="385">
-      <c r="A385" s="24"/>
+      <c r="A385" s="23"/>
       <c r="B385" s="20"/>
       <c r="C385" s="20"/>
       <c r="D385" s="20"/>
@@ -40431,7 +40430,7 @@
       <c r="Z385" s="20"/>
     </row>
     <row r="386">
-      <c r="A386" s="24"/>
+      <c r="A386" s="23"/>
       <c r="B386" s="20"/>
       <c r="C386" s="20"/>
       <c r="D386" s="20"/>
@@ -40459,7 +40458,7 @@
       <c r="Z386" s="20"/>
     </row>
     <row r="387">
-      <c r="A387" s="24"/>
+      <c r="A387" s="23"/>
       <c r="B387" s="20"/>
       <c r="C387" s="20"/>
       <c r="D387" s="20"/>
@@ -40487,7 +40486,7 @@
       <c r="Z387" s="20"/>
     </row>
     <row r="388">
-      <c r="A388" s="24"/>
+      <c r="A388" s="23"/>
       <c r="B388" s="20"/>
       <c r="C388" s="20"/>
       <c r="D388" s="20"/>
@@ -40515,7 +40514,7 @@
       <c r="Z388" s="20"/>
     </row>
     <row r="389">
-      <c r="A389" s="24"/>
+      <c r="A389" s="23"/>
       <c r="B389" s="20"/>
       <c r="C389" s="20"/>
       <c r="D389" s="20"/>
@@ -40543,7 +40542,7 @@
       <c r="Z389" s="20"/>
     </row>
     <row r="390">
-      <c r="A390" s="24"/>
+      <c r="A390" s="23"/>
       <c r="B390" s="20"/>
       <c r="C390" s="20"/>
       <c r="D390" s="20"/>
@@ -40571,7 +40570,7 @@
       <c r="Z390" s="20"/>
     </row>
     <row r="391">
-      <c r="A391" s="24"/>
+      <c r="A391" s="23"/>
       <c r="B391" s="20"/>
       <c r="C391" s="20"/>
       <c r="D391" s="20"/>
@@ -40599,7 +40598,7 @@
       <c r="Z391" s="20"/>
     </row>
     <row r="392">
-      <c r="A392" s="24"/>
+      <c r="A392" s="23"/>
       <c r="B392" s="20"/>
       <c r="C392" s="20"/>
       <c r="D392" s="20"/>
@@ -40627,7 +40626,7 @@
       <c r="Z392" s="20"/>
     </row>
     <row r="393">
-      <c r="A393" s="24"/>
+      <c r="A393" s="23"/>
       <c r="B393" s="20"/>
       <c r="C393" s="20"/>
       <c r="D393" s="20"/>
@@ -40655,7 +40654,7 @@
       <c r="Z393" s="20"/>
     </row>
     <row r="394">
-      <c r="A394" s="24"/>
+      <c r="A394" s="23"/>
       <c r="B394" s="20"/>
       <c r="C394" s="20"/>
       <c r="D394" s="20"/>
@@ -40683,7 +40682,7 @@
       <c r="Z394" s="20"/>
     </row>
     <row r="395">
-      <c r="A395" s="24"/>
+      <c r="A395" s="23"/>
       <c r="B395" s="20"/>
       <c r="C395" s="20"/>
       <c r="D395" s="20"/>
@@ -40711,7 +40710,7 @@
       <c r="Z395" s="20"/>
     </row>
     <row r="396">
-      <c r="A396" s="24"/>
+      <c r="A396" s="23"/>
       <c r="B396" s="20"/>
       <c r="C396" s="20"/>
       <c r="D396" s="20"/>
@@ -40739,7 +40738,7 @@
       <c r="Z396" s="20"/>
     </row>
     <row r="397">
-      <c r="A397" s="24"/>
+      <c r="A397" s="23"/>
       <c r="B397" s="20"/>
       <c r="C397" s="20"/>
       <c r="D397" s="20"/>
@@ -40767,7 +40766,7 @@
       <c r="Z397" s="20"/>
     </row>
     <row r="398">
-      <c r="A398" s="24"/>
+      <c r="A398" s="23"/>
       <c r="B398" s="20"/>
       <c r="C398" s="20"/>
       <c r="D398" s="20"/>
@@ -40795,7 +40794,7 @@
       <c r="Z398" s="20"/>
     </row>
     <row r="399">
-      <c r="A399" s="24"/>
+      <c r="A399" s="23"/>
       <c r="B399" s="20"/>
       <c r="C399" s="20"/>
       <c r="D399" s="20"/>
@@ -40823,7 +40822,7 @@
       <c r="Z399" s="20"/>
     </row>
     <row r="400">
-      <c r="A400" s="24"/>
+      <c r="A400" s="23"/>
       <c r="B400" s="20"/>
       <c r="C400" s="20"/>
       <c r="D400" s="20"/>
@@ -40851,7 +40850,7 @@
       <c r="Z400" s="20"/>
     </row>
     <row r="401">
-      <c r="A401" s="24"/>
+      <c r="A401" s="23"/>
       <c r="B401" s="20"/>
       <c r="C401" s="20"/>
       <c r="D401" s="20"/>
@@ -40879,7 +40878,7 @@
       <c r="Z401" s="20"/>
     </row>
     <row r="402">
-      <c r="A402" s="24"/>
+      <c r="A402" s="23"/>
       <c r="B402" s="20"/>
       <c r="C402" s="20"/>
       <c r="D402" s="20"/>
@@ -40907,7 +40906,7 @@
       <c r="Z402" s="20"/>
     </row>
     <row r="403">
-      <c r="A403" s="24"/>
+      <c r="A403" s="23"/>
       <c r="B403" s="20"/>
       <c r="C403" s="20"/>
       <c r="D403" s="20"/>
@@ -40935,7 +40934,7 @@
       <c r="Z403" s="20"/>
     </row>
     <row r="404">
-      <c r="A404" s="24"/>
+      <c r="A404" s="23"/>
       <c r="B404" s="20"/>
       <c r="C404" s="20"/>
       <c r="D404" s="20"/>
@@ -40963,7 +40962,7 @@
       <c r="Z404" s="20"/>
     </row>
     <row r="405">
-      <c r="A405" s="24"/>
+      <c r="A405" s="23"/>
       <c r="B405" s="20"/>
       <c r="C405" s="20"/>
       <c r="D405" s="20"/>
@@ -40991,7 +40990,7 @@
       <c r="Z405" s="20"/>
     </row>
     <row r="406">
-      <c r="A406" s="24"/>
+      <c r="A406" s="23"/>
       <c r="B406" s="20"/>
       <c r="C406" s="20"/>
       <c r="D406" s="20"/>
@@ -41019,7 +41018,7 @@
       <c r="Z406" s="20"/>
     </row>
     <row r="407">
-      <c r="A407" s="24"/>
+      <c r="A407" s="23"/>
       <c r="B407" s="20"/>
       <c r="C407" s="20"/>
       <c r="D407" s="20"/>
@@ -41047,7 +41046,7 @@
       <c r="Z407" s="20"/>
     </row>
     <row r="408">
-      <c r="A408" s="24"/>
+      <c r="A408" s="23"/>
       <c r="B408" s="20"/>
       <c r="C408" s="20"/>
       <c r="D408" s="20"/>
@@ -41075,7 +41074,7 @@
       <c r="Z408" s="20"/>
     </row>
     <row r="409">
-      <c r="A409" s="24"/>
+      <c r="A409" s="23"/>
       <c r="B409" s="20"/>
       <c r="C409" s="20"/>
       <c r="D409" s="20"/>
@@ -41103,7 +41102,7 @@
       <c r="Z409" s="20"/>
     </row>
     <row r="410">
-      <c r="A410" s="24"/>
+      <c r="A410" s="23"/>
       <c r="B410" s="20"/>
       <c r="C410" s="20"/>
       <c r="D410" s="20"/>
@@ -41131,7 +41130,7 @@
       <c r="Z410" s="20"/>
     </row>
     <row r="411">
-      <c r="A411" s="24"/>
+      <c r="A411" s="23"/>
       <c r="B411" s="20"/>
       <c r="C411" s="20"/>
       <c r="D411" s="20"/>
@@ -41159,7 +41158,7 @@
       <c r="Z411" s="20"/>
     </row>
     <row r="412">
-      <c r="A412" s="24"/>
+      <c r="A412" s="23"/>
       <c r="B412" s="20"/>
       <c r="C412" s="20"/>
       <c r="D412" s="20"/>
@@ -41187,7 +41186,7 @@
       <c r="Z412" s="20"/>
     </row>
     <row r="413">
-      <c r="A413" s="24"/>
+      <c r="A413" s="23"/>
       <c r="B413" s="20"/>
       <c r="C413" s="20"/>
       <c r="D413" s="20"/>
@@ -41215,7 +41214,7 @@
       <c r="Z413" s="20"/>
     </row>
     <row r="414">
-      <c r="A414" s="24"/>
+      <c r="A414" s="23"/>
       <c r="B414" s="20"/>
       <c r="C414" s="20"/>
       <c r="D414" s="20"/>
@@ -41243,7 +41242,7 @@
       <c r="Z414" s="20"/>
     </row>
     <row r="415">
-      <c r="A415" s="24"/>
+      <c r="A415" s="23"/>
       <c r="B415" s="20"/>
       <c r="C415" s="20"/>
       <c r="D415" s="20"/>
@@ -41271,7 +41270,7 @@
       <c r="Z415" s="20"/>
     </row>
     <row r="416">
-      <c r="A416" s="24"/>
+      <c r="A416" s="23"/>
       <c r="B416" s="20"/>
       <c r="C416" s="20"/>
       <c r="D416" s="20"/>
@@ -41299,7 +41298,7 @@
       <c r="Z416" s="20"/>
     </row>
     <row r="417">
-      <c r="A417" s="24"/>
+      <c r="A417" s="23"/>
       <c r="B417" s="20"/>
       <c r="C417" s="20"/>
       <c r="D417" s="20"/>
@@ -41327,7 +41326,7 @@
       <c r="Z417" s="20"/>
     </row>
     <row r="418">
-      <c r="A418" s="24"/>
+      <c r="A418" s="23"/>
       <c r="B418" s="20"/>
       <c r="C418" s="20"/>
       <c r="D418" s="20"/>
@@ -41355,7 +41354,7 @@
       <c r="Z418" s="20"/>
     </row>
     <row r="419">
-      <c r="A419" s="24"/>
+      <c r="A419" s="23"/>
       <c r="B419" s="20"/>
       <c r="C419" s="20"/>
       <c r="D419" s="20"/>
@@ -41383,7 +41382,7 @@
       <c r="Z419" s="20"/>
     </row>
     <row r="420">
-      <c r="A420" s="24"/>
+      <c r="A420" s="23"/>
       <c r="B420" s="20"/>
       <c r="C420" s="20"/>
       <c r="D420" s="20"/>
@@ -41411,7 +41410,7 @@
       <c r="Z420" s="20"/>
     </row>
     <row r="421">
-      <c r="A421" s="24"/>
+      <c r="A421" s="23"/>
       <c r="B421" s="20"/>
       <c r="C421" s="20"/>
       <c r="D421" s="20"/>
@@ -41439,7 +41438,7 @@
       <c r="Z421" s="20"/>
     </row>
     <row r="422">
-      <c r="A422" s="24"/>
+      <c r="A422" s="23"/>
       <c r="B422" s="20"/>
       <c r="C422" s="20"/>
       <c r="D422" s="20"/>
@@ -41467,7 +41466,7 @@
       <c r="Z422" s="20"/>
     </row>
     <row r="423">
-      <c r="A423" s="24"/>
+      <c r="A423" s="23"/>
       <c r="B423" s="20"/>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
@@ -41495,7 +41494,7 @@
       <c r="Z423" s="20"/>
     </row>
     <row r="424">
-      <c r="A424" s="24"/>
+      <c r="A424" s="23"/>
       <c r="B424" s="20"/>
       <c r="C424" s="20"/>
       <c r="D424" s="20"/>
@@ -41523,7 +41522,7 @@
       <c r="Z424" s="20"/>
     </row>
     <row r="425">
-      <c r="A425" s="24"/>
+      <c r="A425" s="23"/>
       <c r="B425" s="20"/>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
@@ -41551,7 +41550,7 @@
       <c r="Z425" s="20"/>
     </row>
     <row r="426">
-      <c r="A426" s="24"/>
+      <c r="A426" s="23"/>
       <c r="B426" s="20"/>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
@@ -41579,7 +41578,7 @@
       <c r="Z426" s="20"/>
     </row>
     <row r="427">
-      <c r="A427" s="24"/>
+      <c r="A427" s="23"/>
       <c r="B427" s="20"/>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
@@ -41607,7 +41606,7 @@
       <c r="Z427" s="20"/>
     </row>
     <row r="428">
-      <c r="A428" s="24"/>
+      <c r="A428" s="23"/>
       <c r="B428" s="20"/>
       <c r="C428" s="20"/>
       <c r="D428" s="20"/>
@@ -41635,7 +41634,7 @@
       <c r="Z428" s="20"/>
     </row>
     <row r="429">
-      <c r="A429" s="24"/>
+      <c r="A429" s="23"/>
       <c r="B429" s="20"/>
       <c r="C429" s="20"/>
       <c r="D429" s="20"/>
@@ -41663,7 +41662,7 @@
       <c r="Z429" s="20"/>
     </row>
     <row r="430">
-      <c r="A430" s="24"/>
+      <c r="A430" s="23"/>
       <c r="B430" s="20"/>
       <c r="C430" s="20"/>
       <c r="D430" s="20"/>
@@ -41691,7 +41690,7 @@
       <c r="Z430" s="20"/>
     </row>
     <row r="431">
-      <c r="A431" s="24"/>
+      <c r="A431" s="23"/>
       <c r="B431" s="20"/>
       <c r="C431" s="20"/>
       <c r="D431" s="20"/>
@@ -41719,7 +41718,7 @@
       <c r="Z431" s="20"/>
     </row>
     <row r="432">
-      <c r="A432" s="24"/>
+      <c r="A432" s="23"/>
       <c r="B432" s="20"/>
       <c r="C432" s="20"/>
       <c r="D432" s="20"/>
@@ -41747,7 +41746,7 @@
       <c r="Z432" s="20"/>
     </row>
     <row r="433">
-      <c r="A433" s="24"/>
+      <c r="A433" s="23"/>
       <c r="B433" s="20"/>
       <c r="C433" s="20"/>
       <c r="D433" s="20"/>
@@ -41775,7 +41774,7 @@
       <c r="Z433" s="20"/>
     </row>
     <row r="434">
-      <c r="A434" s="24"/>
+      <c r="A434" s="23"/>
       <c r="B434" s="20"/>
       <c r="C434" s="20"/>
       <c r="D434" s="20"/>
@@ -41803,7 +41802,7 @@
       <c r="Z434" s="20"/>
     </row>
     <row r="435">
-      <c r="A435" s="24"/>
+      <c r="A435" s="23"/>
       <c r="B435" s="20"/>
       <c r="C435" s="20"/>
       <c r="D435" s="20"/>
@@ -41831,7 +41830,7 @@
       <c r="Z435" s="20"/>
     </row>
     <row r="436">
-      <c r="A436" s="24"/>
+      <c r="A436" s="23"/>
       <c r="B436" s="20"/>
       <c r="C436" s="20"/>
       <c r="D436" s="20"/>
@@ -41859,7 +41858,7 @@
       <c r="Z436" s="20"/>
     </row>
     <row r="437">
-      <c r="A437" s="24"/>
+      <c r="A437" s="23"/>
       <c r="B437" s="20"/>
       <c r="C437" s="20"/>
       <c r="D437" s="20"/>
@@ -41887,7 +41886,7 @@
       <c r="Z437" s="20"/>
     </row>
     <row r="438">
-      <c r="A438" s="24"/>
+      <c r="A438" s="23"/>
       <c r="B438" s="20"/>
       <c r="C438" s="20"/>
       <c r="D438" s="20"/>
@@ -41915,7 +41914,7 @@
       <c r="Z438" s="20"/>
     </row>
     <row r="439">
-      <c r="A439" s="24"/>
+      <c r="A439" s="23"/>
       <c r="B439" s="20"/>
       <c r="C439" s="20"/>
       <c r="D439" s="20"/>
@@ -41943,7 +41942,7 @@
       <c r="Z439" s="20"/>
     </row>
     <row r="440">
-      <c r="A440" s="24"/>
+      <c r="A440" s="23"/>
       <c r="B440" s="20"/>
       <c r="C440" s="20"/>
       <c r="D440" s="20"/>
@@ -41971,7 +41970,7 @@
       <c r="Z440" s="20"/>
     </row>
     <row r="441">
-      <c r="A441" s="24"/>
+      <c r="A441" s="23"/>
       <c r="B441" s="20"/>
       <c r="C441" s="20"/>
       <c r="D441" s="20"/>
@@ -41999,7 +41998,7 @@
       <c r="Z441" s="20"/>
     </row>
     <row r="442">
-      <c r="A442" s="24"/>
+      <c r="A442" s="23"/>
       <c r="B442" s="20"/>
       <c r="C442" s="20"/>
       <c r="D442" s="20"/>
@@ -42027,7 +42026,7 @@
       <c r="Z442" s="20"/>
     </row>
     <row r="443">
-      <c r="A443" s="24"/>
+      <c r="A443" s="23"/>
       <c r="B443" s="20"/>
       <c r="C443" s="20"/>
       <c r="D443" s="20"/>
@@ -42055,7 +42054,7 @@
       <c r="Z443" s="20"/>
     </row>
     <row r="444">
-      <c r="A444" s="24"/>
+      <c r="A444" s="23"/>
       <c r="B444" s="20"/>
       <c r="C444" s="20"/>
       <c r="D444" s="20"/>
@@ -42083,7 +42082,7 @@
       <c r="Z444" s="20"/>
     </row>
     <row r="445">
-      <c r="A445" s="24"/>
+      <c r="A445" s="23"/>
       <c r="B445" s="20"/>
       <c r="C445" s="20"/>
       <c r="D445" s="20"/>
@@ -42111,7 +42110,7 @@
       <c r="Z445" s="20"/>
     </row>
     <row r="446">
-      <c r="A446" s="24"/>
+      <c r="A446" s="23"/>
       <c r="B446" s="20"/>
       <c r="C446" s="20"/>
       <c r="D446" s="20"/>
@@ -42139,7 +42138,7 @@
       <c r="Z446" s="20"/>
     </row>
     <row r="447">
-      <c r="A447" s="24"/>
+      <c r="A447" s="23"/>
       <c r="B447" s="20"/>
       <c r="C447" s="20"/>
       <c r="D447" s="20"/>
@@ -42167,7 +42166,7 @@
       <c r="Z447" s="20"/>
     </row>
     <row r="448">
-      <c r="A448" s="24"/>
+      <c r="A448" s="23"/>
       <c r="B448" s="20"/>
       <c r="C448" s="20"/>
       <c r="D448" s="20"/>
@@ -42195,7 +42194,7 @@
       <c r="Z448" s="20"/>
     </row>
     <row r="449">
-      <c r="A449" s="24"/>
+      <c r="A449" s="23"/>
       <c r="B449" s="20"/>
       <c r="C449" s="20"/>
       <c r="D449" s="20"/>
@@ -42223,7 +42222,7 @@
       <c r="Z449" s="20"/>
     </row>
     <row r="450">
-      <c r="A450" s="24"/>
+      <c r="A450" s="23"/>
       <c r="B450" s="20"/>
       <c r="C450" s="20"/>
       <c r="D450" s="20"/>
@@ -42251,7 +42250,7 @@
       <c r="Z450" s="20"/>
     </row>
     <row r="451">
-      <c r="A451" s="24"/>
+      <c r="A451" s="23"/>
       <c r="B451" s="20"/>
       <c r="C451" s="20"/>
       <c r="D451" s="20"/>
@@ -42279,7 +42278,7 @@
       <c r="Z451" s="20"/>
     </row>
     <row r="452">
-      <c r="A452" s="24"/>
+      <c r="A452" s="23"/>
       <c r="B452" s="20"/>
       <c r="C452" s="20"/>
       <c r="D452" s="20"/>
@@ -42307,7 +42306,7 @@
       <c r="Z452" s="20"/>
     </row>
     <row r="453">
-      <c r="A453" s="24"/>
+      <c r="A453" s="23"/>
       <c r="B453" s="20"/>
       <c r="C453" s="20"/>
       <c r="D453" s="20"/>
@@ -42335,7 +42334,7 @@
       <c r="Z453" s="20"/>
     </row>
     <row r="454">
-      <c r="A454" s="24"/>
+      <c r="A454" s="23"/>
       <c r="B454" s="20"/>
       <c r="C454" s="20"/>
       <c r="D454" s="20"/>
@@ -42363,7 +42362,7 @@
       <c r="Z454" s="20"/>
     </row>
     <row r="455">
-      <c r="A455" s="24"/>
+      <c r="A455" s="23"/>
       <c r="B455" s="20"/>
       <c r="C455" s="20"/>
       <c r="D455" s="20"/>
@@ -42391,7 +42390,7 @@
       <c r="Z455" s="20"/>
     </row>
     <row r="456">
-      <c r="A456" s="24"/>
+      <c r="A456" s="23"/>
       <c r="B456" s="20"/>
       <c r="C456" s="20"/>
       <c r="D456" s="20"/>
@@ -42419,7 +42418,7 @@
       <c r="Z456" s="20"/>
     </row>
     <row r="457">
-      <c r="A457" s="24"/>
+      <c r="A457" s="23"/>
       <c r="B457" s="20"/>
       <c r="C457" s="20"/>
       <c r="D457" s="20"/>
@@ -42447,7 +42446,7 @@
       <c r="Z457" s="20"/>
     </row>
     <row r="458">
-      <c r="A458" s="24"/>
+      <c r="A458" s="23"/>
       <c r="B458" s="20"/>
       <c r="C458" s="20"/>
       <c r="D458" s="20"/>
@@ -42475,7 +42474,7 @@
       <c r="Z458" s="20"/>
     </row>
     <row r="459">
-      <c r="A459" s="24"/>
+      <c r="A459" s="23"/>
       <c r="B459" s="20"/>
       <c r="C459" s="20"/>
       <c r="D459" s="20"/>
@@ -42503,7 +42502,7 @@
       <c r="Z459" s="20"/>
     </row>
     <row r="460">
-      <c r="A460" s="24"/>
+      <c r="A460" s="23"/>
       <c r="B460" s="20"/>
       <c r="C460" s="20"/>
       <c r="D460" s="20"/>
@@ -42531,7 +42530,7 @@
       <c r="Z460" s="20"/>
     </row>
     <row r="461">
-      <c r="A461" s="24"/>
+      <c r="A461" s="23"/>
       <c r="B461" s="20"/>
       <c r="C461" s="20"/>
       <c r="D461" s="20"/>
@@ -42559,7 +42558,7 @@
       <c r="Z461" s="20"/>
     </row>
     <row r="462">
-      <c r="A462" s="24"/>
+      <c r="A462" s="23"/>
       <c r="B462" s="20"/>
       <c r="C462" s="20"/>
       <c r="D462" s="20"/>
@@ -42587,7 +42586,7 @@
       <c r="Z462" s="20"/>
     </row>
     <row r="463">
-      <c r="A463" s="24"/>
+      <c r="A463" s="23"/>
       <c r="B463" s="20"/>
       <c r="C463" s="20"/>
       <c r="D463" s="20"/>
@@ -42615,7 +42614,7 @@
       <c r="Z463" s="20"/>
     </row>
     <row r="464">
-      <c r="A464" s="24"/>
+      <c r="A464" s="23"/>
       <c r="B464" s="20"/>
       <c r="C464" s="20"/>
       <c r="D464" s="20"/>
@@ -42643,7 +42642,7 @@
       <c r="Z464" s="20"/>
     </row>
     <row r="465">
-      <c r="A465" s="24"/>
+      <c r="A465" s="23"/>
       <c r="B465" s="20"/>
       <c r="C465" s="20"/>
       <c r="D465" s="20"/>
@@ -42671,7 +42670,7 @@
       <c r="Z465" s="20"/>
     </row>
     <row r="466">
-      <c r="A466" s="24"/>
+      <c r="A466" s="23"/>
       <c r="B466" s="20"/>
       <c r="C466" s="20"/>
       <c r="D466" s="20"/>
@@ -42699,7 +42698,7 @@
       <c r="Z466" s="20"/>
     </row>
     <row r="467">
-      <c r="A467" s="24"/>
+      <c r="A467" s="23"/>
       <c r="B467" s="20"/>
       <c r="C467" s="20"/>
       <c r="D467" s="20"/>
@@ -42727,7 +42726,7 @@
       <c r="Z467" s="20"/>
     </row>
     <row r="468">
-      <c r="A468" s="24"/>
+      <c r="A468" s="23"/>
       <c r="B468" s="20"/>
       <c r="C468" s="20"/>
       <c r="D468" s="20"/>
@@ -42755,7 +42754,7 @@
       <c r="Z468" s="20"/>
     </row>
     <row r="469">
-      <c r="A469" s="24"/>
+      <c r="A469" s="23"/>
       <c r="B469" s="20"/>
       <c r="C469" s="20"/>
       <c r="D469" s="20"/>
@@ -42783,7 +42782,7 @@
       <c r="Z469" s="20"/>
     </row>
     <row r="470">
-      <c r="A470" s="24"/>
+      <c r="A470" s="23"/>
       <c r="B470" s="20"/>
       <c r="C470" s="20"/>
       <c r="D470" s="20"/>
@@ -42811,7 +42810,7 @@
       <c r="Z470" s="20"/>
     </row>
     <row r="471">
-      <c r="A471" s="24"/>
+      <c r="A471" s="23"/>
       <c r="B471" s="20"/>
       <c r="C471" s="20"/>
       <c r="D471" s="20"/>
@@ -42839,7 +42838,7 @@
       <c r="Z471" s="20"/>
     </row>
     <row r="472">
-      <c r="A472" s="24"/>
+      <c r="A472" s="23"/>
       <c r="B472" s="20"/>
       <c r="C472" s="20"/>
       <c r="D472" s="20"/>
@@ -42867,7 +42866,7 @@
       <c r="Z472" s="20"/>
     </row>
     <row r="473">
-      <c r="A473" s="24"/>
+      <c r="A473" s="23"/>
       <c r="B473" s="20"/>
       <c r="C473" s="20"/>
       <c r="D473" s="20"/>
@@ -42895,7 +42894,7 @@
       <c r="Z473" s="20"/>
     </row>
     <row r="474">
-      <c r="A474" s="24"/>
+      <c r="A474" s="23"/>
       <c r="B474" s="20"/>
       <c r="C474" s="20"/>
       <c r="D474" s="20"/>
@@ -42923,7 +42922,7 @@
       <c r="Z474" s="20"/>
     </row>
     <row r="475">
-      <c r="A475" s="24"/>
+      <c r="A475" s="23"/>
       <c r="B475" s="20"/>
       <c r="C475" s="20"/>
       <c r="D475" s="20"/>
@@ -42951,7 +42950,7 @@
       <c r="Z475" s="20"/>
     </row>
     <row r="476">
-      <c r="A476" s="24"/>
+      <c r="A476" s="23"/>
       <c r="B476" s="20"/>
       <c r="C476" s="20"/>
       <c r="D476" s="20"/>
@@ -42979,7 +42978,7 @@
       <c r="Z476" s="20"/>
     </row>
     <row r="477">
-      <c r="A477" s="24"/>
+      <c r="A477" s="23"/>
       <c r="B477" s="20"/>
       <c r="C477" s="20"/>
       <c r="D477" s="20"/>
@@ -43007,7 +43006,7 @@
       <c r="Z477" s="20"/>
     </row>
     <row r="478">
-      <c r="A478" s="24"/>
+      <c r="A478" s="23"/>
       <c r="B478" s="20"/>
       <c r="C478" s="20"/>
       <c r="D478" s="20"/>
@@ -43035,7 +43034,7 @@
       <c r="Z478" s="20"/>
     </row>
     <row r="479">
-      <c r="A479" s="24"/>
+      <c r="A479" s="23"/>
       <c r="B479" s="20"/>
       <c r="C479" s="20"/>
       <c r="D479" s="20"/>
@@ -43063,7 +43062,7 @@
       <c r="Z479" s="20"/>
     </row>
     <row r="480">
-      <c r="A480" s="24"/>
+      <c r="A480" s="23"/>
       <c r="B480" s="20"/>
       <c r="C480" s="20"/>
       <c r="D480" s="20"/>
@@ -43091,7 +43090,7 @@
       <c r="Z480" s="20"/>
     </row>
     <row r="481">
-      <c r="A481" s="24"/>
+      <c r="A481" s="23"/>
       <c r="B481" s="20"/>
       <c r="C481" s="20"/>
       <c r="D481" s="20"/>
@@ -43119,7 +43118,7 @@
       <c r="Z481" s="20"/>
     </row>
     <row r="482">
-      <c r="A482" s="24"/>
+      <c r="A482" s="23"/>
       <c r="B482" s="20"/>
       <c r="C482" s="20"/>
       <c r="D482" s="20"/>
@@ -43147,7 +43146,7 @@
       <c r="Z482" s="20"/>
     </row>
     <row r="483">
-      <c r="A483" s="24"/>
+      <c r="A483" s="23"/>
       <c r="B483" s="20"/>
       <c r="C483" s="20"/>
       <c r="D483" s="20"/>
@@ -43175,7 +43174,7 @@
       <c r="Z483" s="20"/>
     </row>
     <row r="484">
-      <c r="A484" s="24"/>
+      <c r="A484" s="23"/>
       <c r="B484" s="20"/>
       <c r="C484" s="20"/>
       <c r="D484" s="20"/>
@@ -43203,7 +43202,7 @@
       <c r="Z484" s="20"/>
     </row>
     <row r="485">
-      <c r="A485" s="24"/>
+      <c r="A485" s="23"/>
       <c r="B485" s="20"/>
       <c r="C485" s="20"/>
       <c r="D485" s="20"/>
@@ -43231,7 +43230,7 @@
       <c r="Z485" s="20"/>
     </row>
     <row r="486">
-      <c r="A486" s="24"/>
+      <c r="A486" s="23"/>
       <c r="B486" s="20"/>
       <c r="C486" s="20"/>
       <c r="D486" s="20"/>
@@ -43259,7 +43258,7 @@
       <c r="Z486" s="20"/>
     </row>
     <row r="487">
-      <c r="A487" s="24"/>
+      <c r="A487" s="23"/>
       <c r="B487" s="20"/>
       <c r="C487" s="20"/>
       <c r="D487" s="20"/>
@@ -43287,7 +43286,7 @@
       <c r="Z487" s="20"/>
     </row>
     <row r="488">
-      <c r="A488" s="24"/>
+      <c r="A488" s="23"/>
       <c r="B488" s="20"/>
       <c r="C488" s="20"/>
       <c r="D488" s="20"/>
@@ -43315,7 +43314,7 @@
       <c r="Z488" s="20"/>
     </row>
     <row r="489">
-      <c r="A489" s="24"/>
+      <c r="A489" s="23"/>
       <c r="B489" s="20"/>
       <c r="C489" s="20"/>
       <c r="D489" s="20"/>
@@ -43343,7 +43342,7 @@
       <c r="Z489" s="20"/>
     </row>
     <row r="490">
-      <c r="A490" s="24"/>
+      <c r="A490" s="23"/>
       <c r="B490" s="20"/>
       <c r="C490" s="20"/>
       <c r="D490" s="20"/>
@@ -43371,7 +43370,7 @@
       <c r="Z490" s="20"/>
     </row>
     <row r="491">
-      <c r="A491" s="24"/>
+      <c r="A491" s="23"/>
       <c r="B491" s="20"/>
       <c r="C491" s="20"/>
       <c r="D491" s="20"/>
@@ -43399,7 +43398,7 @@
       <c r="Z491" s="20"/>
     </row>
     <row r="492">
-      <c r="A492" s="24"/>
+      <c r="A492" s="23"/>
       <c r="B492" s="20"/>
       <c r="C492" s="20"/>
       <c r="D492" s="20"/>
@@ -43427,7 +43426,7 @@
       <c r="Z492" s="20"/>
     </row>
     <row r="493">
-      <c r="A493" s="24"/>
+      <c r="A493" s="23"/>
       <c r="B493" s="20"/>
       <c r="C493" s="20"/>
       <c r="D493" s="20"/>
@@ -43455,7 +43454,7 @@
       <c r="Z493" s="20"/>
     </row>
     <row r="494">
-      <c r="A494" s="24"/>
+      <c r="A494" s="23"/>
       <c r="B494" s="20"/>
       <c r="C494" s="20"/>
       <c r="D494" s="20"/>
@@ -43483,7 +43482,7 @@
       <c r="Z494" s="20"/>
     </row>
     <row r="495">
-      <c r="A495" s="24"/>
+      <c r="A495" s="23"/>
       <c r="B495" s="20"/>
       <c r="C495" s="20"/>
       <c r="D495" s="20"/>
@@ -43511,7 +43510,7 @@
       <c r="Z495" s="20"/>
     </row>
     <row r="496">
-      <c r="A496" s="24"/>
+      <c r="A496" s="23"/>
       <c r="B496" s="20"/>
       <c r="C496" s="20"/>
       <c r="D496" s="20"/>
@@ -43539,7 +43538,7 @@
       <c r="Z496" s="20"/>
     </row>
     <row r="497">
-      <c r="A497" s="24"/>
+      <c r="A497" s="23"/>
       <c r="B497" s="20"/>
       <c r="C497" s="20"/>
       <c r="D497" s="20"/>
@@ -43567,7 +43566,7 @@
       <c r="Z497" s="20"/>
     </row>
     <row r="498">
-      <c r="A498" s="24"/>
+      <c r="A498" s="23"/>
       <c r="B498" s="20"/>
       <c r="C498" s="20"/>
       <c r="D498" s="20"/>
@@ -43595,7 +43594,7 @@
       <c r="Z498" s="20"/>
     </row>
     <row r="499">
-      <c r="A499" s="24"/>
+      <c r="A499" s="23"/>
       <c r="B499" s="20"/>
       <c r="C499" s="20"/>
       <c r="D499" s="20"/>
@@ -43623,7 +43622,7 @@
       <c r="Z499" s="20"/>
     </row>
     <row r="500">
-      <c r="A500" s="24"/>
+      <c r="A500" s="23"/>
       <c r="B500" s="20"/>
       <c r="C500" s="20"/>
       <c r="D500" s="20"/>
@@ -43651,7 +43650,7 @@
       <c r="Z500" s="20"/>
     </row>
     <row r="501">
-      <c r="A501" s="24"/>
+      <c r="A501" s="23"/>
       <c r="B501" s="20"/>
       <c r="C501" s="20"/>
       <c r="D501" s="20"/>
@@ -43679,7 +43678,7 @@
       <c r="Z501" s="20"/>
     </row>
     <row r="502">
-      <c r="A502" s="24"/>
+      <c r="A502" s="23"/>
       <c r="B502" s="20"/>
       <c r="C502" s="20"/>
       <c r="D502" s="20"/>
@@ -43707,7 +43706,7 @@
       <c r="Z502" s="20"/>
     </row>
     <row r="503">
-      <c r="A503" s="24"/>
+      <c r="A503" s="23"/>
       <c r="B503" s="20"/>
       <c r="C503" s="20"/>
       <c r="D503" s="20"/>
@@ -43735,7 +43734,7 @@
       <c r="Z503" s="20"/>
     </row>
     <row r="504">
-      <c r="A504" s="24"/>
+      <c r="A504" s="23"/>
       <c r="B504" s="20"/>
       <c r="C504" s="20"/>
       <c r="D504" s="20"/>
@@ -43763,7 +43762,7 @@
       <c r="Z504" s="20"/>
     </row>
     <row r="505">
-      <c r="A505" s="24"/>
+      <c r="A505" s="23"/>
       <c r="B505" s="20"/>
       <c r="C505" s="20"/>
       <c r="D505" s="20"/>
@@ -43791,7 +43790,7 @@
       <c r="Z505" s="20"/>
     </row>
     <row r="506">
-      <c r="A506" s="24"/>
+      <c r="A506" s="23"/>
       <c r="B506" s="20"/>
       <c r="C506" s="20"/>
       <c r="D506" s="20"/>
@@ -43819,7 +43818,7 @@
       <c r="Z506" s="20"/>
     </row>
     <row r="507">
-      <c r="A507" s="24"/>
+      <c r="A507" s="23"/>
       <c r="B507" s="20"/>
       <c r="C507" s="20"/>
       <c r="D507" s="20"/>
@@ -43847,7 +43846,7 @@
       <c r="Z507" s="20"/>
     </row>
     <row r="508">
-      <c r="A508" s="24"/>
+      <c r="A508" s="23"/>
       <c r="B508" s="20"/>
       <c r="C508" s="20"/>
       <c r="D508" s="20"/>
@@ -43875,7 +43874,7 @@
       <c r="Z508" s="20"/>
     </row>
     <row r="509">
-      <c r="A509" s="24"/>
+      <c r="A509" s="23"/>
       <c r="B509" s="20"/>
       <c r="C509" s="20"/>
       <c r="D509" s="20"/>
@@ -43903,7 +43902,7 @@
       <c r="Z509" s="20"/>
     </row>
     <row r="510">
-      <c r="A510" s="24"/>
+      <c r="A510" s="23"/>
       <c r="B510" s="20"/>
       <c r="C510" s="20"/>
       <c r="D510" s="20"/>
@@ -43931,7 +43930,7 @@
       <c r="Z510" s="20"/>
     </row>
     <row r="511">
-      <c r="A511" s="24"/>
+      <c r="A511" s="23"/>
       <c r="B511" s="20"/>
       <c r="C511" s="20"/>
       <c r="D511" s="20"/>
@@ -43959,7 +43958,7 @@
       <c r="Z511" s="20"/>
     </row>
     <row r="512">
-      <c r="A512" s="24"/>
+      <c r="A512" s="23"/>
       <c r="B512" s="20"/>
       <c r="C512" s="20"/>
       <c r="D512" s="20"/>
@@ -43987,7 +43986,7 @@
       <c r="Z512" s="20"/>
     </row>
     <row r="513">
-      <c r="A513" s="24"/>
+      <c r="A513" s="23"/>
       <c r="B513" s="20"/>
       <c r="C513" s="20"/>
       <c r="D513" s="20"/>
@@ -44015,7 +44014,7 @@
       <c r="Z513" s="20"/>
     </row>
     <row r="514">
-      <c r="A514" s="24"/>
+      <c r="A514" s="23"/>
       <c r="B514" s="20"/>
       <c r="C514" s="20"/>
       <c r="D514" s="20"/>
@@ -44043,7 +44042,7 @@
       <c r="Z514" s="20"/>
     </row>
     <row r="515">
-      <c r="A515" s="24"/>
+      <c r="A515" s="23"/>
       <c r="B515" s="20"/>
       <c r="C515" s="20"/>
       <c r="D515" s="20"/>
@@ -44071,7 +44070,7 @@
       <c r="Z515" s="20"/>
     </row>
     <row r="516">
-      <c r="A516" s="24"/>
+      <c r="A516" s="23"/>
       <c r="B516" s="20"/>
       <c r="C516" s="20"/>
       <c r="D516" s="20"/>
@@ -44099,7 +44098,7 @@
       <c r="Z516" s="20"/>
     </row>
     <row r="517">
-      <c r="A517" s="24"/>
+      <c r="A517" s="23"/>
       <c r="B517" s="20"/>
       <c r="C517" s="20"/>
       <c r="D517" s="20"/>
@@ -44127,7 +44126,7 @@
       <c r="Z517" s="20"/>
     </row>
     <row r="518">
-      <c r="A518" s="24"/>
+      <c r="A518" s="23"/>
       <c r="B518" s="20"/>
       <c r="C518" s="20"/>
       <c r="D518" s="20"/>
@@ -44155,7 +44154,7 @@
       <c r="Z518" s="20"/>
     </row>
     <row r="519">
-      <c r="A519" s="24"/>
+      <c r="A519" s="23"/>
       <c r="B519" s="20"/>
       <c r="C519" s="20"/>
       <c r="D519" s="20"/>
@@ -44183,7 +44182,7 @@
       <c r="Z519" s="20"/>
     </row>
     <row r="520">
-      <c r="A520" s="24"/>
+      <c r="A520" s="23"/>
       <c r="B520" s="20"/>
       <c r="C520" s="20"/>
       <c r="D520" s="20"/>
@@ -44211,7 +44210,7 @@
       <c r="Z520" s="20"/>
     </row>
     <row r="521">
-      <c r="A521" s="24"/>
+      <c r="A521" s="23"/>
       <c r="B521" s="20"/>
       <c r="C521" s="20"/>
       <c r="D521" s="20"/>
@@ -44239,7 +44238,7 @@
       <c r="Z521" s="20"/>
     </row>
     <row r="522">
-      <c r="A522" s="24"/>
+      <c r="A522" s="23"/>
       <c r="B522" s="20"/>
       <c r="C522" s="20"/>
       <c r="D522" s="20"/>
@@ -44267,7 +44266,7 @@
       <c r="Z522" s="20"/>
     </row>
     <row r="523">
-      <c r="A523" s="24"/>
+      <c r="A523" s="23"/>
       <c r="B523" s="20"/>
       <c r="C523" s="20"/>
       <c r="D523" s="20"/>
@@ -44295,7 +44294,7 @@
       <c r="Z523" s="20"/>
     </row>
     <row r="524">
-      <c r="A524" s="24"/>
+      <c r="A524" s="23"/>
       <c r="B524" s="20"/>
       <c r="C524" s="20"/>
       <c r="D524" s="20"/>
@@ -44323,7 +44322,7 @@
       <c r="Z524" s="20"/>
     </row>
     <row r="525">
-      <c r="A525" s="24"/>
+      <c r="A525" s="23"/>
       <c r="B525" s="20"/>
       <c r="C525" s="20"/>
       <c r="D525" s="20"/>
@@ -44351,7 +44350,7 @@
       <c r="Z525" s="20"/>
     </row>
     <row r="526">
-      <c r="A526" s="24"/>
+      <c r="A526" s="23"/>
       <c r="B526" s="20"/>
       <c r="C526" s="20"/>
       <c r="D526" s="20"/>
@@ -44379,7 +44378,7 @@
       <c r="Z526" s="20"/>
     </row>
     <row r="527">
-      <c r="A527" s="24"/>
+      <c r="A527" s="23"/>
       <c r="B527" s="20"/>
       <c r="C527" s="20"/>
       <c r="D527" s="20"/>
@@ -44407,7 +44406,7 @@
       <c r="Z527" s="20"/>
     </row>
     <row r="528">
-      <c r="A528" s="24"/>
+      <c r="A528" s="23"/>
       <c r="B528" s="20"/>
       <c r="C528" s="20"/>
       <c r="D528" s="20"/>
@@ -44435,7 +44434,7 @@
       <c r="Z528" s="20"/>
     </row>
     <row r="529">
-      <c r="A529" s="24"/>
+      <c r="A529" s="23"/>
       <c r="B529" s="20"/>
       <c r="C529" s="20"/>
       <c r="D529" s="20"/>
@@ -44463,7 +44462,7 @@
       <c r="Z529" s="20"/>
     </row>
     <row r="530">
-      <c r="A530" s="24"/>
+      <c r="A530" s="23"/>
       <c r="B530" s="20"/>
       <c r="C530" s="20"/>
       <c r="D530" s="20"/>
@@ -44491,7 +44490,7 @@
       <c r="Z530" s="20"/>
     </row>
     <row r="531">
-      <c r="A531" s="24"/>
+      <c r="A531" s="23"/>
       <c r="B531" s="20"/>
       <c r="C531" s="20"/>
       <c r="D531" s="20"/>
@@ -44519,7 +44518,7 @@
       <c r="Z531" s="20"/>
     </row>
     <row r="532">
-      <c r="A532" s="24"/>
+      <c r="A532" s="23"/>
       <c r="B532" s="20"/>
       <c r="C532" s="20"/>
       <c r="D532" s="20"/>
@@ -44547,7 +44546,7 @@
       <c r="Z532" s="20"/>
     </row>
     <row r="533">
-      <c r="A533" s="24"/>
+      <c r="A533" s="23"/>
       <c r="B533" s="20"/>
       <c r="C533" s="20"/>
       <c r="D533" s="20"/>
@@ -44575,7 +44574,7 @@
       <c r="Z533" s="20"/>
     </row>
     <row r="534">
-      <c r="A534" s="24"/>
+      <c r="A534" s="23"/>
       <c r="B534" s="20"/>
       <c r="C534" s="20"/>
       <c r="D534" s="20"/>
@@ -44603,7 +44602,7 @@
       <c r="Z534" s="20"/>
     </row>
     <row r="535">
-      <c r="A535" s="24"/>
+      <c r="A535" s="23"/>
       <c r="B535" s="20"/>
       <c r="C535" s="20"/>
       <c r="D535" s="20"/>
@@ -44631,7 +44630,7 @@
       <c r="Z535" s="20"/>
     </row>
     <row r="536">
-      <c r="A536" s="24"/>
+      <c r="A536" s="23"/>
       <c r="B536" s="20"/>
       <c r="C536" s="20"/>
       <c r="D536" s="20"/>
@@ -44659,7 +44658,7 @@
       <c r="Z536" s="20"/>
     </row>
     <row r="537">
-      <c r="A537" s="24"/>
+      <c r="A537" s="23"/>
       <c r="B537" s="20"/>
       <c r="C537" s="20"/>
       <c r="D537" s="20"/>
@@ -44687,7 +44686,7 @@
       <c r="Z537" s="20"/>
     </row>
     <row r="538">
-      <c r="A538" s="24"/>
+      <c r="A538" s="23"/>
       <c r="B538" s="20"/>
       <c r="C538" s="20"/>
       <c r="D538" s="20"/>
@@ -44715,7 +44714,7 @@
       <c r="Z538" s="20"/>
     </row>
     <row r="539">
-      <c r="A539" s="24"/>
+      <c r="A539" s="23"/>
       <c r="B539" s="20"/>
       <c r="C539" s="20"/>
       <c r="D539" s="20"/>
@@ -44743,7 +44742,7 @@
       <c r="Z539" s="20"/>
     </row>
     <row r="540">
-      <c r="A540" s="24"/>
+      <c r="A540" s="23"/>
       <c r="B540" s="20"/>
       <c r="C540" s="20"/>
       <c r="D540" s="20"/>
@@ -44771,7 +44770,7 @@
       <c r="Z540" s="20"/>
     </row>
     <row r="541">
-      <c r="A541" s="24"/>
+      <c r="A541" s="23"/>
       <c r="B541" s="20"/>
       <c r="C541" s="20"/>
       <c r="D541" s="20"/>
@@ -44799,7 +44798,7 @@
       <c r="Z541" s="20"/>
     </row>
     <row r="542">
-      <c r="A542" s="24"/>
+      <c r="A542" s="23"/>
       <c r="B542" s="20"/>
       <c r="C542" s="20"/>
       <c r="D542" s="20"/>
@@ -44827,7 +44826,7 @@
       <c r="Z542" s="20"/>
     </row>
     <row r="543">
-      <c r="A543" s="24"/>
+      <c r="A543" s="23"/>
       <c r="B543" s="20"/>
       <c r="C543" s="20"/>
       <c r="D543" s="20"/>
@@ -44855,7 +44854,7 @@
       <c r="Z543" s="20"/>
     </row>
     <row r="544">
-      <c r="A544" s="24"/>
+      <c r="A544" s="23"/>
       <c r="B544" s="20"/>
       <c r="C544" s="20"/>
       <c r="D544" s="20"/>
@@ -44883,7 +44882,7 @@
       <c r="Z544" s="20"/>
     </row>
     <row r="545">
-      <c r="A545" s="24"/>
+      <c r="A545" s="23"/>
       <c r="B545" s="20"/>
       <c r="C545" s="20"/>
       <c r="D545" s="20"/>
@@ -44911,7 +44910,7 @@
       <c r="Z545" s="20"/>
     </row>
     <row r="546">
-      <c r="A546" s="24"/>
+      <c r="A546" s="23"/>
       <c r="B546" s="20"/>
       <c r="C546" s="20"/>
       <c r="D546" s="20"/>
@@ -44939,7 +44938,7 @@
       <c r="Z546" s="20"/>
     </row>
     <row r="547">
-      <c r="A547" s="24"/>
+      <c r="A547" s="23"/>
       <c r="B547" s="20"/>
       <c r="C547" s="20"/>
       <c r="D547" s="20"/>
@@ -44967,7 +44966,7 @@
       <c r="Z547" s="20"/>
     </row>
     <row r="548">
-      <c r="A548" s="24"/>
+      <c r="A548" s="23"/>
       <c r="B548" s="20"/>
       <c r="C548" s="20"/>
       <c r="D548" s="20"/>
@@ -44995,7 +44994,7 @@
       <c r="Z548" s="20"/>
     </row>
     <row r="549">
-      <c r="A549" s="24"/>
+      <c r="A549" s="23"/>
       <c r="B549" s="20"/>
       <c r="C549" s="20"/>
       <c r="D549" s="20"/>
@@ -45023,7 +45022,7 @@
       <c r="Z549" s="20"/>
     </row>
     <row r="550">
-      <c r="A550" s="24"/>
+      <c r="A550" s="23"/>
       <c r="B550" s="20"/>
       <c r="C550" s="20"/>
       <c r="D550" s="20"/>
@@ -45051,7 +45050,7 @@
       <c r="Z550" s="20"/>
     </row>
     <row r="551">
-      <c r="A551" s="24"/>
+      <c r="A551" s="23"/>
       <c r="B551" s="20"/>
       <c r="C551" s="20"/>
       <c r="D551" s="20"/>
@@ -45079,7 +45078,7 @@
       <c r="Z551" s="20"/>
     </row>
     <row r="552">
-      <c r="A552" s="24"/>
+      <c r="A552" s="23"/>
       <c r="B552" s="20"/>
       <c r="C552" s="20"/>
       <c r="D552" s="20"/>
@@ -45107,7 +45106,7 @@
       <c r="Z552" s="20"/>
     </row>
     <row r="553">
-      <c r="A553" s="24"/>
+      <c r="A553" s="23"/>
       <c r="B553" s="20"/>
       <c r="C553" s="20"/>
       <c r="D553" s="20"/>
@@ -45135,7 +45134,7 @@
       <c r="Z553" s="20"/>
     </row>
     <row r="554">
-      <c r="A554" s="24"/>
+      <c r="A554" s="23"/>
       <c r="B554" s="20"/>
       <c r="C554" s="20"/>
       <c r="D554" s="20"/>
@@ -45163,7 +45162,7 @@
       <c r="Z554" s="20"/>
     </row>
     <row r="555">
-      <c r="A555" s="24"/>
+      <c r="A555" s="23"/>
       <c r="B555" s="20"/>
       <c r="C555" s="20"/>
       <c r="D555" s="20"/>
@@ -45191,7 +45190,7 @@
       <c r="Z555" s="20"/>
     </row>
     <row r="556">
-      <c r="A556" s="24"/>
+      <c r="A556" s="23"/>
       <c r="B556" s="20"/>
       <c r="C556" s="20"/>
       <c r="D556" s="20"/>
@@ -45219,7 +45218,7 @@
       <c r="Z556" s="20"/>
     </row>
     <row r="557">
-      <c r="A557" s="24"/>
+      <c r="A557" s="23"/>
       <c r="B557" s="20"/>
       <c r="C557" s="20"/>
       <c r="D557" s="20"/>
@@ -45247,7 +45246,7 @@
       <c r="Z557" s="20"/>
     </row>
     <row r="558">
-      <c r="A558" s="24"/>
+      <c r="A558" s="23"/>
       <c r="B558" s="20"/>
       <c r="C558" s="20"/>
       <c r="D558" s="20"/>
@@ -45275,7 +45274,7 @@
       <c r="Z558" s="20"/>
     </row>
     <row r="559">
-      <c r="A559" s="24"/>
+      <c r="A559" s="23"/>
       <c r="B559" s="20"/>
       <c r="C559" s="20"/>
       <c r="D559" s="20"/>
@@ -45303,7 +45302,7 @@
       <c r="Z559" s="20"/>
     </row>
     <row r="560">
-      <c r="A560" s="24"/>
+      <c r="A560" s="23"/>
       <c r="B560" s="20"/>
       <c r="C560" s="20"/>
       <c r="D560" s="20"/>
@@ -45331,7 +45330,7 @@
       <c r="Z560" s="20"/>
     </row>
     <row r="561">
-      <c r="A561" s="24"/>
+      <c r="A561" s="23"/>
       <c r="B561" s="20"/>
       <c r="C561" s="20"/>
       <c r="D561" s="20"/>
@@ -45359,7 +45358,7 @@
       <c r="Z561" s="20"/>
     </row>
     <row r="562">
-      <c r="A562" s="24"/>
+      <c r="A562" s="23"/>
       <c r="B562" s="20"/>
       <c r="C562" s="20"/>
       <c r="D562" s="20"/>
@@ -45387,7 +45386,7 @@
       <c r="Z562" s="20"/>
     </row>
     <row r="563">
-      <c r="A563" s="24"/>
+      <c r="A563" s="23"/>
       <c r="B563" s="20"/>
       <c r="C563" s="20"/>
       <c r="D563" s="20"/>
@@ -45415,7 +45414,7 @@
       <c r="Z563" s="20"/>
     </row>
     <row r="564">
-      <c r="A564" s="24"/>
+      <c r="A564" s="23"/>
       <c r="B564" s="20"/>
       <c r="C564" s="20"/>
       <c r="D564" s="20"/>
@@ -45443,7 +45442,7 @@
       <c r="Z564" s="20"/>
     </row>
     <row r="565">
-      <c r="A565" s="24"/>
+      <c r="A565" s="23"/>
       <c r="B565" s="20"/>
       <c r="C565" s="20"/>
       <c r="D565" s="20"/>
@@ -45471,7 +45470,7 @@
       <c r="Z565" s="20"/>
     </row>
     <row r="566">
-      <c r="A566" s="24"/>
+      <c r="A566" s="23"/>
       <c r="B566" s="20"/>
       <c r="C566" s="20"/>
       <c r="D566" s="20"/>
@@ -45499,7 +45498,7 @@
       <c r="Z566" s="20"/>
     </row>
     <row r="567">
-      <c r="A567" s="24"/>
+      <c r="A567" s="23"/>
       <c r="B567" s="20"/>
       <c r="C567" s="20"/>
       <c r="D567" s="20"/>
@@ -45527,7 +45526,7 @@
       <c r="Z567" s="20"/>
     </row>
     <row r="568">
-      <c r="A568" s="24"/>
+      <c r="A568" s="23"/>
       <c r="B568" s="20"/>
       <c r="C568" s="20"/>
       <c r="D568" s="20"/>
@@ -45555,7 +45554,7 @@
       <c r="Z568" s="20"/>
     </row>
     <row r="569">
-      <c r="A569" s="24"/>
+      <c r="A569" s="23"/>
       <c r="B569" s="20"/>
       <c r="C569" s="20"/>
       <c r="D569" s="20"/>
@@ -45583,7 +45582,7 @@
       <c r="Z569" s="20"/>
     </row>
     <row r="570">
-      <c r="A570" s="24"/>
+      <c r="A570" s="23"/>
       <c r="B570" s="20"/>
       <c r="C570" s="20"/>
       <c r="D570" s="20"/>
@@ -45611,7 +45610,7 @@
       <c r="Z570" s="20"/>
     </row>
     <row r="571">
-      <c r="A571" s="24"/>
+      <c r="A571" s="23"/>
       <c r="B571" s="20"/>
       <c r="C571" s="20"/>
       <c r="D571" s="20"/>
@@ -45639,7 +45638,7 @@
       <c r="Z571" s="20"/>
     </row>
     <row r="572">
-      <c r="A572" s="24"/>
+      <c r="A572" s="23"/>
       <c r="B572" s="20"/>
       <c r="C572" s="20"/>
       <c r="D572" s="20"/>
@@ -45667,7 +45666,7 @@
       <c r="Z572" s="20"/>
     </row>
     <row r="573">
-      <c r="A573" s="24"/>
+      <c r="A573" s="23"/>
       <c r="B573" s="20"/>
       <c r="C573" s="20"/>
       <c r="D573" s="20"/>
@@ -45695,7 +45694,7 @@
       <c r="Z573" s="20"/>
     </row>
     <row r="574">
-      <c r="A574" s="24"/>
+      <c r="A574" s="23"/>
       <c r="B574" s="20"/>
       <c r="C574" s="20"/>
       <c r="D574" s="20"/>
@@ -45723,7 +45722,7 @@
       <c r="Z574" s="20"/>
     </row>
     <row r="575">
-      <c r="A575" s="24"/>
+      <c r="A575" s="23"/>
       <c r="B575" s="20"/>
       <c r="C575" s="20"/>
       <c r="D575" s="20"/>
@@ -45751,7 +45750,7 @@
       <c r="Z575" s="20"/>
     </row>
     <row r="576">
-      <c r="A576" s="24"/>
+      <c r="A576" s="23"/>
       <c r="B576" s="20"/>
       <c r="C576" s="20"/>
       <c r="D576" s="20"/>
@@ -45779,7 +45778,7 @@
       <c r="Z576" s="20"/>
     </row>
     <row r="577">
-      <c r="A577" s="24"/>
+      <c r="A577" s="23"/>
       <c r="B577" s="20"/>
       <c r="C577" s="20"/>
       <c r="D577" s="20"/>
@@ -45807,7 +45806,7 @@
       <c r="Z577" s="20"/>
     </row>
     <row r="578">
-      <c r="A578" s="24"/>
+      <c r="A578" s="23"/>
       <c r="B578" s="20"/>
       <c r="C578" s="20"/>
       <c r="D578" s="20"/>
@@ -45835,7 +45834,7 @@
       <c r="Z578" s="20"/>
     </row>
     <row r="579">
-      <c r="A579" s="24"/>
+      <c r="A579" s="23"/>
       <c r="B579" s="20"/>
       <c r="C579" s="20"/>
       <c r="D579" s="20"/>
@@ -45863,7 +45862,7 @@
       <c r="Z579" s="20"/>
     </row>
     <row r="580">
-      <c r="A580" s="24"/>
+      <c r="A580" s="23"/>
       <c r="B580" s="20"/>
       <c r="C580" s="20"/>
       <c r="D580" s="20"/>
@@ -45891,7 +45890,7 @@
       <c r="Z580" s="20"/>
     </row>
     <row r="581">
-      <c r="A581" s="24"/>
+      <c r="A581" s="23"/>
       <c r="B581" s="20"/>
       <c r="C581" s="20"/>
       <c r="D581" s="20"/>
@@ -45919,7 +45918,7 @@
       <c r="Z581" s="20"/>
     </row>
     <row r="582">
-      <c r="A582" s="24"/>
+      <c r="A582" s="23"/>
       <c r="B582" s="20"/>
       <c r="C582" s="20"/>
       <c r="D582" s="20"/>
@@ -45947,7 +45946,7 @@
       <c r="Z582" s="20"/>
     </row>
     <row r="583">
-      <c r="A583" s="24"/>
+      <c r="A583" s="23"/>
       <c r="B583" s="20"/>
       <c r="C583" s="20"/>
       <c r="D583" s="20"/>
@@ -45975,7 +45974,7 @@
       <c r="Z583" s="20"/>
     </row>
     <row r="584">
-      <c r="A584" s="24"/>
+      <c r="A584" s="23"/>
       <c r="B584" s="20"/>
       <c r="C584" s="20"/>
       <c r="D584" s="20"/>
@@ -46003,7 +46002,7 @@
       <c r="Z584" s="20"/>
     </row>
     <row r="585">
-      <c r="A585" s="24"/>
+      <c r="A585" s="23"/>
       <c r="B585" s="20"/>
       <c r="C585" s="20"/>
       <c r="D585" s="20"/>
@@ -46031,7 +46030,7 @@
       <c r="Z585" s="20"/>
     </row>
     <row r="586">
-      <c r="A586" s="24"/>
+      <c r="A586" s="23"/>
       <c r="B586" s="20"/>
       <c r="C586" s="20"/>
       <c r="D586" s="20"/>
@@ -46059,7 +46058,7 @@
       <c r="Z586" s="20"/>
     </row>
     <row r="587">
-      <c r="A587" s="24"/>
+      <c r="A587" s="23"/>
       <c r="B587" s="20"/>
       <c r="C587" s="20"/>
       <c r="D587" s="20"/>
@@ -46087,7 +46086,7 @@
       <c r="Z587" s="20"/>
     </row>
     <row r="588">
-      <c r="A588" s="24"/>
+      <c r="A588" s="23"/>
       <c r="B588" s="20"/>
       <c r="C588" s="20"/>
       <c r="D588" s="20"/>
@@ -46115,7 +46114,7 @@
       <c r="Z588" s="20"/>
     </row>
     <row r="589">
-      <c r="A589" s="24"/>
+      <c r="A589" s="23"/>
       <c r="B589" s="20"/>
       <c r="C589" s="20"/>
       <c r="D589" s="20"/>
@@ -46143,7 +46142,7 @@
       <c r="Z589" s="20"/>
     </row>
     <row r="590">
-      <c r="A590" s="24"/>
+      <c r="A590" s="23"/>
       <c r="B590" s="20"/>
       <c r="C590" s="20"/>
       <c r="D590" s="20"/>
@@ -46171,7 +46170,7 @@
       <c r="Z590" s="20"/>
     </row>
     <row r="591">
-      <c r="A591" s="24"/>
+      <c r="A591" s="23"/>
       <c r="B591" s="20"/>
       <c r="C591" s="20"/>
       <c r="D591" s="20"/>
@@ -46199,7 +46198,7 @@
       <c r="Z591" s="20"/>
     </row>
     <row r="592">
-      <c r="A592" s="24"/>
+      <c r="A592" s="23"/>
       <c r="B592" s="20"/>
       <c r="C592" s="20"/>
       <c r="D592" s="20"/>
@@ -46227,7 +46226,7 @@
       <c r="Z592" s="20"/>
     </row>
     <row r="593">
-      <c r="A593" s="24"/>
+      <c r="A593" s="23"/>
       <c r="B593" s="20"/>
       <c r="C593" s="20"/>
       <c r="D593" s="20"/>
@@ -46255,7 +46254,7 @@
       <c r="Z593" s="20"/>
     </row>
     <row r="594">
-      <c r="A594" s="24"/>
+      <c r="A594" s="23"/>
       <c r="B594" s="20"/>
       <c r="C594" s="20"/>
       <c r="D594" s="20"/>
@@ -46283,7 +46282,7 @@
       <c r="Z594" s="20"/>
     </row>
     <row r="595">
-      <c r="A595" s="24"/>
+      <c r="A595" s="23"/>
       <c r="B595" s="20"/>
       <c r="C595" s="20"/>
       <c r="D595" s="20"/>
@@ -46311,7 +46310,7 @@
       <c r="Z595" s="20"/>
     </row>
     <row r="596">
-      <c r="A596" s="24"/>
+      <c r="A596" s="23"/>
       <c r="B596" s="20"/>
       <c r="C596" s="20"/>
       <c r="D596" s="20"/>
@@ -46339,7 +46338,7 @@
       <c r="Z596" s="20"/>
     </row>
     <row r="597">
-      <c r="A597" s="24"/>
+      <c r="A597" s="23"/>
       <c r="B597" s="20"/>
       <c r="C597" s="20"/>
       <c r="D597" s="20"/>
@@ -46367,7 +46366,7 @@
       <c r="Z597" s="20"/>
     </row>
     <row r="598">
-      <c r="A598" s="24"/>
+      <c r="A598" s="23"/>
       <c r="B598" s="20"/>
       <c r="C598" s="20"/>
       <c r="D598" s="20"/>
@@ -46395,7 +46394,7 @@
       <c r="Z598" s="20"/>
     </row>
     <row r="599">
-      <c r="A599" s="24"/>
+      <c r="A599" s="23"/>
       <c r="B599" s="20"/>
       <c r="C599" s="20"/>
       <c r="D599" s="20"/>
@@ -46423,7 +46422,7 @@
       <c r="Z599" s="20"/>
     </row>
     <row r="600">
-      <c r="A600" s="24"/>
+      <c r="A600" s="23"/>
       <c r="B600" s="20"/>
       <c r="C600" s="20"/>
       <c r="D600" s="20"/>
@@ -46451,7 +46450,7 @@
       <c r="Z600" s="20"/>
     </row>
     <row r="601">
-      <c r="A601" s="24"/>
+      <c r="A601" s="23"/>
       <c r="B601" s="20"/>
       <c r="C601" s="20"/>
       <c r="D601" s="20"/>
@@ -46479,7 +46478,7 @@
       <c r="Z601" s="20"/>
     </row>
     <row r="602">
-      <c r="A602" s="24"/>
+      <c r="A602" s="23"/>
       <c r="B602" s="20"/>
       <c r="C602" s="20"/>
       <c r="D602" s="20"/>
@@ -46507,7 +46506,7 @@
       <c r="Z602" s="20"/>
     </row>
     <row r="603">
-      <c r="A603" s="24"/>
+      <c r="A603" s="23"/>
       <c r="B603" s="20"/>
       <c r="C603" s="20"/>
       <c r="D603" s="20"/>
@@ -46535,7 +46534,7 @@
       <c r="Z603" s="20"/>
     </row>
     <row r="604">
-      <c r="A604" s="24"/>
+      <c r="A604" s="23"/>
       <c r="B604" s="20"/>
       <c r="C604" s="20"/>
       <c r="D604" s="20"/>
@@ -46563,7 +46562,7 @@
       <c r="Z604" s="20"/>
     </row>
     <row r="605">
-      <c r="A605" s="24"/>
+      <c r="A605" s="23"/>
       <c r="B605" s="20"/>
       <c r="C605" s="20"/>
       <c r="D605" s="20"/>
@@ -46591,7 +46590,7 @@
       <c r="Z605" s="20"/>
     </row>
     <row r="606">
-      <c r="A606" s="24"/>
+      <c r="A606" s="23"/>
       <c r="B606" s="20"/>
       <c r="C606" s="20"/>
       <c r="D606" s="20"/>
@@ -46619,7 +46618,7 @@
       <c r="Z606" s="20"/>
     </row>
     <row r="607">
-      <c r="A607" s="24"/>
+      <c r="A607" s="23"/>
       <c r="B607" s="20"/>
       <c r="C607" s="20"/>
       <c r="D607" s="20"/>
@@ -46647,7 +46646,7 @@
       <c r="Z607" s="20"/>
     </row>
     <row r="608">
-      <c r="A608" s="24"/>
+      <c r="A608" s="23"/>
       <c r="B608" s="20"/>
       <c r="C608" s="20"/>
       <c r="D608" s="20"/>
@@ -46675,7 +46674,7 @@
       <c r="Z608" s="20"/>
     </row>
     <row r="609">
-      <c r="A609" s="24"/>
+      <c r="A609" s="23"/>
       <c r="B609" s="20"/>
       <c r="C609" s="20"/>
       <c r="D609" s="20"/>
@@ -46703,7 +46702,7 @@
       <c r="Z609" s="20"/>
     </row>
     <row r="610">
-      <c r="A610" s="24"/>
+      <c r="A610" s="23"/>
       <c r="B610" s="20"/>
       <c r="C610" s="20"/>
       <c r="D610" s="20"/>
@@ -46731,7 +46730,7 @@
       <c r="Z610" s="20"/>
     </row>
     <row r="611">
-      <c r="A611" s="24"/>
+      <c r="A611" s="23"/>
       <c r="B611" s="20"/>
       <c r="C611" s="20"/>
       <c r="D611" s="20"/>
@@ -46759,7 +46758,7 @@
       <c r="Z611" s="20"/>
     </row>
     <row r="612">
-      <c r="A612" s="24"/>
+      <c r="A612" s="23"/>
       <c r="B612" s="20"/>
       <c r="C612" s="20"/>
       <c r="D612" s="20"/>
@@ -46787,7 +46786,7 @@
       <c r="Z612" s="20"/>
     </row>
     <row r="613">
-      <c r="A613" s="24"/>
+      <c r="A613" s="23"/>
       <c r="B613" s="20"/>
       <c r="C613" s="20"/>
       <c r="D613" s="20"/>
@@ -46815,7 +46814,7 @@
       <c r="Z613" s="20"/>
     </row>
     <row r="614">
-      <c r="A614" s="24"/>
+      <c r="A614" s="23"/>
       <c r="B614" s="20"/>
       <c r="C614" s="20"/>
       <c r="D614" s="20"/>
@@ -46843,7 +46842,7 @@
       <c r="Z614" s="20"/>
     </row>
     <row r="615">
-      <c r="A615" s="24"/>
+      <c r="A615" s="23"/>
       <c r="B615" s="20"/>
       <c r="C615" s="20"/>
       <c r="D615" s="20"/>
@@ -46871,7 +46870,7 @@
       <c r="Z615" s="20"/>
     </row>
     <row r="616">
-      <c r="A616" s="24"/>
+      <c r="A616" s="23"/>
       <c r="B616" s="20"/>
       <c r="C616" s="20"/>
       <c r="D616" s="20"/>
@@ -46899,7 +46898,7 @@
       <c r="Z616" s="20"/>
     </row>
     <row r="617">
-      <c r="A617" s="24"/>
+      <c r="A617" s="23"/>
       <c r="B617" s="20"/>
       <c r="C617" s="20"/>
       <c r="D617" s="20"/>
@@ -46927,7 +46926,7 @@
       <c r="Z617" s="20"/>
     </row>
     <row r="618">
-      <c r="A618" s="24"/>
+      <c r="A618" s="23"/>
       <c r="B618" s="20"/>
       <c r="C618" s="20"/>
       <c r="D618" s="20"/>
@@ -46955,7 +46954,7 @@
       <c r="Z618" s="20"/>
     </row>
     <row r="619">
-      <c r="A619" s="24"/>
+      <c r="A619" s="23"/>
       <c r="B619" s="20"/>
       <c r="C619" s="20"/>
       <c r="D619" s="20"/>
@@ -46983,7 +46982,7 @@
       <c r="Z619" s="20"/>
     </row>
     <row r="620">
-      <c r="A620" s="24"/>
+      <c r="A620" s="23"/>
       <c r="B620" s="20"/>
       <c r="C620" s="20"/>
       <c r="D620" s="20"/>
@@ -47011,7 +47010,7 @@
       <c r="Z620" s="20"/>
     </row>
     <row r="621">
-      <c r="A621" s="24"/>
+      <c r="A621" s="23"/>
       <c r="B621" s="20"/>
       <c r="C621" s="20"/>
       <c r="D621" s="20"/>
@@ -47039,7 +47038,7 @@
       <c r="Z621" s="20"/>
     </row>
     <row r="622">
-      <c r="A622" s="24"/>
+      <c r="A622" s="23"/>
       <c r="B622" s="20"/>
       <c r="C622" s="20"/>
       <c r="D622" s="20"/>
@@ -47067,7 +47066,7 @@
       <c r="Z622" s="20"/>
     </row>
     <row r="623">
-      <c r="A623" s="24"/>
+      <c r="A623" s="23"/>
       <c r="B623" s="20"/>
       <c r="C623" s="20"/>
       <c r="D623" s="20"/>
@@ -47095,7 +47094,7 @@
       <c r="Z623" s="20"/>
     </row>
     <row r="624">
-      <c r="A624" s="24"/>
+      <c r="A624" s="23"/>
       <c r="B624" s="20"/>
       <c r="C624" s="20"/>
       <c r="D624" s="20"/>
@@ -47123,7 +47122,7 @@
       <c r="Z624" s="20"/>
     </row>
     <row r="625">
-      <c r="A625" s="24"/>
+      <c r="A625" s="23"/>
       <c r="B625" s="20"/>
       <c r="C625" s="20"/>
       <c r="D625" s="20"/>
@@ -47151,7 +47150,7 @@
       <c r="Z625" s="20"/>
     </row>
     <row r="626">
-      <c r="A626" s="24"/>
+      <c r="A626" s="23"/>
       <c r="B626" s="20"/>
       <c r="C626" s="20"/>
       <c r="D626" s="20"/>
@@ -47179,7 +47178,7 @@
       <c r="Z626" s="20"/>
     </row>
     <row r="627">
-      <c r="A627" s="24"/>
+      <c r="A627" s="23"/>
       <c r="B627" s="20"/>
       <c r="C627" s="20"/>
       <c r="D627" s="20"/>
@@ -47207,7 +47206,7 @@
       <c r="Z627" s="20"/>
     </row>
     <row r="628">
-      <c r="A628" s="24"/>
+      <c r="A628" s="23"/>
       <c r="B628" s="20"/>
       <c r="C628" s="20"/>
       <c r="D628" s="20"/>
@@ -47235,7 +47234,7 @@
       <c r="Z628" s="20"/>
     </row>
     <row r="629">
-      <c r="A629" s="24"/>
+      <c r="A629" s="23"/>
       <c r="B629" s="20"/>
       <c r="C629" s="20"/>
       <c r="D629" s="20"/>
@@ -47263,7 +47262,7 @@
       <c r="Z629" s="20"/>
     </row>
     <row r="630">
-      <c r="A630" s="24"/>
+      <c r="A630" s="23"/>
       <c r="B630" s="20"/>
       <c r="C630" s="20"/>
       <c r="D630" s="20"/>
@@ -47291,7 +47290,7 @@
       <c r="Z630" s="20"/>
     </row>
     <row r="631">
-      <c r="A631" s="24"/>
+      <c r="A631" s="23"/>
       <c r="B631" s="20"/>
       <c r="C631" s="20"/>
       <c r="D631" s="20"/>
@@ -47319,7 +47318,7 @@
       <c r="Z631" s="20"/>
     </row>
     <row r="632">
-      <c r="A632" s="24"/>
+      <c r="A632" s="23"/>
       <c r="B632" s="20"/>
       <c r="C632" s="20"/>
       <c r="D632" s="20"/>
@@ -47347,7 +47346,7 @@
       <c r="Z632" s="20"/>
     </row>
     <row r="633">
-      <c r="A633" s="24"/>
+      <c r="A633" s="23"/>
       <c r="B633" s="20"/>
       <c r="C633" s="20"/>
       <c r="D633" s="20"/>
@@ -47375,7 +47374,7 @@
       <c r="Z633" s="20"/>
     </row>
     <row r="634">
-      <c r="A634" s="24"/>
+      <c r="A634" s="23"/>
       <c r="B634" s="20"/>
       <c r="C634" s="20"/>
       <c r="D634" s="20"/>
@@ -47403,7 +47402,7 @@
       <c r="Z634" s="20"/>
     </row>
     <row r="635">
-      <c r="A635" s="24"/>
+      <c r="A635" s="23"/>
       <c r="B635" s="20"/>
       <c r="C635" s="20"/>
       <c r="D635" s="20"/>
@@ -47431,7 +47430,7 @@
       <c r="Z635" s="20"/>
     </row>
     <row r="636">
-      <c r="A636" s="24"/>
+      <c r="A636" s="23"/>
       <c r="B636" s="20"/>
       <c r="C636" s="20"/>
       <c r="D636" s="20"/>
@@ -47459,7 +47458,7 @@
       <c r="Z636" s="20"/>
     </row>
     <row r="637">
-      <c r="A637" s="24"/>
+      <c r="A637" s="23"/>
       <c r="B637" s="20"/>
       <c r="C637" s="20"/>
       <c r="D637" s="20"/>
@@ -47487,7 +47486,7 @@
       <c r="Z637" s="20"/>
     </row>
     <row r="638">
-      <c r="A638" s="24"/>
+      <c r="A638" s="23"/>
       <c r="B638" s="20"/>
       <c r="C638" s="20"/>
       <c r="D638" s="20"/>
@@ -47515,7 +47514,7 @@
       <c r="Z638" s="20"/>
     </row>
     <row r="639">
-      <c r="A639" s="24"/>
+      <c r="A639" s="23"/>
       <c r="B639" s="20"/>
       <c r="C639" s="20"/>
       <c r="D639" s="20"/>
@@ -47543,7 +47542,7 @@
       <c r="Z639" s="20"/>
     </row>
     <row r="640">
-      <c r="A640" s="24"/>
+      <c r="A640" s="23"/>
       <c r="B640" s="20"/>
       <c r="C640" s="20"/>
       <c r="D640" s="20"/>
@@ -47571,7 +47570,7 @@
       <c r="Z640" s="20"/>
     </row>
     <row r="641">
-      <c r="A641" s="24"/>
+      <c r="A641" s="23"/>
       <c r="B641" s="20"/>
       <c r="C641" s="20"/>
       <c r="D641" s="20"/>
@@ -47599,7 +47598,7 @@
       <c r="Z641" s="20"/>
     </row>
     <row r="642">
-      <c r="A642" s="24"/>
+      <c r="A642" s="23"/>
       <c r="B642" s="20"/>
       <c r="C642" s="20"/>
       <c r="D642" s="20"/>
@@ -47627,7 +47626,7 @@
       <c r="Z642" s="20"/>
     </row>
     <row r="643">
-      <c r="A643" s="24"/>
+      <c r="A643" s="23"/>
       <c r="B643" s="20"/>
       <c r="C643" s="20"/>
       <c r="D643" s="20"/>
@@ -47655,7 +47654,7 @@
       <c r="Z643" s="20"/>
     </row>
     <row r="644">
-      <c r="A644" s="24"/>
+      <c r="A644" s="23"/>
       <c r="B644" s="20"/>
       <c r="C644" s="20"/>
       <c r="D644" s="20"/>
@@ -47683,7 +47682,7 @@
       <c r="Z644" s="20"/>
     </row>
     <row r="645">
-      <c r="A645" s="24"/>
+      <c r="A645" s="23"/>
       <c r="B645" s="20"/>
       <c r="C645" s="20"/>
       <c r="D645" s="20"/>
@@ -47711,7 +47710,7 @@
       <c r="Z645" s="20"/>
     </row>
     <row r="646">
-      <c r="A646" s="24"/>
+      <c r="A646" s="23"/>
       <c r="B646" s="20"/>
       <c r="C646" s="20"/>
       <c r="D646" s="20"/>
@@ -47739,7 +47738,7 @@
       <c r="Z646" s="20"/>
     </row>
     <row r="647">
-      <c r="A647" s="24"/>
+      <c r="A647" s="23"/>
       <c r="B647" s="20"/>
       <c r="C647" s="20"/>
       <c r="D647" s="20"/>
@@ -47767,7 +47766,7 @@
       <c r="Z647" s="20"/>
     </row>
     <row r="648">
-      <c r="A648" s="24"/>
+      <c r="A648" s="23"/>
       <c r="B648" s="20"/>
       <c r="C648" s="20"/>
       <c r="D648" s="20"/>
@@ -47795,7 +47794,7 @@
       <c r="Z648" s="20"/>
     </row>
     <row r="649">
-      <c r="A649" s="24"/>
+      <c r="A649" s="23"/>
       <c r="B649" s="20"/>
       <c r="C649" s="20"/>
       <c r="D649" s="20"/>
@@ -47823,7 +47822,7 @@
       <c r="Z649" s="20"/>
     </row>
     <row r="650">
-      <c r="A650" s="24"/>
+      <c r="A650" s="23"/>
       <c r="B650" s="20"/>
       <c r="C650" s="20"/>
       <c r="D650" s="20"/>
@@ -47851,7 +47850,7 @@
       <c r="Z650" s="20"/>
     </row>
     <row r="651">
-      <c r="A651" s="24"/>
+      <c r="A651" s="23"/>
       <c r="B651" s="20"/>
       <c r="C651" s="20"/>
       <c r="D651" s="20"/>
@@ -47879,7 +47878,7 @@
       <c r="Z651" s="20"/>
     </row>
     <row r="652">
-      <c r="A652" s="24"/>
+      <c r="A652" s="23"/>
       <c r="B652" s="20"/>
       <c r="C652" s="20"/>
       <c r="D652" s="20"/>
@@ -47907,7 +47906,7 @@
       <c r="Z652" s="20"/>
     </row>
     <row r="653">
-      <c r="A653" s="24"/>
+      <c r="A653" s="23"/>
       <c r="B653" s="20"/>
       <c r="C653" s="20"/>
       <c r="D653" s="20"/>
@@ -47935,7 +47934,7 @@
       <c r="Z653" s="20"/>
     </row>
     <row r="654">
-      <c r="A654" s="24"/>
+      <c r="A654" s="23"/>
       <c r="B654" s="20"/>
       <c r="C654" s="20"/>
       <c r="D654" s="20"/>
@@ -47963,7 +47962,7 @@
       <c r="Z654" s="20"/>
     </row>
     <row r="655">
-      <c r="A655" s="24"/>
+      <c r="A655" s="23"/>
       <c r="B655" s="20"/>
       <c r="C655" s="20"/>
       <c r="D655" s="20"/>
@@ -47991,7 +47990,7 @@
       <c r="Z655" s="20"/>
     </row>
     <row r="656">
-      <c r="A656" s="24"/>
+      <c r="A656" s="23"/>
       <c r="B656" s="20"/>
       <c r="C656" s="20"/>
       <c r="D656" s="20"/>
@@ -48019,7 +48018,7 @@
       <c r="Z656" s="20"/>
     </row>
     <row r="657">
-      <c r="A657" s="24"/>
+      <c r="A657" s="23"/>
       <c r="B657" s="20"/>
       <c r="C657" s="20"/>
       <c r="D657" s="20"/>
@@ -48047,7 +48046,7 @@
       <c r="Z657" s="20"/>
     </row>
     <row r="658">
-      <c r="A658" s="24"/>
+      <c r="A658" s="23"/>
       <c r="B658" s="20"/>
       <c r="C658" s="20"/>
       <c r="D658" s="20"/>
@@ -48075,7 +48074,7 @@
       <c r="Z658" s="20"/>
     </row>
     <row r="659">
-      <c r="A659" s="24"/>
+      <c r="A659" s="23"/>
       <c r="B659" s="20"/>
       <c r="C659" s="20"/>
       <c r="D659" s="20"/>
@@ -48103,7 +48102,7 @@
       <c r="Z659" s="20"/>
     </row>
     <row r="660">
-      <c r="A660" s="24"/>
+      <c r="A660" s="23"/>
       <c r="B660" s="20"/>
       <c r="C660" s="20"/>
       <c r="D660" s="20"/>
@@ -48131,7 +48130,7 @@
       <c r="Z660" s="20"/>
     </row>
     <row r="661">
-      <c r="A661" s="24"/>
+      <c r="A661" s="23"/>
       <c r="B661" s="20"/>
       <c r="C661" s="20"/>
       <c r="D661" s="20"/>
@@ -48159,7 +48158,7 @@
       <c r="Z661" s="20"/>
     </row>
     <row r="662">
-      <c r="A662" s="24"/>
+      <c r="A662" s="23"/>
       <c r="B662" s="20"/>
       <c r="C662" s="20"/>
       <c r="D662" s="20"/>
@@ -48187,7 +48186,7 @@
       <c r="Z662" s="20"/>
     </row>
     <row r="663">
-      <c r="A663" s="24"/>
+      <c r="A663" s="23"/>
       <c r="B663" s="20"/>
       <c r="C663" s="20"/>
       <c r="D663" s="20"/>
@@ -48215,7 +48214,7 @@
       <c r="Z663" s="20"/>
     </row>
     <row r="664">
-      <c r="A664" s="24"/>
+      <c r="A664" s="23"/>
       <c r="B664" s="20"/>
       <c r="C664" s="20"/>
       <c r="D664" s="20"/>
@@ -48243,7 +48242,7 @@
       <c r="Z664" s="20"/>
     </row>
     <row r="665">
-      <c r="A665" s="24"/>
+      <c r="A665" s="23"/>
       <c r="B665" s="20"/>
       <c r="C665" s="20"/>
       <c r="D665" s="20"/>
@@ -48271,7 +48270,7 @@
       <c r="Z665" s="20"/>
     </row>
     <row r="666">
-      <c r="A666" s="24"/>
+      <c r="A666" s="23"/>
       <c r="B666" s="20"/>
       <c r="C666" s="20"/>
       <c r="D666" s="20"/>
@@ -48299,7 +48298,7 @@
       <c r="Z666" s="20"/>
     </row>
     <row r="667">
-      <c r="A667" s="24"/>
+      <c r="A667" s="23"/>
       <c r="B667" s="20"/>
       <c r="C667" s="20"/>
       <c r="D667" s="20"/>
@@ -48327,7 +48326,7 @@
       <c r="Z667" s="20"/>
     </row>
     <row r="668">
-      <c r="A668" s="24"/>
+      <c r="A668" s="23"/>
       <c r="B668" s="20"/>
       <c r="C668" s="20"/>
       <c r="D668" s="20"/>
@@ -48355,7 +48354,7 @@
       <c r="Z668" s="20"/>
     </row>
     <row r="669">
-      <c r="A669" s="24"/>
+      <c r="A669" s="23"/>
       <c r="B669" s="20"/>
       <c r="C669" s="20"/>
       <c r="D669" s="20"/>
@@ -48383,7 +48382,7 @@
       <c r="Z669" s="20"/>
     </row>
     <row r="670">
-      <c r="A670" s="24"/>
+      <c r="A670" s="23"/>
       <c r="B670" s="20"/>
       <c r="C670" s="20"/>
       <c r="D670" s="20"/>
@@ -48411,7 +48410,7 @@
       <c r="Z670" s="20"/>
     </row>
     <row r="671">
-      <c r="A671" s="24"/>
+      <c r="A671" s="23"/>
       <c r="B671" s="20"/>
       <c r="C671" s="20"/>
       <c r="D671" s="20"/>
@@ -48439,7 +48438,7 @@
       <c r="Z671" s="20"/>
     </row>
     <row r="672">
-      <c r="A672" s="24"/>
+      <c r="A672" s="23"/>
       <c r="B672" s="20"/>
       <c r="C672" s="20"/>
       <c r="D672" s="20"/>
@@ -48467,7 +48466,7 @@
       <c r="Z672" s="20"/>
     </row>
     <row r="673">
-      <c r="A673" s="24"/>
+      <c r="A673" s="23"/>
       <c r="B673" s="20"/>
       <c r="C673" s="20"/>
       <c r="D673" s="20"/>
@@ -48495,7 +48494,7 @@
       <c r="Z673" s="20"/>
     </row>
     <row r="674">
-      <c r="A674" s="24"/>
+      <c r="A674" s="23"/>
       <c r="B674" s="20"/>
       <c r="C674" s="20"/>
       <c r="D674" s="20"/>
@@ -48523,7 +48522,7 @@
       <c r="Z674" s="20"/>
     </row>
     <row r="675">
-      <c r="A675" s="24"/>
+      <c r="A675" s="23"/>
       <c r="B675" s="20"/>
       <c r="C675" s="20"/>
       <c r="D675" s="20"/>
@@ -48551,7 +48550,7 @@
       <c r="Z675" s="20"/>
     </row>
     <row r="676">
-      <c r="A676" s="24"/>
+      <c r="A676" s="23"/>
       <c r="B676" s="20"/>
       <c r="C676" s="20"/>
       <c r="D676" s="20"/>
@@ -48579,7 +48578,7 @@
       <c r="Z676" s="20"/>
     </row>
     <row r="677">
-      <c r="A677" s="24"/>
+      <c r="A677" s="23"/>
       <c r="B677" s="20"/>
       <c r="C677" s="20"/>
       <c r="D677" s="20"/>
@@ -48607,7 +48606,7 @@
       <c r="Z677" s="20"/>
     </row>
     <row r="678">
-      <c r="A678" s="24"/>
+      <c r="A678" s="23"/>
       <c r="B678" s="20"/>
       <c r="C678" s="20"/>
       <c r="D678" s="20"/>
@@ -48635,7 +48634,7 @@
       <c r="Z678" s="20"/>
     </row>
     <row r="679">
-      <c r="A679" s="24"/>
+      <c r="A679" s="23"/>
       <c r="B679" s="20"/>
       <c r="C679" s="20"/>
       <c r="D679" s="20"/>
@@ -48663,7 +48662,7 @@
       <c r="Z679" s="20"/>
     </row>
     <row r="680">
-      <c r="A680" s="24"/>
+      <c r="A680" s="23"/>
       <c r="B680" s="20"/>
       <c r="C680" s="20"/>
       <c r="D680" s="20"/>
@@ -48691,7 +48690,7 @@
       <c r="Z680" s="20"/>
     </row>
     <row r="681">
-      <c r="A681" s="24"/>
+      <c r="A681" s="23"/>
       <c r="B681" s="20"/>
       <c r="C681" s="20"/>
       <c r="D681" s="20"/>
@@ -48719,7 +48718,7 @@
       <c r="Z681" s="20"/>
     </row>
     <row r="682">
-      <c r="A682" s="24"/>
+      <c r="A682" s="23"/>
       <c r="B682" s="20"/>
       <c r="C682" s="20"/>
       <c r="D682" s="20"/>
@@ -48747,7 +48746,7 @@
       <c r="Z682" s="20"/>
     </row>
     <row r="683">
-      <c r="A683" s="24"/>
+      <c r="A683" s="23"/>
       <c r="B683" s="20"/>
       <c r="C683" s="20"/>
       <c r="D683" s="20"/>
@@ -48775,7 +48774,7 @@
       <c r="Z683" s="20"/>
     </row>
     <row r="684">
-      <c r="A684" s="24"/>
+      <c r="A684" s="23"/>
       <c r="B684" s="20"/>
       <c r="C684" s="20"/>
       <c r="D684" s="20"/>
@@ -48803,7 +48802,7 @@
       <c r="Z684" s="20"/>
     </row>
     <row r="685">
-      <c r="A685" s="24"/>
+      <c r="A685" s="23"/>
       <c r="B685" s="20"/>
       <c r="C685" s="20"/>
       <c r="D685" s="20"/>
@@ -48831,7 +48830,7 @@
       <c r="Z685" s="20"/>
     </row>
     <row r="686">
-      <c r="A686" s="24"/>
+      <c r="A686" s="23"/>
       <c r="B686" s="20"/>
       <c r="C686" s="20"/>
       <c r="D686" s="20"/>
@@ -48859,7 +48858,7 @@
       <c r="Z686" s="20"/>
     </row>
     <row r="687">
-      <c r="A687" s="24"/>
+      <c r="A687" s="23"/>
       <c r="B687" s="20"/>
       <c r="C687" s="20"/>
       <c r="D687" s="20"/>
@@ -48887,7 +48886,7 @@
       <c r="Z687" s="20"/>
     </row>
     <row r="688">
-      <c r="A688" s="24"/>
+      <c r="A688" s="23"/>
       <c r="B688" s="20"/>
       <c r="C688" s="20"/>
       <c r="D688" s="20"/>
@@ -48915,7 +48914,7 @@
       <c r="Z688" s="20"/>
     </row>
     <row r="689">
-      <c r="A689" s="24"/>
+      <c r="A689" s="23"/>
       <c r="B689" s="20"/>
       <c r="C689" s="20"/>
       <c r="D689" s="20"/>
@@ -48943,7 +48942,7 @@
       <c r="Z689" s="20"/>
     </row>
     <row r="690">
-      <c r="A690" s="24"/>
+      <c r="A690" s="23"/>
       <c r="B690" s="20"/>
       <c r="C690" s="20"/>
       <c r="D690" s="20"/>
@@ -48971,7 +48970,7 @@
       <c r="Z690" s="20"/>
     </row>
     <row r="691">
-      <c r="A691" s="24"/>
+      <c r="A691" s="23"/>
       <c r="B691" s="20"/>
       <c r="C691" s="20"/>
       <c r="D691" s="20"/>
@@ -48999,7 +48998,7 @@
       <c r="Z691" s="20"/>
     </row>
     <row r="692">
-      <c r="A692" s="24"/>
+      <c r="A692" s="23"/>
       <c r="B692" s="20"/>
       <c r="C692" s="20"/>
       <c r="D692" s="20"/>
@@ -49027,7 +49026,7 @@
       <c r="Z692" s="20"/>
     </row>
     <row r="693">
-      <c r="A693" s="24"/>
+      <c r="A693" s="23"/>
       <c r="B693" s="20"/>
       <c r="C693" s="20"/>
       <c r="D693" s="20"/>
@@ -49055,7 +49054,7 @@
       <c r="Z693" s="20"/>
     </row>
     <row r="694">
-      <c r="A694" s="24"/>
+      <c r="A694" s="23"/>
       <c r="B694" s="20"/>
       <c r="C694" s="20"/>
       <c r="D694" s="20"/>
@@ -49083,7 +49082,7 @@
       <c r="Z694" s="20"/>
     </row>
     <row r="695">
-      <c r="A695" s="24"/>
+      <c r="A695" s="23"/>
       <c r="B695" s="20"/>
       <c r="C695" s="20"/>
       <c r="D695" s="20"/>
@@ -49111,7 +49110,7 @@
       <c r="Z695" s="20"/>
     </row>
     <row r="696">
-      <c r="A696" s="24"/>
+      <c r="A696" s="23"/>
       <c r="B696" s="20"/>
       <c r="C696" s="20"/>
       <c r="D696" s="20"/>
@@ -49139,7 +49138,7 @@
       <c r="Z696" s="20"/>
     </row>
     <row r="697">
-      <c r="A697" s="24"/>
+      <c r="A697" s="23"/>
       <c r="B697" s="20"/>
       <c r="C697" s="20"/>
       <c r="D697" s="20"/>
@@ -49167,7 +49166,7 @@
       <c r="Z697" s="20"/>
     </row>
     <row r="698">
-      <c r="A698" s="24"/>
+      <c r="A698" s="23"/>
       <c r="B698" s="20"/>
       <c r="C698" s="20"/>
       <c r="D698" s="20"/>
@@ -49195,7 +49194,7 @@
       <c r="Z698" s="20"/>
     </row>
     <row r="699">
-      <c r="A699" s="24"/>
+      <c r="A699" s="23"/>
       <c r="B699" s="20"/>
       <c r="C699" s="20"/>
       <c r="D699" s="20"/>
@@ -49223,7 +49222,7 @@
       <c r="Z699" s="20"/>
     </row>
     <row r="700">
-      <c r="A700" s="24"/>
+      <c r="A700" s="23"/>
       <c r="B700" s="20"/>
       <c r="C700" s="20"/>
       <c r="D700" s="20"/>
@@ -49251,7 +49250,7 @@
       <c r="Z700" s="20"/>
     </row>
     <row r="701">
-      <c r="A701" s="24"/>
+      <c r="A701" s="23"/>
       <c r="B701" s="20"/>
       <c r="C701" s="20"/>
       <c r="D701" s="20"/>
@@ -49279,7 +49278,7 @@
       <c r="Z701" s="20"/>
     </row>
     <row r="702">
-      <c r="A702" s="24"/>
+      <c r="A702" s="23"/>
       <c r="B702" s="20"/>
       <c r="C702" s="20"/>
       <c r="D702" s="20"/>
@@ -49307,7 +49306,7 @@
       <c r="Z702" s="20"/>
     </row>
     <row r="703">
-      <c r="A703" s="24"/>
+      <c r="A703" s="23"/>
       <c r="B703" s="20"/>
       <c r="C703" s="20"/>
       <c r="D703" s="20"/>
@@ -49335,7 +49334,7 @@
       <c r="Z703" s="20"/>
     </row>
     <row r="704">
-      <c r="A704" s="24"/>
+      <c r="A704" s="23"/>
       <c r="B704" s="20"/>
       <c r="C704" s="20"/>
       <c r="D704" s="20"/>
@@ -49363,7 +49362,7 @@
       <c r="Z704" s="20"/>
     </row>
     <row r="705">
-      <c r="A705" s="24"/>
+      <c r="A705" s="23"/>
       <c r="B705" s="20"/>
       <c r="C705" s="20"/>
       <c r="D705" s="20"/>
@@ -49391,7 +49390,7 @@
       <c r="Z705" s="20"/>
     </row>
     <row r="706">
-      <c r="A706" s="24"/>
+      <c r="A706" s="23"/>
       <c r="B706" s="20"/>
       <c r="C706" s="20"/>
       <c r="D706" s="20"/>
@@ -49419,7 +49418,7 @@
       <c r="Z706" s="20"/>
     </row>
     <row r="707">
-      <c r="A707" s="24"/>
+      <c r="A707" s="23"/>
       <c r="B707" s="20"/>
       <c r="C707" s="20"/>
       <c r="D707" s="20"/>
@@ -49447,7 +49446,7 @@
       <c r="Z707" s="20"/>
     </row>
     <row r="708">
-      <c r="A708" s="24"/>
+      <c r="A708" s="23"/>
       <c r="B708" s="20"/>
       <c r="C708" s="20"/>
       <c r="D708" s="20"/>
@@ -49475,7 +49474,7 @@
       <c r="Z708" s="20"/>
     </row>
     <row r="709">
-      <c r="A709" s="24"/>
+      <c r="A709" s="23"/>
       <c r="B709" s="20"/>
       <c r="C709" s="20"/>
       <c r="D709" s="20"/>
@@ -49503,7 +49502,7 @@
       <c r="Z709" s="20"/>
     </row>
     <row r="710">
-      <c r="A710" s="24"/>
+      <c r="A710" s="23"/>
       <c r="B710" s="20"/>
       <c r="C710" s="20"/>
       <c r="D710" s="20"/>
@@ -49531,7 +49530,7 @@
       <c r="Z710" s="20"/>
     </row>
     <row r="711">
-      <c r="A711" s="24"/>
+      <c r="A711" s="23"/>
       <c r="B711" s="20"/>
       <c r="C711" s="20"/>
       <c r="D711" s="20"/>
@@ -49559,7 +49558,7 @@
       <c r="Z711" s="20"/>
     </row>
     <row r="712">
-      <c r="A712" s="24"/>
+      <c r="A712" s="23"/>
       <c r="B712" s="20"/>
       <c r="C712" s="20"/>
       <c r="D712" s="20"/>
@@ -49587,7 +49586,7 @@
       <c r="Z712" s="20"/>
     </row>
     <row r="713">
-      <c r="A713" s="24"/>
+      <c r="A713" s="23"/>
       <c r="B713" s="20"/>
       <c r="C713" s="20"/>
       <c r="D713" s="20"/>
@@ -49615,7 +49614,7 @@
       <c r="Z713" s="20"/>
     </row>
     <row r="714">
-      <c r="A714" s="24"/>
+      <c r="A714" s="23"/>
       <c r="B714" s="20"/>
       <c r="C714" s="20"/>
       <c r="D714" s="20"/>
@@ -49643,7 +49642,7 @@
       <c r="Z714" s="20"/>
     </row>
     <row r="715">
-      <c r="A715" s="24"/>
+      <c r="A715" s="23"/>
       <c r="B715" s="20"/>
       <c r="C715" s="20"/>
       <c r="D715" s="20"/>
@@ -49671,7 +49670,7 @@
       <c r="Z715" s="20"/>
     </row>
     <row r="716">
-      <c r="A716" s="24"/>
+      <c r="A716" s="23"/>
       <c r="B716" s="20"/>
       <c r="C716" s="20"/>
       <c r="D716" s="20"/>
@@ -49699,7 +49698,7 @@
       <c r="Z716" s="20"/>
     </row>
     <row r="717">
-      <c r="A717" s="24"/>
+      <c r="A717" s="23"/>
       <c r="B717" s="20"/>
       <c r="C717" s="20"/>
       <c r="D717" s="20"/>
@@ -49727,7 +49726,7 @@
       <c r="Z717" s="20"/>
     </row>
     <row r="718">
-      <c r="A718" s="24"/>
+      <c r="A718" s="23"/>
       <c r="B718" s="20"/>
       <c r="C718" s="20"/>
       <c r="D718" s="20"/>
@@ -49755,7 +49754,7 @@
       <c r="Z718" s="20"/>
     </row>
     <row r="719">
-      <c r="A719" s="24"/>
+      <c r="A719" s="23"/>
       <c r="B719" s="20"/>
       <c r="C719" s="20"/>
       <c r="D719" s="20"/>
@@ -49783,7 +49782,7 @@
       <c r="Z719" s="20"/>
     </row>
     <row r="720">
-      <c r="A720" s="24"/>
+      <c r="A720" s="23"/>
       <c r="B720" s="20"/>
       <c r="C720" s="20"/>
       <c r="D720" s="20"/>
@@ -49811,7 +49810,7 @@
       <c r="Z720" s="20"/>
     </row>
     <row r="721">
-      <c r="A721" s="24"/>
+      <c r="A721" s="23"/>
       <c r="B721" s="20"/>
       <c r="C721" s="20"/>
       <c r="D721" s="20"/>
@@ -49839,7 +49838,7 @@
       <c r="Z721" s="20"/>
     </row>
     <row r="722">
-      <c r="A722" s="24"/>
+      <c r="A722" s="23"/>
       <c r="B722" s="20"/>
       <c r="C722" s="20"/>
       <c r="D722" s="20"/>
@@ -49867,7 +49866,7 @@
       <c r="Z722" s="20"/>
     </row>
     <row r="723">
-      <c r="A723" s="24"/>
+      <c r="A723" s="23"/>
       <c r="B723" s="20"/>
       <c r="C723" s="20"/>
       <c r="D723" s="20"/>
@@ -49895,7 +49894,7 @@
       <c r="Z723" s="20"/>
     </row>
     <row r="724">
-      <c r="A724" s="24"/>
+      <c r="A724" s="23"/>
       <c r="B724" s="20"/>
       <c r="C724" s="20"/>
       <c r="D724" s="20"/>
@@ -49923,7 +49922,7 @@
       <c r="Z724" s="20"/>
     </row>
     <row r="725">
-      <c r="A725" s="24"/>
+      <c r="A725" s="23"/>
       <c r="B725" s="20"/>
       <c r="C725" s="20"/>
       <c r="D725" s="20"/>
@@ -49951,7 +49950,7 @@
       <c r="Z725" s="20"/>
     </row>
     <row r="726">
-      <c r="A726" s="24"/>
+      <c r="A726" s="23"/>
       <c r="B726" s="20"/>
       <c r="C726" s="20"/>
       <c r="D726" s="20"/>
@@ -49979,7 +49978,7 @@
       <c r="Z726" s="20"/>
     </row>
     <row r="727">
-      <c r="A727" s="24"/>
+      <c r="A727" s="23"/>
       <c r="B727" s="20"/>
       <c r="C727" s="20"/>
       <c r="D727" s="20"/>
@@ -50007,7 +50006,7 @@
       <c r="Z727" s="20"/>
     </row>
     <row r="728">
-      <c r="A728" s="24"/>
+      <c r="A728" s="23"/>
       <c r="B728" s="20"/>
       <c r="C728" s="20"/>
       <c r="D728" s="20"/>
@@ -50035,7 +50034,7 @@
       <c r="Z728" s="20"/>
     </row>
     <row r="729">
-      <c r="A729" s="24"/>
+      <c r="A729" s="23"/>
       <c r="B729" s="20"/>
       <c r="C729" s="20"/>
       <c r="D729" s="20"/>
@@ -50063,7 +50062,7 @@
       <c r="Z729" s="20"/>
     </row>
     <row r="730">
-      <c r="A730" s="24"/>
+      <c r="A730" s="23"/>
       <c r="B730" s="20"/>
       <c r="C730" s="20"/>
       <c r="D730" s="20"/>
@@ -50091,7 +50090,7 @@
       <c r="Z730" s="20"/>
     </row>
     <row r="731">
-      <c r="A731" s="24"/>
+      <c r="A731" s="23"/>
       <c r="B731" s="20"/>
       <c r="C731" s="20"/>
       <c r="D731" s="20"/>
@@ -50119,7 +50118,7 @@
       <c r="Z731" s="20"/>
     </row>
     <row r="732">
-      <c r="A732" s="24"/>
+      <c r="A732" s="23"/>
       <c r="B732" s="20"/>
       <c r="C732" s="20"/>
       <c r="D732" s="20"/>
@@ -50147,7 +50146,7 @@
       <c r="Z732" s="20"/>
     </row>
     <row r="733">
-      <c r="A733" s="24"/>
+      <c r="A733" s="23"/>
       <c r="B733" s="20"/>
       <c r="C733" s="20"/>
       <c r="D733" s="20"/>
@@ -50175,7 +50174,7 @@
       <c r="Z733" s="20"/>
     </row>
     <row r="734">
-      <c r="A734" s="24"/>
+      <c r="A734" s="23"/>
       <c r="B734" s="20"/>
       <c r="C734" s="20"/>
       <c r="D734" s="20"/>
@@ -50203,7 +50202,7 @@
       <c r="Z734" s="20"/>
     </row>
     <row r="735">
-      <c r="A735" s="24"/>
+      <c r="A735" s="23"/>
       <c r="B735" s="20"/>
       <c r="C735" s="20"/>
       <c r="D735" s="20"/>
@@ -50231,7 +50230,7 @@
       <c r="Z735" s="20"/>
     </row>
     <row r="736">
-      <c r="A736" s="24"/>
+      <c r="A736" s="23"/>
       <c r="B736" s="20"/>
       <c r="C736" s="20"/>
       <c r="D736" s="20"/>
@@ -50259,7 +50258,7 @@
       <c r="Z736" s="20"/>
     </row>
     <row r="737">
-      <c r="A737" s="24"/>
+      <c r="A737" s="23"/>
       <c r="B737" s="20"/>
       <c r="C737" s="20"/>
       <c r="D737" s="20"/>
@@ -50287,7 +50286,7 @@
       <c r="Z737" s="20"/>
     </row>
     <row r="738">
-      <c r="A738" s="24"/>
+      <c r="A738" s="23"/>
       <c r="B738" s="20"/>
       <c r="C738" s="20"/>
       <c r="D738" s="20"/>
@@ -50315,7 +50314,7 @@
       <c r="Z738" s="20"/>
     </row>
     <row r="739">
-      <c r="A739" s="24"/>
+      <c r="A739" s="23"/>
       <c r="B739" s="20"/>
       <c r="C739" s="20"/>
       <c r="D739" s="20"/>
@@ -50343,7 +50342,7 @@
       <c r="Z739" s="20"/>
     </row>
     <row r="740">
-      <c r="A740" s="24"/>
+      <c r="A740" s="23"/>
       <c r="B740" s="20"/>
       <c r="C740" s="20"/>
       <c r="D740" s="20"/>
@@ -50371,7 +50370,7 @@
       <c r="Z740" s="20"/>
     </row>
     <row r="741">
-      <c r="A741" s="24"/>
+      <c r="A741" s="23"/>
       <c r="B741" s="20"/>
       <c r="C741" s="20"/>
       <c r="D741" s="20"/>
@@ -50399,7 +50398,7 @@
       <c r="Z741" s="20"/>
     </row>
     <row r="742">
-      <c r="A742" s="24"/>
+      <c r="A742" s="23"/>
       <c r="B742" s="20"/>
       <c r="C742" s="20"/>
       <c r="D742" s="20"/>
@@ -50427,7 +50426,7 @@
       <c r="Z742" s="20"/>
     </row>
     <row r="743">
-      <c r="A743" s="24"/>
+      <c r="A743" s="23"/>
       <c r="B743" s="20"/>
       <c r="C743" s="20"/>
       <c r="D743" s="20"/>
@@ -50455,7 +50454,7 @@
       <c r="Z743" s="20"/>
     </row>
     <row r="744">
-      <c r="A744" s="24"/>
+      <c r="A744" s="23"/>
       <c r="B744" s="20"/>
       <c r="C744" s="20"/>
       <c r="D744" s="20"/>
@@ -50483,7 +50482,7 @@
       <c r="Z744" s="20"/>
     </row>
     <row r="745">
-      <c r="A745" s="24"/>
+      <c r="A745" s="23"/>
       <c r="B745" s="20"/>
       <c r="C745" s="20"/>
       <c r="D745" s="20"/>
@@ -50511,7 +50510,7 @@
       <c r="Z745" s="20"/>
     </row>
     <row r="746">
-      <c r="A746" s="24"/>
+      <c r="A746" s="23"/>
       <c r="B746" s="20"/>
       <c r="C746" s="20"/>
       <c r="D746" s="20"/>
@@ -50539,7 +50538,7 @@
       <c r="Z746" s="20"/>
     </row>
     <row r="747">
-      <c r="A747" s="24"/>
+      <c r="A747" s="23"/>
       <c r="B747" s="20"/>
       <c r="C747" s="20"/>
       <c r="D747" s="20"/>
@@ -50567,7 +50566,7 @@
       <c r="Z747" s="20"/>
     </row>
     <row r="748">
-      <c r="A748" s="24"/>
+      <c r="A748" s="23"/>
       <c r="B748" s="20"/>
       <c r="C748" s="20"/>
       <c r="D748" s="20"/>
@@ -50595,7 +50594,7 @@
       <c r="Z748" s="20"/>
     </row>
     <row r="749">
-      <c r="A749" s="24"/>
+      <c r="A749" s="23"/>
       <c r="B749" s="20"/>
       <c r="C749" s="20"/>
       <c r="D749" s="20"/>
@@ -50623,7 +50622,7 @@
       <c r="Z749" s="20"/>
     </row>
     <row r="750">
-      <c r="A750" s="24"/>
+      <c r="A750" s="23"/>
       <c r="B750" s="20"/>
       <c r="C750" s="20"/>
       <c r="D750" s="20"/>
@@ -50651,7 +50650,7 @@
       <c r="Z750" s="20"/>
     </row>
     <row r="751">
-      <c r="A751" s="24"/>
+      <c r="A751" s="23"/>
       <c r="B751" s="20"/>
       <c r="C751" s="20"/>
       <c r="D751" s="20"/>
@@ -50679,7 +50678,7 @@
       <c r="Z751" s="20"/>
     </row>
     <row r="752">
-      <c r="A752" s="24"/>
+      <c r="A752" s="23"/>
       <c r="B752" s="20"/>
       <c r="C752" s="20"/>
       <c r="D752" s="20"/>
@@ -50707,7 +50706,7 @@
       <c r="Z752" s="20"/>
     </row>
     <row r="753">
-      <c r="A753" s="24"/>
+      <c r="A753" s="23"/>
       <c r="B753" s="20"/>
       <c r="C753" s="20"/>
       <c r="D753" s="20"/>
@@ -50735,7 +50734,7 @@
       <c r="Z753" s="20"/>
     </row>
     <row r="754">
-      <c r="A754" s="24"/>
+      <c r="A754" s="23"/>
       <c r="B754" s="20"/>
       <c r="C754" s="20"/>
       <c r="D754" s="20"/>
@@ -50763,7 +50762,7 @@
       <c r="Z754" s="20"/>
     </row>
     <row r="755">
-      <c r="A755" s="24"/>
+      <c r="A755" s="23"/>
       <c r="B755" s="20"/>
       <c r="C755" s="20"/>
       <c r="D755" s="20"/>
@@ -50791,7 +50790,7 @@
       <c r="Z755" s="20"/>
     </row>
     <row r="756">
-      <c r="A756" s="24"/>
+      <c r="A756" s="23"/>
       <c r="B756" s="20"/>
       <c r="C756" s="20"/>
       <c r="D756" s="20"/>
@@ -50819,7 +50818,7 @@
       <c r="Z756" s="20"/>
     </row>
     <row r="757">
-      <c r="A757" s="24"/>
+      <c r="A757" s="23"/>
       <c r="B757" s="20"/>
       <c r="C757" s="20"/>
       <c r="D757" s="20"/>
@@ -50847,7 +50846,7 @@
       <c r="Z757" s="20"/>
     </row>
     <row r="758">
-      <c r="A758" s="24"/>
+      <c r="A758" s="23"/>
       <c r="B758" s="20"/>
       <c r="C758" s="20"/>
       <c r="D758" s="20"/>
@@ -50875,7 +50874,7 @@
       <c r="Z758" s="20"/>
     </row>
     <row r="759">
-      <c r="A759" s="24"/>
+      <c r="A759" s="23"/>
       <c r="B759" s="20"/>
       <c r="C759" s="20"/>
       <c r="D759" s="20"/>
@@ -50903,7 +50902,7 @@
       <c r="Z759" s="20"/>
     </row>
     <row r="760">
-      <c r="A760" s="24"/>
+      <c r="A760" s="23"/>
       <c r="B760" s="20"/>
       <c r="C760" s="20"/>
       <c r="D760" s="20"/>
@@ -50931,7 +50930,7 @@
       <c r="Z760" s="20"/>
     </row>
     <row r="761">
-      <c r="A761" s="24"/>
+      <c r="A761" s="23"/>
       <c r="B761" s="20"/>
       <c r="C761" s="20"/>
       <c r="D761" s="20"/>
@@ -50959,7 +50958,7 @@
       <c r="Z761" s="20"/>
     </row>
     <row r="762">
-      <c r="A762" s="24"/>
+      <c r="A762" s="23"/>
       <c r="B762" s="20"/>
       <c r="C762" s="20"/>
       <c r="D762" s="20"/>
@@ -50987,7 +50986,7 @@
       <c r="Z762" s="20"/>
     </row>
     <row r="763">
-      <c r="A763" s="24"/>
+      <c r="A763" s="23"/>
       <c r="B763" s="20"/>
       <c r="C763" s="20"/>
       <c r="D763" s="20"/>
@@ -51015,7 +51014,7 @@
       <c r="Z763" s="20"/>
     </row>
     <row r="764">
-      <c r="A764" s="24"/>
+      <c r="A764" s="23"/>
       <c r="B764" s="20"/>
       <c r="C764" s="20"/>
       <c r="D764" s="20"/>
@@ -51043,7 +51042,7 @@
       <c r="Z764" s="20"/>
     </row>
     <row r="765">
-      <c r="A765" s="24"/>
+      <c r="A765" s="23"/>
       <c r="B765" s="20"/>
       <c r="C765" s="20"/>
       <c r="D765" s="20"/>
@@ -51071,7 +51070,7 @@
       <c r="Z765" s="20"/>
     </row>
     <row r="766">
-      <c r="A766" s="24"/>
+      <c r="A766" s="23"/>
       <c r="B766" s="20"/>
       <c r="C766" s="20"/>
       <c r="D766" s="20"/>
@@ -51099,7 +51098,7 @@
       <c r="Z766" s="20"/>
     </row>
     <row r="767">
-      <c r="A767" s="24"/>
+      <c r="A767" s="23"/>
       <c r="B767" s="20"/>
       <c r="C767" s="20"/>
       <c r="D767" s="20"/>
@@ -51127,7 +51126,7 @@
       <c r="Z767" s="20"/>
     </row>
     <row r="768">
-      <c r="A768" s="24"/>
+      <c r="A768" s="23"/>
       <c r="B768" s="20"/>
       <c r="C768" s="20"/>
       <c r="D768" s="20"/>
@@ -51155,7 +51154,7 @@
       <c r="Z768" s="20"/>
     </row>
     <row r="769">
-      <c r="A769" s="24"/>
+      <c r="A769" s="23"/>
       <c r="B769" s="20"/>
       <c r="C769" s="20"/>
       <c r="D769" s="20"/>
@@ -51183,7 +51182,7 @@
       <c r="Z769" s="20"/>
     </row>
     <row r="770">
-      <c r="A770" s="24"/>
+      <c r="A770" s="23"/>
       <c r="B770" s="20"/>
       <c r="C770" s="20"/>
       <c r="D770" s="20"/>
@@ -51211,7 +51210,7 @@
       <c r="Z770" s="20"/>
     </row>
     <row r="771">
-      <c r="A771" s="24"/>
+      <c r="A771" s="23"/>
       <c r="B771" s="20"/>
       <c r="C771" s="20"/>
       <c r="D771" s="20"/>
@@ -51239,7 +51238,7 @@
       <c r="Z771" s="20"/>
     </row>
     <row r="772">
-      <c r="A772" s="24"/>
+      <c r="A772" s="23"/>
       <c r="B772" s="20"/>
       <c r="C772" s="20"/>
       <c r="D772" s="20"/>
@@ -51267,7 +51266,7 @@
       <c r="Z772" s="20"/>
     </row>
     <row r="773">
-      <c r="A773" s="24"/>
+      <c r="A773" s="23"/>
       <c r="B773" s="20"/>
       <c r="C773" s="20"/>
       <c r="D773" s="20"/>
@@ -51295,7 +51294,7 @@
       <c r="Z773" s="20"/>
     </row>
     <row r="774">
-      <c r="A774" s="24"/>
+      <c r="A774" s="23"/>
       <c r="B774" s="20"/>
       <c r="C774" s="20"/>
       <c r="D774" s="20"/>
@@ -51323,7 +51322,7 @@
       <c r="Z774" s="20"/>
     </row>
     <row r="775">
-      <c r="A775" s="24"/>
+      <c r="A775" s="23"/>
       <c r="B775" s="20"/>
       <c r="C775" s="20"/>
       <c r="D775" s="20"/>
@@ -51351,7 +51350,7 @@
       <c r="Z775" s="20"/>
     </row>
     <row r="776">
-      <c r="A776" s="24"/>
+      <c r="A776" s="23"/>
       <c r="B776" s="20"/>
       <c r="C776" s="20"/>
       <c r="D776" s="20"/>
@@ -51379,7 +51378,7 @@
       <c r="Z776" s="20"/>
     </row>
     <row r="777">
-      <c r="A777" s="24"/>
+      <c r="A777" s="23"/>
       <c r="B777" s="20"/>
       <c r="C777" s="20"/>
       <c r="D777" s="20"/>
@@ -51407,7 +51406,7 @@
       <c r="Z777" s="20"/>
     </row>
     <row r="778">
-      <c r="A778" s="24"/>
+      <c r="A778" s="23"/>
       <c r="B778" s="20"/>
       <c r="C778" s="20"/>
       <c r="D778" s="20"/>
@@ -51435,7 +51434,7 @@
       <c r="Z778" s="20"/>
     </row>
     <row r="779">
-      <c r="A779" s="24"/>
+      <c r="A779" s="23"/>
       <c r="B779" s="20"/>
       <c r="C779" s="20"/>
       <c r="D779" s="20"/>
@@ -51463,7 +51462,7 @@
       <c r="Z779" s="20"/>
     </row>
     <row r="780">
-      <c r="A780" s="24"/>
+      <c r="A780" s="23"/>
       <c r="B780" s="20"/>
       <c r="C780" s="20"/>
       <c r="D780" s="20"/>
@@ -51491,7 +51490,7 @@
       <c r="Z780" s="20"/>
     </row>
     <row r="781">
-      <c r="A781" s="24"/>
+      <c r="A781" s="23"/>
       <c r="B781" s="20"/>
       <c r="C781" s="20"/>
       <c r="D781" s="20"/>
@@ -51519,7 +51518,7 @@
       <c r="Z781" s="20"/>
     </row>
     <row r="782">
-      <c r="A782" s="24"/>
+      <c r="A782" s="23"/>
       <c r="B782" s="20"/>
       <c r="C782" s="20"/>
       <c r="D782" s="20"/>
@@ -51547,7 +51546,7 @@
       <c r="Z782" s="20"/>
     </row>
     <row r="783">
-      <c r="A783" s="24"/>
+      <c r="A783" s="23"/>
       <c r="B783" s="20"/>
       <c r="C783" s="20"/>
       <c r="D783" s="20"/>
@@ -51575,7 +51574,7 @@
       <c r="Z783" s="20"/>
     </row>
     <row r="784">
-      <c r="A784" s="24"/>
+      <c r="A784" s="23"/>
       <c r="B784" s="20"/>
       <c r="C784" s="20"/>
       <c r="D784" s="20"/>
@@ -51603,7 +51602,7 @@
       <c r="Z784" s="20"/>
     </row>
     <row r="785">
-      <c r="A785" s="24"/>
+      <c r="A785" s="23"/>
       <c r="B785" s="20"/>
       <c r="C785" s="20"/>
       <c r="D785" s="20"/>
@@ -51631,7 +51630,7 @@
       <c r="Z785" s="20"/>
     </row>
     <row r="786">
-      <c r="A786" s="24"/>
+      <c r="A786" s="23"/>
       <c r="B786" s="20"/>
       <c r="C786" s="20"/>
       <c r="D786" s="20"/>
@@ -51659,7 +51658,7 @@
       <c r="Z786" s="20"/>
     </row>
     <row r="787">
-      <c r="A787" s="24"/>
+      <c r="A787" s="23"/>
       <c r="B787" s="20"/>
       <c r="C787" s="20"/>
       <c r="D787" s="20"/>
@@ -51687,7 +51686,7 @@
       <c r="Z787" s="20"/>
     </row>
     <row r="788">
-      <c r="A788" s="24"/>
+      <c r="A788" s="23"/>
       <c r="B788" s="20"/>
       <c r="C788" s="20"/>
       <c r="D788" s="20"/>
@@ -51715,7 +51714,7 @@
       <c r="Z788" s="20"/>
     </row>
     <row r="789">
-      <c r="A789" s="24"/>
+      <c r="A789" s="23"/>
       <c r="B789" s="20"/>
       <c r="C789" s="20"/>
       <c r="D789" s="20"/>
@@ -51743,7 +51742,7 @@
       <c r="Z789" s="20"/>
     </row>
     <row r="790">
-      <c r="A790" s="24"/>
+      <c r="A790" s="23"/>
       <c r="B790" s="20"/>
       <c r="C790" s="20"/>
       <c r="D790" s="20"/>
@@ -51771,7 +51770,7 @@
       <c r="Z790" s="20"/>
     </row>
     <row r="791">
-      <c r="A791" s="24"/>
+      <c r="A791" s="23"/>
       <c r="B791" s="20"/>
       <c r="C791" s="20"/>
       <c r="D791" s="20"/>
@@ -51799,7 +51798,7 @@
       <c r="Z791" s="20"/>
     </row>
     <row r="792">
-      <c r="A792" s="24"/>
+      <c r="A792" s="23"/>
       <c r="B792" s="20"/>
       <c r="C792" s="20"/>
       <c r="D792" s="20"/>
@@ -51827,7 +51826,7 @@
       <c r="Z792" s="20"/>
     </row>
     <row r="793">
-      <c r="A793" s="24"/>
+      <c r="A793" s="23"/>
       <c r="B793" s="20"/>
       <c r="C793" s="20"/>
       <c r="D793" s="20"/>
@@ -51855,7 +51854,7 @@
       <c r="Z793" s="20"/>
     </row>
     <row r="794">
-      <c r="A794" s="24"/>
+      <c r="A794" s="23"/>
       <c r="B794" s="20"/>
       <c r="C794" s="20"/>
       <c r="D794" s="20"/>
@@ -51883,7 +51882,7 @@
       <c r="Z794" s="20"/>
     </row>
     <row r="795">
-      <c r="A795" s="24"/>
+      <c r="A795" s="23"/>
       <c r="B795" s="20"/>
       <c r="C795" s="20"/>
       <c r="D795" s="20"/>
@@ -51911,7 +51910,7 @@
       <c r="Z795" s="20"/>
     </row>
     <row r="796">
-      <c r="A796" s="24"/>
+      <c r="A796" s="23"/>
       <c r="B796" s="20"/>
       <c r="C796" s="20"/>
       <c r="D796" s="20"/>
@@ -51939,7 +51938,7 @@
       <c r="Z796" s="20"/>
     </row>
     <row r="797">
-      <c r="A797" s="24"/>
+      <c r="A797" s="23"/>
       <c r="B797" s="20"/>
       <c r="C797" s="20"/>
       <c r="D797" s="20"/>
@@ -51967,7 +51966,7 @@
       <c r="Z797" s="20"/>
     </row>
     <row r="798">
-      <c r="A798" s="24"/>
+      <c r="A798" s="23"/>
       <c r="B798" s="20"/>
       <c r="C798" s="20"/>
       <c r="D798" s="20"/>
@@ -51995,7 +51994,7 @@
       <c r="Z798" s="20"/>
     </row>
     <row r="799">
-      <c r="A799" s="24"/>
+      <c r="A799" s="23"/>
       <c r="B799" s="20"/>
       <c r="C799" s="20"/>
       <c r="D799" s="20"/>
@@ -52023,7 +52022,7 @@
       <c r="Z799" s="20"/>
     </row>
     <row r="800">
-      <c r="A800" s="24"/>
+      <c r="A800" s="23"/>
       <c r="B800" s="20"/>
       <c r="C800" s="20"/>
       <c r="D800" s="20"/>
@@ -52051,7 +52050,7 @@
       <c r="Z800" s="20"/>
     </row>
     <row r="801">
-      <c r="A801" s="24"/>
+      <c r="A801" s="23"/>
       <c r="B801" s="20"/>
       <c r="C801" s="20"/>
       <c r="D801" s="20"/>
@@ -52079,7 +52078,7 @@
       <c r="Z801" s="20"/>
     </row>
     <row r="802">
-      <c r="A802" s="24"/>
+      <c r="A802" s="23"/>
       <c r="B802" s="20"/>
       <c r="C802" s="20"/>
       <c r="D802" s="20"/>
@@ -52107,7 +52106,7 @@
       <c r="Z802" s="20"/>
     </row>
     <row r="803">
-      <c r="A803" s="24"/>
+      <c r="A803" s="23"/>
       <c r="B803" s="20"/>
       <c r="C803" s="20"/>
       <c r="D803" s="20"/>
@@ -52135,7 +52134,7 @@
       <c r="Z803" s="20"/>
     </row>
     <row r="804">
-      <c r="A804" s="24"/>
+      <c r="A804" s="23"/>
       <c r="B804" s="20"/>
       <c r="C804" s="20"/>
       <c r="D804" s="20"/>
@@ -52163,7 +52162,7 @@
       <c r="Z804" s="20"/>
     </row>
     <row r="805">
-      <c r="A805" s="24"/>
+      <c r="A805" s="23"/>
       <c r="B805" s="20"/>
       <c r="C805" s="20"/>
       <c r="D805" s="20"/>
@@ -52191,7 +52190,7 @@
       <c r="Z805" s="20"/>
     </row>
     <row r="806">
-      <c r="A806" s="24"/>
+      <c r="A806" s="23"/>
       <c r="B806" s="20"/>
       <c r="C806" s="20"/>
       <c r="D806" s="20"/>
@@ -52219,7 +52218,7 @@
       <c r="Z806" s="20"/>
     </row>
     <row r="807">
-      <c r="A807" s="24"/>
+      <c r="A807" s="23"/>
       <c r="B807" s="20"/>
       <c r="C807" s="20"/>
       <c r="D807" s="20"/>
@@ -52247,7 +52246,7 @@
       <c r="Z807" s="20"/>
     </row>
     <row r="808">
-      <c r="A808" s="24"/>
+      <c r="A808" s="23"/>
       <c r="B808" s="20"/>
       <c r="C808" s="20"/>
       <c r="D808" s="20"/>
@@ -52275,7 +52274,7 @@
       <c r="Z808" s="20"/>
     </row>
     <row r="809">
-      <c r="A809" s="24"/>
+      <c r="A809" s="23"/>
       <c r="B809" s="20"/>
       <c r="C809" s="20"/>
       <c r="D809" s="20"/>
@@ -52303,7 +52302,7 @@
       <c r="Z809" s="20"/>
     </row>
     <row r="810">
-      <c r="A810" s="24"/>
+      <c r="A810" s="23"/>
       <c r="B810" s="20"/>
       <c r="C810" s="20"/>
       <c r="D810" s="20"/>
@@ -52331,7 +52330,7 @@
       <c r="Z810" s="20"/>
     </row>
     <row r="811">
-      <c r="A811" s="24"/>
+      <c r="A811" s="23"/>
       <c r="B811" s="20"/>
       <c r="C811" s="20"/>
       <c r="D811" s="20"/>
@@ -52359,7 +52358,7 @@
       <c r="Z811" s="20"/>
     </row>
     <row r="812">
-      <c r="A812" s="24"/>
+      <c r="A812" s="23"/>
       <c r="B812" s="20"/>
       <c r="C812" s="20"/>
       <c r="D812" s="20"/>
@@ -52387,7 +52386,7 @@
       <c r="Z812" s="20"/>
     </row>
     <row r="813">
-      <c r="A813" s="24"/>
+      <c r="A813" s="23"/>
       <c r="B813" s="20"/>
       <c r="C813" s="20"/>
       <c r="D813" s="20"/>
@@ -52415,7 +52414,7 @@
       <c r="Z813" s="20"/>
     </row>
     <row r="814">
-      <c r="A814" s="24"/>
+      <c r="A814" s="23"/>
       <c r="B814" s="20"/>
       <c r="C814" s="20"/>
       <c r="D814" s="20"/>
@@ -52443,7 +52442,7 @@
       <c r="Z814" s="20"/>
     </row>
     <row r="815">
-      <c r="A815" s="24"/>
+      <c r="A815" s="23"/>
       <c r="B815" s="20"/>
       <c r="C815" s="20"/>
       <c r="D815" s="20"/>
@@ -52471,7 +52470,7 @@
       <c r="Z815" s="20"/>
     </row>
     <row r="816">
-      <c r="A816" s="24"/>
+      <c r="A816" s="23"/>
       <c r="B816" s="20"/>
       <c r="C816" s="20"/>
       <c r="D816" s="20"/>
@@ -52499,7 +52498,7 @@
       <c r="Z816" s="20"/>
     </row>
     <row r="817">
-      <c r="A817" s="24"/>
+      <c r="A817" s="23"/>
       <c r="B817" s="20"/>
       <c r="C817" s="20"/>
       <c r="D817" s="20"/>
@@ -52527,7 +52526,7 @@
       <c r="Z817" s="20"/>
     </row>
     <row r="818">
-      <c r="A818" s="24"/>
+      <c r="A818" s="23"/>
       <c r="B818" s="20"/>
       <c r="C818" s="20"/>
       <c r="D818" s="20"/>
@@ -52555,7 +52554,7 @@
       <c r="Z818" s="20"/>
     </row>
     <row r="819">
-      <c r="A819" s="24"/>
+      <c r="A819" s="23"/>
       <c r="B819" s="20"/>
       <c r="C819" s="20"/>
       <c r="D819" s="20"/>
@@ -52583,7 +52582,7 @@
       <c r="Z819" s="20"/>
     </row>
     <row r="820">
-      <c r="A820" s="24"/>
+      <c r="A820" s="23"/>
       <c r="B820" s="20"/>
       <c r="C820" s="20"/>
       <c r="D820" s="20"/>
@@ -52611,7 +52610,7 @@
       <c r="Z820" s="20"/>
     </row>
     <row r="821">
-      <c r="A821" s="24"/>
+      <c r="A821" s="23"/>
       <c r="B821" s="20"/>
       <c r="C821" s="20"/>
       <c r="D821" s="20"/>
@@ -52639,7 +52638,7 @@
       <c r="Z821" s="20"/>
     </row>
     <row r="822">
-      <c r="A822" s="24"/>
+      <c r="A822" s="23"/>
       <c r="B822" s="20"/>
       <c r="C822" s="20"/>
       <c r="D822" s="20"/>
@@ -52667,7 +52666,7 @@
       <c r="Z822" s="20"/>
     </row>
     <row r="823">
-      <c r="A823" s="24"/>
+      <c r="A823" s="23"/>
       <c r="B823" s="20"/>
       <c r="C823" s="20"/>
       <c r="D823" s="20"/>
@@ -52695,7 +52694,7 @@
       <c r="Z823" s="20"/>
     </row>
     <row r="824">
-      <c r="A824" s="24"/>
+      <c r="A824" s="23"/>
       <c r="B824" s="20"/>
       <c r="C824" s="20"/>
       <c r="D824" s="20"/>
@@ -52723,7 +52722,7 @@
       <c r="Z824" s="20"/>
     </row>
     <row r="825">
-      <c r="A825" s="24"/>
+      <c r="A825" s="23"/>
       <c r="B825" s="20"/>
       <c r="C825" s="20"/>
       <c r="D825" s="20"/>
@@ -52751,7 +52750,7 @@
       <c r="Z825" s="20"/>
     </row>
     <row r="826">
-      <c r="A826" s="24"/>
+      <c r="A826" s="23"/>
       <c r="B826" s="20"/>
       <c r="C826" s="20"/>
       <c r="D826" s="20"/>
@@ -52779,7 +52778,7 @@
       <c r="Z826" s="20"/>
     </row>
     <row r="827">
-      <c r="A827" s="24"/>
+      <c r="A827" s="23"/>
       <c r="B827" s="20"/>
       <c r="C827" s="20"/>
       <c r="D827" s="20"/>
@@ -52807,7 +52806,7 @@
       <c r="Z827" s="20"/>
     </row>
     <row r="828">
-      <c r="A828" s="24"/>
+      <c r="A828" s="23"/>
       <c r="B828" s="20"/>
       <c r="C828" s="20"/>
       <c r="D828" s="20"/>
@@ -52835,7 +52834,7 @@
       <c r="Z828" s="20"/>
     </row>
     <row r="829">
-      <c r="A829" s="24"/>
+      <c r="A829" s="23"/>
       <c r="B829" s="20"/>
       <c r="C829" s="20"/>
       <c r="D829" s="20"/>
@@ -52863,7 +52862,7 @@
       <c r="Z829" s="20"/>
     </row>
     <row r="830">
-      <c r="A830" s="24"/>
+      <c r="A830" s="23"/>
       <c r="B830" s="20"/>
       <c r="C830" s="20"/>
       <c r="D830" s="20"/>
@@ -52891,7 +52890,7 @@
       <c r="Z830" s="20"/>
     </row>
     <row r="831">
-      <c r="A831" s="24"/>
+      <c r="A831" s="23"/>
       <c r="B831" s="20"/>
       <c r="C831" s="20"/>
       <c r="D831" s="20"/>
@@ -52919,7 +52918,7 @@
       <c r="Z831" s="20"/>
     </row>
     <row r="832">
-      <c r="A832" s="24"/>
+      <c r="A832" s="23"/>
       <c r="B832" s="20"/>
       <c r="C832" s="20"/>
       <c r="D832" s="20"/>
@@ -52947,7 +52946,7 @@
       <c r="Z832" s="20"/>
     </row>
     <row r="833">
-      <c r="A833" s="24"/>
+      <c r="A833" s="23"/>
       <c r="B833" s="20"/>
       <c r="C833" s="20"/>
       <c r="D833" s="20"/>
@@ -52975,7 +52974,7 @@
       <c r="Z833" s="20"/>
     </row>
     <row r="834">
-      <c r="A834" s="24"/>
+      <c r="A834" s="23"/>
       <c r="B834" s="20"/>
       <c r="C834" s="20"/>
       <c r="D834" s="20"/>
@@ -53003,7 +53002,7 @@
       <c r="Z834" s="20"/>
     </row>
     <row r="835">
-      <c r="A835" s="24"/>
+      <c r="A835" s="23"/>
       <c r="B835" s="20"/>
       <c r="C835" s="20"/>
       <c r="D835" s="20"/>
@@ -53031,7 +53030,7 @@
       <c r="Z835" s="20"/>
     </row>
     <row r="836">
-      <c r="A836" s="24"/>
+      <c r="A836" s="23"/>
       <c r="B836" s="20"/>
       <c r="C836" s="20"/>
       <c r="D836" s="20"/>
@@ -53059,7 +53058,7 @@
       <c r="Z836" s="20"/>
     </row>
     <row r="837">
-      <c r="A837" s="24"/>
+      <c r="A837" s="23"/>
       <c r="B837" s="20"/>
       <c r="C837" s="20"/>
       <c r="D837" s="20"/>
@@ -53087,7 +53086,7 @@
       <c r="Z837" s="20"/>
     </row>
     <row r="838">
-      <c r="A838" s="24"/>
+      <c r="A838" s="23"/>
       <c r="B838" s="20"/>
       <c r="C838" s="20"/>
       <c r="D838" s="20"/>
@@ -53115,7 +53114,7 @@
       <c r="Z838" s="20"/>
     </row>
     <row r="839">
-      <c r="A839" s="24"/>
+      <c r="A839" s="23"/>
       <c r="B839" s="20"/>
       <c r="C839" s="20"/>
       <c r="D839" s="20"/>
@@ -53143,7 +53142,7 @@
       <c r="Z839" s="20"/>
     </row>
     <row r="840">
-      <c r="A840" s="24"/>
+      <c r="A840" s="23"/>
       <c r="B840" s="20"/>
       <c r="C840" s="20"/>
       <c r="D840" s="20"/>
@@ -53171,7 +53170,7 @@
       <c r="Z840" s="20"/>
     </row>
     <row r="841">
-      <c r="A841" s="24"/>
+      <c r="A841" s="23"/>
       <c r="B841" s="20"/>
       <c r="C841" s="20"/>
       <c r="D841" s="20"/>
@@ -53199,7 +53198,7 @@
       <c r="Z841" s="20"/>
     </row>
     <row r="842">
-      <c r="A842" s="24"/>
+      <c r="A842" s="23"/>
       <c r="B842" s="20"/>
       <c r="C842" s="20"/>
       <c r="D842" s="20"/>
@@ -53227,7 +53226,7 @@
       <c r="Z842" s="20"/>
     </row>
     <row r="843">
-      <c r="A843" s="24"/>
+      <c r="A843" s="23"/>
       <c r="B843" s="20"/>
       <c r="C843" s="20"/>
       <c r="D843" s="20"/>
@@ -53255,7 +53254,7 @@
       <c r="Z843" s="20"/>
     </row>
     <row r="844">
-      <c r="A844" s="24"/>
+      <c r="A844" s="23"/>
       <c r="B844" s="20"/>
       <c r="C844" s="20"/>
       <c r="D844" s="20"/>
@@ -53283,7 +53282,7 @@
       <c r="Z844" s="20"/>
     </row>
     <row r="845">
-      <c r="A845" s="24"/>
+      <c r="A845" s="23"/>
       <c r="B845" s="20"/>
       <c r="C845" s="20"/>
       <c r="D845" s="20"/>
@@ -53311,7 +53310,7 @@
       <c r="Z845" s="20"/>
     </row>
     <row r="846">
-      <c r="A846" s="24"/>
+      <c r="A846" s="23"/>
       <c r="B846" s="20"/>
       <c r="C846" s="20"/>
       <c r="D846" s="20"/>
@@ -53339,7 +53338,7 @@
       <c r="Z846" s="20"/>
     </row>
     <row r="847">
-      <c r="A847" s="24"/>
+      <c r="A847" s="23"/>
       <c r="B847" s="20"/>
       <c r="C847" s="20"/>
       <c r="D847" s="20"/>
@@ -53367,7 +53366,7 @@
       <c r="Z847" s="20"/>
     </row>
     <row r="848">
-      <c r="A848" s="24"/>
+      <c r="A848" s="23"/>
       <c r="B848" s="20"/>
       <c r="C848" s="20"/>
       <c r="D848" s="20"/>
@@ -53395,7 +53394,7 @@
       <c r="Z848" s="20"/>
     </row>
     <row r="849">
-      <c r="A849" s="24"/>
+      <c r="A849" s="23"/>
       <c r="B849" s="20"/>
       <c r="C849" s="20"/>
       <c r="D849" s="20"/>
@@ -53423,7 +53422,7 @@
       <c r="Z849" s="20"/>
     </row>
     <row r="850">
-      <c r="A850" s="24"/>
+      <c r="A850" s="23"/>
       <c r="B850" s="20"/>
       <c r="C850" s="20"/>
       <c r="D850" s="20"/>
@@ -53451,7 +53450,7 @@
       <c r="Z850" s="20"/>
     </row>
     <row r="851">
-      <c r="A851" s="24"/>
+      <c r="A851" s="23"/>
       <c r="B851" s="20"/>
       <c r="C851" s="20"/>
       <c r="D851" s="20"/>
@@ -53479,7 +53478,7 @@
       <c r="Z851" s="20"/>
     </row>
     <row r="852">
-      <c r="A852" s="24"/>
+      <c r="A852" s="23"/>
       <c r="B852" s="20"/>
       <c r="C852" s="20"/>
       <c r="D852" s="20"/>
@@ -53507,7 +53506,7 @@
       <c r="Z852" s="20"/>
     </row>
     <row r="853">
-      <c r="A853" s="24"/>
+      <c r="A853" s="23"/>
       <c r="B853" s="20"/>
       <c r="C853" s="20"/>
       <c r="D853" s="20"/>
@@ -53535,7 +53534,7 @@
       <c r="Z853" s="20"/>
     </row>
     <row r="854">
-      <c r="A854" s="24"/>
+      <c r="A854" s="23"/>
       <c r="B854" s="20"/>
       <c r="C854" s="20"/>
       <c r="D854" s="20"/>
@@ -53563,7 +53562,7 @@
       <c r="Z854" s="20"/>
     </row>
     <row r="855">
-      <c r="A855" s="24"/>
+      <c r="A855" s="23"/>
       <c r="B855" s="20"/>
       <c r="C855" s="20"/>
       <c r="D855" s="20"/>
@@ -53591,7 +53590,7 @@
       <c r="Z855" s="20"/>
     </row>
     <row r="856">
-      <c r="A856" s="24"/>
+      <c r="A856" s="23"/>
       <c r="B856" s="20"/>
       <c r="C856" s="20"/>
       <c r="D856" s="20"/>
@@ -53619,7 +53618,7 @@
       <c r="Z856" s="20"/>
     </row>
     <row r="857">
-      <c r="A857" s="24"/>
+      <c r="A857" s="23"/>
       <c r="B857" s="20"/>
       <c r="C857" s="20"/>
       <c r="D857" s="20"/>
@@ -53647,7 +53646,7 @@
       <c r="Z857" s="20"/>
     </row>
     <row r="858">
-      <c r="A858" s="24"/>
+      <c r="A858" s="23"/>
       <c r="B858" s="20"/>
       <c r="C858" s="20"/>
       <c r="D858" s="20"/>
@@ -53675,7 +53674,7 @@
       <c r="Z858" s="20"/>
     </row>
     <row r="859">
-      <c r="A859" s="24"/>
+      <c r="A859" s="23"/>
       <c r="B859" s="20"/>
       <c r="C859" s="20"/>
       <c r="D859" s="20"/>
@@ -53703,7 +53702,7 @@
       <c r="Z859" s="20"/>
     </row>
     <row r="860">
-      <c r="A860" s="24"/>
+      <c r="A860" s="23"/>
       <c r="B860" s="20"/>
       <c r="C860" s="20"/>
       <c r="D860" s="20"/>
@@ -53731,7 +53730,7 @@
       <c r="Z860" s="20"/>
     </row>
     <row r="861">
-      <c r="A861" s="24"/>
+      <c r="A861" s="23"/>
       <c r="B861" s="20"/>
       <c r="C861" s="20"/>
       <c r="D861" s="20"/>
@@ -53759,7 +53758,7 @@
       <c r="Z861" s="20"/>
     </row>
     <row r="862">
-      <c r="A862" s="24"/>
+      <c r="A862" s="23"/>
       <c r="B862" s="20"/>
       <c r="C862" s="20"/>
       <c r="D862" s="20"/>
@@ -53787,7 +53786,7 @@
       <c r="Z862" s="20"/>
     </row>
     <row r="863">
-      <c r="A863" s="24"/>
+      <c r="A863" s="23"/>
       <c r="B863" s="20"/>
       <c r="C863" s="20"/>
       <c r="D863" s="20"/>
@@ -53815,7 +53814,7 @@
       <c r="Z863" s="20"/>
     </row>
     <row r="864">
-      <c r="A864" s="24"/>
+      <c r="A864" s="23"/>
       <c r="B864" s="20"/>
       <c r="C864" s="20"/>
       <c r="D864" s="20"/>
@@ -53843,7 +53842,7 @@
       <c r="Z864" s="20"/>
     </row>
     <row r="865">
-      <c r="A865" s="24"/>
+      <c r="A865" s="23"/>
       <c r="B865" s="20"/>
       <c r="C865" s="20"/>
       <c r="D865" s="20"/>
@@ -53871,7 +53870,7 @@
       <c r="Z865" s="20"/>
     </row>
     <row r="866">
-      <c r="A866" s="24"/>
+      <c r="A866" s="23"/>
       <c r="B866" s="20"/>
       <c r="C866" s="20"/>
       <c r="D866" s="20"/>
@@ -53899,7 +53898,7 @@
       <c r="Z866" s="20"/>
     </row>
     <row r="867">
-      <c r="A867" s="24"/>
+      <c r="A867" s="23"/>
       <c r="B867" s="20"/>
       <c r="C867" s="20"/>
       <c r="D867" s="20"/>
@@ -53927,7 +53926,7 @@
       <c r="Z867" s="20"/>
     </row>
     <row r="868">
-      <c r="A868" s="24"/>
+      <c r="A868" s="23"/>
       <c r="B868" s="20"/>
       <c r="C868" s="20"/>
       <c r="D868" s="20"/>
@@ -53955,7 +53954,7 @@
       <c r="Z868" s="20"/>
     </row>
     <row r="869">
-      <c r="A869" s="24"/>
+      <c r="A869" s="23"/>
       <c r="B869" s="20"/>
       <c r="C869" s="20"/>
       <c r="D869" s="20"/>
@@ -53983,7 +53982,7 @@
       <c r="Z869" s="20"/>
     </row>
     <row r="870">
-      <c r="A870" s="24"/>
+      <c r="A870" s="23"/>
       <c r="B870" s="20"/>
       <c r="C870" s="20"/>
       <c r="D870" s="20"/>
@@ -54011,7 +54010,7 @@
       <c r="Z870" s="20"/>
     </row>
     <row r="871">
-      <c r="A871" s="24"/>
+      <c r="A871" s="23"/>
       <c r="B871" s="20"/>
       <c r="C871" s="20"/>
       <c r="D871" s="20"/>
@@ -54039,7 +54038,7 @@
       <c r="Z871" s="20"/>
     </row>
     <row r="872">
-      <c r="A872" s="24"/>
+      <c r="A872" s="23"/>
       <c r="B872" s="20"/>
       <c r="C872" s="20"/>
       <c r="D872" s="20"/>
@@ -54067,7 +54066,7 @@
       <c r="Z872" s="20"/>
     </row>
     <row r="873">
-      <c r="A873" s="24"/>
+      <c r="A873" s="23"/>
       <c r="B873" s="20"/>
       <c r="C873" s="20"/>
       <c r="D873" s="20"/>
@@ -54095,7 +54094,7 @@
       <c r="Z873" s="20"/>
     </row>
     <row r="874">
-      <c r="A874" s="24"/>
+      <c r="A874" s="23"/>
       <c r="B874" s="20"/>
       <c r="C874" s="20"/>
       <c r="D874" s="20"/>
@@ -54123,7 +54122,7 @@
       <c r="Z874" s="20"/>
     </row>
     <row r="875">
-      <c r="A875" s="24"/>
+      <c r="A875" s="23"/>
       <c r="B875" s="20"/>
       <c r="C875" s="20"/>
       <c r="D875" s="20"/>
@@ -54151,7 +54150,7 @@
       <c r="Z875" s="20"/>
     </row>
     <row r="876">
-      <c r="A876" s="24"/>
+      <c r="A876" s="23"/>
       <c r="B876" s="20"/>
       <c r="C876" s="20"/>
       <c r="D876" s="20"/>
@@ -54179,7 +54178,7 @@
       <c r="Z876" s="20"/>
     </row>
     <row r="877">
-      <c r="A877" s="24"/>
+      <c r="A877" s="23"/>
       <c r="B877" s="20"/>
       <c r="C877" s="20"/>
       <c r="D877" s="20"/>
@@ -54207,7 +54206,7 @@
       <c r="Z877" s="20"/>
     </row>
     <row r="878">
-      <c r="A878" s="24"/>
+      <c r="A878" s="23"/>
       <c r="B878" s="20"/>
       <c r="C878" s="20"/>
       <c r="D878" s="20"/>
@@ -54235,7 +54234,7 @@
       <c r="Z878" s="20"/>
     </row>
     <row r="879">
-      <c r="A879" s="24"/>
+      <c r="A879" s="23"/>
       <c r="B879" s="20"/>
       <c r="C879" s="20"/>
       <c r="D879" s="20"/>
@@ -54263,7 +54262,7 @@
       <c r="Z879" s="20"/>
     </row>
     <row r="880">
-      <c r="A880" s="24"/>
+      <c r="A880" s="23"/>
       <c r="B880" s="20"/>
       <c r="C880" s="20"/>
       <c r="D880" s="20"/>
@@ -54291,7 +54290,7 @@
       <c r="Z880" s="20"/>
     </row>
     <row r="881">
-      <c r="A881" s="24"/>
+      <c r="A881" s="23"/>
       <c r="B881" s="20"/>
       <c r="C881" s="20"/>
       <c r="D881" s="20"/>
@@ -54319,7 +54318,7 @@
       <c r="Z881" s="20"/>
     </row>
     <row r="882">
-      <c r="A882" s="24"/>
+      <c r="A882" s="23"/>
       <c r="B882" s="20"/>
       <c r="C882" s="20"/>
       <c r="D882" s="20"/>
@@ -54347,7 +54346,7 @@
       <c r="Z882" s="20"/>
     </row>
     <row r="883">
-      <c r="A883" s="24"/>
+      <c r="A883" s="23"/>
       <c r="B883" s="20"/>
       <c r="C883" s="20"/>
       <c r="D883" s="20"/>
@@ -54375,7 +54374,7 @@
       <c r="Z883" s="20"/>
     </row>
     <row r="884">
-      <c r="A884" s="24"/>
+      <c r="A884" s="23"/>
       <c r="B884" s="20"/>
       <c r="C884" s="20"/>
       <c r="D884" s="20"/>
@@ -54403,7 +54402,7 @@
       <c r="Z884" s="20"/>
     </row>
     <row r="885">
-      <c r="A885" s="24"/>
+      <c r="A885" s="23"/>
       <c r="B885" s="20"/>
       <c r="C885" s="20"/>
       <c r="D885" s="20"/>
@@ -54431,7 +54430,7 @@
       <c r="Z885" s="20"/>
     </row>
     <row r="886">
-      <c r="A886" s="24"/>
+      <c r="A886" s="23"/>
       <c r="B886" s="20"/>
       <c r="C886" s="20"/>
       <c r="D886" s="20"/>
@@ -54459,7 +54458,7 @@
       <c r="Z886" s="20"/>
     </row>
     <row r="887">
-      <c r="A887" s="24"/>
+      <c r="A887" s="23"/>
       <c r="B887" s="20"/>
       <c r="C887" s="20"/>
       <c r="D887" s="20"/>
@@ -54487,7 +54486,7 @@
       <c r="Z887" s="20"/>
     </row>
     <row r="888">
-      <c r="A888" s="24"/>
+      <c r="A888" s="23"/>
       <c r="B888" s="20"/>
       <c r="C888" s="20"/>
       <c r="D888" s="20"/>
@@ -54515,7 +54514,7 @@
       <c r="Z888" s="20"/>
     </row>
     <row r="889">
-      <c r="A889" s="24"/>
+      <c r="A889" s="23"/>
       <c r="B889" s="20"/>
       <c r="C889" s="20"/>
       <c r="D889" s="20"/>
@@ -54543,7 +54542,7 @@
       <c r="Z889" s="20"/>
     </row>
     <row r="890">
-      <c r="A890" s="24"/>
+      <c r="A890" s="23"/>
       <c r="B890" s="20"/>
       <c r="C890" s="20"/>
       <c r="D890" s="20"/>
@@ -54571,7 +54570,7 @@
       <c r="Z890" s="20"/>
     </row>
     <row r="891">
-      <c r="A891" s="24"/>
+      <c r="A891" s="23"/>
       <c r="B891" s="20"/>
       <c r="C891" s="20"/>
       <c r="D891" s="20"/>
@@ -54599,7 +54598,7 @@
       <c r="Z891" s="20"/>
     </row>
     <row r="892">
-      <c r="A892" s="24"/>
+      <c r="A892" s="23"/>
       <c r="B892" s="20"/>
       <c r="C892" s="20"/>
       <c r="D892" s="20"/>
@@ -54627,7 +54626,7 @@
       <c r="Z892" s="20"/>
     </row>
     <row r="893">
-      <c r="A893" s="24"/>
+      <c r="A893" s="23"/>
       <c r="B893" s="20"/>
       <c r="C893" s="20"/>
       <c r="D893" s="20"/>
@@ -54655,7 +54654,7 @@
       <c r="Z893" s="20"/>
     </row>
     <row r="894">
-      <c r="A894" s="24"/>
+      <c r="A894" s="23"/>
       <c r="B894" s="20"/>
       <c r="C894" s="20"/>
       <c r="D894" s="20"/>
@@ -54683,7 +54682,7 @@
       <c r="Z894" s="20"/>
     </row>
     <row r="895">
-      <c r="A895" s="24"/>
+      <c r="A895" s="23"/>
       <c r="B895" s="20"/>
       <c r="C895" s="20"/>
       <c r="D895" s="20"/>
@@ -54711,7 +54710,7 @@
       <c r="Z895" s="20"/>
     </row>
     <row r="896">
-      <c r="A896" s="24"/>
+      <c r="A896" s="23"/>
       <c r="B896" s="20"/>
       <c r="C896" s="20"/>
       <c r="D896" s="20"/>
@@ -54739,7 +54738,7 @@
       <c r="Z896" s="20"/>
     </row>
     <row r="897">
-      <c r="A897" s="24"/>
+      <c r="A897" s="23"/>
       <c r="B897" s="20"/>
       <c r="C897" s="20"/>
       <c r="D897" s="20"/>
@@ -54767,7 +54766,7 @@
       <c r="Z897" s="20"/>
     </row>
     <row r="898">
-      <c r="A898" s="24"/>
+      <c r="A898" s="23"/>
       <c r="B898" s="20"/>
       <c r="C898" s="20"/>
       <c r="D898" s="20"/>
@@ -54795,7 +54794,7 @@
       <c r="Z898" s="20"/>
     </row>
     <row r="899">
-      <c r="A899" s="24"/>
+      <c r="A899" s="23"/>
       <c r="B899" s="20"/>
       <c r="C899" s="20"/>
       <c r="D899" s="20"/>
@@ -54823,7 +54822,7 @@
       <c r="Z899" s="20"/>
     </row>
     <row r="900">
-      <c r="A900" s="24"/>
+      <c r="A900" s="23"/>
       <c r="B900" s="20"/>
       <c r="C900" s="20"/>
       <c r="D900" s="20"/>
@@ -54851,7 +54850,7 @@
       <c r="Z900" s="20"/>
     </row>
     <row r="901">
-      <c r="A901" s="24"/>
+      <c r="A901" s="23"/>
       <c r="B901" s="20"/>
       <c r="C901" s="20"/>
       <c r="D901" s="20"/>
@@ -54879,7 +54878,7 @@
       <c r="Z901" s="20"/>
     </row>
     <row r="902">
-      <c r="A902" s="24"/>
+      <c r="A902" s="23"/>
       <c r="B902" s="20"/>
       <c r="C902" s="20"/>
       <c r="D902" s="20"/>
@@ -54907,7 +54906,7 @@
       <c r="Z902" s="20"/>
     </row>
     <row r="903">
-      <c r="A903" s="24"/>
+      <c r="A903" s="23"/>
       <c r="B903" s="20"/>
       <c r="C903" s="20"/>
       <c r="D903" s="20"/>
@@ -54935,7 +54934,7 @@
       <c r="Z903" s="20"/>
     </row>
     <row r="904">
-      <c r="A904" s="24"/>
+      <c r="A904" s="23"/>
       <c r="B904" s="20"/>
       <c r="C904" s="20"/>
       <c r="D904" s="20"/>
@@ -54963,7 +54962,7 @@
       <c r="Z904" s="20"/>
     </row>
     <row r="905">
-      <c r="A905" s="24"/>
+      <c r="A905" s="23"/>
       <c r="B905" s="20"/>
       <c r="C905" s="20"/>
       <c r="D905" s="20"/>
@@ -54991,7 +54990,7 @@
       <c r="Z905" s="20"/>
     </row>
     <row r="906">
-      <c r="A906" s="24"/>
+      <c r="A906" s="23"/>
       <c r="B906" s="20"/>
       <c r="C906" s="20"/>
       <c r="D906" s="20"/>
@@ -55019,7 +55018,7 @@
       <c r="Z906" s="20"/>
     </row>
     <row r="907">
-      <c r="A907" s="24"/>
+      <c r="A907" s="23"/>
       <c r="B907" s="20"/>
       <c r="C907" s="20"/>
       <c r="D907" s="20"/>
@@ -55047,7 +55046,7 @@
       <c r="Z907" s="20"/>
     </row>
     <row r="908">
-      <c r="A908" s="24"/>
+      <c r="A908" s="23"/>
       <c r="B908" s="20"/>
       <c r="C908" s="20"/>
       <c r="D908" s="20"/>
@@ -55075,7 +55074,7 @@
       <c r="Z908" s="20"/>
     </row>
     <row r="909">
-      <c r="A909" s="24"/>
+      <c r="A909" s="23"/>
       <c r="B909" s="20"/>
       <c r="C909" s="20"/>
       <c r="D909" s="20"/>
@@ -55103,7 +55102,7 @@
       <c r="Z909" s="20"/>
     </row>
     <row r="910">
-      <c r="A910" s="24"/>
+      <c r="A910" s="23"/>
       <c r="B910" s="20"/>
       <c r="C910" s="20"/>
       <c r="D910" s="20"/>
@@ -55131,7 +55130,7 @@
       <c r="Z910" s="20"/>
     </row>
     <row r="911">
-      <c r="A911" s="24"/>
+      <c r="A911" s="23"/>
       <c r="B911" s="20"/>
       <c r="C911" s="20"/>
       <c r="D911" s="20"/>
@@ -55159,7 +55158,7 @@
       <c r="Z911" s="20"/>
     </row>
     <row r="912">
-      <c r="A912" s="24"/>
+      <c r="A912" s="23"/>
       <c r="B912" s="20"/>
       <c r="C912" s="20"/>
       <c r="D912" s="20"/>
@@ -55187,7 +55186,7 @@
       <c r="Z912" s="20"/>
     </row>
     <row r="913">
-      <c r="A913" s="24"/>
+      <c r="A913" s="23"/>
       <c r="B913" s="20"/>
       <c r="C913" s="20"/>
       <c r="D913" s="20"/>
@@ -55215,7 +55214,7 @@
       <c r="Z913" s="20"/>
     </row>
     <row r="914">
-      <c r="A914" s="24"/>
+      <c r="A914" s="23"/>
       <c r="B914" s="20"/>
       <c r="C914" s="20"/>
       <c r="D914" s="20"/>
@@ -55243,7 +55242,7 @@
       <c r="Z914" s="20"/>
     </row>
     <row r="915">
-      <c r="A915" s="24"/>
+      <c r="A915" s="23"/>
       <c r="B915" s="20"/>
       <c r="C915" s="20"/>
       <c r="D915" s="20"/>
@@ -55271,7 +55270,7 @@
       <c r="Z915" s="20"/>
     </row>
     <row r="916">
-      <c r="A916" s="24"/>
+      <c r="A916" s="23"/>
       <c r="B916" s="20"/>
       <c r="C916" s="20"/>
       <c r="D916" s="20"/>
@@ -55299,7 +55298,7 @@
       <c r="Z916" s="20"/>
     </row>
     <row r="917">
-      <c r="A917" s="24"/>
+      <c r="A917" s="23"/>
       <c r="B917" s="20"/>
       <c r="C917" s="20"/>
       <c r="D917" s="20"/>
@@ -55327,7 +55326,7 @@
       <c r="Z917" s="20"/>
     </row>
     <row r="918">
-      <c r="A918" s="24"/>
+      <c r="A918" s="23"/>
       <c r="B918" s="20"/>
       <c r="C918" s="20"/>
       <c r="D918" s="20"/>
@@ -55355,7 +55354,7 @@
       <c r="Z918" s="20"/>
     </row>
     <row r="919">
-      <c r="A919" s="24"/>
+      <c r="A919" s="23"/>
       <c r="B919" s="20"/>
       <c r="C919" s="20"/>
       <c r="D919" s="20"/>
@@ -55383,7 +55382,7 @@
       <c r="Z919" s="20"/>
     </row>
     <row r="920">
-      <c r="A920" s="24"/>
+      <c r="A920" s="23"/>
       <c r="B920" s="20"/>
       <c r="C920" s="20"/>
       <c r="D920" s="20"/>
@@ -55411,7 +55410,7 @@
       <c r="Z920" s="20"/>
     </row>
     <row r="921">
-      <c r="A921" s="24"/>
+      <c r="A921" s="23"/>
       <c r="B921" s="20"/>
       <c r="C921" s="20"/>
       <c r="D921" s="20"/>
@@ -55439,7 +55438,7 @@
       <c r="Z921" s="20"/>
     </row>
     <row r="922">
-      <c r="A922" s="24"/>
+      <c r="A922" s="23"/>
       <c r="B922" s="20"/>
       <c r="C922" s="20"/>
       <c r="D922" s="20"/>
@@ -55467,7 +55466,7 @@
       <c r="Z922" s="20"/>
     </row>
     <row r="923">
-      <c r="A923" s="24"/>
+      <c r="A923" s="23"/>
       <c r="B923" s="20"/>
       <c r="C923" s="20"/>
       <c r="D923" s="20"/>
@@ -55495,7 +55494,7 @@
       <c r="Z923" s="20"/>
     </row>
     <row r="924">
-      <c r="A924" s="24"/>
+      <c r="A924" s="23"/>
       <c r="B924" s="20"/>
       <c r="C924" s="20"/>
       <c r="D924" s="20"/>
@@ -55523,7 +55522,7 @@
       <c r="Z924" s="20"/>
     </row>
     <row r="925">
-      <c r="A925" s="24"/>
+      <c r="A925" s="23"/>
       <c r="B925" s="20"/>
       <c r="C925" s="20"/>
       <c r="D925" s="20"/>
@@ -55551,7 +55550,7 @@
       <c r="Z925" s="20"/>
     </row>
     <row r="926">
-      <c r="A926" s="24"/>
+      <c r="A926" s="23"/>
       <c r="B926" s="20"/>
       <c r="C926" s="20"/>
       <c r="D926" s="20"/>
@@ -55579,7 +55578,7 @@
       <c r="Z926" s="20"/>
     </row>
     <row r="927">
-      <c r="A927" s="24"/>
+      <c r="A927" s="23"/>
       <c r="B927" s="20"/>
       <c r="C927" s="20"/>
       <c r="D927" s="20"/>
@@ -55607,7 +55606,7 @@
       <c r="Z927" s="20"/>
     </row>
     <row r="928">
-      <c r="A928" s="24"/>
+      <c r="A928" s="23"/>
       <c r="B928" s="20"/>
       <c r="C928" s="20"/>
       <c r="D928" s="20"/>
@@ -55635,7 +55634,7 @@
       <c r="Z928" s="20"/>
     </row>
     <row r="929">
-      <c r="A929" s="24"/>
+      <c r="A929" s="23"/>
       <c r="B929" s="20"/>
       <c r="C929" s="20"/>
       <c r="D929" s="20"/>
@@ -55663,7 +55662,7 @@
       <c r="Z929" s="20"/>
     </row>
     <row r="930">
-      <c r="A930" s="24"/>
+      <c r="A930" s="23"/>
       <c r="B930" s="20"/>
       <c r="C930" s="20"/>
       <c r="D930" s="20"/>
@@ -55691,7 +55690,7 @@
       <c r="Z930" s="20"/>
     </row>
     <row r="931">
-      <c r="A931" s="24"/>
+      <c r="A931" s="23"/>
       <c r="B931" s="20"/>
       <c r="C931" s="20"/>
       <c r="D931" s="20"/>
@@ -55719,7 +55718,7 @@
       <c r="Z931" s="20"/>
     </row>
     <row r="932">
-      <c r="A932" s="24"/>
+      <c r="A932" s="23"/>
       <c r="B932" s="20"/>
       <c r="C932" s="20"/>
       <c r="D932" s="20"/>
@@ -55747,7 +55746,7 @@
       <c r="Z932" s="20"/>
     </row>
     <row r="933">
-      <c r="A933" s="24"/>
+      <c r="A933" s="23"/>
       <c r="B933" s="20"/>
       <c r="C933" s="20"/>
       <c r="D933" s="20"/>
@@ -55775,7 +55774,7 @@
       <c r="Z933" s="20"/>
     </row>
     <row r="934">
-      <c r="A934" s="24"/>
+      <c r="A934" s="23"/>
       <c r="B934" s="20"/>
       <c r="C934" s="20"/>
       <c r="D934" s="20"/>
@@ -55803,7 +55802,7 @@
       <c r="Z934" s="20"/>
     </row>
     <row r="935">
-      <c r="A935" s="24"/>
+      <c r="A935" s="23"/>
       <c r="B935" s="20"/>
       <c r="C935" s="20"/>
       <c r="D935" s="20"/>
@@ -55831,7 +55830,7 @@
       <c r="Z935" s="20"/>
     </row>
     <row r="936">
-      <c r="A936" s="24"/>
+      <c r="A936" s="23"/>
       <c r="B936" s="20"/>
       <c r="C936" s="20"/>
       <c r="D936" s="20"/>
@@ -55859,7 +55858,7 @@
       <c r="Z936" s="20"/>
     </row>
     <row r="937">
-      <c r="A937" s="24"/>
+      <c r="A937" s="23"/>
       <c r="B937" s="20"/>
       <c r="C937" s="20"/>
       <c r="D937" s="20"/>
@@ -55887,7 +55886,7 @@
       <c r="Z937" s="20"/>
     </row>
     <row r="938">
-      <c r="A938" s="24"/>
+      <c r="A938" s="23"/>
       <c r="B938" s="20"/>
       <c r="C938" s="20"/>
       <c r="D938" s="20"/>
@@ -55915,7 +55914,7 @@
       <c r="Z938" s="20"/>
     </row>
     <row r="939">
-      <c r="A939" s="24"/>
+      <c r="A939" s="23"/>
       <c r="B939" s="20"/>
       <c r="C939" s="20"/>
       <c r="D939" s="20"/>
@@ -55943,7 +55942,7 @@
       <c r="Z939" s="20"/>
     </row>
     <row r="940">
-      <c r="A940" s="24"/>
+      <c r="A940" s="23"/>
       <c r="B940" s="20"/>
       <c r="C940" s="20"/>
       <c r="D940" s="20"/>
@@ -55971,7 +55970,7 @@
       <c r="Z940" s="20"/>
     </row>
     <row r="941">
-      <c r="A941" s="24"/>
+      <c r="A941" s="23"/>
       <c r="B941" s="20"/>
       <c r="C941" s="20"/>
       <c r="D941" s="20"/>
@@ -55999,7 +55998,7 @@
       <c r="Z941" s="20"/>
     </row>
     <row r="942">
-      <c r="A942" s="24"/>
+      <c r="A942" s="23"/>
       <c r="B942" s="20"/>
       <c r="C942" s="20"/>
       <c r="D942" s="20"/>
@@ -56027,7 +56026,7 @@
       <c r="Z942" s="20"/>
     </row>
     <row r="943">
-      <c r="A943" s="24"/>
+      <c r="A943" s="23"/>
       <c r="B943" s="20"/>
       <c r="C943" s="20"/>
       <c r="D943" s="20"/>
@@ -56055,7 +56054,7 @@
       <c r="Z943" s="20"/>
     </row>
     <row r="944">
-      <c r="A944" s="24"/>
+      <c r="A944" s="23"/>
       <c r="B944" s="20"/>
       <c r="C944" s="20"/>
       <c r="D944" s="20"/>
@@ -56083,7 +56082,7 @@
       <c r="Z944" s="20"/>
     </row>
     <row r="945">
-      <c r="A945" s="24"/>
+      <c r="A945" s="23"/>
       <c r="B945" s="20"/>
       <c r="C945" s="20"/>
       <c r="D945" s="20"/>
@@ -56111,7 +56110,7 @@
       <c r="Z945" s="20"/>
     </row>
     <row r="946">
-      <c r="A946" s="24"/>
+      <c r="A946" s="23"/>
       <c r="B946" s="20"/>
       <c r="C946" s="20"/>
       <c r="D946" s="20"/>
@@ -56139,7 +56138,7 @@
       <c r="Z946" s="20"/>
     </row>
     <row r="947">
-      <c r="A947" s="24"/>
+      <c r="A947" s="23"/>
       <c r="B947" s="20"/>
       <c r="C947" s="20"/>
       <c r="D947" s="20"/>
@@ -56167,7 +56166,7 @@
       <c r="Z947" s="20"/>
     </row>
     <row r="948">
-      <c r="A948" s="24"/>
+      <c r="A948" s="23"/>
       <c r="B948" s="20"/>
       <c r="C948" s="20"/>
       <c r="D948" s="20"/>
@@ -56195,7 +56194,7 @@
       <c r="Z948" s="20"/>
     </row>
     <row r="949">
-      <c r="A949" s="24"/>
+      <c r="A949" s="23"/>
       <c r="B949" s="20"/>
       <c r="C949" s="20"/>
       <c r="D949" s="20"/>
@@ -56223,7 +56222,7 @@
       <c r="Z949" s="20"/>
     </row>
     <row r="950">
-      <c r="A950" s="24"/>
+      <c r="A950" s="23"/>
       <c r="B950" s="20"/>
       <c r="C950" s="20"/>
       <c r="D950" s="20"/>
@@ -56251,7 +56250,7 @@
       <c r="Z950" s="20"/>
     </row>
     <row r="951">
-      <c r="A951" s="24"/>
+      <c r="A951" s="23"/>
       <c r="B951" s="20"/>
       <c r="C951" s="20"/>
       <c r="D951" s="20"/>
@@ -56279,7 +56278,7 @@
       <c r="Z951" s="20"/>
     </row>
     <row r="952">
-      <c r="A952" s="24"/>
+      <c r="A952" s="23"/>
       <c r="B952" s="20"/>
       <c r="C952" s="20"/>
       <c r="D952" s="20"/>
@@ -56307,7 +56306,7 @@
       <c r="Z952" s="20"/>
     </row>
     <row r="953">
-      <c r="A953" s="24"/>
+      <c r="A953" s="23"/>
       <c r="B953" s="20"/>
       <c r="C953" s="20"/>
       <c r="D953" s="20"/>
@@ -56335,7 +56334,7 @@
       <c r="Z953" s="20"/>
     </row>
     <row r="954">
-      <c r="A954" s="24"/>
+      <c r="A954" s="23"/>
       <c r="B954" s="20"/>
       <c r="C954" s="20"/>
       <c r="D954" s="20"/>
@@ -56363,7 +56362,7 @@
       <c r="Z954" s="20"/>
     </row>
     <row r="955">
-      <c r="A955" s="24"/>
+      <c r="A955" s="23"/>
       <c r="B955" s="20"/>
       <c r="C955" s="20"/>
       <c r="D955" s="20"/>
@@ -56391,7 +56390,7 @@
       <c r="Z955" s="20"/>
     </row>
     <row r="956">
-      <c r="A956" s="24"/>
+      <c r="A956" s="23"/>
       <c r="B956" s="20"/>
       <c r="C956" s="20"/>
       <c r="D956" s="20"/>
@@ -56419,7 +56418,7 @@
       <c r="Z956" s="20"/>
     </row>
     <row r="957">
-      <c r="A957" s="24"/>
+      <c r="A957" s="23"/>
       <c r="B957" s="20"/>
       <c r="C957" s="20"/>
       <c r="D957" s="20"/>
@@ -56447,7 +56446,7 @@
       <c r="Z957" s="20"/>
     </row>
     <row r="958">
-      <c r="A958" s="24"/>
+      <c r="A958" s="23"/>
       <c r="B958" s="20"/>
       <c r="C958" s="20"/>
       <c r="D958" s="20"/>
@@ -56475,7 +56474,7 @@
       <c r="Z958" s="20"/>
     </row>
     <row r="959">
-      <c r="A959" s="24"/>
+      <c r="A959" s="23"/>
       <c r="B959" s="20"/>
       <c r="C959" s="20"/>
       <c r="D959" s="20"/>
@@ -56503,7 +56502,7 @@
       <c r="Z959" s="20"/>
     </row>
     <row r="960">
-      <c r="A960" s="24"/>
+      <c r="A960" s="23"/>
       <c r="B960" s="20"/>
       <c r="C960" s="20"/>
       <c r="D960" s="20"/>
@@ -56531,7 +56530,7 @@
       <c r="Z960" s="20"/>
     </row>
     <row r="961">
-      <c r="A961" s="24"/>
+      <c r="A961" s="23"/>
       <c r="B961" s="20"/>
       <c r="C961" s="20"/>
       <c r="D961" s="20"/>
@@ -56559,7 +56558,7 @@
       <c r="Z961" s="20"/>
     </row>
     <row r="962">
-      <c r="A962" s="24"/>
+      <c r="A962" s="23"/>
       <c r="B962" s="20"/>
       <c r="C962" s="20"/>
       <c r="D962" s="20"/>
@@ -56587,7 +56586,7 @@
       <c r="Z962" s="20"/>
     </row>
     <row r="963">
-      <c r="A963" s="24"/>
+      <c r="A963" s="23"/>
       <c r="B963" s="20"/>
       <c r="C963" s="20"/>
       <c r="D963" s="20"/>
@@ -56615,7 +56614,7 @@
       <c r="Z963" s="20"/>
     </row>
     <row r="964">
-      <c r="A964" s="24"/>
+      <c r="A964" s="23"/>
       <c r="B964" s="20"/>
       <c r="C964" s="20"/>
       <c r="D964" s="20"/>
@@ -56643,7 +56642,7 @@
       <c r="Z964" s="20"/>
     </row>
     <row r="965">
-      <c r="A965" s="24"/>
+      <c r="A965" s="23"/>
       <c r="B965" s="20"/>
       <c r="C965" s="20"/>
       <c r="D965" s="20"/>
@@ -56671,7 +56670,7 @@
       <c r="Z965" s="20"/>
     </row>
     <row r="966">
-      <c r="A966" s="24"/>
+      <c r="A966" s="23"/>
       <c r="B966" s="20"/>
       <c r="C966" s="20"/>
       <c r="D966" s="20"/>
@@ -56699,7 +56698,7 @@
       <c r="Z966" s="20"/>
     </row>
     <row r="967">
-      <c r="A967" s="24"/>
+      <c r="A967" s="23"/>
       <c r="B967" s="20"/>
       <c r="C967" s="20"/>
       <c r="D967" s="20"/>
@@ -56727,7 +56726,7 @@
       <c r="Z967" s="20"/>
     </row>
     <row r="968">
-      <c r="A968" s="24"/>
+      <c r="A968" s="23"/>
       <c r="B968" s="20"/>
       <c r="C968" s="20"/>
       <c r="D968" s="20"/>
@@ -56755,7 +56754,7 @@
       <c r="Z968" s="20"/>
     </row>
     <row r="969">
-      <c r="A969" s="24"/>
+      <c r="A969" s="23"/>
       <c r="B969" s="20"/>
       <c r="C969" s="20"/>
       <c r="D969" s="20"/>
@@ -56783,7 +56782,7 @@
       <c r="Z969" s="20"/>
     </row>
     <row r="970">
-      <c r="A970" s="24"/>
+      <c r="A970" s="23"/>
       <c r="B970" s="20"/>
       <c r="C970" s="20"/>
       <c r="D970" s="20"/>
@@ -56811,7 +56810,7 @@
       <c r="Z970" s="20"/>
     </row>
     <row r="971">
-      <c r="A971" s="24"/>
+      <c r="A971" s="23"/>
       <c r="B971" s="20"/>
       <c r="C971" s="20"/>
       <c r="D971" s="20"/>
@@ -56839,7 +56838,7 @@
       <c r="Z971" s="20"/>
     </row>
     <row r="972">
-      <c r="A972" s="24"/>
+      <c r="A972" s="23"/>
       <c r="B972" s="20"/>
       <c r="C972" s="20"/>
       <c r="D972" s="20"/>
@@ -56867,7 +56866,7 @@
       <c r="Z972" s="20"/>
     </row>
     <row r="973">
-      <c r="A973" s="24"/>
+      <c r="A973" s="23"/>
       <c r="B973" s="20"/>
       <c r="C973" s="20"/>
       <c r="D973" s="20"/>
@@ -56895,7 +56894,7 @@
       <c r="Z973" s="20"/>
     </row>
     <row r="974">
-      <c r="A974" s="24"/>
+      <c r="A974" s="23"/>
       <c r="B974" s="20"/>
       <c r="C974" s="20"/>
       <c r="D974" s="20"/>
@@ -56923,7 +56922,7 @@
       <c r="Z974" s="20"/>
     </row>
     <row r="975">
-      <c r="A975" s="24"/>
+      <c r="A975" s="23"/>
       <c r="B975" s="20"/>
       <c r="C975" s="20"/>
       <c r="D975" s="20"/>
@@ -56951,7 +56950,7 @@
       <c r="Z975" s="20"/>
     </row>
     <row r="976">
-      <c r="A976" s="24"/>
+      <c r="A976" s="23"/>
       <c r="B976" s="20"/>
       <c r="C976" s="20"/>
       <c r="D976" s="20"/>
@@ -56979,7 +56978,7 @@
       <c r="Z976" s="20"/>
     </row>
     <row r="977">
-      <c r="A977" s="24"/>
+      <c r="A977" s="23"/>
       <c r="B977" s="20"/>
       <c r="C977" s="20"/>
       <c r="D977" s="20"/>
@@ -57007,7 +57006,7 @@
       <c r="Z977" s="20"/>
     </row>
     <row r="978">
-      <c r="A978" s="24"/>
+      <c r="A978" s="23"/>
       <c r="B978" s="20"/>
       <c r="C978" s="20"/>
       <c r="D978" s="20"/>
@@ -57035,7 +57034,7 @@
       <c r="Z978" s="20"/>
     </row>
     <row r="979">
-      <c r="A979" s="24"/>
+      <c r="A979" s="23"/>
       <c r="B979" s="20"/>
       <c r="C979" s="20"/>
       <c r="D979" s="20"/>
@@ -57063,7 +57062,7 @@
       <c r="Z979" s="20"/>
     </row>
     <row r="980">
-      <c r="A980" s="24"/>
+      <c r="A980" s="23"/>
       <c r="B980" s="20"/>
       <c r="C980" s="20"/>
       <c r="D980" s="20"/>
@@ -57091,7 +57090,7 @@
       <c r="Z980" s="20"/>
     </row>
     <row r="981">
-      <c r="A981" s="24"/>
+      <c r="A981" s="23"/>
       <c r="B981" s="20"/>
       <c r="C981" s="20"/>
       <c r="D981" s="20"/>
@@ -57119,7 +57118,7 @@
       <c r="Z981" s="20"/>
     </row>
     <row r="982">
-      <c r="A982" s="24"/>
+      <c r="A982" s="23"/>
       <c r="B982" s="20"/>
       <c r="C982" s="20"/>
       <c r="D982" s="20"/>
@@ -57147,7 +57146,7 @@
       <c r="Z982" s="20"/>
     </row>
     <row r="983">
-      <c r="A983" s="24"/>
+      <c r="A983" s="23"/>
       <c r="B983" s="20"/>
       <c r="C983" s="20"/>
       <c r="D983" s="20"/>
@@ -57175,7 +57174,7 @@
       <c r="Z983" s="20"/>
     </row>
     <row r="984">
-      <c r="A984" s="24"/>
+      <c r="A984" s="23"/>
       <c r="B984" s="20"/>
       <c r="C984" s="20"/>
       <c r="D984" s="20"/>
@@ -57203,7 +57202,7 @@
       <c r="Z984" s="20"/>
     </row>
     <row r="985">
-      <c r="A985" s="24"/>
+      <c r="A985" s="23"/>
       <c r="B985" s="20"/>
       <c r="C985" s="20"/>
       <c r="D985" s="20"/>
@@ -57231,7 +57230,7 @@
       <c r="Z985" s="20"/>
     </row>
     <row r="986">
-      <c r="A986" s="24"/>
+      <c r="A986" s="23"/>
       <c r="B986" s="20"/>
       <c r="C986" s="20"/>
       <c r="D986" s="20"/>
@@ -57259,7 +57258,7 @@
       <c r="Z986" s="20"/>
     </row>
     <row r="987">
-      <c r="A987" s="24"/>
+      <c r="A987" s="23"/>
       <c r="B987" s="20"/>
       <c r="C987" s="20"/>
       <c r="D987" s="20"/>
@@ -57287,7 +57286,7 @@
       <c r="Z987" s="20"/>
     </row>
     <row r="988">
-      <c r="A988" s="24"/>
+      <c r="A988" s="23"/>
       <c r="B988" s="20"/>
       <c r="C988" s="20"/>
       <c r="D988" s="20"/>
@@ -57315,7 +57314,7 @@
       <c r="Z988" s="20"/>
     </row>
     <row r="989">
-      <c r="A989" s="24"/>
+      <c r="A989" s="23"/>
       <c r="B989" s="20"/>
       <c r="C989" s="20"/>
       <c r="D989" s="20"/>
@@ -57343,7 +57342,7 @@
       <c r="Z989" s="20"/>
     </row>
     <row r="990">
-      <c r="A990" s="24"/>
+      <c r="A990" s="23"/>
       <c r="B990" s="20"/>
       <c r="C990" s="20"/>
       <c r="D990" s="20"/>
@@ -57371,7 +57370,7 @@
       <c r="Z990" s="20"/>
     </row>
     <row r="991">
-      <c r="A991" s="24"/>
+      <c r="A991" s="23"/>
       <c r="B991" s="20"/>
       <c r="C991" s="20"/>
       <c r="D991" s="20"/>
@@ -57399,7 +57398,7 @@
       <c r="Z991" s="20"/>
     </row>
     <row r="992">
-      <c r="A992" s="24"/>
+      <c r="A992" s="23"/>
       <c r="B992" s="20"/>
       <c r="C992" s="20"/>
       <c r="D992" s="20"/>
@@ -57427,7 +57426,7 @@
       <c r="Z992" s="20"/>
     </row>
     <row r="993">
-      <c r="A993" s="24"/>
+      <c r="A993" s="23"/>
       <c r="B993" s="20"/>
       <c r="C993" s="20"/>
       <c r="D993" s="20"/>
@@ -57455,7 +57454,7 @@
       <c r="Z993" s="20"/>
     </row>
     <row r="994">
-      <c r="A994" s="24"/>
+      <c r="A994" s="23"/>
       <c r="B994" s="20"/>
       <c r="C994" s="20"/>
       <c r="D994" s="20"/>
@@ -57483,7 +57482,7 @@
       <c r="Z994" s="20"/>
     </row>
     <row r="995">
-      <c r="A995" s="24"/>
+      <c r="A995" s="23"/>
       <c r="B995" s="20"/>
       <c r="C995" s="20"/>
       <c r="D995" s="20"/>
@@ -57511,7 +57510,7 @@
       <c r="Z995" s="20"/>
     </row>
     <row r="996">
-      <c r="A996" s="24"/>
+      <c r="A996" s="23"/>
       <c r="B996" s="20"/>
       <c r="C996" s="20"/>
       <c r="D996" s="20"/>
@@ -57539,7 +57538,7 @@
       <c r="Z996" s="20"/>
     </row>
     <row r="997">
-      <c r="A997" s="24"/>
+      <c r="A997" s="23"/>
       <c r="B997" s="20"/>
       <c r="C997" s="20"/>
       <c r="D997" s="20"/>
@@ -57567,7 +57566,7 @@
       <c r="Z997" s="20"/>
     </row>
     <row r="998">
-      <c r="A998" s="24"/>
+      <c r="A998" s="23"/>
       <c r="B998" s="20"/>
       <c r="C998" s="20"/>
       <c r="D998" s="20"/>
@@ -57595,7 +57594,7 @@
       <c r="Z998" s="20"/>
     </row>
     <row r="999">
-      <c r="A999" s="24"/>
+      <c r="A999" s="23"/>
       <c r="B999" s="20"/>
       <c r="C999" s="20"/>
       <c r="D999" s="20"/>
@@ -57623,7 +57622,7 @@
       <c r="Z999" s="20"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="24"/>
+      <c r="A1000" s="23"/>
       <c r="B1000" s="20"/>
       <c r="C1000" s="20"/>
       <c r="D1000" s="20"/>
@@ -57651,7 +57650,7 @@
       <c r="Z1000" s="20"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="24"/>
+      <c r="A1001" s="23"/>
       <c r="B1001" s="20"/>
       <c r="C1001" s="20"/>
       <c r="D1001" s="20"/>
@@ -57679,7 +57678,7 @@
       <c r="Z1001" s="20"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="24"/>
+      <c r="A1002" s="23"/>
       <c r="B1002" s="20"/>
       <c r="C1002" s="20"/>
       <c r="D1002" s="20"/>
@@ -57707,7 +57706,7 @@
       <c r="Z1002" s="20"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="24"/>
+      <c r="A1003" s="23"/>
       <c r="B1003" s="20"/>
       <c r="C1003" s="20"/>
       <c r="D1003" s="20"/>
@@ -57735,7 +57734,7 @@
       <c r="Z1003" s="20"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="24"/>
+      <c r="A1004" s="23"/>
       <c r="B1004" s="20"/>
       <c r="C1004" s="20"/>
       <c r="D1004" s="20"/>
@@ -57763,7 +57762,7 @@
       <c r="Z1004" s="20"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="24"/>
+      <c r="A1005" s="23"/>
       <c r="B1005" s="20"/>
       <c r="C1005" s="20"/>
       <c r="D1005" s="20"/>
@@ -57791,7 +57790,7 @@
       <c r="Z1005" s="20"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="24"/>
+      <c r="A1006" s="23"/>
       <c r="B1006" s="20"/>
       <c r="C1006" s="20"/>
       <c r="D1006" s="20"/>
@@ -57819,7 +57818,7 @@
       <c r="Z1006" s="20"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="24"/>
+      <c r="A1007" s="23"/>
       <c r="B1007" s="20"/>
       <c r="C1007" s="20"/>
       <c r="D1007" s="20"/>
@@ -57847,7 +57846,7 @@
       <c r="Z1007" s="20"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="24"/>
+      <c r="A1008" s="23"/>
       <c r="B1008" s="20"/>
       <c r="C1008" s="20"/>
       <c r="D1008" s="20"/>
@@ -57875,7 +57874,7 @@
       <c r="Z1008" s="20"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="24"/>
+      <c r="A1009" s="23"/>
       <c r="B1009" s="20"/>
       <c r="C1009" s="20"/>
       <c r="D1009" s="20"/>
@@ -57903,7 +57902,7 @@
       <c r="Z1009" s="20"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="24"/>
+      <c r="A1010" s="23"/>
       <c r="B1010" s="20"/>
       <c r="C1010" s="20"/>
       <c r="D1010" s="20"/>
@@ -57931,7 +57930,7 @@
       <c r="Z1010" s="20"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="24"/>
+      <c r="A1011" s="23"/>
       <c r="B1011" s="20"/>
       <c r="C1011" s="20"/>
       <c r="D1011" s="20"/>
@@ -57959,7 +57958,7 @@
       <c r="Z1011" s="20"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="24"/>
+      <c r="A1012" s="23"/>
       <c r="B1012" s="20"/>
       <c r="C1012" s="20"/>
       <c r="D1012" s="20"/>
@@ -57987,7 +57986,7 @@
       <c r="Z1012" s="20"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="24"/>
+      <c r="A1013" s="23"/>
       <c r="B1013" s="20"/>
       <c r="C1013" s="20"/>
       <c r="D1013" s="20"/>
@@ -58015,7 +58014,7 @@
       <c r="Z1013" s="20"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="24"/>
+      <c r="A1014" s="23"/>
       <c r="B1014" s="20"/>
       <c r="C1014" s="20"/>
       <c r="D1014" s="20"/>
@@ -58043,7 +58042,7 @@
       <c r="Z1014" s="20"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="24"/>
+      <c r="A1015" s="23"/>
       <c r="B1015" s="20"/>
       <c r="C1015" s="20"/>
       <c r="D1015" s="20"/>
@@ -58071,7 +58070,7 @@
       <c r="Z1015" s="20"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="24"/>
+      <c r="A1016" s="23"/>
       <c r="B1016" s="20"/>
       <c r="C1016" s="20"/>
       <c r="D1016" s="20"/>
@@ -58099,7 +58098,7 @@
       <c r="Z1016" s="20"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="24"/>
+      <c r="A1017" s="23"/>
       <c r="B1017" s="20"/>
       <c r="C1017" s="20"/>
       <c r="D1017" s="20"/>
@@ -58127,7 +58126,7 @@
       <c r="Z1017" s="20"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="24"/>
+      <c r="A1018" s="23"/>
       <c r="B1018" s="20"/>
       <c r="C1018" s="20"/>
       <c r="D1018" s="20"/>
@@ -58155,7 +58154,7 @@
       <c r="Z1018" s="20"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="24"/>
+      <c r="A1019" s="23"/>
       <c r="B1019" s="20"/>
       <c r="C1019" s="20"/>
       <c r="D1019" s="20"/>
@@ -58183,7 +58182,7 @@
       <c r="Z1019" s="20"/>
     </row>
     <row r="1020">
-      <c r="A1020" s="24"/>
+      <c r="A1020" s="23"/>
       <c r="B1020" s="20"/>
       <c r="C1020" s="20"/>
       <c r="D1020" s="20"/>
@@ -58211,7 +58210,7 @@
       <c r="Z1020" s="20"/>
     </row>
     <row r="1021">
-      <c r="A1021" s="24"/>
+      <c r="A1021" s="23"/>
       <c r="B1021" s="20"/>
       <c r="C1021" s="20"/>
       <c r="D1021" s="20"/>
@@ -58239,7 +58238,7 @@
       <c r="Z1021" s="20"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="24"/>
+      <c r="A1022" s="23"/>
       <c r="B1022" s="20"/>
       <c r="C1022" s="20"/>
       <c r="D1022" s="20"/>

--- a/Documentation/Reference Stories and Requirements Stack.xlsx
+++ b/Documentation/Reference Stories and Requirements Stack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Referential Story Number</t>
   </si>
@@ -472,6 +472,12 @@
   <si>
     <t>Create &amp; Complete Sprint 4 Artifacts</t>
   </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>Add Prologue Comments to all code files</t>
+  </si>
 </sst>
 </file>
 
@@ -554,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -622,6 +628,12 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -29529,7 +29541,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="21">
-        <f>sum(C2:C14)</f>
+        <f>SUMIF(E:E, "1", C:C)</f>
         <v>30</v>
       </c>
       <c r="H11" s="20"/>
@@ -30104,7 +30116,7 @@
         <v>101</v>
       </c>
       <c r="G26" s="21">
-        <f>sum(C15:C27)</f>
+        <f>SUMIF(E:E, "2", C:C)</f>
         <v>27</v>
       </c>
       <c r="H26" s="20"/>
@@ -30489,7 +30501,7 @@
         <v>122</v>
       </c>
       <c r="G36" s="21">
-        <f>sum(C28:C37)</f>
+        <f>SUMIF(E:E, "3", C:C)</f>
         <v>24</v>
       </c>
       <c r="H36" s="20"/>
@@ -30950,8 +30962,8 @@
         <v>147</v>
       </c>
       <c r="G48" s="21">
-        <f>sum(C38:C50)</f>
-        <v>26</v>
+        <f>SUMIF(E:E, "4", C:C)</f>
+        <v>28</v>
       </c>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -31050,11 +31062,21 @@
       <c r="Z50" s="20"/>
     </row>
     <row r="51">
-      <c r="A51" s="23"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
+      <c r="A51" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>4.0</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
@@ -31079,10 +31101,10 @@
     </row>
     <row r="52">
       <c r="A52" s="23"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -31106,7 +31128,7 @@
       <c r="Z52" s="20"/>
     </row>
     <row r="53">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -31134,7 +31156,7 @@
       <c r="Z53" s="20"/>
     </row>
     <row r="54">
-      <c r="A54" s="23"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
@@ -31162,7 +31184,7 @@
       <c r="Z54" s="20"/>
     </row>
     <row r="55">
-      <c r="A55" s="23"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -31190,7 +31212,7 @@
       <c r="Z55" s="20"/>
     </row>
     <row r="56">
-      <c r="A56" s="23"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -31218,7 +31240,7 @@
       <c r="Z56" s="20"/>
     </row>
     <row r="57">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -31246,7 +31268,7 @@
       <c r="Z57" s="20"/>
     </row>
     <row r="58">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
@@ -31274,7 +31296,7 @@
       <c r="Z58" s="20"/>
     </row>
     <row r="59">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -31302,7 +31324,7 @@
       <c r="Z59" s="20"/>
     </row>
     <row r="60">
-      <c r="A60" s="23"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -31330,7 +31352,7 @@
       <c r="Z60" s="20"/>
     </row>
     <row r="61">
-      <c r="A61" s="23"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -31358,7 +31380,7 @@
       <c r="Z61" s="20"/>
     </row>
     <row r="62">
-      <c r="A62" s="23"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -31386,7 +31408,7 @@
       <c r="Z62" s="20"/>
     </row>
     <row r="63">
-      <c r="A63" s="23"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -31414,7 +31436,7 @@
       <c r="Z63" s="20"/>
     </row>
     <row r="64">
-      <c r="A64" s="23"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
@@ -31442,7 +31464,7 @@
       <c r="Z64" s="20"/>
     </row>
     <row r="65">
-      <c r="A65" s="23"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
@@ -31470,7 +31492,7 @@
       <c r="Z65" s="20"/>
     </row>
     <row r="66">
-      <c r="A66" s="23"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -31498,7 +31520,7 @@
       <c r="Z66" s="20"/>
     </row>
     <row r="67">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -31526,7 +31548,7 @@
       <c r="Z67" s="20"/>
     </row>
     <row r="68">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -31554,7 +31576,7 @@
       <c r="Z68" s="20"/>
     </row>
     <row r="69">
-      <c r="A69" s="23"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -31582,7 +31604,7 @@
       <c r="Z69" s="20"/>
     </row>
     <row r="70">
-      <c r="A70" s="23"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -31610,7 +31632,7 @@
       <c r="Z70" s="20"/>
     </row>
     <row r="71">
-      <c r="A71" s="23"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -31638,7 +31660,7 @@
       <c r="Z71" s="20"/>
     </row>
     <row r="72">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
@@ -31666,7 +31688,7 @@
       <c r="Z72" s="20"/>
     </row>
     <row r="73">
-      <c r="A73" s="23"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="20"/>
@@ -31694,7 +31716,7 @@
       <c r="Z73" s="20"/>
     </row>
     <row r="74">
-      <c r="A74" s="23"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="20"/>
@@ -31722,7 +31744,7 @@
       <c r="Z74" s="20"/>
     </row>
     <row r="75">
-      <c r="A75" s="23"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="20"/>
@@ -31750,7 +31772,7 @@
       <c r="Z75" s="20"/>
     </row>
     <row r="76">
-      <c r="A76" s="23"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="20"/>
@@ -31778,7 +31800,7 @@
       <c r="Z76" s="20"/>
     </row>
     <row r="77">
-      <c r="A77" s="23"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="20"/>
@@ -31806,7 +31828,7 @@
       <c r="Z77" s="20"/>
     </row>
     <row r="78">
-      <c r="A78" s="23"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
@@ -31834,7 +31856,7 @@
       <c r="Z78" s="20"/>
     </row>
     <row r="79">
-      <c r="A79" s="23"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
@@ -31862,7 +31884,7 @@
       <c r="Z79" s="20"/>
     </row>
     <row r="80">
-      <c r="A80" s="23"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -31890,7 +31912,7 @@
       <c r="Z80" s="20"/>
     </row>
     <row r="81">
-      <c r="A81" s="23"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -31918,7 +31940,7 @@
       <c r="Z81" s="20"/>
     </row>
     <row r="82">
-      <c r="A82" s="23"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
@@ -31946,7 +31968,7 @@
       <c r="Z82" s="20"/>
     </row>
     <row r="83">
-      <c r="A83" s="23"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -31974,7 +31996,7 @@
       <c r="Z83" s="20"/>
     </row>
     <row r="84">
-      <c r="A84" s="23"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -32002,7 +32024,7 @@
       <c r="Z84" s="20"/>
     </row>
     <row r="85">
-      <c r="A85" s="23"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -32030,7 +32052,7 @@
       <c r="Z85" s="20"/>
     </row>
     <row r="86">
-      <c r="A86" s="23"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -32058,7 +32080,7 @@
       <c r="Z86" s="20"/>
     </row>
     <row r="87">
-      <c r="A87" s="23"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
@@ -32086,7 +32108,7 @@
       <c r="Z87" s="20"/>
     </row>
     <row r="88">
-      <c r="A88" s="23"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -32114,7 +32136,7 @@
       <c r="Z88" s="20"/>
     </row>
     <row r="89">
-      <c r="A89" s="23"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -32142,7 +32164,7 @@
       <c r="Z89" s="20"/>
     </row>
     <row r="90">
-      <c r="A90" s="23"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
@@ -32170,7 +32192,7 @@
       <c r="Z90" s="20"/>
     </row>
     <row r="91">
-      <c r="A91" s="23"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -32198,7 +32220,7 @@
       <c r="Z91" s="20"/>
     </row>
     <row r="92">
-      <c r="A92" s="23"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -32226,7 +32248,7 @@
       <c r="Z92" s="20"/>
     </row>
     <row r="93">
-      <c r="A93" s="23"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
@@ -32254,7 +32276,7 @@
       <c r="Z93" s="20"/>
     </row>
     <row r="94">
-      <c r="A94" s="23"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -32282,7 +32304,7 @@
       <c r="Z94" s="20"/>
     </row>
     <row r="95">
-      <c r="A95" s="23"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
@@ -32310,7 +32332,7 @@
       <c r="Z95" s="20"/>
     </row>
     <row r="96">
-      <c r="A96" s="23"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -32338,7 +32360,7 @@
       <c r="Z96" s="20"/>
     </row>
     <row r="97">
-      <c r="A97" s="23"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -32366,7 +32388,7 @@
       <c r="Z97" s="20"/>
     </row>
     <row r="98">
-      <c r="A98" s="23"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
@@ -32394,7 +32416,7 @@
       <c r="Z98" s="20"/>
     </row>
     <row r="99">
-      <c r="A99" s="23"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
@@ -32422,7 +32444,7 @@
       <c r="Z99" s="20"/>
     </row>
     <row r="100">
-      <c r="A100" s="23"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -32450,7 +32472,7 @@
       <c r="Z100" s="20"/>
     </row>
     <row r="101">
-      <c r="A101" s="23"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -32478,7 +32500,7 @@
       <c r="Z101" s="20"/>
     </row>
     <row r="102">
-      <c r="A102" s="23"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -32506,7 +32528,7 @@
       <c r="Z102" s="20"/>
     </row>
     <row r="103">
-      <c r="A103" s="23"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -32534,7 +32556,7 @@
       <c r="Z103" s="20"/>
     </row>
     <row r="104">
-      <c r="A104" s="23"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -32562,7 +32584,7 @@
       <c r="Z104" s="20"/>
     </row>
     <row r="105">
-      <c r="A105" s="23"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -32590,7 +32612,7 @@
       <c r="Z105" s="20"/>
     </row>
     <row r="106">
-      <c r="A106" s="23"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -32618,7 +32640,7 @@
       <c r="Z106" s="20"/>
     </row>
     <row r="107">
-      <c r="A107" s="23"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -32646,7 +32668,7 @@
       <c r="Z107" s="20"/>
     </row>
     <row r="108">
-      <c r="A108" s="23"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -32674,7 +32696,7 @@
       <c r="Z108" s="20"/>
     </row>
     <row r="109">
-      <c r="A109" s="23"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -32702,7 +32724,7 @@
       <c r="Z109" s="20"/>
     </row>
     <row r="110">
-      <c r="A110" s="23"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -32730,7 +32752,7 @@
       <c r="Z110" s="20"/>
     </row>
     <row r="111">
-      <c r="A111" s="23"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -32758,7 +32780,7 @@
       <c r="Z111" s="20"/>
     </row>
     <row r="112">
-      <c r="A112" s="23"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
@@ -32786,7 +32808,7 @@
       <c r="Z112" s="20"/>
     </row>
     <row r="113">
-      <c r="A113" s="23"/>
+      <c r="A113" s="25"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -32814,7 +32836,7 @@
       <c r="Z113" s="20"/>
     </row>
     <row r="114">
-      <c r="A114" s="23"/>
+      <c r="A114" s="25"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -32842,7 +32864,7 @@
       <c r="Z114" s="20"/>
     </row>
     <row r="115">
-      <c r="A115" s="23"/>
+      <c r="A115" s="25"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -32870,7 +32892,7 @@
       <c r="Z115" s="20"/>
     </row>
     <row r="116">
-      <c r="A116" s="23"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -32898,7 +32920,7 @@
       <c r="Z116" s="20"/>
     </row>
     <row r="117">
-      <c r="A117" s="23"/>
+      <c r="A117" s="25"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -32926,7 +32948,7 @@
       <c r="Z117" s="20"/>
     </row>
     <row r="118">
-      <c r="A118" s="23"/>
+      <c r="A118" s="25"/>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -32954,7 +32976,7 @@
       <c r="Z118" s="20"/>
     </row>
     <row r="119">
-      <c r="A119" s="23"/>
+      <c r="A119" s="25"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -32982,7 +33004,7 @@
       <c r="Z119" s="20"/>
     </row>
     <row r="120">
-      <c r="A120" s="23"/>
+      <c r="A120" s="25"/>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -33010,7 +33032,7 @@
       <c r="Z120" s="20"/>
     </row>
     <row r="121">
-      <c r="A121" s="23"/>
+      <c r="A121" s="25"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
@@ -33038,7 +33060,7 @@
       <c r="Z121" s="20"/>
     </row>
     <row r="122">
-      <c r="A122" s="23"/>
+      <c r="A122" s="25"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
@@ -33066,7 +33088,7 @@
       <c r="Z122" s="20"/>
     </row>
     <row r="123">
-      <c r="A123" s="23"/>
+      <c r="A123" s="25"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
@@ -33094,7 +33116,7 @@
       <c r="Z123" s="20"/>
     </row>
     <row r="124">
-      <c r="A124" s="23"/>
+      <c r="A124" s="25"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -33122,7 +33144,7 @@
       <c r="Z124" s="20"/>
     </row>
     <row r="125">
-      <c r="A125" s="23"/>
+      <c r="A125" s="25"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -33150,7 +33172,7 @@
       <c r="Z125" s="20"/>
     </row>
     <row r="126">
-      <c r="A126" s="23"/>
+      <c r="A126" s="25"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
@@ -33178,7 +33200,7 @@
       <c r="Z126" s="20"/>
     </row>
     <row r="127">
-      <c r="A127" s="23"/>
+      <c r="A127" s="25"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
@@ -33206,7 +33228,7 @@
       <c r="Z127" s="20"/>
     </row>
     <row r="128">
-      <c r="A128" s="23"/>
+      <c r="A128" s="25"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
@@ -33234,7 +33256,7 @@
       <c r="Z128" s="20"/>
     </row>
     <row r="129">
-      <c r="A129" s="23"/>
+      <c r="A129" s="25"/>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
@@ -33262,7 +33284,7 @@
       <c r="Z129" s="20"/>
     </row>
     <row r="130">
-      <c r="A130" s="23"/>
+      <c r="A130" s="25"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
@@ -33290,7 +33312,7 @@
       <c r="Z130" s="20"/>
     </row>
     <row r="131">
-      <c r="A131" s="23"/>
+      <c r="A131" s="25"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
@@ -33318,7 +33340,7 @@
       <c r="Z131" s="20"/>
     </row>
     <row r="132">
-      <c r="A132" s="23"/>
+      <c r="A132" s="25"/>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
@@ -33346,7 +33368,7 @@
       <c r="Z132" s="20"/>
     </row>
     <row r="133">
-      <c r="A133" s="23"/>
+      <c r="A133" s="25"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
@@ -33374,7 +33396,7 @@
       <c r="Z133" s="20"/>
     </row>
     <row r="134">
-      <c r="A134" s="23"/>
+      <c r="A134" s="25"/>
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
@@ -33402,7 +33424,7 @@
       <c r="Z134" s="20"/>
     </row>
     <row r="135">
-      <c r="A135" s="23"/>
+      <c r="A135" s="25"/>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
@@ -33430,7 +33452,7 @@
       <c r="Z135" s="20"/>
     </row>
     <row r="136">
-      <c r="A136" s="23"/>
+      <c r="A136" s="25"/>
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
@@ -33458,7 +33480,7 @@
       <c r="Z136" s="20"/>
     </row>
     <row r="137">
-      <c r="A137" s="23"/>
+      <c r="A137" s="25"/>
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
@@ -33486,7 +33508,7 @@
       <c r="Z137" s="20"/>
     </row>
     <row r="138">
-      <c r="A138" s="23"/>
+      <c r="A138" s="25"/>
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
@@ -33514,7 +33536,7 @@
       <c r="Z138" s="20"/>
     </row>
     <row r="139">
-      <c r="A139" s="23"/>
+      <c r="A139" s="25"/>
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -33542,7 +33564,7 @@
       <c r="Z139" s="20"/>
     </row>
     <row r="140">
-      <c r="A140" s="23"/>
+      <c r="A140" s="25"/>
       <c r="B140" s="20"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -33570,7 +33592,7 @@
       <c r="Z140" s="20"/>
     </row>
     <row r="141">
-      <c r="A141" s="23"/>
+      <c r="A141" s="25"/>
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -33598,7 +33620,7 @@
       <c r="Z141" s="20"/>
     </row>
     <row r="142">
-      <c r="A142" s="23"/>
+      <c r="A142" s="25"/>
       <c r="B142" s="20"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -33626,7 +33648,7 @@
       <c r="Z142" s="20"/>
     </row>
     <row r="143">
-      <c r="A143" s="23"/>
+      <c r="A143" s="25"/>
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -33654,7 +33676,7 @@
       <c r="Z143" s="20"/>
     </row>
     <row r="144">
-      <c r="A144" s="23"/>
+      <c r="A144" s="25"/>
       <c r="B144" s="20"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
@@ -33682,7 +33704,7 @@
       <c r="Z144" s="20"/>
     </row>
     <row r="145">
-      <c r="A145" s="23"/>
+      <c r="A145" s="25"/>
       <c r="B145" s="20"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
@@ -33710,7 +33732,7 @@
       <c r="Z145" s="20"/>
     </row>
     <row r="146">
-      <c r="A146" s="23"/>
+      <c r="A146" s="25"/>
       <c r="B146" s="20"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
@@ -33738,7 +33760,7 @@
       <c r="Z146" s="20"/>
     </row>
     <row r="147">
-      <c r="A147" s="23"/>
+      <c r="A147" s="25"/>
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -33766,7 +33788,7 @@
       <c r="Z147" s="20"/>
     </row>
     <row r="148">
-      <c r="A148" s="23"/>
+      <c r="A148" s="25"/>
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -33794,7 +33816,7 @@
       <c r="Z148" s="20"/>
     </row>
     <row r="149">
-      <c r="A149" s="23"/>
+      <c r="A149" s="25"/>
       <c r="B149" s="20"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
@@ -33822,7 +33844,7 @@
       <c r="Z149" s="20"/>
     </row>
     <row r="150">
-      <c r="A150" s="23"/>
+      <c r="A150" s="25"/>
       <c r="B150" s="20"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
@@ -33850,7 +33872,7 @@
       <c r="Z150" s="20"/>
     </row>
     <row r="151">
-      <c r="A151" s="23"/>
+      <c r="A151" s="25"/>
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
@@ -33878,7 +33900,7 @@
       <c r="Z151" s="20"/>
     </row>
     <row r="152">
-      <c r="A152" s="23"/>
+      <c r="A152" s="25"/>
       <c r="B152" s="20"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
@@ -33906,7 +33928,7 @@
       <c r="Z152" s="20"/>
     </row>
     <row r="153">
-      <c r="A153" s="23"/>
+      <c r="A153" s="25"/>
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
@@ -33934,7 +33956,7 @@
       <c r="Z153" s="20"/>
     </row>
     <row r="154">
-      <c r="A154" s="23"/>
+      <c r="A154" s="25"/>
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
@@ -33962,7 +33984,7 @@
       <c r="Z154" s="20"/>
     </row>
     <row r="155">
-      <c r="A155" s="23"/>
+      <c r="A155" s="25"/>
       <c r="B155" s="20"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
@@ -33990,7 +34012,7 @@
       <c r="Z155" s="20"/>
     </row>
     <row r="156">
-      <c r="A156" s="23"/>
+      <c r="A156" s="25"/>
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
@@ -34018,7 +34040,7 @@
       <c r="Z156" s="20"/>
     </row>
     <row r="157">
-      <c r="A157" s="23"/>
+      <c r="A157" s="25"/>
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
@@ -34046,7 +34068,7 @@
       <c r="Z157" s="20"/>
     </row>
     <row r="158">
-      <c r="A158" s="23"/>
+      <c r="A158" s="25"/>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
@@ -34074,7 +34096,7 @@
       <c r="Z158" s="20"/>
     </row>
     <row r="159">
-      <c r="A159" s="23"/>
+      <c r="A159" s="25"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
@@ -34102,7 +34124,7 @@
       <c r="Z159" s="20"/>
     </row>
     <row r="160">
-      <c r="A160" s="23"/>
+      <c r="A160" s="25"/>
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
@@ -34130,7 +34152,7 @@
       <c r="Z160" s="20"/>
     </row>
     <row r="161">
-      <c r="A161" s="23"/>
+      <c r="A161" s="25"/>
       <c r="B161" s="20"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
@@ -34158,7 +34180,7 @@
       <c r="Z161" s="20"/>
     </row>
     <row r="162">
-      <c r="A162" s="23"/>
+      <c r="A162" s="25"/>
       <c r="B162" s="20"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
@@ -34186,7 +34208,7 @@
       <c r="Z162" s="20"/>
     </row>
     <row r="163">
-      <c r="A163" s="23"/>
+      <c r="A163" s="25"/>
       <c r="B163" s="20"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
@@ -34214,7 +34236,7 @@
       <c r="Z163" s="20"/>
     </row>
     <row r="164">
-      <c r="A164" s="23"/>
+      <c r="A164" s="25"/>
       <c r="B164" s="20"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
@@ -34242,7 +34264,7 @@
       <c r="Z164" s="20"/>
     </row>
     <row r="165">
-      <c r="A165" s="23"/>
+      <c r="A165" s="25"/>
       <c r="B165" s="20"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
@@ -34270,7 +34292,7 @@
       <c r="Z165" s="20"/>
     </row>
     <row r="166">
-      <c r="A166" s="23"/>
+      <c r="A166" s="25"/>
       <c r="B166" s="20"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
@@ -34298,7 +34320,7 @@
       <c r="Z166" s="20"/>
     </row>
     <row r="167">
-      <c r="A167" s="23"/>
+      <c r="A167" s="25"/>
       <c r="B167" s="20"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
@@ -34326,7 +34348,7 @@
       <c r="Z167" s="20"/>
     </row>
     <row r="168">
-      <c r="A168" s="23"/>
+      <c r="A168" s="25"/>
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
@@ -34354,7 +34376,7 @@
       <c r="Z168" s="20"/>
     </row>
     <row r="169">
-      <c r="A169" s="23"/>
+      <c r="A169" s="25"/>
       <c r="B169" s="20"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
@@ -34382,7 +34404,7 @@
       <c r="Z169" s="20"/>
     </row>
     <row r="170">
-      <c r="A170" s="23"/>
+      <c r="A170" s="25"/>
       <c r="B170" s="20"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
@@ -34410,7 +34432,7 @@
       <c r="Z170" s="20"/>
     </row>
     <row r="171">
-      <c r="A171" s="23"/>
+      <c r="A171" s="25"/>
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
@@ -34438,7 +34460,7 @@
       <c r="Z171" s="20"/>
     </row>
     <row r="172">
-      <c r="A172" s="23"/>
+      <c r="A172" s="25"/>
       <c r="B172" s="20"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
@@ -34466,7 +34488,7 @@
       <c r="Z172" s="20"/>
     </row>
     <row r="173">
-      <c r="A173" s="23"/>
+      <c r="A173" s="25"/>
       <c r="B173" s="20"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
@@ -34494,7 +34516,7 @@
       <c r="Z173" s="20"/>
     </row>
     <row r="174">
-      <c r="A174" s="23"/>
+      <c r="A174" s="25"/>
       <c r="B174" s="20"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
@@ -34522,7 +34544,7 @@
       <c r="Z174" s="20"/>
     </row>
     <row r="175">
-      <c r="A175" s="23"/>
+      <c r="A175" s="25"/>
       <c r="B175" s="20"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
@@ -34550,7 +34572,7 @@
       <c r="Z175" s="20"/>
     </row>
     <row r="176">
-      <c r="A176" s="23"/>
+      <c r="A176" s="25"/>
       <c r="B176" s="20"/>
       <c r="C176" s="20"/>
       <c r="D176" s="20"/>
@@ -34578,7 +34600,7 @@
       <c r="Z176" s="20"/>
     </row>
     <row r="177">
-      <c r="A177" s="23"/>
+      <c r="A177" s="25"/>
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
@@ -34606,7 +34628,7 @@
       <c r="Z177" s="20"/>
     </row>
     <row r="178">
-      <c r="A178" s="23"/>
+      <c r="A178" s="25"/>
       <c r="B178" s="20"/>
       <c r="C178" s="20"/>
       <c r="D178" s="20"/>
@@ -34634,7 +34656,7 @@
       <c r="Z178" s="20"/>
     </row>
     <row r="179">
-      <c r="A179" s="23"/>
+      <c r="A179" s="25"/>
       <c r="B179" s="20"/>
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
@@ -34662,7 +34684,7 @@
       <c r="Z179" s="20"/>
     </row>
     <row r="180">
-      <c r="A180" s="23"/>
+      <c r="A180" s="25"/>
       <c r="B180" s="20"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
@@ -34690,7 +34712,7 @@
       <c r="Z180" s="20"/>
     </row>
     <row r="181">
-      <c r="A181" s="23"/>
+      <c r="A181" s="25"/>
       <c r="B181" s="20"/>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
@@ -34718,7 +34740,7 @@
       <c r="Z181" s="20"/>
     </row>
     <row r="182">
-      <c r="A182" s="23"/>
+      <c r="A182" s="25"/>
       <c r="B182" s="20"/>
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
@@ -34746,7 +34768,7 @@
       <c r="Z182" s="20"/>
     </row>
     <row r="183">
-      <c r="A183" s="23"/>
+      <c r="A183" s="25"/>
       <c r="B183" s="20"/>
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
@@ -34774,7 +34796,7 @@
       <c r="Z183" s="20"/>
     </row>
     <row r="184">
-      <c r="A184" s="23"/>
+      <c r="A184" s="25"/>
       <c r="B184" s="20"/>
       <c r="C184" s="20"/>
       <c r="D184" s="20"/>
@@ -34802,7 +34824,7 @@
       <c r="Z184" s="20"/>
     </row>
     <row r="185">
-      <c r="A185" s="23"/>
+      <c r="A185" s="25"/>
       <c r="B185" s="20"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
@@ -34830,7 +34852,7 @@
       <c r="Z185" s="20"/>
     </row>
     <row r="186">
-      <c r="A186" s="23"/>
+      <c r="A186" s="25"/>
       <c r="B186" s="20"/>
       <c r="C186" s="20"/>
       <c r="D186" s="20"/>
@@ -34858,7 +34880,7 @@
       <c r="Z186" s="20"/>
     </row>
     <row r="187">
-      <c r="A187" s="23"/>
+      <c r="A187" s="25"/>
       <c r="B187" s="20"/>
       <c r="C187" s="20"/>
       <c r="D187" s="20"/>
@@ -34886,7 +34908,7 @@
       <c r="Z187" s="20"/>
     </row>
     <row r="188">
-      <c r="A188" s="23"/>
+      <c r="A188" s="25"/>
       <c r="B188" s="20"/>
       <c r="C188" s="20"/>
       <c r="D188" s="20"/>
@@ -34914,7 +34936,7 @@
       <c r="Z188" s="20"/>
     </row>
     <row r="189">
-      <c r="A189" s="23"/>
+      <c r="A189" s="25"/>
       <c r="B189" s="20"/>
       <c r="C189" s="20"/>
       <c r="D189" s="20"/>
@@ -34942,7 +34964,7 @@
       <c r="Z189" s="20"/>
     </row>
     <row r="190">
-      <c r="A190" s="23"/>
+      <c r="A190" s="25"/>
       <c r="B190" s="20"/>
       <c r="C190" s="20"/>
       <c r="D190" s="20"/>
@@ -34970,7 +34992,7 @@
       <c r="Z190" s="20"/>
     </row>
     <row r="191">
-      <c r="A191" s="23"/>
+      <c r="A191" s="25"/>
       <c r="B191" s="20"/>
       <c r="C191" s="20"/>
       <c r="D191" s="20"/>
@@ -34998,7 +35020,7 @@
       <c r="Z191" s="20"/>
     </row>
     <row r="192">
-      <c r="A192" s="23"/>
+      <c r="A192" s="25"/>
       <c r="B192" s="20"/>
       <c r="C192" s="20"/>
       <c r="D192" s="20"/>
@@ -35026,7 +35048,7 @@
       <c r="Z192" s="20"/>
     </row>
     <row r="193">
-      <c r="A193" s="23"/>
+      <c r="A193" s="25"/>
       <c r="B193" s="20"/>
       <c r="C193" s="20"/>
       <c r="D193" s="20"/>
@@ -35054,7 +35076,7 @@
       <c r="Z193" s="20"/>
     </row>
     <row r="194">
-      <c r="A194" s="23"/>
+      <c r="A194" s="25"/>
       <c r="B194" s="20"/>
       <c r="C194" s="20"/>
       <c r="D194" s="20"/>
@@ -35082,7 +35104,7 @@
       <c r="Z194" s="20"/>
     </row>
     <row r="195">
-      <c r="A195" s="23"/>
+      <c r="A195" s="25"/>
       <c r="B195" s="20"/>
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
@@ -35110,7 +35132,7 @@
       <c r="Z195" s="20"/>
     </row>
     <row r="196">
-      <c r="A196" s="23"/>
+      <c r="A196" s="25"/>
       <c r="B196" s="20"/>
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
@@ -35138,7 +35160,7 @@
       <c r="Z196" s="20"/>
     </row>
     <row r="197">
-      <c r="A197" s="23"/>
+      <c r="A197" s="25"/>
       <c r="B197" s="20"/>
       <c r="C197" s="20"/>
       <c r="D197" s="20"/>
@@ -35166,7 +35188,7 @@
       <c r="Z197" s="20"/>
     </row>
     <row r="198">
-      <c r="A198" s="23"/>
+      <c r="A198" s="25"/>
       <c r="B198" s="20"/>
       <c r="C198" s="20"/>
       <c r="D198" s="20"/>
@@ -35194,7 +35216,7 @@
       <c r="Z198" s="20"/>
     </row>
     <row r="199">
-      <c r="A199" s="23"/>
+      <c r="A199" s="25"/>
       <c r="B199" s="20"/>
       <c r="C199" s="20"/>
       <c r="D199" s="20"/>
@@ -35222,7 +35244,7 @@
       <c r="Z199" s="20"/>
     </row>
     <row r="200">
-      <c r="A200" s="23"/>
+      <c r="A200" s="25"/>
       <c r="B200" s="20"/>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
@@ -35250,7 +35272,7 @@
       <c r="Z200" s="20"/>
     </row>
     <row r="201">
-      <c r="A201" s="23"/>
+      <c r="A201" s="25"/>
       <c r="B201" s="20"/>
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
@@ -35278,7 +35300,7 @@
       <c r="Z201" s="20"/>
     </row>
     <row r="202">
-      <c r="A202" s="23"/>
+      <c r="A202" s="25"/>
       <c r="B202" s="20"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
@@ -35306,7 +35328,7 @@
       <c r="Z202" s="20"/>
     </row>
     <row r="203">
-      <c r="A203" s="23"/>
+      <c r="A203" s="25"/>
       <c r="B203" s="20"/>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
@@ -35334,7 +35356,7 @@
       <c r="Z203" s="20"/>
     </row>
     <row r="204">
-      <c r="A204" s="23"/>
+      <c r="A204" s="25"/>
       <c r="B204" s="20"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
@@ -35362,7 +35384,7 @@
       <c r="Z204" s="20"/>
     </row>
     <row r="205">
-      <c r="A205" s="23"/>
+      <c r="A205" s="25"/>
       <c r="B205" s="20"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
@@ -35390,7 +35412,7 @@
       <c r="Z205" s="20"/>
     </row>
     <row r="206">
-      <c r="A206" s="23"/>
+      <c r="A206" s="25"/>
       <c r="B206" s="20"/>
       <c r="C206" s="20"/>
       <c r="D206" s="20"/>
@@ -35418,7 +35440,7 @@
       <c r="Z206" s="20"/>
     </row>
     <row r="207">
-      <c r="A207" s="23"/>
+      <c r="A207" s="25"/>
       <c r="B207" s="20"/>
       <c r="C207" s="20"/>
       <c r="D207" s="20"/>
@@ -35446,7 +35468,7 @@
       <c r="Z207" s="20"/>
     </row>
     <row r="208">
-      <c r="A208" s="23"/>
+      <c r="A208" s="25"/>
       <c r="B208" s="20"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
@@ -35474,7 +35496,7 @@
       <c r="Z208" s="20"/>
     </row>
     <row r="209">
-      <c r="A209" s="23"/>
+      <c r="A209" s="25"/>
       <c r="B209" s="20"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
@@ -35502,7 +35524,7 @@
       <c r="Z209" s="20"/>
     </row>
     <row r="210">
-      <c r="A210" s="23"/>
+      <c r="A210" s="25"/>
       <c r="B210" s="20"/>
       <c r="C210" s="20"/>
       <c r="D210" s="20"/>
@@ -35530,7 +35552,7 @@
       <c r="Z210" s="20"/>
     </row>
     <row r="211">
-      <c r="A211" s="23"/>
+      <c r="A211" s="25"/>
       <c r="B211" s="20"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
@@ -35558,7 +35580,7 @@
       <c r="Z211" s="20"/>
     </row>
     <row r="212">
-      <c r="A212" s="23"/>
+      <c r="A212" s="25"/>
       <c r="B212" s="20"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
@@ -35586,7 +35608,7 @@
       <c r="Z212" s="20"/>
     </row>
     <row r="213">
-      <c r="A213" s="23"/>
+      <c r="A213" s="25"/>
       <c r="B213" s="20"/>
       <c r="C213" s="20"/>
       <c r="D213" s="20"/>
@@ -35614,7 +35636,7 @@
       <c r="Z213" s="20"/>
     </row>
     <row r="214">
-      <c r="A214" s="23"/>
+      <c r="A214" s="25"/>
       <c r="B214" s="20"/>
       <c r="C214" s="20"/>
       <c r="D214" s="20"/>
@@ -35642,7 +35664,7 @@
       <c r="Z214" s="20"/>
     </row>
     <row r="215">
-      <c r="A215" s="23"/>
+      <c r="A215" s="25"/>
       <c r="B215" s="20"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
@@ -35670,7 +35692,7 @@
       <c r="Z215" s="20"/>
     </row>
     <row r="216">
-      <c r="A216" s="23"/>
+      <c r="A216" s="25"/>
       <c r="B216" s="20"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
@@ -35698,7 +35720,7 @@
       <c r="Z216" s="20"/>
     </row>
     <row r="217">
-      <c r="A217" s="23"/>
+      <c r="A217" s="25"/>
       <c r="B217" s="20"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
@@ -35726,7 +35748,7 @@
       <c r="Z217" s="20"/>
     </row>
     <row r="218">
-      <c r="A218" s="23"/>
+      <c r="A218" s="25"/>
       <c r="B218" s="20"/>
       <c r="C218" s="20"/>
       <c r="D218" s="20"/>
@@ -35754,7 +35776,7 @@
       <c r="Z218" s="20"/>
     </row>
     <row r="219">
-      <c r="A219" s="23"/>
+      <c r="A219" s="25"/>
       <c r="B219" s="20"/>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
@@ -35782,7 +35804,7 @@
       <c r="Z219" s="20"/>
     </row>
     <row r="220">
-      <c r="A220" s="23"/>
+      <c r="A220" s="25"/>
       <c r="B220" s="20"/>
       <c r="C220" s="20"/>
       <c r="D220" s="20"/>
@@ -35810,7 +35832,7 @@
       <c r="Z220" s="20"/>
     </row>
     <row r="221">
-      <c r="A221" s="23"/>
+      <c r="A221" s="25"/>
       <c r="B221" s="20"/>
       <c r="C221" s="20"/>
       <c r="D221" s="20"/>
@@ -35838,7 +35860,7 @@
       <c r="Z221" s="20"/>
     </row>
     <row r="222">
-      <c r="A222" s="23"/>
+      <c r="A222" s="25"/>
       <c r="B222" s="20"/>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
@@ -35866,7 +35888,7 @@
       <c r="Z222" s="20"/>
     </row>
     <row r="223">
-      <c r="A223" s="23"/>
+      <c r="A223" s="25"/>
       <c r="B223" s="20"/>
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
@@ -35894,7 +35916,7 @@
       <c r="Z223" s="20"/>
     </row>
     <row r="224">
-      <c r="A224" s="23"/>
+      <c r="A224" s="25"/>
       <c r="B224" s="20"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
@@ -35922,7 +35944,7 @@
       <c r="Z224" s="20"/>
     </row>
     <row r="225">
-      <c r="A225" s="23"/>
+      <c r="A225" s="25"/>
       <c r="B225" s="20"/>
       <c r="C225" s="20"/>
       <c r="D225" s="20"/>
@@ -35950,7 +35972,7 @@
       <c r="Z225" s="20"/>
     </row>
     <row r="226">
-      <c r="A226" s="23"/>
+      <c r="A226" s="25"/>
       <c r="B226" s="20"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
@@ -35978,7 +36000,7 @@
       <c r="Z226" s="20"/>
     </row>
     <row r="227">
-      <c r="A227" s="23"/>
+      <c r="A227" s="25"/>
       <c r="B227" s="20"/>
       <c r="C227" s="20"/>
       <c r="D227" s="20"/>
@@ -36006,7 +36028,7 @@
       <c r="Z227" s="20"/>
     </row>
     <row r="228">
-      <c r="A228" s="23"/>
+      <c r="A228" s="25"/>
       <c r="B228" s="20"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
@@ -36034,7 +36056,7 @@
       <c r="Z228" s="20"/>
     </row>
     <row r="229">
-      <c r="A229" s="23"/>
+      <c r="A229" s="25"/>
       <c r="B229" s="20"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
@@ -36062,7 +36084,7 @@
       <c r="Z229" s="20"/>
     </row>
     <row r="230">
-      <c r="A230" s="23"/>
+      <c r="A230" s="25"/>
       <c r="B230" s="20"/>
       <c r="C230" s="20"/>
       <c r="D230" s="20"/>
@@ -36090,7 +36112,7 @@
       <c r="Z230" s="20"/>
     </row>
     <row r="231">
-      <c r="A231" s="23"/>
+      <c r="A231" s="25"/>
       <c r="B231" s="20"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
@@ -36118,7 +36140,7 @@
       <c r="Z231" s="20"/>
     </row>
     <row r="232">
-      <c r="A232" s="23"/>
+      <c r="A232" s="25"/>
       <c r="B232" s="20"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
@@ -36146,7 +36168,7 @@
       <c r="Z232" s="20"/>
     </row>
     <row r="233">
-      <c r="A233" s="23"/>
+      <c r="A233" s="25"/>
       <c r="B233" s="20"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
@@ -36174,7 +36196,7 @@
       <c r="Z233" s="20"/>
     </row>
     <row r="234">
-      <c r="A234" s="23"/>
+      <c r="A234" s="25"/>
       <c r="B234" s="20"/>
       <c r="C234" s="20"/>
       <c r="D234" s="20"/>
@@ -36202,7 +36224,7 @@
       <c r="Z234" s="20"/>
     </row>
     <row r="235">
-      <c r="A235" s="23"/>
+      <c r="A235" s="25"/>
       <c r="B235" s="20"/>
       <c r="C235" s="20"/>
       <c r="D235" s="20"/>
@@ -36230,7 +36252,7 @@
       <c r="Z235" s="20"/>
     </row>
     <row r="236">
-      <c r="A236" s="23"/>
+      <c r="A236" s="25"/>
       <c r="B236" s="20"/>
       <c r="C236" s="20"/>
       <c r="D236" s="20"/>
@@ -36258,7 +36280,7 @@
       <c r="Z236" s="20"/>
     </row>
     <row r="237">
-      <c r="A237" s="23"/>
+      <c r="A237" s="25"/>
       <c r="B237" s="20"/>
       <c r="C237" s="20"/>
       <c r="D237" s="20"/>
@@ -36286,7 +36308,7 @@
       <c r="Z237" s="20"/>
     </row>
     <row r="238">
-      <c r="A238" s="23"/>
+      <c r="A238" s="25"/>
       <c r="B238" s="20"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
@@ -36314,7 +36336,7 @@
       <c r="Z238" s="20"/>
     </row>
     <row r="239">
-      <c r="A239" s="23"/>
+      <c r="A239" s="25"/>
       <c r="B239" s="20"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
@@ -36342,7 +36364,7 @@
       <c r="Z239" s="20"/>
     </row>
     <row r="240">
-      <c r="A240" s="23"/>
+      <c r="A240" s="25"/>
       <c r="B240" s="20"/>
       <c r="C240" s="20"/>
       <c r="D240" s="20"/>
@@ -36370,7 +36392,7 @@
       <c r="Z240" s="20"/>
     </row>
     <row r="241">
-      <c r="A241" s="23"/>
+      <c r="A241" s="25"/>
       <c r="B241" s="20"/>
       <c r="C241" s="20"/>
       <c r="D241" s="20"/>
@@ -36398,7 +36420,7 @@
       <c r="Z241" s="20"/>
     </row>
     <row r="242">
-      <c r="A242" s="23"/>
+      <c r="A242" s="25"/>
       <c r="B242" s="20"/>
       <c r="C242" s="20"/>
       <c r="D242" s="20"/>
@@ -36426,7 +36448,7 @@
       <c r="Z242" s="20"/>
     </row>
     <row r="243">
-      <c r="A243" s="23"/>
+      <c r="A243" s="25"/>
       <c r="B243" s="20"/>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
@@ -36454,7 +36476,7 @@
       <c r="Z243" s="20"/>
     </row>
     <row r="244">
-      <c r="A244" s="23"/>
+      <c r="A244" s="25"/>
       <c r="B244" s="20"/>
       <c r="C244" s="20"/>
       <c r="D244" s="20"/>
@@ -36482,7 +36504,7 @@
       <c r="Z244" s="20"/>
     </row>
     <row r="245">
-      <c r="A245" s="23"/>
+      <c r="A245" s="25"/>
       <c r="B245" s="20"/>
       <c r="C245" s="20"/>
       <c r="D245" s="20"/>
@@ -36510,7 +36532,7 @@
       <c r="Z245" s="20"/>
     </row>
     <row r="246">
-      <c r="A246" s="23"/>
+      <c r="A246" s="25"/>
       <c r="B246" s="20"/>
       <c r="C246" s="20"/>
       <c r="D246" s="20"/>
@@ -36538,7 +36560,7 @@
       <c r="Z246" s="20"/>
     </row>
     <row r="247">
-      <c r="A247" s="23"/>
+      <c r="A247" s="25"/>
       <c r="B247" s="20"/>
       <c r="C247" s="20"/>
       <c r="D247" s="20"/>
@@ -36566,7 +36588,7 @@
       <c r="Z247" s="20"/>
     </row>
     <row r="248">
-      <c r="A248" s="23"/>
+      <c r="A248" s="25"/>
       <c r="B248" s="20"/>
       <c r="C248" s="20"/>
       <c r="D248" s="20"/>
@@ -36594,7 +36616,7 @@
       <c r="Z248" s="20"/>
     </row>
     <row r="249">
-      <c r="A249" s="23"/>
+      <c r="A249" s="25"/>
       <c r="B249" s="20"/>
       <c r="C249" s="20"/>
       <c r="D249" s="20"/>
@@ -36622,7 +36644,7 @@
       <c r="Z249" s="20"/>
     </row>
     <row r="250">
-      <c r="A250" s="23"/>
+      <c r="A250" s="25"/>
       <c r="B250" s="20"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
@@ -36650,7 +36672,7 @@
       <c r="Z250" s="20"/>
     </row>
     <row r="251">
-      <c r="A251" s="23"/>
+      <c r="A251" s="25"/>
       <c r="B251" s="20"/>
       <c r="C251" s="20"/>
       <c r="D251" s="20"/>
@@ -36678,7 +36700,7 @@
       <c r="Z251" s="20"/>
     </row>
     <row r="252">
-      <c r="A252" s="23"/>
+      <c r="A252" s="25"/>
       <c r="B252" s="20"/>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
@@ -36706,7 +36728,7 @@
       <c r="Z252" s="20"/>
     </row>
     <row r="253">
-      <c r="A253" s="23"/>
+      <c r="A253" s="25"/>
       <c r="B253" s="20"/>
       <c r="C253" s="20"/>
       <c r="D253" s="20"/>
@@ -36734,7 +36756,7 @@
       <c r="Z253" s="20"/>
     </row>
     <row r="254">
-      <c r="A254" s="23"/>
+      <c r="A254" s="25"/>
       <c r="B254" s="20"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
@@ -36762,7 +36784,7 @@
       <c r="Z254" s="20"/>
     </row>
     <row r="255">
-      <c r="A255" s="23"/>
+      <c r="A255" s="25"/>
       <c r="B255" s="20"/>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>
@@ -36790,7 +36812,7 @@
       <c r="Z255" s="20"/>
     </row>
     <row r="256">
-      <c r="A256" s="23"/>
+      <c r="A256" s="25"/>
       <c r="B256" s="20"/>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
@@ -36818,7 +36840,7 @@
       <c r="Z256" s="20"/>
     </row>
     <row r="257">
-      <c r="A257" s="23"/>
+      <c r="A257" s="25"/>
       <c r="B257" s="20"/>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
@@ -36846,7 +36868,7 @@
       <c r="Z257" s="20"/>
     </row>
     <row r="258">
-      <c r="A258" s="23"/>
+      <c r="A258" s="25"/>
       <c r="B258" s="20"/>
       <c r="C258" s="20"/>
       <c r="D258" s="20"/>
@@ -36874,7 +36896,7 @@
       <c r="Z258" s="20"/>
     </row>
     <row r="259">
-      <c r="A259" s="23"/>
+      <c r="A259" s="25"/>
       <c r="B259" s="20"/>
       <c r="C259" s="20"/>
       <c r="D259" s="20"/>
@@ -36902,7 +36924,7 @@
       <c r="Z259" s="20"/>
     </row>
     <row r="260">
-      <c r="A260" s="23"/>
+      <c r="A260" s="25"/>
       <c r="B260" s="20"/>
       <c r="C260" s="20"/>
       <c r="D260" s="20"/>
@@ -36930,7 +36952,7 @@
       <c r="Z260" s="20"/>
     </row>
     <row r="261">
-      <c r="A261" s="23"/>
+      <c r="A261" s="25"/>
       <c r="B261" s="20"/>
       <c r="C261" s="20"/>
       <c r="D261" s="20"/>
@@ -36958,7 +36980,7 @@
       <c r="Z261" s="20"/>
     </row>
     <row r="262">
-      <c r="A262" s="23"/>
+      <c r="A262" s="25"/>
       <c r="B262" s="20"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
@@ -36986,7 +37008,7 @@
       <c r="Z262" s="20"/>
     </row>
     <row r="263">
-      <c r="A263" s="23"/>
+      <c r="A263" s="25"/>
       <c r="B263" s="20"/>
       <c r="C263" s="20"/>
       <c r="D263" s="20"/>
@@ -37014,7 +37036,7 @@
       <c r="Z263" s="20"/>
     </row>
     <row r="264">
-      <c r="A264" s="23"/>
+      <c r="A264" s="25"/>
       <c r="B264" s="20"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
@@ -37042,7 +37064,7 @@
       <c r="Z264" s="20"/>
     </row>
     <row r="265">
-      <c r="A265" s="23"/>
+      <c r="A265" s="25"/>
       <c r="B265" s="20"/>
       <c r="C265" s="20"/>
       <c r="D265" s="20"/>
@@ -37070,7 +37092,7 @@
       <c r="Z265" s="20"/>
     </row>
     <row r="266">
-      <c r="A266" s="23"/>
+      <c r="A266" s="25"/>
       <c r="B266" s="20"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
@@ -37098,7 +37120,7 @@
       <c r="Z266" s="20"/>
     </row>
     <row r="267">
-      <c r="A267" s="23"/>
+      <c r="A267" s="25"/>
       <c r="B267" s="20"/>
       <c r="C267" s="20"/>
       <c r="D267" s="20"/>
@@ -37126,7 +37148,7 @@
       <c r="Z267" s="20"/>
     </row>
     <row r="268">
-      <c r="A268" s="23"/>
+      <c r="A268" s="25"/>
       <c r="B268" s="20"/>
       <c r="C268" s="20"/>
       <c r="D268" s="20"/>
@@ -37154,7 +37176,7 @@
       <c r="Z268" s="20"/>
     </row>
     <row r="269">
-      <c r="A269" s="23"/>
+      <c r="A269" s="25"/>
       <c r="B269" s="20"/>
       <c r="C269" s="20"/>
       <c r="D269" s="20"/>
@@ -37182,7 +37204,7 @@
       <c r="Z269" s="20"/>
     </row>
     <row r="270">
-      <c r="A270" s="23"/>
+      <c r="A270" s="25"/>
       <c r="B270" s="20"/>
       <c r="C270" s="20"/>
       <c r="D270" s="20"/>
@@ -37210,7 +37232,7 @@
       <c r="Z270" s="20"/>
     </row>
     <row r="271">
-      <c r="A271" s="23"/>
+      <c r="A271" s="25"/>
       <c r="B271" s="20"/>
       <c r="C271" s="20"/>
       <c r="D271" s="20"/>
@@ -37238,7 +37260,7 @@
       <c r="Z271" s="20"/>
     </row>
     <row r="272">
-      <c r="A272" s="23"/>
+      <c r="A272" s="25"/>
       <c r="B272" s="20"/>
       <c r="C272" s="20"/>
       <c r="D272" s="20"/>
@@ -37266,7 +37288,7 @@
       <c r="Z272" s="20"/>
     </row>
     <row r="273">
-      <c r="A273" s="23"/>
+      <c r="A273" s="25"/>
       <c r="B273" s="20"/>
       <c r="C273" s="20"/>
       <c r="D273" s="20"/>
@@ -37294,7 +37316,7 @@
       <c r="Z273" s="20"/>
     </row>
     <row r="274">
-      <c r="A274" s="23"/>
+      <c r="A274" s="25"/>
       <c r="B274" s="20"/>
       <c r="C274" s="20"/>
       <c r="D274" s="20"/>
@@ -37322,7 +37344,7 @@
       <c r="Z274" s="20"/>
     </row>
     <row r="275">
-      <c r="A275" s="23"/>
+      <c r="A275" s="25"/>
       <c r="B275" s="20"/>
       <c r="C275" s="20"/>
       <c r="D275" s="20"/>
@@ -37350,7 +37372,7 @@
       <c r="Z275" s="20"/>
     </row>
     <row r="276">
-      <c r="A276" s="23"/>
+      <c r="A276" s="25"/>
       <c r="B276" s="20"/>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
@@ -37378,7 +37400,7 @@
       <c r="Z276" s="20"/>
     </row>
     <row r="277">
-      <c r="A277" s="23"/>
+      <c r="A277" s="25"/>
       <c r="B277" s="20"/>
       <c r="C277" s="20"/>
       <c r="D277" s="20"/>
@@ -37406,7 +37428,7 @@
       <c r="Z277" s="20"/>
     </row>
     <row r="278">
-      <c r="A278" s="23"/>
+      <c r="A278" s="25"/>
       <c r="B278" s="20"/>
       <c r="C278" s="20"/>
       <c r="D278" s="20"/>
@@ -37434,7 +37456,7 @@
       <c r="Z278" s="20"/>
     </row>
     <row r="279">
-      <c r="A279" s="23"/>
+      <c r="A279" s="25"/>
       <c r="B279" s="20"/>
       <c r="C279" s="20"/>
       <c r="D279" s="20"/>
@@ -37462,7 +37484,7 @@
       <c r="Z279" s="20"/>
     </row>
     <row r="280">
-      <c r="A280" s="23"/>
+      <c r="A280" s="25"/>
       <c r="B280" s="20"/>
       <c r="C280" s="20"/>
       <c r="D280" s="20"/>
@@ -37490,7 +37512,7 @@
       <c r="Z280" s="20"/>
     </row>
     <row r="281">
-      <c r="A281" s="23"/>
+      <c r="A281" s="25"/>
       <c r="B281" s="20"/>
       <c r="C281" s="20"/>
       <c r="D281" s="20"/>
@@ -37518,7 +37540,7 @@
       <c r="Z281" s="20"/>
     </row>
     <row r="282">
-      <c r="A282" s="23"/>
+      <c r="A282" s="25"/>
       <c r="B282" s="20"/>
       <c r="C282" s="20"/>
       <c r="D282" s="20"/>
@@ -37546,7 +37568,7 @@
       <c r="Z282" s="20"/>
     </row>
     <row r="283">
-      <c r="A283" s="23"/>
+      <c r="A283" s="25"/>
       <c r="B283" s="20"/>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
@@ -37574,7 +37596,7 @@
       <c r="Z283" s="20"/>
     </row>
     <row r="284">
-      <c r="A284" s="23"/>
+      <c r="A284" s="25"/>
       <c r="B284" s="20"/>
       <c r="C284" s="20"/>
       <c r="D284" s="20"/>
@@ -37602,7 +37624,7 @@
       <c r="Z284" s="20"/>
     </row>
     <row r="285">
-      <c r="A285" s="23"/>
+      <c r="A285" s="25"/>
       <c r="B285" s="20"/>
       <c r="C285" s="20"/>
       <c r="D285" s="20"/>
@@ -37630,7 +37652,7 @@
       <c r="Z285" s="20"/>
     </row>
     <row r="286">
-      <c r="A286" s="23"/>
+      <c r="A286" s="25"/>
       <c r="B286" s="20"/>
       <c r="C286" s="20"/>
       <c r="D286" s="20"/>
@@ -37658,7 +37680,7 @@
       <c r="Z286" s="20"/>
     </row>
     <row r="287">
-      <c r="A287" s="23"/>
+      <c r="A287" s="25"/>
       <c r="B287" s="20"/>
       <c r="C287" s="20"/>
       <c r="D287" s="20"/>
@@ -37686,7 +37708,7 @@
       <c r="Z287" s="20"/>
     </row>
     <row r="288">
-      <c r="A288" s="23"/>
+      <c r="A288" s="25"/>
       <c r="B288" s="20"/>
       <c r="C288" s="20"/>
       <c r="D288" s="20"/>
@@ -37714,7 +37736,7 @@
       <c r="Z288" s="20"/>
     </row>
     <row r="289">
-      <c r="A289" s="23"/>
+      <c r="A289" s="25"/>
       <c r="B289" s="20"/>
       <c r="C289" s="20"/>
       <c r="D289" s="20"/>
@@ -37742,7 +37764,7 @@
       <c r="Z289" s="20"/>
     </row>
     <row r="290">
-      <c r="A290" s="23"/>
+      <c r="A290" s="25"/>
       <c r="B290" s="20"/>
       <c r="C290" s="20"/>
       <c r="D290" s="20"/>
@@ -37770,7 +37792,7 @@
       <c r="Z290" s="20"/>
     </row>
     <row r="291">
-      <c r="A291" s="23"/>
+      <c r="A291" s="25"/>
       <c r="B291" s="20"/>
       <c r="C291" s="20"/>
       <c r="D291" s="20"/>
@@ -37798,7 +37820,7 @@
       <c r="Z291" s="20"/>
     </row>
     <row r="292">
-      <c r="A292" s="23"/>
+      <c r="A292" s="25"/>
       <c r="B292" s="20"/>
       <c r="C292" s="20"/>
       <c r="D292" s="20"/>
@@ -37826,7 +37848,7 @@
       <c r="Z292" s="20"/>
     </row>
     <row r="293">
-      <c r="A293" s="23"/>
+      <c r="A293" s="25"/>
       <c r="B293" s="20"/>
       <c r="C293" s="20"/>
       <c r="D293" s="20"/>
@@ -37854,7 +37876,7 @@
       <c r="Z293" s="20"/>
     </row>
     <row r="294">
-      <c r="A294" s="23"/>
+      <c r="A294" s="25"/>
       <c r="B294" s="20"/>
       <c r="C294" s="20"/>
       <c r="D294" s="20"/>
@@ -37882,7 +37904,7 @@
       <c r="Z294" s="20"/>
     </row>
     <row r="295">
-      <c r="A295" s="23"/>
+      <c r="A295" s="25"/>
       <c r="B295" s="20"/>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
@@ -37910,7 +37932,7 @@
       <c r="Z295" s="20"/>
     </row>
     <row r="296">
-      <c r="A296" s="23"/>
+      <c r="A296" s="25"/>
       <c r="B296" s="20"/>
       <c r="C296" s="20"/>
       <c r="D296" s="20"/>
@@ -37938,7 +37960,7 @@
       <c r="Z296" s="20"/>
     </row>
     <row r="297">
-      <c r="A297" s="23"/>
+      <c r="A297" s="25"/>
       <c r="B297" s="20"/>
       <c r="C297" s="20"/>
       <c r="D297" s="20"/>
@@ -37966,7 +37988,7 @@
       <c r="Z297" s="20"/>
     </row>
     <row r="298">
-      <c r="A298" s="23"/>
+      <c r="A298" s="25"/>
       <c r="B298" s="20"/>
       <c r="C298" s="20"/>
       <c r="D298" s="20"/>
@@ -37994,7 +38016,7 @@
       <c r="Z298" s="20"/>
     </row>
     <row r="299">
-      <c r="A299" s="23"/>
+      <c r="A299" s="25"/>
       <c r="B299" s="20"/>
       <c r="C299" s="20"/>
       <c r="D299" s="20"/>
@@ -38022,7 +38044,7 @@
       <c r="Z299" s="20"/>
     </row>
     <row r="300">
-      <c r="A300" s="23"/>
+      <c r="A300" s="25"/>
       <c r="B300" s="20"/>
       <c r="C300" s="20"/>
       <c r="D300" s="20"/>
@@ -38050,7 +38072,7 @@
       <c r="Z300" s="20"/>
     </row>
     <row r="301">
-      <c r="A301" s="23"/>
+      <c r="A301" s="25"/>
       <c r="B301" s="20"/>
       <c r="C301" s="20"/>
       <c r="D301" s="20"/>
@@ -38078,7 +38100,7 @@
       <c r="Z301" s="20"/>
     </row>
     <row r="302">
-      <c r="A302" s="23"/>
+      <c r="A302" s="25"/>
       <c r="B302" s="20"/>
       <c r="C302" s="20"/>
       <c r="D302" s="20"/>
@@ -38106,7 +38128,7 @@
       <c r="Z302" s="20"/>
     </row>
     <row r="303">
-      <c r="A303" s="23"/>
+      <c r="A303" s="25"/>
       <c r="B303" s="20"/>
       <c r="C303" s="20"/>
       <c r="D303" s="20"/>
@@ -38134,7 +38156,7 @@
       <c r="Z303" s="20"/>
     </row>
     <row r="304">
-      <c r="A304" s="23"/>
+      <c r="A304" s="25"/>
       <c r="B304" s="20"/>
       <c r="C304" s="20"/>
       <c r="D304" s="20"/>
@@ -38162,7 +38184,7 @@
       <c r="Z304" s="20"/>
     </row>
     <row r="305">
-      <c r="A305" s="23"/>
+      <c r="A305" s="25"/>
       <c r="B305" s="20"/>
       <c r="C305" s="20"/>
       <c r="D305" s="20"/>
@@ -38190,7 +38212,7 @@
       <c r="Z305" s="20"/>
     </row>
     <row r="306">
-      <c r="A306" s="23"/>
+      <c r="A306" s="25"/>
       <c r="B306" s="20"/>
       <c r="C306" s="20"/>
       <c r="D306" s="20"/>
@@ -38218,7 +38240,7 @@
       <c r="Z306" s="20"/>
     </row>
     <row r="307">
-      <c r="A307" s="23"/>
+      <c r="A307" s="25"/>
       <c r="B307" s="20"/>
       <c r="C307" s="20"/>
       <c r="D307" s="20"/>
@@ -38246,7 +38268,7 @@
       <c r="Z307" s="20"/>
     </row>
     <row r="308">
-      <c r="A308" s="23"/>
+      <c r="A308" s="25"/>
       <c r="B308" s="20"/>
       <c r="C308" s="20"/>
       <c r="D308" s="20"/>
@@ -38274,7 +38296,7 @@
       <c r="Z308" s="20"/>
     </row>
     <row r="309">
-      <c r="A309" s="23"/>
+      <c r="A309" s="25"/>
       <c r="B309" s="20"/>
       <c r="C309" s="20"/>
       <c r="D309" s="20"/>
@@ -38302,7 +38324,7 @@
       <c r="Z309" s="20"/>
     </row>
     <row r="310">
-      <c r="A310" s="23"/>
+      <c r="A310" s="25"/>
       <c r="B310" s="20"/>
       <c r="C310" s="20"/>
       <c r="D310" s="20"/>
@@ -38330,7 +38352,7 @@
       <c r="Z310" s="20"/>
     </row>
     <row r="311">
-      <c r="A311" s="23"/>
+      <c r="A311" s="25"/>
       <c r="B311" s="20"/>
       <c r="C311" s="20"/>
       <c r="D311" s="20"/>
@@ -38358,7 +38380,7 @@
       <c r="Z311" s="20"/>
     </row>
     <row r="312">
-      <c r="A312" s="23"/>
+      <c r="A312" s="25"/>
       <c r="B312" s="20"/>
       <c r="C312" s="20"/>
       <c r="D312" s="20"/>
@@ -38386,7 +38408,7 @@
       <c r="Z312" s="20"/>
     </row>
     <row r="313">
-      <c r="A313" s="23"/>
+      <c r="A313" s="25"/>
       <c r="B313" s="20"/>
       <c r="C313" s="20"/>
       <c r="D313" s="20"/>
@@ -38414,7 +38436,7 @@
       <c r="Z313" s="20"/>
     </row>
     <row r="314">
-      <c r="A314" s="23"/>
+      <c r="A314" s="25"/>
       <c r="B314" s="20"/>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
@@ -38442,7 +38464,7 @@
       <c r="Z314" s="20"/>
     </row>
     <row r="315">
-      <c r="A315" s="23"/>
+      <c r="A315" s="25"/>
       <c r="B315" s="20"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>
@@ -38470,7 +38492,7 @@
       <c r="Z315" s="20"/>
     </row>
     <row r="316">
-      <c r="A316" s="23"/>
+      <c r="A316" s="25"/>
       <c r="B316" s="20"/>
       <c r="C316" s="20"/>
       <c r="D316" s="20"/>
@@ -38498,7 +38520,7 @@
       <c r="Z316" s="20"/>
     </row>
     <row r="317">
-      <c r="A317" s="23"/>
+      <c r="A317" s="25"/>
       <c r="B317" s="20"/>
       <c r="C317" s="20"/>
       <c r="D317" s="20"/>
@@ -38526,7 +38548,7 @@
       <c r="Z317" s="20"/>
     </row>
     <row r="318">
-      <c r="A318" s="23"/>
+      <c r="A318" s="25"/>
       <c r="B318" s="20"/>
       <c r="C318" s="20"/>
       <c r="D318" s="20"/>
@@ -38554,7 +38576,7 @@
       <c r="Z318" s="20"/>
     </row>
     <row r="319">
-      <c r="A319" s="23"/>
+      <c r="A319" s="25"/>
       <c r="B319" s="20"/>
       <c r="C319" s="20"/>
       <c r="D319" s="20"/>
@@ -38582,7 +38604,7 @@
       <c r="Z319" s="20"/>
     </row>
     <row r="320">
-      <c r="A320" s="23"/>
+      <c r="A320" s="25"/>
       <c r="B320" s="20"/>
       <c r="C320" s="20"/>
       <c r="D320" s="20"/>
@@ -38610,7 +38632,7 @@
       <c r="Z320" s="20"/>
     </row>
     <row r="321">
-      <c r="A321" s="23"/>
+      <c r="A321" s="25"/>
       <c r="B321" s="20"/>
       <c r="C321" s="20"/>
       <c r="D321" s="20"/>
@@ -38638,7 +38660,7 @@
       <c r="Z321" s="20"/>
     </row>
     <row r="322">
-      <c r="A322" s="23"/>
+      <c r="A322" s="25"/>
       <c r="B322" s="20"/>
       <c r="C322" s="20"/>
       <c r="D322" s="20"/>
@@ -38666,7 +38688,7 @@
       <c r="Z322" s="20"/>
     </row>
     <row r="323">
-      <c r="A323" s="23"/>
+      <c r="A323" s="25"/>
       <c r="B323" s="20"/>
       <c r="C323" s="20"/>
       <c r="D323" s="20"/>
@@ -38694,7 +38716,7 @@
       <c r="Z323" s="20"/>
     </row>
     <row r="324">
-      <c r="A324" s="23"/>
+      <c r="A324" s="25"/>
       <c r="B324" s="20"/>
       <c r="C324" s="20"/>
       <c r="D324" s="20"/>
@@ -38722,7 +38744,7 @@
       <c r="Z324" s="20"/>
     </row>
     <row r="325">
-      <c r="A325" s="23"/>
+      <c r="A325" s="25"/>
       <c r="B325" s="20"/>
       <c r="C325" s="20"/>
       <c r="D325" s="20"/>
@@ -38750,7 +38772,7 @@
       <c r="Z325" s="20"/>
     </row>
     <row r="326">
-      <c r="A326" s="23"/>
+      <c r="A326" s="25"/>
       <c r="B326" s="20"/>
       <c r="C326" s="20"/>
       <c r="D326" s="20"/>
@@ -38778,7 +38800,7 @@
       <c r="Z326" s="20"/>
     </row>
     <row r="327">
-      <c r="A327" s="23"/>
+      <c r="A327" s="25"/>
       <c r="B327" s="20"/>
       <c r="C327" s="20"/>
       <c r="D327" s="20"/>
@@ -38806,7 +38828,7 @@
       <c r="Z327" s="20"/>
     </row>
     <row r="328">
-      <c r="A328" s="23"/>
+      <c r="A328" s="25"/>
       <c r="B328" s="20"/>
       <c r="C328" s="20"/>
       <c r="D328" s="20"/>
@@ -38834,7 +38856,7 @@
       <c r="Z328" s="20"/>
     </row>
     <row r="329">
-      <c r="A329" s="23"/>
+      <c r="A329" s="25"/>
       <c r="B329" s="20"/>
       <c r="C329" s="20"/>
       <c r="D329" s="20"/>
@@ -38862,7 +38884,7 @@
       <c r="Z329" s="20"/>
     </row>
     <row r="330">
-      <c r="A330" s="23"/>
+      <c r="A330" s="25"/>
       <c r="B330" s="20"/>
       <c r="C330" s="20"/>
       <c r="D330" s="20"/>
@@ -38890,7 +38912,7 @@
       <c r="Z330" s="20"/>
     </row>
     <row r="331">
-      <c r="A331" s="23"/>
+      <c r="A331" s="25"/>
       <c r="B331" s="20"/>
       <c r="C331" s="20"/>
       <c r="D331" s="20"/>
@@ -38918,7 +38940,7 @@
       <c r="Z331" s="20"/>
     </row>
     <row r="332">
-      <c r="A332" s="23"/>
+      <c r="A332" s="25"/>
       <c r="B332" s="20"/>
       <c r="C332" s="20"/>
       <c r="D332" s="20"/>
@@ -38946,7 +38968,7 @@
       <c r="Z332" s="20"/>
     </row>
     <row r="333">
-      <c r="A333" s="23"/>
+      <c r="A333" s="25"/>
       <c r="B333" s="20"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
@@ -38974,7 +38996,7 @@
       <c r="Z333" s="20"/>
     </row>
     <row r="334">
-      <c r="A334" s="23"/>
+      <c r="A334" s="25"/>
       <c r="B334" s="20"/>
       <c r="C334" s="20"/>
       <c r="D334" s="20"/>
@@ -39002,7 +39024,7 @@
       <c r="Z334" s="20"/>
     </row>
     <row r="335">
-      <c r="A335" s="23"/>
+      <c r="A335" s="25"/>
       <c r="B335" s="20"/>
       <c r="C335" s="20"/>
       <c r="D335" s="20"/>
@@ -39030,7 +39052,7 @@
       <c r="Z335" s="20"/>
     </row>
     <row r="336">
-      <c r="A336" s="23"/>
+      <c r="A336" s="25"/>
       <c r="B336" s="20"/>
       <c r="C336" s="20"/>
       <c r="D336" s="20"/>
@@ -39058,7 +39080,7 @@
       <c r="Z336" s="20"/>
     </row>
     <row r="337">
-      <c r="A337" s="23"/>
+      <c r="A337" s="25"/>
       <c r="B337" s="20"/>
       <c r="C337" s="20"/>
       <c r="D337" s="20"/>
@@ -39086,7 +39108,7 @@
       <c r="Z337" s="20"/>
     </row>
     <row r="338">
-      <c r="A338" s="23"/>
+      <c r="A338" s="25"/>
       <c r="B338" s="20"/>
       <c r="C338" s="20"/>
       <c r="D338" s="20"/>
@@ -39114,7 +39136,7 @@
       <c r="Z338" s="20"/>
     </row>
     <row r="339">
-      <c r="A339" s="23"/>
+      <c r="A339" s="25"/>
       <c r="B339" s="20"/>
       <c r="C339" s="20"/>
       <c r="D339" s="20"/>
@@ -39142,7 +39164,7 @@
       <c r="Z339" s="20"/>
     </row>
     <row r="340">
-      <c r="A340" s="23"/>
+      <c r="A340" s="25"/>
       <c r="B340" s="20"/>
       <c r="C340" s="20"/>
       <c r="D340" s="20"/>
@@ -39170,7 +39192,7 @@
       <c r="Z340" s="20"/>
     </row>
     <row r="341">
-      <c r="A341" s="23"/>
+      <c r="A341" s="25"/>
       <c r="B341" s="20"/>
       <c r="C341" s="20"/>
       <c r="D341" s="20"/>
@@ -39198,7 +39220,7 @@
       <c r="Z341" s="20"/>
     </row>
     <row r="342">
-      <c r="A342" s="23"/>
+      <c r="A342" s="25"/>
       <c r="B342" s="20"/>
       <c r="C342" s="20"/>
       <c r="D342" s="20"/>
@@ -39226,7 +39248,7 @@
       <c r="Z342" s="20"/>
     </row>
     <row r="343">
-      <c r="A343" s="23"/>
+      <c r="A343" s="25"/>
       <c r="B343" s="20"/>
       <c r="C343" s="20"/>
       <c r="D343" s="20"/>
@@ -39254,7 +39276,7 @@
       <c r="Z343" s="20"/>
     </row>
     <row r="344">
-      <c r="A344" s="23"/>
+      <c r="A344" s="25"/>
       <c r="B344" s="20"/>
       <c r="C344" s="20"/>
       <c r="D344" s="20"/>
@@ -39282,7 +39304,7 @@
       <c r="Z344" s="20"/>
     </row>
     <row r="345">
-      <c r="A345" s="23"/>
+      <c r="A345" s="25"/>
       <c r="B345" s="20"/>
       <c r="C345" s="20"/>
       <c r="D345" s="20"/>
@@ -39310,7 +39332,7 @@
       <c r="Z345" s="20"/>
     </row>
     <row r="346">
-      <c r="A346" s="23"/>
+      <c r="A346" s="25"/>
       <c r="B346" s="20"/>
       <c r="C346" s="20"/>
       <c r="D346" s="20"/>
@@ -39338,7 +39360,7 @@
       <c r="Z346" s="20"/>
     </row>
     <row r="347">
-      <c r="A347" s="23"/>
+      <c r="A347" s="25"/>
       <c r="B347" s="20"/>
       <c r="C347" s="20"/>
       <c r="D347" s="20"/>
@@ -39366,7 +39388,7 @@
       <c r="Z347" s="20"/>
     </row>
     <row r="348">
-      <c r="A348" s="23"/>
+      <c r="A348" s="25"/>
       <c r="B348" s="20"/>
       <c r="C348" s="20"/>
       <c r="D348" s="20"/>
@@ -39394,7 +39416,7 @@
       <c r="Z348" s="20"/>
     </row>
     <row r="349">
-      <c r="A349" s="23"/>
+      <c r="A349" s="25"/>
       <c r="B349" s="20"/>
       <c r="C349" s="20"/>
       <c r="D349" s="20"/>
@@ -39422,7 +39444,7 @@
       <c r="Z349" s="20"/>
     </row>
     <row r="350">
-      <c r="A350" s="23"/>
+      <c r="A350" s="25"/>
       <c r="B350" s="20"/>
       <c r="C350" s="20"/>
       <c r="D350" s="20"/>
@@ -39450,7 +39472,7 @@
       <c r="Z350" s="20"/>
     </row>
     <row r="351">
-      <c r="A351" s="23"/>
+      <c r="A351" s="25"/>
       <c r="B351" s="20"/>
       <c r="C351" s="20"/>
       <c r="D351" s="20"/>
@@ -39478,7 +39500,7 @@
       <c r="Z351" s="20"/>
     </row>
     <row r="352">
-      <c r="A352" s="23"/>
+      <c r="A352" s="25"/>
       <c r="B352" s="20"/>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
@@ -39506,7 +39528,7 @@
       <c r="Z352" s="20"/>
     </row>
     <row r="353">
-      <c r="A353" s="23"/>
+      <c r="A353" s="25"/>
       <c r="B353" s="20"/>
       <c r="C353" s="20"/>
       <c r="D353" s="20"/>
@@ -39534,7 +39556,7 @@
       <c r="Z353" s="20"/>
     </row>
     <row r="354">
-      <c r="A354" s="23"/>
+      <c r="A354" s="25"/>
       <c r="B354" s="20"/>
       <c r="C354" s="20"/>
       <c r="D354" s="20"/>
@@ -39562,7 +39584,7 @@
       <c r="Z354" s="20"/>
     </row>
     <row r="355">
-      <c r="A355" s="23"/>
+      <c r="A355" s="25"/>
       <c r="B355" s="20"/>
       <c r="C355" s="20"/>
       <c r="D355" s="20"/>
@@ -39590,7 +39612,7 @@
       <c r="Z355" s="20"/>
     </row>
     <row r="356">
-      <c r="A356" s="23"/>
+      <c r="A356" s="25"/>
       <c r="B356" s="20"/>
       <c r="C356" s="20"/>
       <c r="D356" s="20"/>
@@ -39618,7 +39640,7 @@
       <c r="Z356" s="20"/>
     </row>
     <row r="357">
-      <c r="A357" s="23"/>
+      <c r="A357" s="25"/>
       <c r="B357" s="20"/>
       <c r="C357" s="20"/>
       <c r="D357" s="20"/>
@@ -39646,7 +39668,7 @@
       <c r="Z357" s="20"/>
     </row>
     <row r="358">
-      <c r="A358" s="23"/>
+      <c r="A358" s="25"/>
       <c r="B358" s="20"/>
       <c r="C358" s="20"/>
       <c r="D358" s="20"/>
@@ -39674,7 +39696,7 @@
       <c r="Z358" s="20"/>
     </row>
     <row r="359">
-      <c r="A359" s="23"/>
+      <c r="A359" s="25"/>
       <c r="B359" s="20"/>
       <c r="C359" s="20"/>
       <c r="D359" s="20"/>
@@ -39702,7 +39724,7 @@
       <c r="Z359" s="20"/>
     </row>
     <row r="360">
-      <c r="A360" s="23"/>
+      <c r="A360" s="25"/>
       <c r="B360" s="20"/>
       <c r="C360" s="20"/>
       <c r="D360" s="20"/>
@@ -39730,7 +39752,7 @@
       <c r="Z360" s="20"/>
     </row>
     <row r="361">
-      <c r="A361" s="23"/>
+      <c r="A361" s="25"/>
       <c r="B361" s="20"/>
       <c r="C361" s="20"/>
       <c r="D361" s="20"/>
@@ -39758,7 +39780,7 @@
       <c r="Z361" s="20"/>
     </row>
     <row r="362">
-      <c r="A362" s="23"/>
+      <c r="A362" s="25"/>
       <c r="B362" s="20"/>
       <c r="C362" s="20"/>
       <c r="D362" s="20"/>
@@ -39786,7 +39808,7 @@
       <c r="Z362" s="20"/>
     </row>
     <row r="363">
-      <c r="A363" s="23"/>
+      <c r="A363" s="25"/>
       <c r="B363" s="20"/>
       <c r="C363" s="20"/>
       <c r="D363" s="20"/>
@@ -39814,7 +39836,7 @@
       <c r="Z363" s="20"/>
     </row>
     <row r="364">
-      <c r="A364" s="23"/>
+      <c r="A364" s="25"/>
       <c r="B364" s="20"/>
       <c r="C364" s="20"/>
       <c r="D364" s="20"/>
@@ -39842,7 +39864,7 @@
       <c r="Z364" s="20"/>
     </row>
     <row r="365">
-      <c r="A365" s="23"/>
+      <c r="A365" s="25"/>
       <c r="B365" s="20"/>
       <c r="C365" s="20"/>
       <c r="D365" s="20"/>
@@ -39870,7 +39892,7 @@
       <c r="Z365" s="20"/>
     </row>
     <row r="366">
-      <c r="A366" s="23"/>
+      <c r="A366" s="25"/>
       <c r="B366" s="20"/>
       <c r="C366" s="20"/>
       <c r="D366" s="20"/>
@@ -39898,7 +39920,7 @@
       <c r="Z366" s="20"/>
     </row>
     <row r="367">
-      <c r="A367" s="23"/>
+      <c r="A367" s="25"/>
       <c r="B367" s="20"/>
       <c r="C367" s="20"/>
       <c r="D367" s="20"/>
@@ -39926,7 +39948,7 @@
       <c r="Z367" s="20"/>
     </row>
     <row r="368">
-      <c r="A368" s="23"/>
+      <c r="A368" s="25"/>
       <c r="B368" s="20"/>
       <c r="C368" s="20"/>
       <c r="D368" s="20"/>
@@ -39954,7 +39976,7 @@
       <c r="Z368" s="20"/>
     </row>
     <row r="369">
-      <c r="A369" s="23"/>
+      <c r="A369" s="25"/>
       <c r="B369" s="20"/>
       <c r="C369" s="20"/>
       <c r="D369" s="20"/>
@@ -39982,7 +40004,7 @@
       <c r="Z369" s="20"/>
     </row>
     <row r="370">
-      <c r="A370" s="23"/>
+      <c r="A370" s="25"/>
       <c r="B370" s="20"/>
       <c r="C370" s="20"/>
       <c r="D370" s="20"/>
@@ -40010,7 +40032,7 @@
       <c r="Z370" s="20"/>
     </row>
     <row r="371">
-      <c r="A371" s="23"/>
+      <c r="A371" s="25"/>
       <c r="B371" s="20"/>
       <c r="C371" s="20"/>
       <c r="D371" s="20"/>
@@ -40038,7 +40060,7 @@
       <c r="Z371" s="20"/>
     </row>
     <row r="372">
-      <c r="A372" s="23"/>
+      <c r="A372" s="25"/>
       <c r="B372" s="20"/>
       <c r="C372" s="20"/>
       <c r="D372" s="20"/>
@@ -40066,7 +40088,7 @@
       <c r="Z372" s="20"/>
     </row>
     <row r="373">
-      <c r="A373" s="23"/>
+      <c r="A373" s="25"/>
       <c r="B373" s="20"/>
       <c r="C373" s="20"/>
       <c r="D373" s="20"/>
@@ -40094,7 +40116,7 @@
       <c r="Z373" s="20"/>
     </row>
     <row r="374">
-      <c r="A374" s="23"/>
+      <c r="A374" s="25"/>
       <c r="B374" s="20"/>
       <c r="C374" s="20"/>
       <c r="D374" s="20"/>
@@ -40122,7 +40144,7 @@
       <c r="Z374" s="20"/>
     </row>
     <row r="375">
-      <c r="A375" s="23"/>
+      <c r="A375" s="25"/>
       <c r="B375" s="20"/>
       <c r="C375" s="20"/>
       <c r="D375" s="20"/>
@@ -40150,7 +40172,7 @@
       <c r="Z375" s="20"/>
     </row>
     <row r="376">
-      <c r="A376" s="23"/>
+      <c r="A376" s="25"/>
       <c r="B376" s="20"/>
       <c r="C376" s="20"/>
       <c r="D376" s="20"/>
@@ -40178,7 +40200,7 @@
       <c r="Z376" s="20"/>
     </row>
     <row r="377">
-      <c r="A377" s="23"/>
+      <c r="A377" s="25"/>
       <c r="B377" s="20"/>
       <c r="C377" s="20"/>
       <c r="D377" s="20"/>
@@ -40206,7 +40228,7 @@
       <c r="Z377" s="20"/>
     </row>
     <row r="378">
-      <c r="A378" s="23"/>
+      <c r="A378" s="25"/>
       <c r="B378" s="20"/>
       <c r="C378" s="20"/>
       <c r="D378" s="20"/>
@@ -40234,7 +40256,7 @@
       <c r="Z378" s="20"/>
     </row>
     <row r="379">
-      <c r="A379" s="23"/>
+      <c r="A379" s="25"/>
       <c r="B379" s="20"/>
       <c r="C379" s="20"/>
       <c r="D379" s="20"/>
@@ -40262,7 +40284,7 @@
       <c r="Z379" s="20"/>
     </row>
     <row r="380">
-      <c r="A380" s="23"/>
+      <c r="A380" s="25"/>
       <c r="B380" s="20"/>
       <c r="C380" s="20"/>
       <c r="D380" s="20"/>
@@ -40290,7 +40312,7 @@
       <c r="Z380" s="20"/>
     </row>
     <row r="381">
-      <c r="A381" s="23"/>
+      <c r="A381" s="25"/>
       <c r="B381" s="20"/>
       <c r="C381" s="20"/>
       <c r="D381" s="20"/>
@@ -40318,7 +40340,7 @@
       <c r="Z381" s="20"/>
     </row>
     <row r="382">
-      <c r="A382" s="23"/>
+      <c r="A382" s="25"/>
       <c r="B382" s="20"/>
       <c r="C382" s="20"/>
       <c r="D382" s="20"/>
@@ -40346,7 +40368,7 @@
       <c r="Z382" s="20"/>
     </row>
     <row r="383">
-      <c r="A383" s="23"/>
+      <c r="A383" s="25"/>
       <c r="B383" s="20"/>
       <c r="C383" s="20"/>
       <c r="D383" s="20"/>
@@ -40374,7 +40396,7 @@
       <c r="Z383" s="20"/>
     </row>
     <row r="384">
-      <c r="A384" s="23"/>
+      <c r="A384" s="25"/>
       <c r="B384" s="20"/>
       <c r="C384" s="20"/>
       <c r="D384" s="20"/>
@@ -40402,7 +40424,7 @@
       <c r="Z384" s="20"/>
     </row>
     <row r="385">
-      <c r="A385" s="23"/>
+      <c r="A385" s="25"/>
       <c r="B385" s="20"/>
       <c r="C385" s="20"/>
       <c r="D385" s="20"/>
@@ -40430,7 +40452,7 @@
       <c r="Z385" s="20"/>
     </row>
     <row r="386">
-      <c r="A386" s="23"/>
+      <c r="A386" s="25"/>
       <c r="B386" s="20"/>
       <c r="C386" s="20"/>
       <c r="D386" s="20"/>
@@ -40458,7 +40480,7 @@
       <c r="Z386" s="20"/>
     </row>
     <row r="387">
-      <c r="A387" s="23"/>
+      <c r="A387" s="25"/>
       <c r="B387" s="20"/>
       <c r="C387" s="20"/>
       <c r="D387" s="20"/>
@@ -40486,7 +40508,7 @@
       <c r="Z387" s="20"/>
     </row>
     <row r="388">
-      <c r="A388" s="23"/>
+      <c r="A388" s="25"/>
       <c r="B388" s="20"/>
       <c r="C388" s="20"/>
       <c r="D388" s="20"/>
@@ -40514,7 +40536,7 @@
       <c r="Z388" s="20"/>
     </row>
     <row r="389">
-      <c r="A389" s="23"/>
+      <c r="A389" s="25"/>
       <c r="B389" s="20"/>
       <c r="C389" s="20"/>
       <c r="D389" s="20"/>
@@ -40542,7 +40564,7 @@
       <c r="Z389" s="20"/>
     </row>
     <row r="390">
-      <c r="A390" s="23"/>
+      <c r="A390" s="25"/>
       <c r="B390" s="20"/>
       <c r="C390" s="20"/>
       <c r="D390" s="20"/>
@@ -40570,7 +40592,7 @@
       <c r="Z390" s="20"/>
     </row>
     <row r="391">
-      <c r="A391" s="23"/>
+      <c r="A391" s="25"/>
       <c r="B391" s="20"/>
       <c r="C391" s="20"/>
       <c r="D391" s="20"/>
@@ -40598,7 +40620,7 @@
       <c r="Z391" s="20"/>
     </row>
     <row r="392">
-      <c r="A392" s="23"/>
+      <c r="A392" s="25"/>
       <c r="B392" s="20"/>
       <c r="C392" s="20"/>
       <c r="D392" s="20"/>
@@ -40626,7 +40648,7 @@
       <c r="Z392" s="20"/>
     </row>
     <row r="393">
-      <c r="A393" s="23"/>
+      <c r="A393" s="25"/>
       <c r="B393" s="20"/>
       <c r="C393" s="20"/>
       <c r="D393" s="20"/>
@@ -40654,7 +40676,7 @@
       <c r="Z393" s="20"/>
     </row>
     <row r="394">
-      <c r="A394" s="23"/>
+      <c r="A394" s="25"/>
       <c r="B394" s="20"/>
       <c r="C394" s="20"/>
       <c r="D394" s="20"/>
@@ -40682,7 +40704,7 @@
       <c r="Z394" s="20"/>
     </row>
     <row r="395">
-      <c r="A395" s="23"/>
+      <c r="A395" s="25"/>
       <c r="B395" s="20"/>
       <c r="C395" s="20"/>
       <c r="D395" s="20"/>
@@ -40710,7 +40732,7 @@
       <c r="Z395" s="20"/>
     </row>
     <row r="396">
-      <c r="A396" s="23"/>
+      <c r="A396" s="25"/>
       <c r="B396" s="20"/>
       <c r="C396" s="20"/>
       <c r="D396" s="20"/>
@@ -40738,7 +40760,7 @@
       <c r="Z396" s="20"/>
     </row>
     <row r="397">
-      <c r="A397" s="23"/>
+      <c r="A397" s="25"/>
       <c r="B397" s="20"/>
       <c r="C397" s="20"/>
       <c r="D397" s="20"/>
@@ -40766,7 +40788,7 @@
       <c r="Z397" s="20"/>
     </row>
     <row r="398">
-      <c r="A398" s="23"/>
+      <c r="A398" s="25"/>
       <c r="B398" s="20"/>
       <c r="C398" s="20"/>
       <c r="D398" s="20"/>
@@ -40794,7 +40816,7 @@
       <c r="Z398" s="20"/>
     </row>
     <row r="399">
-      <c r="A399" s="23"/>
+      <c r="A399" s="25"/>
       <c r="B399" s="20"/>
       <c r="C399" s="20"/>
       <c r="D399" s="20"/>
@@ -40822,7 +40844,7 @@
       <c r="Z399" s="20"/>
     </row>
     <row r="400">
-      <c r="A400" s="23"/>
+      <c r="A400" s="25"/>
       <c r="B400" s="20"/>
       <c r="C400" s="20"/>
       <c r="D400" s="20"/>
@@ -40850,7 +40872,7 @@
       <c r="Z400" s="20"/>
     </row>
     <row r="401">
-      <c r="A401" s="23"/>
+      <c r="A401" s="25"/>
       <c r="B401" s="20"/>
       <c r="C401" s="20"/>
       <c r="D401" s="20"/>
@@ -40878,7 +40900,7 @@
       <c r="Z401" s="20"/>
     </row>
     <row r="402">
-      <c r="A402" s="23"/>
+      <c r="A402" s="25"/>
       <c r="B402" s="20"/>
       <c r="C402" s="20"/>
       <c r="D402" s="20"/>
@@ -40906,7 +40928,7 @@
       <c r="Z402" s="20"/>
     </row>
     <row r="403">
-      <c r="A403" s="23"/>
+      <c r="A403" s="25"/>
       <c r="B403" s="20"/>
       <c r="C403" s="20"/>
       <c r="D403" s="20"/>
@@ -40934,7 +40956,7 @@
       <c r="Z403" s="20"/>
     </row>
     <row r="404">
-      <c r="A404" s="23"/>
+      <c r="A404" s="25"/>
       <c r="B404" s="20"/>
       <c r="C404" s="20"/>
       <c r="D404" s="20"/>
@@ -40962,7 +40984,7 @@
       <c r="Z404" s="20"/>
     </row>
     <row r="405">
-      <c r="A405" s="23"/>
+      <c r="A405" s="25"/>
       <c r="B405" s="20"/>
       <c r="C405" s="20"/>
       <c r="D405" s="20"/>
@@ -40990,7 +41012,7 @@
       <c r="Z405" s="20"/>
     </row>
     <row r="406">
-      <c r="A406" s="23"/>
+      <c r="A406" s="25"/>
       <c r="B406" s="20"/>
       <c r="C406" s="20"/>
       <c r="D406" s="20"/>
@@ -41018,7 +41040,7 @@
       <c r="Z406" s="20"/>
     </row>
     <row r="407">
-      <c r="A407" s="23"/>
+      <c r="A407" s="25"/>
       <c r="B407" s="20"/>
       <c r="C407" s="20"/>
       <c r="D407" s="20"/>
@@ -41046,7 +41068,7 @@
       <c r="Z407" s="20"/>
     </row>
     <row r="408">
-      <c r="A408" s="23"/>
+      <c r="A408" s="25"/>
       <c r="B408" s="20"/>
       <c r="C408" s="20"/>
       <c r="D408" s="20"/>
@@ -41074,7 +41096,7 @@
       <c r="Z408" s="20"/>
     </row>
     <row r="409">
-      <c r="A409" s="23"/>
+      <c r="A409" s="25"/>
       <c r="B409" s="20"/>
       <c r="C409" s="20"/>
       <c r="D409" s="20"/>
@@ -41102,7 +41124,7 @@
       <c r="Z409" s="20"/>
     </row>
     <row r="410">
-      <c r="A410" s="23"/>
+      <c r="A410" s="25"/>
       <c r="B410" s="20"/>
       <c r="C410" s="20"/>
       <c r="D410" s="20"/>
@@ -41130,7 +41152,7 @@
       <c r="Z410" s="20"/>
     </row>
     <row r="411">
-      <c r="A411" s="23"/>
+      <c r="A411" s="25"/>
       <c r="B411" s="20"/>
       <c r="C411" s="20"/>
       <c r="D411" s="20"/>
@@ -41158,7 +41180,7 @@
       <c r="Z411" s="20"/>
     </row>
     <row r="412">
-      <c r="A412" s="23"/>
+      <c r="A412" s="25"/>
       <c r="B412" s="20"/>
       <c r="C412" s="20"/>
       <c r="D412" s="20"/>
@@ -41186,7 +41208,7 @@
       <c r="Z412" s="20"/>
     </row>
     <row r="413">
-      <c r="A413" s="23"/>
+      <c r="A413" s="25"/>
       <c r="B413" s="20"/>
       <c r="C413" s="20"/>
       <c r="D413" s="20"/>
@@ -41214,7 +41236,7 @@
       <c r="Z413" s="20"/>
     </row>
     <row r="414">
-      <c r="A414" s="23"/>
+      <c r="A414" s="25"/>
       <c r="B414" s="20"/>
       <c r="C414" s="20"/>
       <c r="D414" s="20"/>
@@ -41242,7 +41264,7 @@
       <c r="Z414" s="20"/>
     </row>
     <row r="415">
-      <c r="A415" s="23"/>
+      <c r="A415" s="25"/>
       <c r="B415" s="20"/>
       <c r="C415" s="20"/>
       <c r="D415" s="20"/>
@@ -41270,7 +41292,7 @@
       <c r="Z415" s="20"/>
     </row>
     <row r="416">
-      <c r="A416" s="23"/>
+      <c r="A416" s="25"/>
       <c r="B416" s="20"/>
       <c r="C416" s="20"/>
       <c r="D416" s="20"/>
@@ -41298,7 +41320,7 @@
       <c r="Z416" s="20"/>
     </row>
     <row r="417">
-      <c r="A417" s="23"/>
+      <c r="A417" s="25"/>
       <c r="B417" s="20"/>
       <c r="C417" s="20"/>
       <c r="D417" s="20"/>
@@ -41326,7 +41348,7 @@
       <c r="Z417" s="20"/>
     </row>
     <row r="418">
-      <c r="A418" s="23"/>
+      <c r="A418" s="25"/>
       <c r="B418" s="20"/>
       <c r="C418" s="20"/>
       <c r="D418" s="20"/>
@@ -41354,7 +41376,7 @@
       <c r="Z418" s="20"/>
     </row>
     <row r="419">
-      <c r="A419" s="23"/>
+      <c r="A419" s="25"/>
       <c r="B419" s="20"/>
       <c r="C419" s="20"/>
       <c r="D419" s="20"/>
@@ -41382,7 +41404,7 @@
       <c r="Z419" s="20"/>
     </row>
     <row r="420">
-      <c r="A420" s="23"/>
+      <c r="A420" s="25"/>
       <c r="B420" s="20"/>
       <c r="C420" s="20"/>
       <c r="D420" s="20"/>
@@ -41410,7 +41432,7 @@
       <c r="Z420" s="20"/>
     </row>
     <row r="421">
-      <c r="A421" s="23"/>
+      <c r="A421" s="25"/>
       <c r="B421" s="20"/>
       <c r="C421" s="20"/>
       <c r="D421" s="20"/>
@@ -41438,7 +41460,7 @@
       <c r="Z421" s="20"/>
     </row>
     <row r="422">
-      <c r="A422" s="23"/>
+      <c r="A422" s="25"/>
       <c r="B422" s="20"/>
       <c r="C422" s="20"/>
       <c r="D422" s="20"/>
@@ -41466,7 +41488,7 @@
       <c r="Z422" s="20"/>
     </row>
     <row r="423">
-      <c r="A423" s="23"/>
+      <c r="A423" s="25"/>
       <c r="B423" s="20"/>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
@@ -41494,7 +41516,7 @@
       <c r="Z423" s="20"/>
     </row>
     <row r="424">
-      <c r="A424" s="23"/>
+      <c r="A424" s="25"/>
       <c r="B424" s="20"/>
       <c r="C424" s="20"/>
       <c r="D424" s="20"/>
@@ -41522,7 +41544,7 @@
       <c r="Z424" s="20"/>
     </row>
     <row r="425">
-      <c r="A425" s="23"/>
+      <c r="A425" s="25"/>
       <c r="B425" s="20"/>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
@@ -41550,7 +41572,7 @@
       <c r="Z425" s="20"/>
     </row>
     <row r="426">
-      <c r="A426" s="23"/>
+      <c r="A426" s="25"/>
       <c r="B426" s="20"/>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
@@ -41578,7 +41600,7 @@
       <c r="Z426" s="20"/>
     </row>
     <row r="427">
-      <c r="A427" s="23"/>
+      <c r="A427" s="25"/>
       <c r="B427" s="20"/>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
@@ -41606,7 +41628,7 @@
       <c r="Z427" s="20"/>
     </row>
     <row r="428">
-      <c r="A428" s="23"/>
+      <c r="A428" s="25"/>
       <c r="B428" s="20"/>
       <c r="C428" s="20"/>
       <c r="D428" s="20"/>
@@ -41634,7 +41656,7 @@
       <c r="Z428" s="20"/>
     </row>
     <row r="429">
-      <c r="A429" s="23"/>
+      <c r="A429" s="25"/>
       <c r="B429" s="20"/>
       <c r="C429" s="20"/>
       <c r="D429" s="20"/>
@@ -41662,7 +41684,7 @@
       <c r="Z429" s="20"/>
     </row>
     <row r="430">
-      <c r="A430" s="23"/>
+      <c r="A430" s="25"/>
       <c r="B430" s="20"/>
       <c r="C430" s="20"/>
       <c r="D430" s="20"/>
@@ -41690,7 +41712,7 @@
       <c r="Z430" s="20"/>
     </row>
     <row r="431">
-      <c r="A431" s="23"/>
+      <c r="A431" s="25"/>
       <c r="B431" s="20"/>
       <c r="C431" s="20"/>
       <c r="D431" s="20"/>
@@ -41718,7 +41740,7 @@
       <c r="Z431" s="20"/>
     </row>
     <row r="432">
-      <c r="A432" s="23"/>
+      <c r="A432" s="25"/>
       <c r="B432" s="20"/>
       <c r="C432" s="20"/>
       <c r="D432" s="20"/>
@@ -41746,7 +41768,7 @@
       <c r="Z432" s="20"/>
     </row>
     <row r="433">
-      <c r="A433" s="23"/>
+      <c r="A433" s="25"/>
       <c r="B433" s="20"/>
       <c r="C433" s="20"/>
       <c r="D433" s="20"/>
@@ -41774,7 +41796,7 @@
       <c r="Z433" s="20"/>
     </row>
     <row r="434">
-      <c r="A434" s="23"/>
+      <c r="A434" s="25"/>
       <c r="B434" s="20"/>
       <c r="C434" s="20"/>
       <c r="D434" s="20"/>
@@ -41802,7 +41824,7 @@
       <c r="Z434" s="20"/>
     </row>
     <row r="435">
-      <c r="A435" s="23"/>
+      <c r="A435" s="25"/>
       <c r="B435" s="20"/>
       <c r="C435" s="20"/>
       <c r="D435" s="20"/>
@@ -41830,7 +41852,7 @@
       <c r="Z435" s="20"/>
     </row>
     <row r="436">
-      <c r="A436" s="23"/>
+      <c r="A436" s="25"/>
       <c r="B436" s="20"/>
       <c r="C436" s="20"/>
       <c r="D436" s="20"/>
@@ -41858,7 +41880,7 @@
       <c r="Z436" s="20"/>
     </row>
     <row r="437">
-      <c r="A437" s="23"/>
+      <c r="A437" s="25"/>
       <c r="B437" s="20"/>
       <c r="C437" s="20"/>
       <c r="D437" s="20"/>
@@ -41886,7 +41908,7 @@
       <c r="Z437" s="20"/>
     </row>
     <row r="438">
-      <c r="A438" s="23"/>
+      <c r="A438" s="25"/>
       <c r="B438" s="20"/>
       <c r="C438" s="20"/>
       <c r="D438" s="20"/>
@@ -41914,7 +41936,7 @@
       <c r="Z438" s="20"/>
     </row>
     <row r="439">
-      <c r="A439" s="23"/>
+      <c r="A439" s="25"/>
       <c r="B439" s="20"/>
       <c r="C439" s="20"/>
       <c r="D439" s="20"/>
@@ -41942,7 +41964,7 @@
       <c r="Z439" s="20"/>
     </row>
     <row r="440">
-      <c r="A440" s="23"/>
+      <c r="A440" s="25"/>
       <c r="B440" s="20"/>
       <c r="C440" s="20"/>
       <c r="D440" s="20"/>
@@ -41970,7 +41992,7 @@
       <c r="Z440" s="20"/>
     </row>
     <row r="441">
-      <c r="A441" s="23"/>
+      <c r="A441" s="25"/>
       <c r="B441" s="20"/>
       <c r="C441" s="20"/>
       <c r="D441" s="20"/>
@@ -41998,7 +42020,7 @@
       <c r="Z441" s="20"/>
     </row>
     <row r="442">
-      <c r="A442" s="23"/>
+      <c r="A442" s="25"/>
       <c r="B442" s="20"/>
       <c r="C442" s="20"/>
       <c r="D442" s="20"/>
@@ -42026,7 +42048,7 @@
       <c r="Z442" s="20"/>
     </row>
     <row r="443">
-      <c r="A443" s="23"/>
+      <c r="A443" s="25"/>
       <c r="B443" s="20"/>
       <c r="C443" s="20"/>
       <c r="D443" s="20"/>
@@ -42054,7 +42076,7 @@
       <c r="Z443" s="20"/>
     </row>
     <row r="444">
-      <c r="A444" s="23"/>
+      <c r="A444" s="25"/>
       <c r="B444" s="20"/>
       <c r="C444" s="20"/>
       <c r="D444" s="20"/>
@@ -42082,7 +42104,7 @@
       <c r="Z444" s="20"/>
     </row>
     <row r="445">
-      <c r="A445" s="23"/>
+      <c r="A445" s="25"/>
       <c r="B445" s="20"/>
       <c r="C445" s="20"/>
       <c r="D445" s="20"/>
@@ -42110,7 +42132,7 @@
       <c r="Z445" s="20"/>
     </row>
     <row r="446">
-      <c r="A446" s="23"/>
+      <c r="A446" s="25"/>
       <c r="B446" s="20"/>
       <c r="C446" s="20"/>
       <c r="D446" s="20"/>
@@ -42138,7 +42160,7 @@
       <c r="Z446" s="20"/>
     </row>
     <row r="447">
-      <c r="A447" s="23"/>
+      <c r="A447" s="25"/>
       <c r="B447" s="20"/>
       <c r="C447" s="20"/>
       <c r="D447" s="20"/>
@@ -42166,7 +42188,7 @@
       <c r="Z447" s="20"/>
     </row>
     <row r="448">
-      <c r="A448" s="23"/>
+      <c r="A448" s="25"/>
       <c r="B448" s="20"/>
       <c r="C448" s="20"/>
       <c r="D448" s="20"/>
@@ -42194,7 +42216,7 @@
       <c r="Z448" s="20"/>
     </row>
     <row r="449">
-      <c r="A449" s="23"/>
+      <c r="A449" s="25"/>
       <c r="B449" s="20"/>
       <c r="C449" s="20"/>
       <c r="D449" s="20"/>
@@ -42222,7 +42244,7 @@
       <c r="Z449" s="20"/>
     </row>
     <row r="450">
-      <c r="A450" s="23"/>
+      <c r="A450" s="25"/>
       <c r="B450" s="20"/>
       <c r="C450" s="20"/>
       <c r="D450" s="20"/>
@@ -42250,7 +42272,7 @@
       <c r="Z450" s="20"/>
     </row>
     <row r="451">
-      <c r="A451" s="23"/>
+      <c r="A451" s="25"/>
       <c r="B451" s="20"/>
       <c r="C451" s="20"/>
       <c r="D451" s="20"/>
@@ -42278,7 +42300,7 @@
       <c r="Z451" s="20"/>
     </row>
     <row r="452">
-      <c r="A452" s="23"/>
+      <c r="A452" s="25"/>
       <c r="B452" s="20"/>
       <c r="C452" s="20"/>
       <c r="D452" s="20"/>
@@ -42306,7 +42328,7 @@
       <c r="Z452" s="20"/>
     </row>
     <row r="453">
-      <c r="A453" s="23"/>
+      <c r="A453" s="25"/>
       <c r="B453" s="20"/>
       <c r="C453" s="20"/>
       <c r="D453" s="20"/>
@@ -42334,7 +42356,7 @@
       <c r="Z453" s="20"/>
     </row>
     <row r="454">
-      <c r="A454" s="23"/>
+      <c r="A454" s="25"/>
       <c r="B454" s="20"/>
       <c r="C454" s="20"/>
       <c r="D454" s="20"/>
@@ -42362,7 +42384,7 @@
       <c r="Z454" s="20"/>
     </row>
     <row r="455">
-      <c r="A455" s="23"/>
+      <c r="A455" s="25"/>
       <c r="B455" s="20"/>
       <c r="C455" s="20"/>
       <c r="D455" s="20"/>
@@ -42390,7 +42412,7 @@
       <c r="Z455" s="20"/>
     </row>
     <row r="456">
-      <c r="A456" s="23"/>
+      <c r="A456" s="25"/>
       <c r="B456" s="20"/>
       <c r="C456" s="20"/>
       <c r="D456" s="20"/>
@@ -42418,7 +42440,7 @@
       <c r="Z456" s="20"/>
     </row>
     <row r="457">
-      <c r="A457" s="23"/>
+      <c r="A457" s="25"/>
       <c r="B457" s="20"/>
       <c r="C457" s="20"/>
       <c r="D457" s="20"/>
@@ -42446,7 +42468,7 @@
       <c r="Z457" s="20"/>
     </row>
     <row r="458">
-      <c r="A458" s="23"/>
+      <c r="A458" s="25"/>
       <c r="B458" s="20"/>
       <c r="C458" s="20"/>
       <c r="D458" s="20"/>
@@ -42474,7 +42496,7 @@
       <c r="Z458" s="20"/>
     </row>
     <row r="459">
-      <c r="A459" s="23"/>
+      <c r="A459" s="25"/>
       <c r="B459" s="20"/>
       <c r="C459" s="20"/>
       <c r="D459" s="20"/>
@@ -42502,7 +42524,7 @@
       <c r="Z459" s="20"/>
     </row>
     <row r="460">
-      <c r="A460" s="23"/>
+      <c r="A460" s="25"/>
       <c r="B460" s="20"/>
       <c r="C460" s="20"/>
       <c r="D460" s="20"/>
@@ -42530,7 +42552,7 @@
       <c r="Z460" s="20"/>
     </row>
     <row r="461">
-      <c r="A461" s="23"/>
+      <c r="A461" s="25"/>
       <c r="B461" s="20"/>
       <c r="C461" s="20"/>
       <c r="D461" s="20"/>
@@ -42558,7 +42580,7 @@
       <c r="Z461" s="20"/>
     </row>
     <row r="462">
-      <c r="A462" s="23"/>
+      <c r="A462" s="25"/>
       <c r="B462" s="20"/>
       <c r="C462" s="20"/>
       <c r="D462" s="20"/>
@@ -42586,7 +42608,7 @@
       <c r="Z462" s="20"/>
     </row>
     <row r="463">
-      <c r="A463" s="23"/>
+      <c r="A463" s="25"/>
       <c r="B463" s="20"/>
       <c r="C463" s="20"/>
       <c r="D463" s="20"/>
@@ -42614,7 +42636,7 @@
       <c r="Z463" s="20"/>
     </row>
     <row r="464">
-      <c r="A464" s="23"/>
+      <c r="A464" s="25"/>
       <c r="B464" s="20"/>
       <c r="C464" s="20"/>
       <c r="D464" s="20"/>
@@ -42642,7 +42664,7 @@
       <c r="Z464" s="20"/>
     </row>
     <row r="465">
-      <c r="A465" s="23"/>
+      <c r="A465" s="25"/>
       <c r="B465" s="20"/>
       <c r="C465" s="20"/>
       <c r="D465" s="20"/>
@@ -42670,7 +42692,7 @@
       <c r="Z465" s="20"/>
     </row>
     <row r="466">
-      <c r="A466" s="23"/>
+      <c r="A466" s="25"/>
       <c r="B466" s="20"/>
       <c r="C466" s="20"/>
       <c r="D466" s="20"/>
@@ -42698,7 +42720,7 @@
       <c r="Z466" s="20"/>
     </row>
     <row r="467">
-      <c r="A467" s="23"/>
+      <c r="A467" s="25"/>
       <c r="B467" s="20"/>
       <c r="C467" s="20"/>
       <c r="D467" s="20"/>
@@ -42726,7 +42748,7 @@
       <c r="Z467" s="20"/>
     </row>
     <row r="468">
-      <c r="A468" s="23"/>
+      <c r="A468" s="25"/>
       <c r="B468" s="20"/>
       <c r="C468" s="20"/>
       <c r="D468" s="20"/>
@@ -42754,7 +42776,7 @@
       <c r="Z468" s="20"/>
     </row>
     <row r="469">
-      <c r="A469" s="23"/>
+      <c r="A469" s="25"/>
       <c r="B469" s="20"/>
       <c r="C469" s="20"/>
       <c r="D469" s="20"/>
@@ -42782,7 +42804,7 @@
       <c r="Z469" s="20"/>
     </row>
     <row r="470">
-      <c r="A470" s="23"/>
+      <c r="A470" s="25"/>
       <c r="B470" s="20"/>
       <c r="C470" s="20"/>
       <c r="D470" s="20"/>
@@ -42810,7 +42832,7 @@
       <c r="Z470" s="20"/>
     </row>
     <row r="471">
-      <c r="A471" s="23"/>
+      <c r="A471" s="25"/>
       <c r="B471" s="20"/>
       <c r="C471" s="20"/>
       <c r="D471" s="20"/>
@@ -42838,7 +42860,7 @@
       <c r="Z471" s="20"/>
     </row>
     <row r="472">
-      <c r="A472" s="23"/>
+      <c r="A472" s="25"/>
       <c r="B472" s="20"/>
       <c r="C472" s="20"/>
       <c r="D472" s="20"/>
@@ -42866,7 +42888,7 @@
       <c r="Z472" s="20"/>
     </row>
     <row r="473">
-      <c r="A473" s="23"/>
+      <c r="A473" s="25"/>
       <c r="B473" s="20"/>
       <c r="C473" s="20"/>
       <c r="D473" s="20"/>
@@ -42894,7 +42916,7 @@
       <c r="Z473" s="20"/>
     </row>
     <row r="474">
-      <c r="A474" s="23"/>
+      <c r="A474" s="25"/>
       <c r="B474" s="20"/>
       <c r="C474" s="20"/>
       <c r="D474" s="20"/>
@@ -42922,7 +42944,7 @@
       <c r="Z474" s="20"/>
     </row>
     <row r="475">
-      <c r="A475" s="23"/>
+      <c r="A475" s="25"/>
       <c r="B475" s="20"/>
       <c r="C475" s="20"/>
       <c r="D475" s="20"/>
@@ -42950,7 +42972,7 @@
       <c r="Z475" s="20"/>
     </row>
     <row r="476">
-      <c r="A476" s="23"/>
+      <c r="A476" s="25"/>
       <c r="B476" s="20"/>
       <c r="C476" s="20"/>
       <c r="D476" s="20"/>
@@ -42978,7 +43000,7 @@
       <c r="Z476" s="20"/>
     </row>
     <row r="477">
-      <c r="A477" s="23"/>
+      <c r="A477" s="25"/>
       <c r="B477" s="20"/>
       <c r="C477" s="20"/>
       <c r="D477" s="20"/>
@@ -43006,7 +43028,7 @@
       <c r="Z477" s="20"/>
     </row>
     <row r="478">
-      <c r="A478" s="23"/>
+      <c r="A478" s="25"/>
       <c r="B478" s="20"/>
       <c r="C478" s="20"/>
       <c r="D478" s="20"/>
@@ -43034,7 +43056,7 @@
       <c r="Z478" s="20"/>
     </row>
     <row r="479">
-      <c r="A479" s="23"/>
+      <c r="A479" s="25"/>
       <c r="B479" s="20"/>
       <c r="C479" s="20"/>
       <c r="D479" s="20"/>
@@ -43062,7 +43084,7 @@
       <c r="Z479" s="20"/>
     </row>
     <row r="480">
-      <c r="A480" s="23"/>
+      <c r="A480" s="25"/>
       <c r="B480" s="20"/>
       <c r="C480" s="20"/>
       <c r="D480" s="20"/>
@@ -43090,7 +43112,7 @@
       <c r="Z480" s="20"/>
     </row>
     <row r="481">
-      <c r="A481" s="23"/>
+      <c r="A481" s="25"/>
       <c r="B481" s="20"/>
       <c r="C481" s="20"/>
       <c r="D481" s="20"/>
@@ -43118,7 +43140,7 @@
       <c r="Z481" s="20"/>
     </row>
     <row r="482">
-      <c r="A482" s="23"/>
+      <c r="A482" s="25"/>
       <c r="B482" s="20"/>
       <c r="C482" s="20"/>
       <c r="D482" s="20"/>
@@ -43146,7 +43168,7 @@
       <c r="Z482" s="20"/>
     </row>
     <row r="483">
-      <c r="A483" s="23"/>
+      <c r="A483" s="25"/>
       <c r="B483" s="20"/>
       <c r="C483" s="20"/>
       <c r="D483" s="20"/>
@@ -43174,7 +43196,7 @@
       <c r="Z483" s="20"/>
     </row>
     <row r="484">
-      <c r="A484" s="23"/>
+      <c r="A484" s="25"/>
       <c r="B484" s="20"/>
       <c r="C484" s="20"/>
       <c r="D484" s="20"/>
@@ -43202,7 +43224,7 @@
       <c r="Z484" s="20"/>
     </row>
     <row r="485">
-      <c r="A485" s="23"/>
+      <c r="A485" s="25"/>
       <c r="B485" s="20"/>
       <c r="C485" s="20"/>
       <c r="D485" s="20"/>
@@ -43230,7 +43252,7 @@
       <c r="Z485" s="20"/>
     </row>
     <row r="486">
-      <c r="A486" s="23"/>
+      <c r="A486" s="25"/>
       <c r="B486" s="20"/>
       <c r="C486" s="20"/>
       <c r="D486" s="20"/>
@@ -43258,7 +43280,7 @@
       <c r="Z486" s="20"/>
     </row>
     <row r="487">
-      <c r="A487" s="23"/>
+      <c r="A487" s="25"/>
       <c r="B487" s="20"/>
       <c r="C487" s="20"/>
       <c r="D487" s="20"/>
@@ -43286,7 +43308,7 @@
       <c r="Z487" s="20"/>
     </row>
     <row r="488">
-      <c r="A488" s="23"/>
+      <c r="A488" s="25"/>
       <c r="B488" s="20"/>
       <c r="C488" s="20"/>
       <c r="D488" s="20"/>
@@ -43314,7 +43336,7 @@
       <c r="Z488" s="20"/>
     </row>
     <row r="489">
-      <c r="A489" s="23"/>
+      <c r="A489" s="25"/>
       <c r="B489" s="20"/>
       <c r="C489" s="20"/>
       <c r="D489" s="20"/>
@@ -43342,7 +43364,7 @@
       <c r="Z489" s="20"/>
     </row>
     <row r="490">
-      <c r="A490" s="23"/>
+      <c r="A490" s="25"/>
       <c r="B490" s="20"/>
       <c r="C490" s="20"/>
       <c r="D490" s="20"/>
@@ -43370,7 +43392,7 @@
       <c r="Z490" s="20"/>
     </row>
     <row r="491">
-      <c r="A491" s="23"/>
+      <c r="A491" s="25"/>
       <c r="B491" s="20"/>
       <c r="C491" s="20"/>
       <c r="D491" s="20"/>
@@ -43398,7 +43420,7 @@
       <c r="Z491" s="20"/>
     </row>
     <row r="492">
-      <c r="A492" s="23"/>
+      <c r="A492" s="25"/>
       <c r="B492" s="20"/>
       <c r="C492" s="20"/>
       <c r="D492" s="20"/>
@@ -43426,7 +43448,7 @@
       <c r="Z492" s="20"/>
     </row>
     <row r="493">
-      <c r="A493" s="23"/>
+      <c r="A493" s="25"/>
       <c r="B493" s="20"/>
       <c r="C493" s="20"/>
       <c r="D493" s="20"/>
@@ -43454,7 +43476,7 @@
       <c r="Z493" s="20"/>
     </row>
     <row r="494">
-      <c r="A494" s="23"/>
+      <c r="A494" s="25"/>
       <c r="B494" s="20"/>
       <c r="C494" s="20"/>
       <c r="D494" s="20"/>
@@ -43482,7 +43504,7 @@
       <c r="Z494" s="20"/>
     </row>
     <row r="495">
-      <c r="A495" s="23"/>
+      <c r="A495" s="25"/>
       <c r="B495" s="20"/>
       <c r="C495" s="20"/>
       <c r="D495" s="20"/>
@@ -43510,7 +43532,7 @@
       <c r="Z495" s="20"/>
     </row>
     <row r="496">
-      <c r="A496" s="23"/>
+      <c r="A496" s="25"/>
       <c r="B496" s="20"/>
       <c r="C496" s="20"/>
       <c r="D496" s="20"/>
@@ -43538,7 +43560,7 @@
       <c r="Z496" s="20"/>
     </row>
     <row r="497">
-      <c r="A497" s="23"/>
+      <c r="A497" s="25"/>
       <c r="B497" s="20"/>
       <c r="C497" s="20"/>
       <c r="D497" s="20"/>
@@ -43566,7 +43588,7 @@
       <c r="Z497" s="20"/>
     </row>
     <row r="498">
-      <c r="A498" s="23"/>
+      <c r="A498" s="25"/>
       <c r="B498" s="20"/>
       <c r="C498" s="20"/>
       <c r="D498" s="20"/>
@@ -43594,7 +43616,7 @@
       <c r="Z498" s="20"/>
     </row>
     <row r="499">
-      <c r="A499" s="23"/>
+      <c r="A499" s="25"/>
       <c r="B499" s="20"/>
       <c r="C499" s="20"/>
       <c r="D499" s="20"/>
@@ -43622,7 +43644,7 @@
       <c r="Z499" s="20"/>
     </row>
     <row r="500">
-      <c r="A500" s="23"/>
+      <c r="A500" s="25"/>
       <c r="B500" s="20"/>
       <c r="C500" s="20"/>
       <c r="D500" s="20"/>
@@ -43650,7 +43672,7 @@
       <c r="Z500" s="20"/>
     </row>
     <row r="501">
-      <c r="A501" s="23"/>
+      <c r="A501" s="25"/>
       <c r="B501" s="20"/>
       <c r="C501" s="20"/>
       <c r="D501" s="20"/>
@@ -43678,7 +43700,7 @@
       <c r="Z501" s="20"/>
     </row>
     <row r="502">
-      <c r="A502" s="23"/>
+      <c r="A502" s="25"/>
       <c r="B502" s="20"/>
       <c r="C502" s="20"/>
       <c r="D502" s="20"/>
@@ -43706,7 +43728,7 @@
       <c r="Z502" s="20"/>
     </row>
     <row r="503">
-      <c r="A503" s="23"/>
+      <c r="A503" s="25"/>
       <c r="B503" s="20"/>
       <c r="C503" s="20"/>
       <c r="D503" s="20"/>
@@ -43734,7 +43756,7 @@
       <c r="Z503" s="20"/>
     </row>
     <row r="504">
-      <c r="A504" s="23"/>
+      <c r="A504" s="25"/>
       <c r="B504" s="20"/>
       <c r="C504" s="20"/>
       <c r="D504" s="20"/>
@@ -43762,7 +43784,7 @@
       <c r="Z504" s="20"/>
     </row>
     <row r="505">
-      <c r="A505" s="23"/>
+      <c r="A505" s="25"/>
       <c r="B505" s="20"/>
       <c r="C505" s="20"/>
       <c r="D505" s="20"/>
@@ -43790,7 +43812,7 @@
       <c r="Z505" s="20"/>
     </row>
     <row r="506">
-      <c r="A506" s="23"/>
+      <c r="A506" s="25"/>
       <c r="B506" s="20"/>
       <c r="C506" s="20"/>
       <c r="D506" s="20"/>
@@ -43818,7 +43840,7 @@
       <c r="Z506" s="20"/>
     </row>
     <row r="507">
-      <c r="A507" s="23"/>
+      <c r="A507" s="25"/>
       <c r="B507" s="20"/>
       <c r="C507" s="20"/>
       <c r="D507" s="20"/>
@@ -43846,7 +43868,7 @@
       <c r="Z507" s="20"/>
     </row>
     <row r="508">
-      <c r="A508" s="23"/>
+      <c r="A508" s="25"/>
       <c r="B508" s="20"/>
       <c r="C508" s="20"/>
       <c r="D508" s="20"/>
@@ -43874,7 +43896,7 @@
       <c r="Z508" s="20"/>
     </row>
     <row r="509">
-      <c r="A509" s="23"/>
+      <c r="A509" s="25"/>
       <c r="B509" s="20"/>
       <c r="C509" s="20"/>
       <c r="D509" s="20"/>
@@ -43902,7 +43924,7 @@
       <c r="Z509" s="20"/>
     </row>
     <row r="510">
-      <c r="A510" s="23"/>
+      <c r="A510" s="25"/>
       <c r="B510" s="20"/>
       <c r="C510" s="20"/>
       <c r="D510" s="20"/>
@@ -43930,7 +43952,7 @@
       <c r="Z510" s="20"/>
     </row>
     <row r="511">
-      <c r="A511" s="23"/>
+      <c r="A511" s="25"/>
       <c r="B511" s="20"/>
       <c r="C511" s="20"/>
       <c r="D511" s="20"/>
@@ -43958,7 +43980,7 @@
       <c r="Z511" s="20"/>
     </row>
     <row r="512">
-      <c r="A512" s="23"/>
+      <c r="A512" s="25"/>
       <c r="B512" s="20"/>
       <c r="C512" s="20"/>
       <c r="D512" s="20"/>
@@ -43986,7 +44008,7 @@
       <c r="Z512" s="20"/>
     </row>
     <row r="513">
-      <c r="A513" s="23"/>
+      <c r="A513" s="25"/>
       <c r="B513" s="20"/>
       <c r="C513" s="20"/>
       <c r="D513" s="20"/>
@@ -44014,7 +44036,7 @@
       <c r="Z513" s="20"/>
     </row>
     <row r="514">
-      <c r="A514" s="23"/>
+      <c r="A514" s="25"/>
       <c r="B514" s="20"/>
       <c r="C514" s="20"/>
       <c r="D514" s="20"/>
@@ -44042,7 +44064,7 @@
       <c r="Z514" s="20"/>
     </row>
     <row r="515">
-      <c r="A515" s="23"/>
+      <c r="A515" s="25"/>
       <c r="B515" s="20"/>
       <c r="C515" s="20"/>
       <c r="D515" s="20"/>
@@ -44070,7 +44092,7 @@
       <c r="Z515" s="20"/>
     </row>
     <row r="516">
-      <c r="A516" s="23"/>
+      <c r="A516" s="25"/>
       <c r="B516" s="20"/>
       <c r="C516" s="20"/>
       <c r="D516" s="20"/>
@@ -44098,7 +44120,7 @@
       <c r="Z516" s="20"/>
     </row>
     <row r="517">
-      <c r="A517" s="23"/>
+      <c r="A517" s="25"/>
       <c r="B517" s="20"/>
       <c r="C517" s="20"/>
       <c r="D517" s="20"/>
@@ -44126,7 +44148,7 @@
       <c r="Z517" s="20"/>
     </row>
     <row r="518">
-      <c r="A518" s="23"/>
+      <c r="A518" s="25"/>
       <c r="B518" s="20"/>
       <c r="C518" s="20"/>
       <c r="D518" s="20"/>
@@ -44154,7 +44176,7 @@
       <c r="Z518" s="20"/>
     </row>
     <row r="519">
-      <c r="A519" s="23"/>
+      <c r="A519" s="25"/>
       <c r="B519" s="20"/>
       <c r="C519" s="20"/>
       <c r="D519" s="20"/>
@@ -44182,7 +44204,7 @@
       <c r="Z519" s="20"/>
     </row>
     <row r="520">
-      <c r="A520" s="23"/>
+      <c r="A520" s="25"/>
       <c r="B520" s="20"/>
       <c r="C520" s="20"/>
       <c r="D520" s="20"/>
@@ -44210,7 +44232,7 @@
       <c r="Z520" s="20"/>
     </row>
     <row r="521">
-      <c r="A521" s="23"/>
+      <c r="A521" s="25"/>
       <c r="B521" s="20"/>
       <c r="C521" s="20"/>
       <c r="D521" s="20"/>
@@ -44238,7 +44260,7 @@
       <c r="Z521" s="20"/>
     </row>
     <row r="522">
-      <c r="A522" s="23"/>
+      <c r="A522" s="25"/>
       <c r="B522" s="20"/>
       <c r="C522" s="20"/>
       <c r="D522" s="20"/>
@@ -44266,7 +44288,7 @@
       <c r="Z522" s="20"/>
     </row>
     <row r="523">
-      <c r="A523" s="23"/>
+      <c r="A523" s="25"/>
       <c r="B523" s="20"/>
       <c r="C523" s="20"/>
       <c r="D523" s="20"/>
@@ -44294,7 +44316,7 @@
       <c r="Z523" s="20"/>
     </row>
     <row r="524">
-      <c r="A524" s="23"/>
+      <c r="A524" s="25"/>
       <c r="B524" s="20"/>
       <c r="C524" s="20"/>
       <c r="D524" s="20"/>
@@ -44322,7 +44344,7 @@
       <c r="Z524" s="20"/>
     </row>
     <row r="525">
-      <c r="A525" s="23"/>
+      <c r="A525" s="25"/>
       <c r="B525" s="20"/>
       <c r="C525" s="20"/>
       <c r="D525" s="20"/>
@@ -44350,7 +44372,7 @@
       <c r="Z525" s="20"/>
     </row>
     <row r="526">
-      <c r="A526" s="23"/>
+      <c r="A526" s="25"/>
       <c r="B526" s="20"/>
       <c r="C526" s="20"/>
       <c r="D526" s="20"/>
@@ -44378,7 +44400,7 @@
       <c r="Z526" s="20"/>
     </row>
     <row r="527">
-      <c r="A527" s="23"/>
+      <c r="A527" s="25"/>
       <c r="B527" s="20"/>
       <c r="C527" s="20"/>
       <c r="D527" s="20"/>
@@ -44406,7 +44428,7 @@
       <c r="Z527" s="20"/>
     </row>
     <row r="528">
-      <c r="A528" s="23"/>
+      <c r="A528" s="25"/>
       <c r="B528" s="20"/>
       <c r="C528" s="20"/>
       <c r="D528" s="20"/>
@@ -44434,7 +44456,7 @@
       <c r="Z528" s="20"/>
     </row>
     <row r="529">
-      <c r="A529" s="23"/>
+      <c r="A529" s="25"/>
       <c r="B529" s="20"/>
       <c r="C529" s="20"/>
       <c r="D529" s="20"/>
@@ -44462,7 +44484,7 @@
       <c r="Z529" s="20"/>
     </row>
     <row r="530">
-      <c r="A530" s="23"/>
+      <c r="A530" s="25"/>
       <c r="B530" s="20"/>
       <c r="C530" s="20"/>
       <c r="D530" s="20"/>
@@ -44490,7 +44512,7 @@
       <c r="Z530" s="20"/>
     </row>
     <row r="531">
-      <c r="A531" s="23"/>
+      <c r="A531" s="25"/>
       <c r="B531" s="20"/>
       <c r="C531" s="20"/>
       <c r="D531" s="20"/>
@@ -44518,7 +44540,7 @@
       <c r="Z531" s="20"/>
     </row>
     <row r="532">
-      <c r="A532" s="23"/>
+      <c r="A532" s="25"/>
       <c r="B532" s="20"/>
       <c r="C532" s="20"/>
       <c r="D532" s="20"/>
@@ -44546,7 +44568,7 @@
       <c r="Z532" s="20"/>
     </row>
     <row r="533">
-      <c r="A533" s="23"/>
+      <c r="A533" s="25"/>
       <c r="B533" s="20"/>
       <c r="C533" s="20"/>
       <c r="D533" s="20"/>
@@ -44574,7 +44596,7 @@
       <c r="Z533" s="20"/>
     </row>
     <row r="534">
-      <c r="A534" s="23"/>
+      <c r="A534" s="25"/>
       <c r="B534" s="20"/>
       <c r="C534" s="20"/>
       <c r="D534" s="20"/>
@@ -44602,7 +44624,7 @@
       <c r="Z534" s="20"/>
     </row>
     <row r="535">
-      <c r="A535" s="23"/>
+      <c r="A535" s="25"/>
       <c r="B535" s="20"/>
       <c r="C535" s="20"/>
       <c r="D535" s="20"/>
@@ -44630,7 +44652,7 @@
       <c r="Z535" s="20"/>
     </row>
     <row r="536">
-      <c r="A536" s="23"/>
+      <c r="A536" s="25"/>
       <c r="B536" s="20"/>
       <c r="C536" s="20"/>
       <c r="D536" s="20"/>
@@ -44658,7 +44680,7 @@
       <c r="Z536" s="20"/>
     </row>
     <row r="537">
-      <c r="A537" s="23"/>
+      <c r="A537" s="25"/>
       <c r="B537" s="20"/>
       <c r="C537" s="20"/>
       <c r="D537" s="20"/>
@@ -44686,7 +44708,7 @@
       <c r="Z537" s="20"/>
     </row>
     <row r="538">
-      <c r="A538" s="23"/>
+      <c r="A538" s="25"/>
       <c r="B538" s="20"/>
       <c r="C538" s="20"/>
       <c r="D538" s="20"/>
@@ -44714,7 +44736,7 @@
       <c r="Z538" s="20"/>
     </row>
     <row r="539">
-      <c r="A539" s="23"/>
+      <c r="A539" s="25"/>
       <c r="B539" s="20"/>
       <c r="C539" s="20"/>
       <c r="D539" s="20"/>
@@ -44742,7 +44764,7 @@
       <c r="Z539" s="20"/>
     </row>
     <row r="540">
-      <c r="A540" s="23"/>
+      <c r="A540" s="25"/>
       <c r="B540" s="20"/>
       <c r="C540" s="20"/>
       <c r="D540" s="20"/>
@@ -44770,7 +44792,7 @@
       <c r="Z540" s="20"/>
     </row>
     <row r="541">
-      <c r="A541" s="23"/>
+      <c r="A541" s="25"/>
       <c r="B541" s="20"/>
       <c r="C541" s="20"/>
       <c r="D541" s="20"/>
@@ -44798,7 +44820,7 @@
       <c r="Z541" s="20"/>
     </row>
     <row r="542">
-      <c r="A542" s="23"/>
+      <c r="A542" s="25"/>
       <c r="B542" s="20"/>
       <c r="C542" s="20"/>
       <c r="D542" s="20"/>
@@ -44826,7 +44848,7 @@
       <c r="Z542" s="20"/>
     </row>
     <row r="543">
-      <c r="A543" s="23"/>
+      <c r="A543" s="25"/>
       <c r="B543" s="20"/>
       <c r="C543" s="20"/>
       <c r="D543" s="20"/>
@@ -44854,7 +44876,7 @@
       <c r="Z543" s="20"/>
     </row>
     <row r="544">
-      <c r="A544" s="23"/>
+      <c r="A544" s="25"/>
       <c r="B544" s="20"/>
       <c r="C544" s="20"/>
       <c r="D544" s="20"/>
@@ -44882,7 +44904,7 @@
       <c r="Z544" s="20"/>
     </row>
     <row r="545">
-      <c r="A545" s="23"/>
+      <c r="A545" s="25"/>
       <c r="B545" s="20"/>
       <c r="C545" s="20"/>
       <c r="D545" s="20"/>
@@ -44910,7 +44932,7 @@
       <c r="Z545" s="20"/>
     </row>
     <row r="546">
-      <c r="A546" s="23"/>
+      <c r="A546" s="25"/>
       <c r="B546" s="20"/>
       <c r="C546" s="20"/>
       <c r="D546" s="20"/>
@@ -44938,7 +44960,7 @@
       <c r="Z546" s="20"/>
     </row>
     <row r="547">
-      <c r="A547" s="23"/>
+      <c r="A547" s="25"/>
       <c r="B547" s="20"/>
       <c r="C547" s="20"/>
       <c r="D547" s="20"/>
@@ -44966,7 +44988,7 @@
       <c r="Z547" s="20"/>
     </row>
     <row r="548">
-      <c r="A548" s="23"/>
+      <c r="A548" s="25"/>
       <c r="B548" s="20"/>
       <c r="C548" s="20"/>
       <c r="D548" s="20"/>
@@ -44994,7 +45016,7 @@
       <c r="Z548" s="20"/>
     </row>
     <row r="549">
-      <c r="A549" s="23"/>
+      <c r="A549" s="25"/>
       <c r="B549" s="20"/>
       <c r="C549" s="20"/>
       <c r="D549" s="20"/>
@@ -45022,7 +45044,7 @@
       <c r="Z549" s="20"/>
     </row>
     <row r="550">
-      <c r="A550" s="23"/>
+      <c r="A550" s="25"/>
       <c r="B550" s="20"/>
       <c r="C550" s="20"/>
       <c r="D550" s="20"/>
@@ -45050,7 +45072,7 @@
       <c r="Z550" s="20"/>
     </row>
     <row r="551">
-      <c r="A551" s="23"/>
+      <c r="A551" s="25"/>
       <c r="B551" s="20"/>
       <c r="C551" s="20"/>
       <c r="D551" s="20"/>
@@ -45078,7 +45100,7 @@
       <c r="Z551" s="20"/>
     </row>
     <row r="552">
-      <c r="A552" s="23"/>
+      <c r="A552" s="25"/>
       <c r="B552" s="20"/>
       <c r="C552" s="20"/>
       <c r="D552" s="20"/>
@@ -45106,7 +45128,7 @@
       <c r="Z552" s="20"/>
     </row>
     <row r="553">
-      <c r="A553" s="23"/>
+      <c r="A553" s="25"/>
       <c r="B553" s="20"/>
       <c r="C553" s="20"/>
       <c r="D553" s="20"/>
@@ -45134,7 +45156,7 @@
       <c r="Z553" s="20"/>
     </row>
     <row r="554">
-      <c r="A554" s="23"/>
+      <c r="A554" s="25"/>
       <c r="B554" s="20"/>
       <c r="C554" s="20"/>
       <c r="D554" s="20"/>
@@ -45162,7 +45184,7 @@
       <c r="Z554" s="20"/>
     </row>
     <row r="555">
-      <c r="A555" s="23"/>
+      <c r="A555" s="25"/>
       <c r="B555" s="20"/>
       <c r="C555" s="20"/>
       <c r="D555" s="20"/>
@@ -45190,7 +45212,7 @@
       <c r="Z555" s="20"/>
     </row>
     <row r="556">
-      <c r="A556" s="23"/>
+      <c r="A556" s="25"/>
       <c r="B556" s="20"/>
       <c r="C556" s="20"/>
       <c r="D556" s="20"/>
@@ -45218,7 +45240,7 @@
       <c r="Z556" s="20"/>
     </row>
     <row r="557">
-      <c r="A557" s="23"/>
+      <c r="A557" s="25"/>
       <c r="B557" s="20"/>
       <c r="C557" s="20"/>
       <c r="D557" s="20"/>
@@ -45246,7 +45268,7 @@
       <c r="Z557" s="20"/>
     </row>
     <row r="558">
-      <c r="A558" s="23"/>
+      <c r="A558" s="25"/>
       <c r="B558" s="20"/>
       <c r="C558" s="20"/>
       <c r="D558" s="20"/>
@@ -45274,7 +45296,7 @@
       <c r="Z558" s="20"/>
     </row>
     <row r="559">
-      <c r="A559" s="23"/>
+      <c r="A559" s="25"/>
       <c r="B559" s="20"/>
       <c r="C559" s="20"/>
       <c r="D559" s="20"/>
@@ -45302,7 +45324,7 @@
       <c r="Z559" s="20"/>
     </row>
     <row r="560">
-      <c r="A560" s="23"/>
+      <c r="A560" s="25"/>
       <c r="B560" s="20"/>
       <c r="C560" s="20"/>
       <c r="D560" s="20"/>
@@ -45330,7 +45352,7 @@
       <c r="Z560" s="20"/>
     </row>
     <row r="561">
-      <c r="A561" s="23"/>
+      <c r="A561" s="25"/>
       <c r="B561" s="20"/>
       <c r="C561" s="20"/>
       <c r="D561" s="20"/>
@@ -45358,7 +45380,7 @@
       <c r="Z561" s="20"/>
     </row>
     <row r="562">
-      <c r="A562" s="23"/>
+      <c r="A562" s="25"/>
       <c r="B562" s="20"/>
       <c r="C562" s="20"/>
       <c r="D562" s="20"/>
@@ -45386,7 +45408,7 @@
       <c r="Z562" s="20"/>
     </row>
     <row r="563">
-      <c r="A563" s="23"/>
+      <c r="A563" s="25"/>
       <c r="B563" s="20"/>
       <c r="C563" s="20"/>
       <c r="D563" s="20"/>
@@ -45414,7 +45436,7 @@
       <c r="Z563" s="20"/>
     </row>
     <row r="564">
-      <c r="A564" s="23"/>
+      <c r="A564" s="25"/>
       <c r="B564" s="20"/>
       <c r="C564" s="20"/>
       <c r="D564" s="20"/>
@@ -45442,7 +45464,7 @@
       <c r="Z564" s="20"/>
     </row>
     <row r="565">
-      <c r="A565" s="23"/>
+      <c r="A565" s="25"/>
       <c r="B565" s="20"/>
       <c r="C565" s="20"/>
       <c r="D565" s="20"/>
@@ -45470,7 +45492,7 @@
       <c r="Z565" s="20"/>
     </row>
     <row r="566">
-      <c r="A566" s="23"/>
+      <c r="A566" s="25"/>
       <c r="B566" s="20"/>
       <c r="C566" s="20"/>
       <c r="D566" s="20"/>
@@ -45498,7 +45520,7 @@
       <c r="Z566" s="20"/>
     </row>
     <row r="567">
-      <c r="A567" s="23"/>
+      <c r="A567" s="25"/>
       <c r="B567" s="20"/>
       <c r="C567" s="20"/>
       <c r="D567" s="20"/>
@@ -45526,7 +45548,7 @@
       <c r="Z567" s="20"/>
     </row>
     <row r="568">
-      <c r="A568" s="23"/>
+      <c r="A568" s="25"/>
       <c r="B568" s="20"/>
       <c r="C568" s="20"/>
       <c r="D568" s="20"/>
@@ -45554,7 +45576,7 @@
       <c r="Z568" s="20"/>
     </row>
     <row r="569">
-      <c r="A569" s="23"/>
+      <c r="A569" s="25"/>
       <c r="B569" s="20"/>
       <c r="C569" s="20"/>
       <c r="D569" s="20"/>
@@ -45582,7 +45604,7 @@
       <c r="Z569" s="20"/>
     </row>
     <row r="570">
-      <c r="A570" s="23"/>
+      <c r="A570" s="25"/>
       <c r="B570" s="20"/>
       <c r="C570" s="20"/>
       <c r="D570" s="20"/>
@@ -45610,7 +45632,7 @@
       <c r="Z570" s="20"/>
     </row>
     <row r="571">
-      <c r="A571" s="23"/>
+      <c r="A571" s="25"/>
       <c r="B571" s="20"/>
       <c r="C571" s="20"/>
       <c r="D571" s="20"/>
@@ -45638,7 +45660,7 @@
       <c r="Z571" s="20"/>
     </row>
     <row r="572">
-      <c r="A572" s="23"/>
+      <c r="A572" s="25"/>
       <c r="B572" s="20"/>
       <c r="C572" s="20"/>
       <c r="D572" s="20"/>
@@ -45666,7 +45688,7 @@
       <c r="Z572" s="20"/>
     </row>
     <row r="573">
-      <c r="A573" s="23"/>
+      <c r="A573" s="25"/>
       <c r="B573" s="20"/>
       <c r="C573" s="20"/>
       <c r="D573" s="20"/>
@@ -45694,7 +45716,7 @@
       <c r="Z573" s="20"/>
     </row>
     <row r="574">
-      <c r="A574" s="23"/>
+      <c r="A574" s="25"/>
       <c r="B574" s="20"/>
       <c r="C574" s="20"/>
       <c r="D574" s="20"/>
@@ -45722,7 +45744,7 @@
       <c r="Z574" s="20"/>
     </row>
     <row r="575">
-      <c r="A575" s="23"/>
+      <c r="A575" s="25"/>
       <c r="B575" s="20"/>
       <c r="C575" s="20"/>
       <c r="D575" s="20"/>
@@ -45750,7 +45772,7 @@
       <c r="Z575" s="20"/>
     </row>
     <row r="576">
-      <c r="A576" s="23"/>
+      <c r="A576" s="25"/>
       <c r="B576" s="20"/>
       <c r="C576" s="20"/>
       <c r="D576" s="20"/>
@@ -45778,7 +45800,7 @@
       <c r="Z576" s="20"/>
     </row>
     <row r="577">
-      <c r="A577" s="23"/>
+      <c r="A577" s="25"/>
       <c r="B577" s="20"/>
       <c r="C577" s="20"/>
       <c r="D577" s="20"/>
@@ -45806,7 +45828,7 @@
       <c r="Z577" s="20"/>
     </row>
     <row r="578">
-      <c r="A578" s="23"/>
+      <c r="A578" s="25"/>
       <c r="B578" s="20"/>
       <c r="C578" s="20"/>
       <c r="D578" s="20"/>
@@ -45834,7 +45856,7 @@
       <c r="Z578" s="20"/>
     </row>
     <row r="579">
-      <c r="A579" s="23"/>
+      <c r="A579" s="25"/>
       <c r="B579" s="20"/>
       <c r="C579" s="20"/>
       <c r="D579" s="20"/>
@@ -45862,7 +45884,7 @@
       <c r="Z579" s="20"/>
     </row>
     <row r="580">
-      <c r="A580" s="23"/>
+      <c r="A580" s="25"/>
       <c r="B580" s="20"/>
       <c r="C580" s="20"/>
       <c r="D580" s="20"/>
@@ -45890,7 +45912,7 @@
       <c r="Z580" s="20"/>
     </row>
     <row r="581">
-      <c r="A581" s="23"/>
+      <c r="A581" s="25"/>
       <c r="B581" s="20"/>
       <c r="C581" s="20"/>
       <c r="D581" s="20"/>
@@ -45918,7 +45940,7 @@
       <c r="Z581" s="20"/>
     </row>
     <row r="582">
-      <c r="A582" s="23"/>
+      <c r="A582" s="25"/>
       <c r="B582" s="20"/>
       <c r="C582" s="20"/>
       <c r="D582" s="20"/>
@@ -45946,7 +45968,7 @@
       <c r="Z582" s="20"/>
     </row>
     <row r="583">
-      <c r="A583" s="23"/>
+      <c r="A583" s="25"/>
       <c r="B583" s="20"/>
       <c r="C583" s="20"/>
       <c r="D583" s="20"/>
@@ -45974,7 +45996,7 @@
       <c r="Z583" s="20"/>
     </row>
     <row r="584">
-      <c r="A584" s="23"/>
+      <c r="A584" s="25"/>
       <c r="B584" s="20"/>
       <c r="C584" s="20"/>
       <c r="D584" s="20"/>
@@ -46002,7 +46024,7 @@
       <c r="Z584" s="20"/>
     </row>
     <row r="585">
-      <c r="A585" s="23"/>
+      <c r="A585" s="25"/>
       <c r="B585" s="20"/>
       <c r="C585" s="20"/>
       <c r="D585" s="20"/>
@@ -46030,7 +46052,7 @@
       <c r="Z585" s="20"/>
     </row>
     <row r="586">
-      <c r="A586" s="23"/>
+      <c r="A586" s="25"/>
       <c r="B586" s="20"/>
       <c r="C586" s="20"/>
       <c r="D586" s="20"/>
@@ -46058,7 +46080,7 @@
       <c r="Z586" s="20"/>
     </row>
     <row r="587">
-      <c r="A587" s="23"/>
+      <c r="A587" s="25"/>
       <c r="B587" s="20"/>
       <c r="C587" s="20"/>
       <c r="D587" s="20"/>
@@ -46086,7 +46108,7 @@
       <c r="Z587" s="20"/>
     </row>
     <row r="588">
-      <c r="A588" s="23"/>
+      <c r="A588" s="25"/>
       <c r="B588" s="20"/>
       <c r="C588" s="20"/>
       <c r="D588" s="20"/>
@@ -46114,7 +46136,7 @@
       <c r="Z588" s="20"/>
     </row>
     <row r="589">
-      <c r="A589" s="23"/>
+      <c r="A589" s="25"/>
       <c r="B589" s="20"/>
       <c r="C589" s="20"/>
       <c r="D589" s="20"/>
@@ -46142,7 +46164,7 @@
       <c r="Z589" s="20"/>
     </row>
     <row r="590">
-      <c r="A590" s="23"/>
+      <c r="A590" s="25"/>
       <c r="B590" s="20"/>
       <c r="C590" s="20"/>
       <c r="D590" s="20"/>
@@ -46170,7 +46192,7 @@
       <c r="Z590" s="20"/>
     </row>
     <row r="591">
-      <c r="A591" s="23"/>
+      <c r="A591" s="25"/>
       <c r="B591" s="20"/>
       <c r="C591" s="20"/>
       <c r="D591" s="20"/>
@@ -46198,7 +46220,7 @@
       <c r="Z591" s="20"/>
     </row>
     <row r="592">
-      <c r="A592" s="23"/>
+      <c r="A592" s="25"/>
       <c r="B592" s="20"/>
       <c r="C592" s="20"/>
       <c r="D592" s="20"/>
@@ -46226,7 +46248,7 @@
       <c r="Z592" s="20"/>
     </row>
     <row r="593">
-      <c r="A593" s="23"/>
+      <c r="A593" s="25"/>
       <c r="B593" s="20"/>
       <c r="C593" s="20"/>
       <c r="D593" s="20"/>
@@ -46254,7 +46276,7 @@
       <c r="Z593" s="20"/>
     </row>
     <row r="594">
-      <c r="A594" s="23"/>
+      <c r="A594" s="25"/>
       <c r="B594" s="20"/>
       <c r="C594" s="20"/>
       <c r="D594" s="20"/>
@@ -46282,7 +46304,7 @@
       <c r="Z594" s="20"/>
     </row>
     <row r="595">
-      <c r="A595" s="23"/>
+      <c r="A595" s="25"/>
       <c r="B595" s="20"/>
       <c r="C595" s="20"/>
       <c r="D595" s="20"/>
@@ -46310,7 +46332,7 @@
       <c r="Z595" s="20"/>
     </row>
     <row r="596">
-      <c r="A596" s="23"/>
+      <c r="A596" s="25"/>
       <c r="B596" s="20"/>
       <c r="C596" s="20"/>
       <c r="D596" s="20"/>
@@ -46338,7 +46360,7 @@
       <c r="Z596" s="20"/>
     </row>
     <row r="597">
-      <c r="A597" s="23"/>
+      <c r="A597" s="25"/>
       <c r="B597" s="20"/>
       <c r="C597" s="20"/>
       <c r="D597" s="20"/>
@@ -46366,7 +46388,7 @@
       <c r="Z597" s="20"/>
     </row>
     <row r="598">
-      <c r="A598" s="23"/>
+      <c r="A598" s="25"/>
       <c r="B598" s="20"/>
       <c r="C598" s="20"/>
       <c r="D598" s="20"/>
@@ -46394,7 +46416,7 @@
       <c r="Z598" s="20"/>
     </row>
     <row r="599">
-      <c r="A599" s="23"/>
+      <c r="A599" s="25"/>
       <c r="B599" s="20"/>
       <c r="C599" s="20"/>
       <c r="D599" s="20"/>
@@ -46422,7 +46444,7 @@
       <c r="Z599" s="20"/>
     </row>
     <row r="600">
-      <c r="A600" s="23"/>
+      <c r="A600" s="25"/>
       <c r="B600" s="20"/>
       <c r="C600" s="20"/>
       <c r="D600" s="20"/>
@@ -46450,7 +46472,7 @@
       <c r="Z600" s="20"/>
     </row>
     <row r="601">
-      <c r="A601" s="23"/>
+      <c r="A601" s="25"/>
       <c r="B601" s="20"/>
       <c r="C601" s="20"/>
       <c r="D601" s="20"/>
@@ -46478,7 +46500,7 @@
       <c r="Z601" s="20"/>
     </row>
     <row r="602">
-      <c r="A602" s="23"/>
+      <c r="A602" s="25"/>
       <c r="B602" s="20"/>
       <c r="C602" s="20"/>
       <c r="D602" s="20"/>
@@ -46506,7 +46528,7 @@
       <c r="Z602" s="20"/>
     </row>
     <row r="603">
-      <c r="A603" s="23"/>
+      <c r="A603" s="25"/>
       <c r="B603" s="20"/>
       <c r="C603" s="20"/>
       <c r="D603" s="20"/>
@@ -46534,7 +46556,7 @@
       <c r="Z603" s="20"/>
     </row>
     <row r="604">
-      <c r="A604" s="23"/>
+      <c r="A604" s="25"/>
       <c r="B604" s="20"/>
       <c r="C604" s="20"/>
       <c r="D604" s="20"/>
@@ -46562,7 +46584,7 @@
       <c r="Z604" s="20"/>
     </row>
     <row r="605">
-      <c r="A605" s="23"/>
+      <c r="A605" s="25"/>
       <c r="B605" s="20"/>
       <c r="C605" s="20"/>
       <c r="D605" s="20"/>
@@ -46590,7 +46612,7 @@
       <c r="Z605" s="20"/>
     </row>
     <row r="606">
-      <c r="A606" s="23"/>
+      <c r="A606" s="25"/>
       <c r="B606" s="20"/>
       <c r="C606" s="20"/>
       <c r="D606" s="20"/>
@@ -46618,7 +46640,7 @@
       <c r="Z606" s="20"/>
     </row>
     <row r="607">
-      <c r="A607" s="23"/>
+      <c r="A607" s="25"/>
       <c r="B607" s="20"/>
       <c r="C607" s="20"/>
       <c r="D607" s="20"/>
@@ -46646,7 +46668,7 @@
       <c r="Z607" s="20"/>
     </row>
     <row r="608">
-      <c r="A608" s="23"/>
+      <c r="A608" s="25"/>
       <c r="B608" s="20"/>
       <c r="C608" s="20"/>
       <c r="D608" s="20"/>
@@ -46674,7 +46696,7 @@
       <c r="Z608" s="20"/>
     </row>
     <row r="609">
-      <c r="A609" s="23"/>
+      <c r="A609" s="25"/>
       <c r="B609" s="20"/>
       <c r="C609" s="20"/>
       <c r="D609" s="20"/>
@@ -46702,7 +46724,7 @@
       <c r="Z609" s="20"/>
     </row>
     <row r="610">
-      <c r="A610" s="23"/>
+      <c r="A610" s="25"/>
       <c r="B610" s="20"/>
       <c r="C610" s="20"/>
       <c r="D610" s="20"/>
@@ -46730,7 +46752,7 @@
       <c r="Z610" s="20"/>
     </row>
     <row r="611">
-      <c r="A611" s="23"/>
+      <c r="A611" s="25"/>
       <c r="B611" s="20"/>
       <c r="C611" s="20"/>
       <c r="D611" s="20"/>
@@ -46758,7 +46780,7 @@
       <c r="Z611" s="20"/>
     </row>
     <row r="612">
-      <c r="A612" s="23"/>
+      <c r="A612" s="25"/>
       <c r="B612" s="20"/>
       <c r="C612" s="20"/>
       <c r="D612" s="20"/>
@@ -46786,7 +46808,7 @@
       <c r="Z612" s="20"/>
     </row>
     <row r="613">
-      <c r="A613" s="23"/>
+      <c r="A613" s="25"/>
       <c r="B613" s="20"/>
       <c r="C613" s="20"/>
       <c r="D613" s="20"/>
@@ -46814,7 +46836,7 @@
       <c r="Z613" s="20"/>
     </row>
     <row r="614">
-      <c r="A614" s="23"/>
+      <c r="A614" s="25"/>
       <c r="B614" s="20"/>
       <c r="C614" s="20"/>
       <c r="D614" s="20"/>
@@ -46842,7 +46864,7 @@
       <c r="Z614" s="20"/>
     </row>
     <row r="615">
-      <c r="A615" s="23"/>
+      <c r="A615" s="25"/>
       <c r="B615" s="20"/>
       <c r="C615" s="20"/>
       <c r="D615" s="20"/>
@@ -46870,7 +46892,7 @@
       <c r="Z615" s="20"/>
     </row>
     <row r="616">
-      <c r="A616" s="23"/>
+      <c r="A616" s="25"/>
       <c r="B616" s="20"/>
       <c r="C616" s="20"/>
       <c r="D616" s="20"/>
@@ -46898,7 +46920,7 @@
       <c r="Z616" s="20"/>
     </row>
     <row r="617">
-      <c r="A617" s="23"/>
+      <c r="A617" s="25"/>
       <c r="B617" s="20"/>
       <c r="C617" s="20"/>
       <c r="D617" s="20"/>
@@ -46926,7 +46948,7 @@
       <c r="Z617" s="20"/>
     </row>
     <row r="618">
-      <c r="A618" s="23"/>
+      <c r="A618" s="25"/>
       <c r="B618" s="20"/>
       <c r="C618" s="20"/>
       <c r="D618" s="20"/>
@@ -46954,7 +46976,7 @@
       <c r="Z618" s="20"/>
     </row>
     <row r="619">
-      <c r="A619" s="23"/>
+      <c r="A619" s="25"/>
       <c r="B619" s="20"/>
       <c r="C619" s="20"/>
       <c r="D619" s="20"/>
@@ -46982,7 +47004,7 @@
       <c r="Z619" s="20"/>
     </row>
     <row r="620">
-      <c r="A620" s="23"/>
+      <c r="A620" s="25"/>
       <c r="B620" s="20"/>
       <c r="C620" s="20"/>
       <c r="D620" s="20"/>
@@ -47010,7 +47032,7 @@
       <c r="Z620" s="20"/>
     </row>
     <row r="621">
-      <c r="A621" s="23"/>
+      <c r="A621" s="25"/>
       <c r="B621" s="20"/>
       <c r="C621" s="20"/>
       <c r="D621" s="20"/>
@@ -47038,7 +47060,7 @@
       <c r="Z621" s="20"/>
     </row>
     <row r="622">
-      <c r="A622" s="23"/>
+      <c r="A622" s="25"/>
       <c r="B622" s="20"/>
       <c r="C622" s="20"/>
       <c r="D622" s="20"/>
@@ -47066,7 +47088,7 @@
       <c r="Z622" s="20"/>
     </row>
     <row r="623">
-      <c r="A623" s="23"/>
+      <c r="A623" s="25"/>
       <c r="B623" s="20"/>
       <c r="C623" s="20"/>
       <c r="D623" s="20"/>
@@ -47094,7 +47116,7 @@
       <c r="Z623" s="20"/>
     </row>
     <row r="624">
-      <c r="A624" s="23"/>
+      <c r="A624" s="25"/>
       <c r="B624" s="20"/>
       <c r="C624" s="20"/>
       <c r="D624" s="20"/>
@@ -47122,7 +47144,7 @@
       <c r="Z624" s="20"/>
     </row>
     <row r="625">
-      <c r="A625" s="23"/>
+      <c r="A625" s="25"/>
       <c r="B625" s="20"/>
       <c r="C625" s="20"/>
       <c r="D625" s="20"/>
@@ -47150,7 +47172,7 @@
       <c r="Z625" s="20"/>
     </row>
     <row r="626">
-      <c r="A626" s="23"/>
+      <c r="A626" s="25"/>
       <c r="B626" s="20"/>
       <c r="C626" s="20"/>
       <c r="D626" s="20"/>
@@ -47178,7 +47200,7 @@
       <c r="Z626" s="20"/>
     </row>
     <row r="627">
-      <c r="A627" s="23"/>
+      <c r="A627" s="25"/>
       <c r="B627" s="20"/>
       <c r="C627" s="20"/>
       <c r="D627" s="20"/>
@@ -47206,7 +47228,7 @@
       <c r="Z627" s="20"/>
     </row>
     <row r="628">
-      <c r="A628" s="23"/>
+      <c r="A628" s="25"/>
       <c r="B628" s="20"/>
       <c r="C628" s="20"/>
       <c r="D628" s="20"/>
@@ -47234,7 +47256,7 @@
       <c r="Z628" s="20"/>
     </row>
     <row r="629">
-      <c r="A629" s="23"/>
+      <c r="A629" s="25"/>
       <c r="B629" s="20"/>
       <c r="C629" s="20"/>
       <c r="D629" s="20"/>
@@ -47262,7 +47284,7 @@
       <c r="Z629" s="20"/>
     </row>
     <row r="630">
-      <c r="A630" s="23"/>
+      <c r="A630" s="25"/>
       <c r="B630" s="20"/>
       <c r="C630" s="20"/>
       <c r="D630" s="20"/>
@@ -47290,7 +47312,7 @@
       <c r="Z630" s="20"/>
     </row>
     <row r="631">
-      <c r="A631" s="23"/>
+      <c r="A631" s="25"/>
       <c r="B631" s="20"/>
       <c r="C631" s="20"/>
       <c r="D631" s="20"/>
@@ -47318,7 +47340,7 @@
       <c r="Z631" s="20"/>
     </row>
     <row r="632">
-      <c r="A632" s="23"/>
+      <c r="A632" s="25"/>
       <c r="B632" s="20"/>
       <c r="C632" s="20"/>
       <c r="D632" s="20"/>
@@ -47346,7 +47368,7 @@
       <c r="Z632" s="20"/>
     </row>
     <row r="633">
-      <c r="A633" s="23"/>
+      <c r="A633" s="25"/>
       <c r="B633" s="20"/>
       <c r="C633" s="20"/>
       <c r="D633" s="20"/>
@@ -47374,7 +47396,7 @@
       <c r="Z633" s="20"/>
     </row>
     <row r="634">
-      <c r="A634" s="23"/>
+      <c r="A634" s="25"/>
       <c r="B634" s="20"/>
       <c r="C634" s="20"/>
       <c r="D634" s="20"/>
@@ -47402,7 +47424,7 @@
       <c r="Z634" s="20"/>
     </row>
     <row r="635">
-      <c r="A635" s="23"/>
+      <c r="A635" s="25"/>
       <c r="B635" s="20"/>
       <c r="C635" s="20"/>
       <c r="D635" s="20"/>
@@ -47430,7 +47452,7 @@
       <c r="Z635" s="20"/>
     </row>
     <row r="636">
-      <c r="A636" s="23"/>
+      <c r="A636" s="25"/>
       <c r="B636" s="20"/>
       <c r="C636" s="20"/>
       <c r="D636" s="20"/>
@@ -47458,7 +47480,7 @@
       <c r="Z636" s="20"/>
     </row>
     <row r="637">
-      <c r="A637" s="23"/>
+      <c r="A637" s="25"/>
       <c r="B637" s="20"/>
       <c r="C637" s="20"/>
       <c r="D637" s="20"/>
@@ -47486,7 +47508,7 @@
       <c r="Z637" s="20"/>
     </row>
     <row r="638">
-      <c r="A638" s="23"/>
+      <c r="A638" s="25"/>
       <c r="B638" s="20"/>
       <c r="C638" s="20"/>
       <c r="D638" s="20"/>
@@ -47514,7 +47536,7 @@
       <c r="Z638" s="20"/>
     </row>
     <row r="639">
-      <c r="A639" s="23"/>
+      <c r="A639" s="25"/>
       <c r="B639" s="20"/>
       <c r="C639" s="20"/>
       <c r="D639" s="20"/>
@@ -47542,7 +47564,7 @@
       <c r="Z639" s="20"/>
     </row>
     <row r="640">
-      <c r="A640" s="23"/>
+      <c r="A640" s="25"/>
       <c r="B640" s="20"/>
       <c r="C640" s="20"/>
       <c r="D640" s="20"/>
@@ -47570,7 +47592,7 @@
       <c r="Z640" s="20"/>
     </row>
     <row r="641">
-      <c r="A641" s="23"/>
+      <c r="A641" s="25"/>
       <c r="B641" s="20"/>
       <c r="C641" s="20"/>
       <c r="D641" s="20"/>
@@ -47598,7 +47620,7 @@
       <c r="Z641" s="20"/>
     </row>
     <row r="642">
-      <c r="A642" s="23"/>
+      <c r="A642" s="25"/>
       <c r="B642" s="20"/>
       <c r="C642" s="20"/>
       <c r="D642" s="20"/>
@@ -47626,7 +47648,7 @@
       <c r="Z642" s="20"/>
     </row>
     <row r="643">
-      <c r="A643" s="23"/>
+      <c r="A643" s="25"/>
       <c r="B643" s="20"/>
       <c r="C643" s="20"/>
       <c r="D643" s="20"/>
@@ -47654,7 +47676,7 @@
       <c r="Z643" s="20"/>
     </row>
     <row r="644">
-      <c r="A644" s="23"/>
+      <c r="A644" s="25"/>
       <c r="B644" s="20"/>
       <c r="C644" s="20"/>
       <c r="D644" s="20"/>
@@ -47682,7 +47704,7 @@
       <c r="Z644" s="20"/>
     </row>
     <row r="645">
-      <c r="A645" s="23"/>
+      <c r="A645" s="25"/>
       <c r="B645" s="20"/>
       <c r="C645" s="20"/>
       <c r="D645" s="20"/>
@@ -47710,7 +47732,7 @@
       <c r="Z645" s="20"/>
     </row>
     <row r="646">
-      <c r="A646" s="23"/>
+      <c r="A646" s="25"/>
       <c r="B646" s="20"/>
       <c r="C646" s="20"/>
       <c r="D646" s="20"/>
@@ -47738,7 +47760,7 @@
       <c r="Z646" s="20"/>
     </row>
     <row r="647">
-      <c r="A647" s="23"/>
+      <c r="A647" s="25"/>
       <c r="B647" s="20"/>
       <c r="C647" s="20"/>
       <c r="D647" s="20"/>
@@ -47766,7 +47788,7 @@
       <c r="Z647" s="20"/>
     </row>
     <row r="648">
-      <c r="A648" s="23"/>
+      <c r="A648" s="25"/>
       <c r="B648" s="20"/>
       <c r="C648" s="20"/>
       <c r="D648" s="20"/>
@@ -47794,7 +47816,7 @@
       <c r="Z648" s="20"/>
     </row>
     <row r="649">
-      <c r="A649" s="23"/>
+      <c r="A649" s="25"/>
       <c r="B649" s="20"/>
       <c r="C649" s="20"/>
       <c r="D649" s="20"/>
@@ -47822,7 +47844,7 @@
       <c r="Z649" s="20"/>
     </row>
     <row r="650">
-      <c r="A650" s="23"/>
+      <c r="A650" s="25"/>
       <c r="B650" s="20"/>
       <c r="C650" s="20"/>
       <c r="D650" s="20"/>
@@ -47850,7 +47872,7 @@
       <c r="Z650" s="20"/>
     </row>
     <row r="651">
-      <c r="A651" s="23"/>
+      <c r="A651" s="25"/>
       <c r="B651" s="20"/>
       <c r="C651" s="20"/>
       <c r="D651" s="20"/>
@@ -47878,7 +47900,7 @@
       <c r="Z651" s="20"/>
     </row>
     <row r="652">
-      <c r="A652" s="23"/>
+      <c r="A652" s="25"/>
       <c r="B652" s="20"/>
       <c r="C652" s="20"/>
       <c r="D652" s="20"/>
@@ -47906,7 +47928,7 @@
       <c r="Z652" s="20"/>
     </row>
     <row r="653">
-      <c r="A653" s="23"/>
+      <c r="A653" s="25"/>
       <c r="B653" s="20"/>
       <c r="C653" s="20"/>
       <c r="D653" s="20"/>
@@ -47934,7 +47956,7 @@
       <c r="Z653" s="20"/>
     </row>
     <row r="654">
-      <c r="A654" s="23"/>
+      <c r="A654" s="25"/>
       <c r="B654" s="20"/>
       <c r="C654" s="20"/>
       <c r="D654" s="20"/>
@@ -47962,7 +47984,7 @@
       <c r="Z654" s="20"/>
     </row>
     <row r="655">
-      <c r="A655" s="23"/>
+      <c r="A655" s="25"/>
       <c r="B655" s="20"/>
       <c r="C655" s="20"/>
       <c r="D655" s="20"/>
@@ -47990,7 +48012,7 @@
       <c r="Z655" s="20"/>
     </row>
     <row r="656">
-      <c r="A656" s="23"/>
+      <c r="A656" s="25"/>
       <c r="B656" s="20"/>
       <c r="C656" s="20"/>
       <c r="D656" s="20"/>
@@ -48018,7 +48040,7 @@
       <c r="Z656" s="20"/>
     </row>
     <row r="657">
-      <c r="A657" s="23"/>
+      <c r="A657" s="25"/>
       <c r="B657" s="20"/>
       <c r="C657" s="20"/>
       <c r="D657" s="20"/>
@@ -48046,7 +48068,7 @@
       <c r="Z657" s="20"/>
     </row>
     <row r="658">
-      <c r="A658" s="23"/>
+      <c r="A658" s="25"/>
       <c r="B658" s="20"/>
       <c r="C658" s="20"/>
       <c r="D658" s="20"/>
@@ -48074,7 +48096,7 @@
       <c r="Z658" s="20"/>
     </row>
     <row r="659">
-      <c r="A659" s="23"/>
+      <c r="A659" s="25"/>
       <c r="B659" s="20"/>
       <c r="C659" s="20"/>
       <c r="D659" s="20"/>
@@ -48102,7 +48124,7 @@
       <c r="Z659" s="20"/>
     </row>
     <row r="660">
-      <c r="A660" s="23"/>
+      <c r="A660" s="25"/>
       <c r="B660" s="20"/>
       <c r="C660" s="20"/>
       <c r="D660" s="20"/>
@@ -48130,7 +48152,7 @@
       <c r="Z660" s="20"/>
     </row>
     <row r="661">
-      <c r="A661" s="23"/>
+      <c r="A661" s="25"/>
       <c r="B661" s="20"/>
       <c r="C661" s="20"/>
       <c r="D661" s="20"/>
@@ -48158,7 +48180,7 @@
       <c r="Z661" s="20"/>
     </row>
     <row r="662">
-      <c r="A662" s="23"/>
+      <c r="A662" s="25"/>
       <c r="B662" s="20"/>
       <c r="C662" s="20"/>
       <c r="D662" s="20"/>
@@ -48186,7 +48208,7 @@
       <c r="Z662" s="20"/>
     </row>
     <row r="663">
-      <c r="A663" s="23"/>
+      <c r="A663" s="25"/>
       <c r="B663" s="20"/>
       <c r="C663" s="20"/>
       <c r="D663" s="20"/>
@@ -48214,7 +48236,7 @@
       <c r="Z663" s="20"/>
     </row>
     <row r="664">
-      <c r="A664" s="23"/>
+      <c r="A664" s="25"/>
       <c r="B664" s="20"/>
       <c r="C664" s="20"/>
       <c r="D664" s="20"/>
@@ -48242,7 +48264,7 @@
       <c r="Z664" s="20"/>
     </row>
     <row r="665">
-      <c r="A665" s="23"/>
+      <c r="A665" s="25"/>
       <c r="B665" s="20"/>
       <c r="C665" s="20"/>
       <c r="D665" s="20"/>
@@ -48270,7 +48292,7 @@
       <c r="Z665" s="20"/>
     </row>
     <row r="666">
-      <c r="A666" s="23"/>
+      <c r="A666" s="25"/>
       <c r="B666" s="20"/>
       <c r="C666" s="20"/>
       <c r="D666" s="20"/>
@@ -48298,7 +48320,7 @@
       <c r="Z666" s="20"/>
     </row>
     <row r="667">
-      <c r="A667" s="23"/>
+      <c r="A667" s="25"/>
       <c r="B667" s="20"/>
       <c r="C667" s="20"/>
       <c r="D667" s="20"/>
@@ -48326,7 +48348,7 @@
       <c r="Z667" s="20"/>
     </row>
     <row r="668">
-      <c r="A668" s="23"/>
+      <c r="A668" s="25"/>
       <c r="B668" s="20"/>
       <c r="C668" s="20"/>
       <c r="D668" s="20"/>
@@ -48354,7 +48376,7 @@
       <c r="Z668" s="20"/>
     </row>
     <row r="669">
-      <c r="A669" s="23"/>
+      <c r="A669" s="25"/>
       <c r="B669" s="20"/>
       <c r="C669" s="20"/>
       <c r="D669" s="20"/>
@@ -48382,7 +48404,7 @@
       <c r="Z669" s="20"/>
     </row>
     <row r="670">
-      <c r="A670" s="23"/>
+      <c r="A670" s="25"/>
       <c r="B670" s="20"/>
       <c r="C670" s="20"/>
       <c r="D670" s="20"/>
@@ -48410,7 +48432,7 @@
       <c r="Z670" s="20"/>
     </row>
     <row r="671">
-      <c r="A671" s="23"/>
+      <c r="A671" s="25"/>
       <c r="B671" s="20"/>
       <c r="C671" s="20"/>
       <c r="D671" s="20"/>
@@ -48438,7 +48460,7 @@
       <c r="Z671" s="20"/>
     </row>
     <row r="672">
-      <c r="A672" s="23"/>
+      <c r="A672" s="25"/>
       <c r="B672" s="20"/>
       <c r="C672" s="20"/>
       <c r="D672" s="20"/>
@@ -48466,7 +48488,7 @@
       <c r="Z672" s="20"/>
     </row>
     <row r="673">
-      <c r="A673" s="23"/>
+      <c r="A673" s="25"/>
       <c r="B673" s="20"/>
       <c r="C673" s="20"/>
       <c r="D673" s="20"/>
@@ -48494,7 +48516,7 @@
       <c r="Z673" s="20"/>
     </row>
     <row r="674">
-      <c r="A674" s="23"/>
+      <c r="A674" s="25"/>
       <c r="B674" s="20"/>
       <c r="C674" s="20"/>
       <c r="D674" s="20"/>
@@ -48522,7 +48544,7 @@
       <c r="Z674" s="20"/>
     </row>
     <row r="675">
-      <c r="A675" s="23"/>
+      <c r="A675" s="25"/>
       <c r="B675" s="20"/>
       <c r="C675" s="20"/>
       <c r="D675" s="20"/>
@@ -48550,7 +48572,7 @@
       <c r="Z675" s="20"/>
     </row>
     <row r="676">
-      <c r="A676" s="23"/>
+      <c r="A676" s="25"/>
       <c r="B676" s="20"/>
       <c r="C676" s="20"/>
       <c r="D676" s="20"/>
@@ -48578,7 +48600,7 @@
       <c r="Z676" s="20"/>
     </row>
     <row r="677">
-      <c r="A677" s="23"/>
+      <c r="A677" s="25"/>
       <c r="B677" s="20"/>
       <c r="C677" s="20"/>
       <c r="D677" s="20"/>
@@ -48606,7 +48628,7 @@
       <c r="Z677" s="20"/>
     </row>
     <row r="678">
-      <c r="A678" s="23"/>
+      <c r="A678" s="25"/>
       <c r="B678" s="20"/>
       <c r="C678" s="20"/>
       <c r="D678" s="20"/>
@@ -48634,7 +48656,7 @@
       <c r="Z678" s="20"/>
     </row>
     <row r="679">
-      <c r="A679" s="23"/>
+      <c r="A679" s="25"/>
       <c r="B679" s="20"/>
       <c r="C679" s="20"/>
       <c r="D679" s="20"/>
@@ -48662,7 +48684,7 @@
       <c r="Z679" s="20"/>
     </row>
     <row r="680">
-      <c r="A680" s="23"/>
+      <c r="A680" s="25"/>
       <c r="B680" s="20"/>
       <c r="C680" s="20"/>
       <c r="D680" s="20"/>
@@ -48690,7 +48712,7 @@
       <c r="Z680" s="20"/>
     </row>
     <row r="681">
-      <c r="A681" s="23"/>
+      <c r="A681" s="25"/>
       <c r="B681" s="20"/>
       <c r="C681" s="20"/>
       <c r="D681" s="20"/>
@@ -48718,7 +48740,7 @@
       <c r="Z681" s="20"/>
     </row>
     <row r="682">
-      <c r="A682" s="23"/>
+      <c r="A682" s="25"/>
       <c r="B682" s="20"/>
       <c r="C682" s="20"/>
       <c r="D682" s="20"/>
@@ -48746,7 +48768,7 @@
       <c r="Z682" s="20"/>
     </row>
     <row r="683">
-      <c r="A683" s="23"/>
+      <c r="A683" s="25"/>
       <c r="B683" s="20"/>
       <c r="C683" s="20"/>
       <c r="D683" s="20"/>
@@ -48774,7 +48796,7 @@
       <c r="Z683" s="20"/>
     </row>
     <row r="684">
-      <c r="A684" s="23"/>
+      <c r="A684" s="25"/>
       <c r="B684" s="20"/>
       <c r="C684" s="20"/>
       <c r="D684" s="20"/>
@@ -48802,7 +48824,7 @@
       <c r="Z684" s="20"/>
     </row>
     <row r="685">
-      <c r="A685" s="23"/>
+      <c r="A685" s="25"/>
       <c r="B685" s="20"/>
       <c r="C685" s="20"/>
       <c r="D685" s="20"/>
@@ -48830,7 +48852,7 @@
       <c r="Z685" s="20"/>
     </row>
     <row r="686">
-      <c r="A686" s="23"/>
+      <c r="A686" s="25"/>
       <c r="B686" s="20"/>
       <c r="C686" s="20"/>
       <c r="D686" s="20"/>
@@ -48858,7 +48880,7 @@
       <c r="Z686" s="20"/>
     </row>
     <row r="687">
-      <c r="A687" s="23"/>
+      <c r="A687" s="25"/>
       <c r="B687" s="20"/>
       <c r="C687" s="20"/>
       <c r="D687" s="20"/>
@@ -48886,7 +48908,7 @@
       <c r="Z687" s="20"/>
     </row>
     <row r="688">
-      <c r="A688" s="23"/>
+      <c r="A688" s="25"/>
       <c r="B688" s="20"/>
       <c r="C688" s="20"/>
       <c r="D688" s="20"/>
@@ -48914,7 +48936,7 @@
       <c r="Z688" s="20"/>
     </row>
     <row r="689">
-      <c r="A689" s="23"/>
+      <c r="A689" s="25"/>
       <c r="B689" s="20"/>
       <c r="C689" s="20"/>
       <c r="D689" s="20"/>
@@ -48942,7 +48964,7 @@
       <c r="Z689" s="20"/>
     </row>
     <row r="690">
-      <c r="A690" s="23"/>
+      <c r="A690" s="25"/>
       <c r="B690" s="20"/>
       <c r="C690" s="20"/>
       <c r="D690" s="20"/>
@@ -48970,7 +48992,7 @@
       <c r="Z690" s="20"/>
     </row>
     <row r="691">
-      <c r="A691" s="23"/>
+      <c r="A691" s="25"/>
       <c r="B691" s="20"/>
       <c r="C691" s="20"/>
       <c r="D691" s="20"/>
@@ -48998,7 +49020,7 @@
       <c r="Z691" s="20"/>
     </row>
     <row r="692">
-      <c r="A692" s="23"/>
+      <c r="A692" s="25"/>
       <c r="B692" s="20"/>
       <c r="C692" s="20"/>
       <c r="D692" s="20"/>
@@ -49026,7 +49048,7 @@
       <c r="Z692" s="20"/>
     </row>
     <row r="693">
-      <c r="A693" s="23"/>
+      <c r="A693" s="25"/>
       <c r="B693" s="20"/>
       <c r="C693" s="20"/>
       <c r="D693" s="20"/>
@@ -49054,7 +49076,7 @@
       <c r="Z693" s="20"/>
     </row>
     <row r="694">
-      <c r="A694" s="23"/>
+      <c r="A694" s="25"/>
       <c r="B694" s="20"/>
       <c r="C694" s="20"/>
       <c r="D694" s="20"/>
@@ -49082,7 +49104,7 @@
       <c r="Z694" s="20"/>
     </row>
     <row r="695">
-      <c r="A695" s="23"/>
+      <c r="A695" s="25"/>
       <c r="B695" s="20"/>
       <c r="C695" s="20"/>
       <c r="D695" s="20"/>
@@ -49110,7 +49132,7 @@
       <c r="Z695" s="20"/>
     </row>
     <row r="696">
-      <c r="A696" s="23"/>
+      <c r="A696" s="25"/>
       <c r="B696" s="20"/>
       <c r="C696" s="20"/>
       <c r="D696" s="20"/>
@@ -49138,7 +49160,7 @@
       <c r="Z696" s="20"/>
     </row>
     <row r="697">
-      <c r="A697" s="23"/>
+      <c r="A697" s="25"/>
       <c r="B697" s="20"/>
       <c r="C697" s="20"/>
       <c r="D697" s="20"/>
@@ -49166,7 +49188,7 @@
       <c r="Z697" s="20"/>
     </row>
     <row r="698">
-      <c r="A698" s="23"/>
+      <c r="A698" s="25"/>
       <c r="B698" s="20"/>
       <c r="C698" s="20"/>
       <c r="D698" s="20"/>
@@ -49194,7 +49216,7 @@
       <c r="Z698" s="20"/>
     </row>
     <row r="699">
-      <c r="A699" s="23"/>
+      <c r="A699" s="25"/>
       <c r="B699" s="20"/>
       <c r="C699" s="20"/>
       <c r="D699" s="20"/>
@@ -49222,7 +49244,7 @@
       <c r="Z699" s="20"/>
     </row>
     <row r="700">
-      <c r="A700" s="23"/>
+      <c r="A700" s="25"/>
       <c r="B700" s="20"/>
       <c r="C700" s="20"/>
       <c r="D700" s="20"/>
@@ -49250,7 +49272,7 @@
       <c r="Z700" s="20"/>
     </row>
     <row r="701">
-      <c r="A701" s="23"/>
+      <c r="A701" s="25"/>
       <c r="B701" s="20"/>
       <c r="C701" s="20"/>
       <c r="D701" s="20"/>
@@ -49278,7 +49300,7 @@
       <c r="Z701" s="20"/>
     </row>
     <row r="702">
-      <c r="A702" s="23"/>
+      <c r="A702" s="25"/>
       <c r="B702" s="20"/>
       <c r="C702" s="20"/>
       <c r="D702" s="20"/>
@@ -49306,7 +49328,7 @@
       <c r="Z702" s="20"/>
     </row>
     <row r="703">
-      <c r="A703" s="23"/>
+      <c r="A703" s="25"/>
       <c r="B703" s="20"/>
       <c r="C703" s="20"/>
       <c r="D703" s="20"/>
@@ -49334,7 +49356,7 @@
       <c r="Z703" s="20"/>
     </row>
     <row r="704">
-      <c r="A704" s="23"/>
+      <c r="A704" s="25"/>
       <c r="B704" s="20"/>
       <c r="C704" s="20"/>
       <c r="D704" s="20"/>
@@ -49362,7 +49384,7 @@
       <c r="Z704" s="20"/>
     </row>
     <row r="705">
-      <c r="A705" s="23"/>
+      <c r="A705" s="25"/>
       <c r="B705" s="20"/>
       <c r="C705" s="20"/>
       <c r="D705" s="20"/>
@@ -49390,7 +49412,7 @@
       <c r="Z705" s="20"/>
     </row>
     <row r="706">
-      <c r="A706" s="23"/>
+      <c r="A706" s="25"/>
       <c r="B706" s="20"/>
       <c r="C706" s="20"/>
       <c r="D706" s="20"/>
@@ -49418,7 +49440,7 @@
       <c r="Z706" s="20"/>
     </row>
     <row r="707">
-      <c r="A707" s="23"/>
+      <c r="A707" s="25"/>
       <c r="B707" s="20"/>
       <c r="C707" s="20"/>
       <c r="D707" s="20"/>
@@ -49446,7 +49468,7 @@
       <c r="Z707" s="20"/>
     </row>
     <row r="708">
-      <c r="A708" s="23"/>
+      <c r="A708" s="25"/>
       <c r="B708" s="20"/>
       <c r="C708" s="20"/>
       <c r="D708" s="20"/>
@@ -49474,7 +49496,7 @@
       <c r="Z708" s="20"/>
     </row>
     <row r="709">
-      <c r="A709" s="23"/>
+      <c r="A709" s="25"/>
       <c r="B709" s="20"/>
       <c r="C709" s="20"/>
       <c r="D709" s="20"/>
@@ -49502,7 +49524,7 @@
       <c r="Z709" s="20"/>
     </row>
     <row r="710">
-      <c r="A710" s="23"/>
+      <c r="A710" s="25"/>
       <c r="B710" s="20"/>
       <c r="C710" s="20"/>
       <c r="D710" s="20"/>
@@ -49530,7 +49552,7 @@
       <c r="Z710" s="20"/>
     </row>
     <row r="711">
-      <c r="A711" s="23"/>
+      <c r="A711" s="25"/>
       <c r="B711" s="20"/>
       <c r="C711" s="20"/>
       <c r="D711" s="20"/>
@@ -49558,7 +49580,7 @@
       <c r="Z711" s="20"/>
     </row>
     <row r="712">
-      <c r="A712" s="23"/>
+      <c r="A712" s="25"/>
       <c r="B712" s="20"/>
       <c r="C712" s="20"/>
       <c r="D712" s="20"/>
@@ -49586,7 +49608,7 @@
       <c r="Z712" s="20"/>
     </row>
     <row r="713">
-      <c r="A713" s="23"/>
+      <c r="A713" s="25"/>
       <c r="B713" s="20"/>
       <c r="C713" s="20"/>
       <c r="D713" s="20"/>
@@ -49614,7 +49636,7 @@
       <c r="Z713" s="20"/>
     </row>
     <row r="714">
-      <c r="A714" s="23"/>
+      <c r="A714" s="25"/>
       <c r="B714" s="20"/>
       <c r="C714" s="20"/>
       <c r="D714" s="20"/>
@@ -49642,7 +49664,7 @@
       <c r="Z714" s="20"/>
     </row>
     <row r="715">
-      <c r="A715" s="23"/>
+      <c r="A715" s="25"/>
       <c r="B715" s="20"/>
       <c r="C715" s="20"/>
       <c r="D715" s="20"/>
@@ -49670,7 +49692,7 @@
       <c r="Z715" s="20"/>
     </row>
     <row r="716">
-      <c r="A716" s="23"/>
+      <c r="A716" s="25"/>
       <c r="B716" s="20"/>
       <c r="C716" s="20"/>
       <c r="D716" s="20"/>
@@ -49698,7 +49720,7 @@
       <c r="Z716" s="20"/>
     </row>
     <row r="717">
-      <c r="A717" s="23"/>
+      <c r="A717" s="25"/>
       <c r="B717" s="20"/>
       <c r="C717" s="20"/>
       <c r="D717" s="20"/>
@@ -49726,7 +49748,7 @@
       <c r="Z717" s="20"/>
     </row>
     <row r="718">
-      <c r="A718" s="23"/>
+      <c r="A718" s="25"/>
       <c r="B718" s="20"/>
       <c r="C718" s="20"/>
       <c r="D718" s="20"/>
@@ -49754,7 +49776,7 @@
       <c r="Z718" s="20"/>
     </row>
     <row r="719">
-      <c r="A719" s="23"/>
+      <c r="A719" s="25"/>
       <c r="B719" s="20"/>
       <c r="C719" s="20"/>
       <c r="D719" s="20"/>
@@ -49782,7 +49804,7 @@
       <c r="Z719" s="20"/>
     </row>
     <row r="720">
-      <c r="A720" s="23"/>
+      <c r="A720" s="25"/>
       <c r="B720" s="20"/>
       <c r="C720" s="20"/>
       <c r="D720" s="20"/>
@@ -49810,7 +49832,7 @@
       <c r="Z720" s="20"/>
     </row>
     <row r="721">
-      <c r="A721" s="23"/>
+      <c r="A721" s="25"/>
       <c r="B721" s="20"/>
       <c r="C721" s="20"/>
       <c r="D721" s="20"/>
@@ -49838,7 +49860,7 @@
       <c r="Z721" s="20"/>
     </row>
     <row r="722">
-      <c r="A722" s="23"/>
+      <c r="A722" s="25"/>
       <c r="B722" s="20"/>
       <c r="C722" s="20"/>
       <c r="D722" s="20"/>
@@ -49866,7 +49888,7 @@
       <c r="Z722" s="20"/>
     </row>
     <row r="723">
-      <c r="A723" s="23"/>
+      <c r="A723" s="25"/>
       <c r="B723" s="20"/>
       <c r="C723" s="20"/>
       <c r="D723" s="20"/>
@@ -49894,7 +49916,7 @@
       <c r="Z723" s="20"/>
     </row>
     <row r="724">
-      <c r="A724" s="23"/>
+      <c r="A724" s="25"/>
       <c r="B724" s="20"/>
       <c r="C724" s="20"/>
       <c r="D724" s="20"/>
@@ -49922,7 +49944,7 @@
       <c r="Z724" s="20"/>
     </row>
     <row r="725">
-      <c r="A725" s="23"/>
+      <c r="A725" s="25"/>
       <c r="B725" s="20"/>
       <c r="C725" s="20"/>
       <c r="D725" s="20"/>
@@ -49950,7 +49972,7 @@
       <c r="Z725" s="20"/>
     </row>
     <row r="726">
-      <c r="A726" s="23"/>
+      <c r="A726" s="25"/>
       <c r="B726" s="20"/>
       <c r="C726" s="20"/>
       <c r="D726" s="20"/>
@@ -49978,7 +50000,7 @@
       <c r="Z726" s="20"/>
     </row>
     <row r="727">
-      <c r="A727" s="23"/>
+      <c r="A727" s="25"/>
       <c r="B727" s="20"/>
       <c r="C727" s="20"/>
       <c r="D727" s="20"/>
@@ -50006,7 +50028,7 @@
       <c r="Z727" s="20"/>
     </row>
     <row r="728">
-      <c r="A728" s="23"/>
+      <c r="A728" s="25"/>
       <c r="B728" s="20"/>
       <c r="C728" s="20"/>
       <c r="D728" s="20"/>
@@ -50034,7 +50056,7 @@
       <c r="Z728" s="20"/>
     </row>
     <row r="729">
-      <c r="A729" s="23"/>
+      <c r="A729" s="25"/>
       <c r="B729" s="20"/>
       <c r="C729" s="20"/>
       <c r="D729" s="20"/>
@@ -50062,7 +50084,7 @@
       <c r="Z729" s="20"/>
     </row>
     <row r="730">
-      <c r="A730" s="23"/>
+      <c r="A730" s="25"/>
       <c r="B730" s="20"/>
       <c r="C730" s="20"/>
       <c r="D730" s="20"/>
@@ -50090,7 +50112,7 @@
       <c r="Z730" s="20"/>
     </row>
     <row r="731">
-      <c r="A731" s="23"/>
+      <c r="A731" s="25"/>
       <c r="B731" s="20"/>
       <c r="C731" s="20"/>
       <c r="D731" s="20"/>
@@ -50118,7 +50140,7 @@
       <c r="Z731" s="20"/>
     </row>
     <row r="732">
-      <c r="A732" s="23"/>
+      <c r="A732" s="25"/>
       <c r="B732" s="20"/>
       <c r="C732" s="20"/>
       <c r="D732" s="20"/>
@@ -50146,7 +50168,7 @@
       <c r="Z732" s="20"/>
     </row>
     <row r="733">
-      <c r="A733" s="23"/>
+      <c r="A733" s="25"/>
       <c r="B733" s="20"/>
       <c r="C733" s="20"/>
       <c r="D733" s="20"/>
@@ -50174,7 +50196,7 @@
       <c r="Z733" s="20"/>
     </row>
     <row r="734">
-      <c r="A734" s="23"/>
+      <c r="A734" s="25"/>
       <c r="B734" s="20"/>
       <c r="C734" s="20"/>
       <c r="D734" s="20"/>
@@ -50202,7 +50224,7 @@
       <c r="Z734" s="20"/>
     </row>
     <row r="735">
-      <c r="A735" s="23"/>
+      <c r="A735" s="25"/>
       <c r="B735" s="20"/>
       <c r="C735" s="20"/>
       <c r="D735" s="20"/>
@@ -50230,7 +50252,7 @@
       <c r="Z735" s="20"/>
     </row>
     <row r="736">
-      <c r="A736" s="23"/>
+      <c r="A736" s="25"/>
       <c r="B736" s="20"/>
       <c r="C736" s="20"/>
       <c r="D736" s="20"/>
@@ -50258,7 +50280,7 @@
       <c r="Z736" s="20"/>
     </row>
     <row r="737">
-      <c r="A737" s="23"/>
+      <c r="A737" s="25"/>
       <c r="B737" s="20"/>
       <c r="C737" s="20"/>
       <c r="D737" s="20"/>
@@ -50286,7 +50308,7 @@
       <c r="Z737" s="20"/>
     </row>
     <row r="738">
-      <c r="A738" s="23"/>
+      <c r="A738" s="25"/>
       <c r="B738" s="20"/>
       <c r="C738" s="20"/>
       <c r="D738" s="20"/>
@@ -50314,7 +50336,7 @@
       <c r="Z738" s="20"/>
     </row>
     <row r="739">
-      <c r="A739" s="23"/>
+      <c r="A739" s="25"/>
       <c r="B739" s="20"/>
       <c r="C739" s="20"/>
       <c r="D739" s="20"/>
@@ -50342,7 +50364,7 @@
       <c r="Z739" s="20"/>
     </row>
     <row r="740">
-      <c r="A740" s="23"/>
+      <c r="A740" s="25"/>
       <c r="B740" s="20"/>
       <c r="C740" s="20"/>
       <c r="D740" s="20"/>
@@ -50370,7 +50392,7 @@
       <c r="Z740" s="20"/>
     </row>
     <row r="741">
-      <c r="A741" s="23"/>
+      <c r="A741" s="25"/>
       <c r="B741" s="20"/>
       <c r="C741" s="20"/>
       <c r="D741" s="20"/>
@@ -50398,7 +50420,7 @@
       <c r="Z741" s="20"/>
     </row>
     <row r="742">
-      <c r="A742" s="23"/>
+      <c r="A742" s="25"/>
       <c r="B742" s="20"/>
       <c r="C742" s="20"/>
       <c r="D742" s="20"/>
@@ -50426,7 +50448,7 @@
       <c r="Z742" s="20"/>
     </row>
     <row r="743">
-      <c r="A743" s="23"/>
+      <c r="A743" s="25"/>
       <c r="B743" s="20"/>
       <c r="C743" s="20"/>
       <c r="D743" s="20"/>
@@ -50454,7 +50476,7 @@
       <c r="Z743" s="20"/>
     </row>
     <row r="744">
-      <c r="A744" s="23"/>
+      <c r="A744" s="25"/>
       <c r="B744" s="20"/>
       <c r="C744" s="20"/>
       <c r="D744" s="20"/>
@@ -50482,7 +50504,7 @@
       <c r="Z744" s="20"/>
     </row>
     <row r="745">
-      <c r="A745" s="23"/>
+      <c r="A745" s="25"/>
       <c r="B745" s="20"/>
       <c r="C745" s="20"/>
       <c r="D745" s="20"/>
@@ -50510,7 +50532,7 @@
       <c r="Z745" s="20"/>
     </row>
     <row r="746">
-      <c r="A746" s="23"/>
+      <c r="A746" s="25"/>
       <c r="B746" s="20"/>
       <c r="C746" s="20"/>
       <c r="D746" s="20"/>
@@ -50538,7 +50560,7 @@
       <c r="Z746" s="20"/>
     </row>
     <row r="747">
-      <c r="A747" s="23"/>
+      <c r="A747" s="25"/>
       <c r="B747" s="20"/>
       <c r="C747" s="20"/>
       <c r="D747" s="20"/>
@@ -50566,7 +50588,7 @@
       <c r="Z747" s="20"/>
     </row>
     <row r="748">
-      <c r="A748" s="23"/>
+      <c r="A748" s="25"/>
       <c r="B748" s="20"/>
       <c r="C748" s="20"/>
       <c r="D748" s="20"/>
@@ -50594,7 +50616,7 @@
       <c r="Z748" s="20"/>
     </row>
     <row r="749">
-      <c r="A749" s="23"/>
+      <c r="A749" s="25"/>
       <c r="B749" s="20"/>
       <c r="C749" s="20"/>
       <c r="D749" s="20"/>
@@ -50622,7 +50644,7 @@
       <c r="Z749" s="20"/>
     </row>
     <row r="750">
-      <c r="A750" s="23"/>
+      <c r="A750" s="25"/>
       <c r="B750" s="20"/>
       <c r="C750" s="20"/>
       <c r="D750" s="20"/>
@@ -50650,7 +50672,7 @@
       <c r="Z750" s="20"/>
     </row>
     <row r="751">
-      <c r="A751" s="23"/>
+      <c r="A751" s="25"/>
       <c r="B751" s="20"/>
       <c r="C751" s="20"/>
       <c r="D751" s="20"/>
@@ -50678,7 +50700,7 @@
       <c r="Z751" s="20"/>
     </row>
     <row r="752">
-      <c r="A752" s="23"/>
+      <c r="A752" s="25"/>
       <c r="B752" s="20"/>
       <c r="C752" s="20"/>
       <c r="D752" s="20"/>
@@ -50706,7 +50728,7 @@
       <c r="Z752" s="20"/>
     </row>
     <row r="753">
-      <c r="A753" s="23"/>
+      <c r="A753" s="25"/>
       <c r="B753" s="20"/>
       <c r="C753" s="20"/>
       <c r="D753" s="20"/>
@@ -50734,7 +50756,7 @@
       <c r="Z753" s="20"/>
     </row>
     <row r="754">
-      <c r="A754" s="23"/>
+      <c r="A754" s="25"/>
       <c r="B754" s="20"/>
       <c r="C754" s="20"/>
       <c r="D754" s="20"/>
@@ -50762,7 +50784,7 @@
       <c r="Z754" s="20"/>
     </row>
     <row r="755">
-      <c r="A755" s="23"/>
+      <c r="A755" s="25"/>
       <c r="B755" s="20"/>
       <c r="C755" s="20"/>
       <c r="D755" s="20"/>
@@ -50790,7 +50812,7 @@
       <c r="Z755" s="20"/>
     </row>
     <row r="756">
-      <c r="A756" s="23"/>
+      <c r="A756" s="25"/>
       <c r="B756" s="20"/>
       <c r="C756" s="20"/>
       <c r="D756" s="20"/>
@@ -50818,7 +50840,7 @@
       <c r="Z756" s="20"/>
     </row>
     <row r="757">
-      <c r="A757" s="23"/>
+      <c r="A757" s="25"/>
       <c r="B757" s="20"/>
       <c r="C757" s="20"/>
       <c r="D757" s="20"/>
@@ -50846,7 +50868,7 @@
       <c r="Z757" s="20"/>
     </row>
     <row r="758">
-      <c r="A758" s="23"/>
+      <c r="A758" s="25"/>
       <c r="B758" s="20"/>
       <c r="C758" s="20"/>
       <c r="D758" s="20"/>
@@ -50874,7 +50896,7 @@
       <c r="Z758" s="20"/>
     </row>
     <row r="759">
-      <c r="A759" s="23"/>
+      <c r="A759" s="25"/>
       <c r="B759" s="20"/>
       <c r="C759" s="20"/>
       <c r="D759" s="20"/>
@@ -50902,7 +50924,7 @@
       <c r="Z759" s="20"/>
     </row>
     <row r="760">
-      <c r="A760" s="23"/>
+      <c r="A760" s="25"/>
       <c r="B760" s="20"/>
       <c r="C760" s="20"/>
       <c r="D760" s="20"/>
@@ -50930,7 +50952,7 @@
       <c r="Z760" s="20"/>
     </row>
     <row r="761">
-      <c r="A761" s="23"/>
+      <c r="A761" s="25"/>
       <c r="B761" s="20"/>
       <c r="C761" s="20"/>
       <c r="D761" s="20"/>
@@ -50958,7 +50980,7 @@
       <c r="Z761" s="20"/>
     </row>
     <row r="762">
-      <c r="A762" s="23"/>
+      <c r="A762" s="25"/>
       <c r="B762" s="20"/>
       <c r="C762" s="20"/>
       <c r="D762" s="20"/>
@@ -50986,7 +51008,7 @@
       <c r="Z762" s="20"/>
     </row>
     <row r="763">
-      <c r="A763" s="23"/>
+      <c r="A763" s="25"/>
       <c r="B763" s="20"/>
       <c r="C763" s="20"/>
       <c r="D763" s="20"/>
@@ -51014,7 +51036,7 @@
       <c r="Z763" s="20"/>
     </row>
     <row r="764">
-      <c r="A764" s="23"/>
+      <c r="A764" s="25"/>
       <c r="B764" s="20"/>
       <c r="C764" s="20"/>
       <c r="D764" s="20"/>
@@ -51042,7 +51064,7 @@
       <c r="Z764" s="20"/>
     </row>
     <row r="765">
-      <c r="A765" s="23"/>
+      <c r="A765" s="25"/>
       <c r="B765" s="20"/>
       <c r="C765" s="20"/>
       <c r="D765" s="20"/>
@@ -51070,7 +51092,7 @@
       <c r="Z765" s="20"/>
     </row>
     <row r="766">
-      <c r="A766" s="23"/>
+      <c r="A766" s="25"/>
       <c r="B766" s="20"/>
       <c r="C766" s="20"/>
       <c r="D766" s="20"/>
@@ -51098,7 +51120,7 @@
       <c r="Z766" s="20"/>
     </row>
     <row r="767">
-      <c r="A767" s="23"/>
+      <c r="A767" s="25"/>
       <c r="B767" s="20"/>
       <c r="C767" s="20"/>
       <c r="D767" s="20"/>
@@ -51126,7 +51148,7 @@
       <c r="Z767" s="20"/>
     </row>
     <row r="768">
-      <c r="A768" s="23"/>
+      <c r="A768" s="25"/>
       <c r="B768" s="20"/>
       <c r="C768" s="20"/>
       <c r="D768" s="20"/>
@@ -51154,7 +51176,7 @@
       <c r="Z768" s="20"/>
     </row>
     <row r="769">
-      <c r="A769" s="23"/>
+      <c r="A769" s="25"/>
       <c r="B769" s="20"/>
       <c r="C769" s="20"/>
       <c r="D769" s="20"/>
@@ -51182,7 +51204,7 @@
       <c r="Z769" s="20"/>
     </row>
     <row r="770">
-      <c r="A770" s="23"/>
+      <c r="A770" s="25"/>
       <c r="B770" s="20"/>
       <c r="C770" s="20"/>
       <c r="D770" s="20"/>
@@ -51210,7 +51232,7 @@
       <c r="Z770" s="20"/>
     </row>
     <row r="771">
-      <c r="A771" s="23"/>
+      <c r="A771" s="25"/>
       <c r="B771" s="20"/>
       <c r="C771" s="20"/>
       <c r="D771" s="20"/>
@@ -51238,7 +51260,7 @@
       <c r="Z771" s="20"/>
     </row>
     <row r="772">
-      <c r="A772" s="23"/>
+      <c r="A772" s="25"/>
       <c r="B772" s="20"/>
       <c r="C772" s="20"/>
       <c r="D772" s="20"/>
@@ -51266,7 +51288,7 @@
       <c r="Z772" s="20"/>
     </row>
     <row r="773">
-      <c r="A773" s="23"/>
+      <c r="A773" s="25"/>
       <c r="B773" s="20"/>
       <c r="C773" s="20"/>
       <c r="D773" s="20"/>
@@ -51294,7 +51316,7 @@
       <c r="Z773" s="20"/>
     </row>
     <row r="774">
-      <c r="A774" s="23"/>
+      <c r="A774" s="25"/>
       <c r="B774" s="20"/>
       <c r="C774" s="20"/>
       <c r="D774" s="20"/>
@@ -51322,7 +51344,7 @@
       <c r="Z774" s="20"/>
     </row>
     <row r="775">
-      <c r="A775" s="23"/>
+      <c r="A775" s="25"/>
       <c r="B775" s="20"/>
       <c r="C775" s="20"/>
       <c r="D775" s="20"/>
@@ -51350,7 +51372,7 @@
       <c r="Z775" s="20"/>
     </row>
     <row r="776">
-      <c r="A776" s="23"/>
+      <c r="A776" s="25"/>
       <c r="B776" s="20"/>
       <c r="C776" s="20"/>
       <c r="D776" s="20"/>
@@ -51378,7 +51400,7 @@
       <c r="Z776" s="20"/>
     </row>
     <row r="777">
-      <c r="A777" s="23"/>
+      <c r="A777" s="25"/>
       <c r="B777" s="20"/>
       <c r="C777" s="20"/>
       <c r="D777" s="20"/>
@@ -51406,7 +51428,7 @@
       <c r="Z777" s="20"/>
     </row>
     <row r="778">
-      <c r="A778" s="23"/>
+      <c r="A778" s="25"/>
       <c r="B778" s="20"/>
       <c r="C778" s="20"/>
       <c r="D778" s="20"/>
@@ -51434,7 +51456,7 @@
       <c r="Z778" s="20"/>
     </row>
     <row r="779">
-      <c r="A779" s="23"/>
+      <c r="A779" s="25"/>
       <c r="B779" s="20"/>
       <c r="C779" s="20"/>
       <c r="D779" s="20"/>
@@ -51462,7 +51484,7 @@
       <c r="Z779" s="20"/>
     </row>
     <row r="780">
-      <c r="A780" s="23"/>
+      <c r="A780" s="25"/>
       <c r="B780" s="20"/>
       <c r="C780" s="20"/>
       <c r="D780" s="20"/>
@@ -51490,7 +51512,7 @@
       <c r="Z780" s="20"/>
     </row>
     <row r="781">
-      <c r="A781" s="23"/>
+      <c r="A781" s="25"/>
       <c r="B781" s="20"/>
       <c r="C781" s="20"/>
       <c r="D781" s="20"/>
@@ -51518,7 +51540,7 @@
       <c r="Z781" s="20"/>
     </row>
     <row r="782">
-      <c r="A782" s="23"/>
+      <c r="A782" s="25"/>
       <c r="B782" s="20"/>
       <c r="C782" s="20"/>
       <c r="D782" s="20"/>
@@ -51546,7 +51568,7 @@
       <c r="Z782" s="20"/>
     </row>
     <row r="783">
-      <c r="A783" s="23"/>
+      <c r="A783" s="25"/>
       <c r="B783" s="20"/>
       <c r="C783" s="20"/>
       <c r="D783" s="20"/>
@@ -51574,7 +51596,7 @@
       <c r="Z783" s="20"/>
     </row>
     <row r="784">
-      <c r="A784" s="23"/>
+      <c r="A784" s="25"/>
       <c r="B784" s="20"/>
       <c r="C784" s="20"/>
       <c r="D784" s="20"/>
@@ -51602,7 +51624,7 @@
       <c r="Z784" s="20"/>
     </row>
     <row r="785">
-      <c r="A785" s="23"/>
+      <c r="A785" s="25"/>
       <c r="B785" s="20"/>
       <c r="C785" s="20"/>
       <c r="D785" s="20"/>
@@ -51630,7 +51652,7 @@
       <c r="Z785" s="20"/>
     </row>
     <row r="786">
-      <c r="A786" s="23"/>
+      <c r="A786" s="25"/>
       <c r="B786" s="20"/>
       <c r="C786" s="20"/>
       <c r="D786" s="20"/>
@@ -51658,7 +51680,7 @@
       <c r="Z786" s="20"/>
     </row>
     <row r="787">
-      <c r="A787" s="23"/>
+      <c r="A787" s="25"/>
       <c r="B787" s="20"/>
       <c r="C787" s="20"/>
       <c r="D787" s="20"/>
@@ -51686,7 +51708,7 @@
       <c r="Z787" s="20"/>
     </row>
     <row r="788">
-      <c r="A788" s="23"/>
+      <c r="A788" s="25"/>
       <c r="B788" s="20"/>
       <c r="C788" s="20"/>
       <c r="D788" s="20"/>
@@ -51714,7 +51736,7 @@
       <c r="Z788" s="20"/>
     </row>
     <row r="789">
-      <c r="A789" s="23"/>
+      <c r="A789" s="25"/>
       <c r="B789" s="20"/>
       <c r="C789" s="20"/>
       <c r="D789" s="20"/>
@@ -51742,7 +51764,7 @@
       <c r="Z789" s="20"/>
     </row>
     <row r="790">
-      <c r="A790" s="23"/>
+      <c r="A790" s="25"/>
       <c r="B790" s="20"/>
       <c r="C790" s="20"/>
       <c r="D790" s="20"/>
@@ -51770,7 +51792,7 @@
       <c r="Z790" s="20"/>
     </row>
     <row r="791">
-      <c r="A791" s="23"/>
+      <c r="A791" s="25"/>
       <c r="B791" s="20"/>
       <c r="C791" s="20"/>
       <c r="D791" s="20"/>
@@ -51798,7 +51820,7 @@
       <c r="Z791" s="20"/>
     </row>
     <row r="792">
-      <c r="A792" s="23"/>
+      <c r="A792" s="25"/>
       <c r="B792" s="20"/>
       <c r="C792" s="20"/>
       <c r="D792" s="20"/>
@@ -51826,7 +51848,7 @@
       <c r="Z792" s="20"/>
     </row>
     <row r="793">
-      <c r="A793" s="23"/>
+      <c r="A793" s="25"/>
       <c r="B793" s="20"/>
       <c r="C793" s="20"/>
       <c r="D793" s="20"/>
@@ -51854,7 +51876,7 @@
       <c r="Z793" s="20"/>
     </row>
     <row r="794">
-      <c r="A794" s="23"/>
+      <c r="A794" s="25"/>
       <c r="B794" s="20"/>
       <c r="C794" s="20"/>
       <c r="D794" s="20"/>
@@ -51882,7 +51904,7 @@
       <c r="Z794" s="20"/>
     </row>
     <row r="795">
-      <c r="A795" s="23"/>
+      <c r="A795" s="25"/>
       <c r="B795" s="20"/>
       <c r="C795" s="20"/>
       <c r="D795" s="20"/>
@@ -51910,7 +51932,7 @@
       <c r="Z795" s="20"/>
     </row>
     <row r="796">
-      <c r="A796" s="23"/>
+      <c r="A796" s="25"/>
       <c r="B796" s="20"/>
       <c r="C796" s="20"/>
       <c r="D796" s="20"/>
@@ -51938,7 +51960,7 @@
       <c r="Z796" s="20"/>
     </row>
     <row r="797">
-      <c r="A797" s="23"/>
+      <c r="A797" s="25"/>
       <c r="B797" s="20"/>
       <c r="C797" s="20"/>
       <c r="D797" s="20"/>
@@ -51966,7 +51988,7 @@
       <c r="Z797" s="20"/>
     </row>
     <row r="798">
-      <c r="A798" s="23"/>
+      <c r="A798" s="25"/>
       <c r="B798" s="20"/>
       <c r="C798" s="20"/>
       <c r="D798" s="20"/>
@@ -51994,7 +52016,7 @@
       <c r="Z798" s="20"/>
     </row>
     <row r="799">
-      <c r="A799" s="23"/>
+      <c r="A799" s="25"/>
       <c r="B799" s="20"/>
       <c r="C799" s="20"/>
       <c r="D799" s="20"/>
@@ -52022,7 +52044,7 @@
       <c r="Z799" s="20"/>
     </row>
     <row r="800">
-      <c r="A800" s="23"/>
+      <c r="A800" s="25"/>
       <c r="B800" s="20"/>
       <c r="C800" s="20"/>
       <c r="D800" s="20"/>
@@ -52050,7 +52072,7 @@
       <c r="Z800" s="20"/>
     </row>
     <row r="801">
-      <c r="A801" s="23"/>
+      <c r="A801" s="25"/>
       <c r="B801" s="20"/>
       <c r="C801" s="20"/>
       <c r="D801" s="20"/>
@@ -52078,7 +52100,7 @@
       <c r="Z801" s="20"/>
     </row>
     <row r="802">
-      <c r="A802" s="23"/>
+      <c r="A802" s="25"/>
       <c r="B802" s="20"/>
       <c r="C802" s="20"/>
       <c r="D802" s="20"/>
@@ -52106,7 +52128,7 @@
       <c r="Z802" s="20"/>
     </row>
     <row r="803">
-      <c r="A803" s="23"/>
+      <c r="A803" s="25"/>
       <c r="B803" s="20"/>
       <c r="C803" s="20"/>
       <c r="D803" s="20"/>
@@ -52134,7 +52156,7 @@
       <c r="Z803" s="20"/>
     </row>
     <row r="804">
-      <c r="A804" s="23"/>
+      <c r="A804" s="25"/>
       <c r="B804" s="20"/>
       <c r="C804" s="20"/>
       <c r="D804" s="20"/>
@@ -52162,7 +52184,7 @@
       <c r="Z804" s="20"/>
     </row>
     <row r="805">
-      <c r="A805" s="23"/>
+      <c r="A805" s="25"/>
       <c r="B805" s="20"/>
       <c r="C805" s="20"/>
       <c r="D805" s="20"/>
@@ -52190,7 +52212,7 @@
       <c r="Z805" s="20"/>
     </row>
     <row r="806">
-      <c r="A806" s="23"/>
+      <c r="A806" s="25"/>
       <c r="B806" s="20"/>
       <c r="C806" s="20"/>
       <c r="D806" s="20"/>
@@ -52218,7 +52240,7 @@
       <c r="Z806" s="20"/>
     </row>
     <row r="807">
-      <c r="A807" s="23"/>
+      <c r="A807" s="25"/>
       <c r="B807" s="20"/>
       <c r="C807" s="20"/>
       <c r="D807" s="20"/>
@@ -52246,7 +52268,7 @@
       <c r="Z807" s="20"/>
     </row>
     <row r="808">
-      <c r="A808" s="23"/>
+      <c r="A808" s="25"/>
       <c r="B808" s="20"/>
       <c r="C808" s="20"/>
       <c r="D808" s="20"/>
@@ -52274,7 +52296,7 @@
       <c r="Z808" s="20"/>
     </row>
     <row r="809">
-      <c r="A809" s="23"/>
+      <c r="A809" s="25"/>
       <c r="B809" s="20"/>
       <c r="C809" s="20"/>
       <c r="D809" s="20"/>
@@ -52302,7 +52324,7 @@
       <c r="Z809" s="20"/>
     </row>
     <row r="810">
-      <c r="A810" s="23"/>
+      <c r="A810" s="25"/>
       <c r="B810" s="20"/>
       <c r="C810" s="20"/>
       <c r="D810" s="20"/>
@@ -52330,7 +52352,7 @@
       <c r="Z810" s="20"/>
     </row>
     <row r="811">
-      <c r="A811" s="23"/>
+      <c r="A811" s="25"/>
       <c r="B811" s="20"/>
       <c r="C811" s="20"/>
       <c r="D811" s="20"/>
@@ -52358,7 +52380,7 @@
       <c r="Z811" s="20"/>
     </row>
     <row r="812">
-      <c r="A812" s="23"/>
+      <c r="A812" s="25"/>
       <c r="B812" s="20"/>
       <c r="C812" s="20"/>
       <c r="D812" s="20"/>
@@ -52386,7 +52408,7 @@
       <c r="Z812" s="20"/>
     </row>
     <row r="813">
-      <c r="A813" s="23"/>
+      <c r="A813" s="25"/>
       <c r="B813" s="20"/>
       <c r="C813" s="20"/>
       <c r="D813" s="20"/>
@@ -52414,7 +52436,7 @@
       <c r="Z813" s="20"/>
     </row>
     <row r="814">
-      <c r="A814" s="23"/>
+      <c r="A814" s="25"/>
       <c r="B814" s="20"/>
       <c r="C814" s="20"/>
       <c r="D814" s="20"/>
@@ -52442,7 +52464,7 @@
       <c r="Z814" s="20"/>
     </row>
     <row r="815">
-      <c r="A815" s="23"/>
+      <c r="A815" s="25"/>
       <c r="B815" s="20"/>
       <c r="C815" s="20"/>
       <c r="D815" s="20"/>
@@ -52470,7 +52492,7 @@
       <c r="Z815" s="20"/>
     </row>
     <row r="816">
-      <c r="A816" s="23"/>
+      <c r="A816" s="25"/>
       <c r="B816" s="20"/>
       <c r="C816" s="20"/>
       <c r="D816" s="20"/>
@@ -52498,7 +52520,7 @@
       <c r="Z816" s="20"/>
     </row>
     <row r="817">
-      <c r="A817" s="23"/>
+      <c r="A817" s="25"/>
       <c r="B817" s="20"/>
       <c r="C817" s="20"/>
       <c r="D817" s="20"/>
@@ -52526,7 +52548,7 @@
       <c r="Z817" s="20"/>
     </row>
     <row r="818">
-      <c r="A818" s="23"/>
+      <c r="A818" s="25"/>
       <c r="B818" s="20"/>
       <c r="C818" s="20"/>
       <c r="D818" s="20"/>
@@ -52554,7 +52576,7 @@
       <c r="Z818" s="20"/>
     </row>
     <row r="819">
-      <c r="A819" s="23"/>
+      <c r="A819" s="25"/>
       <c r="B819" s="20"/>
       <c r="C819" s="20"/>
       <c r="D819" s="20"/>
@@ -52582,7 +52604,7 @@
       <c r="Z819" s="20"/>
     </row>
     <row r="820">
-      <c r="A820" s="23"/>
+      <c r="A820" s="25"/>
       <c r="B820" s="20"/>
       <c r="C820" s="20"/>
       <c r="D820" s="20"/>
@@ -52610,7 +52632,7 @@
       <c r="Z820" s="20"/>
     </row>
     <row r="821">
-      <c r="A821" s="23"/>
+      <c r="A821" s="25"/>
       <c r="B821" s="20"/>
       <c r="C821" s="20"/>
       <c r="D821" s="20"/>
@@ -52638,7 +52660,7 @@
       <c r="Z821" s="20"/>
     </row>
     <row r="822">
-      <c r="A822" s="23"/>
+      <c r="A822" s="25"/>
       <c r="B822" s="20"/>
       <c r="C822" s="20"/>
       <c r="D822" s="20"/>
@@ -52666,7 +52688,7 @@
       <c r="Z822" s="20"/>
     </row>
     <row r="823">
-      <c r="A823" s="23"/>
+      <c r="A823" s="25"/>
       <c r="B823" s="20"/>
       <c r="C823" s="20"/>
       <c r="D823" s="20"/>
@@ -52694,7 +52716,7 @@
       <c r="Z823" s="20"/>
     </row>
     <row r="824">
-      <c r="A824" s="23"/>
+      <c r="A824" s="25"/>
       <c r="B824" s="20"/>
       <c r="C824" s="20"/>
       <c r="D824" s="20"/>
@@ -52722,7 +52744,7 @@
       <c r="Z824" s="20"/>
     </row>
     <row r="825">
-      <c r="A825" s="23"/>
+      <c r="A825" s="25"/>
       <c r="B825" s="20"/>
       <c r="C825" s="20"/>
       <c r="D825" s="20"/>
@@ -52750,7 +52772,7 @@
       <c r="Z825" s="20"/>
     </row>
     <row r="826">
-      <c r="A826" s="23"/>
+      <c r="A826" s="25"/>
       <c r="B826" s="20"/>
       <c r="C826" s="20"/>
       <c r="D826" s="20"/>
@@ -52778,7 +52800,7 @@
       <c r="Z826" s="20"/>
     </row>
     <row r="827">
-      <c r="A827" s="23"/>
+      <c r="A827" s="25"/>
       <c r="B827" s="20"/>
       <c r="C827" s="20"/>
       <c r="D827" s="20"/>
@@ -52806,7 +52828,7 @@
       <c r="Z827" s="20"/>
     </row>
     <row r="828">
-      <c r="A828" s="23"/>
+      <c r="A828" s="25"/>
       <c r="B828" s="20"/>
       <c r="C828" s="20"/>
       <c r="D828" s="20"/>
@@ -52834,7 +52856,7 @@
       <c r="Z828" s="20"/>
     </row>
     <row r="829">
-      <c r="A829" s="23"/>
+      <c r="A829" s="25"/>
       <c r="B829" s="20"/>
       <c r="C829" s="20"/>
       <c r="D829" s="20"/>
@@ -52862,7 +52884,7 @@
       <c r="Z829" s="20"/>
     </row>
     <row r="830">
-      <c r="A830" s="23"/>
+      <c r="A830" s="25"/>
       <c r="B830" s="20"/>
       <c r="C830" s="20"/>
       <c r="D830" s="20"/>
@@ -52890,7 +52912,7 @@
       <c r="Z830" s="20"/>
     </row>
     <row r="831">
-      <c r="A831" s="23"/>
+      <c r="A831" s="25"/>
       <c r="B831" s="20"/>
       <c r="C831" s="20"/>
       <c r="D831" s="20"/>
@@ -52918,7 +52940,7 @@
       <c r="Z831" s="20"/>
     </row>
     <row r="832">
-      <c r="A832" s="23"/>
+      <c r="A832" s="25"/>
       <c r="B832" s="20"/>
       <c r="C832" s="20"/>
       <c r="D832" s="20"/>
@@ -52946,7 +52968,7 @@
       <c r="Z832" s="20"/>
     </row>
     <row r="833">
-      <c r="A833" s="23"/>
+      <c r="A833" s="25"/>
       <c r="B833" s="20"/>
       <c r="C833" s="20"/>
       <c r="D833" s="20"/>
@@ -52974,7 +52996,7 @@
       <c r="Z833" s="20"/>
     </row>
     <row r="834">
-      <c r="A834" s="23"/>
+      <c r="A834" s="25"/>
       <c r="B834" s="20"/>
       <c r="C834" s="20"/>
       <c r="D834" s="20"/>
@@ -53002,7 +53024,7 @@
       <c r="Z834" s="20"/>
     </row>
     <row r="835">
-      <c r="A835" s="23"/>
+      <c r="A835" s="25"/>
       <c r="B835" s="20"/>
       <c r="C835" s="20"/>
       <c r="D835" s="20"/>
@@ -53030,7 +53052,7 @@
       <c r="Z835" s="20"/>
     </row>
     <row r="836">
-      <c r="A836" s="23"/>
+      <c r="A836" s="25"/>
       <c r="B836" s="20"/>
       <c r="C836" s="20"/>
       <c r="D836" s="20"/>
@@ -53058,7 +53080,7 @@
       <c r="Z836" s="20"/>
     </row>
     <row r="837">
-      <c r="A837" s="23"/>
+      <c r="A837" s="25"/>
       <c r="B837" s="20"/>
       <c r="C837" s="20"/>
       <c r="D837" s="20"/>
@@ -53086,7 +53108,7 @@
       <c r="Z837" s="20"/>
     </row>
     <row r="838">
-      <c r="A838" s="23"/>
+      <c r="A838" s="25"/>
       <c r="B838" s="20"/>
       <c r="C838" s="20"/>
       <c r="D838" s="20"/>
@@ -53114,7 +53136,7 @@
       <c r="Z838" s="20"/>
     </row>
     <row r="839">
-      <c r="A839" s="23"/>
+      <c r="A839" s="25"/>
       <c r="B839" s="20"/>
       <c r="C839" s="20"/>
       <c r="D839" s="20"/>
@@ -53142,7 +53164,7 @@
       <c r="Z839" s="20"/>
     </row>
     <row r="840">
-      <c r="A840" s="23"/>
+      <c r="A840" s="25"/>
       <c r="B840" s="20"/>
       <c r="C840" s="20"/>
       <c r="D840" s="20"/>
@@ -53170,7 +53192,7 @@
       <c r="Z840" s="20"/>
     </row>
     <row r="841">
-      <c r="A841" s="23"/>
+      <c r="A841" s="25"/>
       <c r="B841" s="20"/>
       <c r="C841" s="20"/>
       <c r="D841" s="20"/>
@@ -53198,7 +53220,7 @@
       <c r="Z841" s="20"/>
     </row>
     <row r="842">
-      <c r="A842" s="23"/>
+      <c r="A842" s="25"/>
       <c r="B842" s="20"/>
       <c r="C842" s="20"/>
       <c r="D842" s="20"/>
@@ -53226,7 +53248,7 @@
       <c r="Z842" s="20"/>
     </row>
     <row r="843">
-      <c r="A843" s="23"/>
+      <c r="A843" s="25"/>
       <c r="B843" s="20"/>
       <c r="C843" s="20"/>
       <c r="D843" s="20"/>
@@ -53254,7 +53276,7 @@
       <c r="Z843" s="20"/>
     </row>
     <row r="844">
-      <c r="A844" s="23"/>
+      <c r="A844" s="25"/>
       <c r="B844" s="20"/>
       <c r="C844" s="20"/>
       <c r="D844" s="20"/>
@@ -53282,7 +53304,7 @@
       <c r="Z844" s="20"/>
     </row>
     <row r="845">
-      <c r="A845" s="23"/>
+      <c r="A845" s="25"/>
       <c r="B845" s="20"/>
       <c r="C845" s="20"/>
       <c r="D845" s="20"/>
@@ -53310,7 +53332,7 @@
       <c r="Z845" s="20"/>
     </row>
     <row r="846">
-      <c r="A846" s="23"/>
+      <c r="A846" s="25"/>
       <c r="B846" s="20"/>
       <c r="C846" s="20"/>
       <c r="D846" s="20"/>
@@ -53338,7 +53360,7 @@
       <c r="Z846" s="20"/>
     </row>
     <row r="847">
-      <c r="A847" s="23"/>
+      <c r="A847" s="25"/>
       <c r="B847" s="20"/>
       <c r="C847" s="20"/>
       <c r="D847" s="20"/>
@@ -53366,7 +53388,7 @@
       <c r="Z847" s="20"/>
     </row>
     <row r="848">
-      <c r="A848" s="23"/>
+      <c r="A848" s="25"/>
       <c r="B848" s="20"/>
       <c r="C848" s="20"/>
       <c r="D848" s="20"/>
@@ -53394,7 +53416,7 @@
       <c r="Z848" s="20"/>
     </row>
     <row r="849">
-      <c r="A849" s="23"/>
+      <c r="A849" s="25"/>
       <c r="B849" s="20"/>
       <c r="C849" s="20"/>
       <c r="D849" s="20"/>
@@ -53422,7 +53444,7 @@
       <c r="Z849" s="20"/>
     </row>
     <row r="850">
-      <c r="A850" s="23"/>
+      <c r="A850" s="25"/>
       <c r="B850" s="20"/>
       <c r="C850" s="20"/>
       <c r="D850" s="20"/>
@@ -53450,7 +53472,7 @@
       <c r="Z850" s="20"/>
     </row>
     <row r="851">
-      <c r="A851" s="23"/>
+      <c r="A851" s="25"/>
       <c r="B851" s="20"/>
       <c r="C851" s="20"/>
       <c r="D851" s="20"/>
@@ -53478,7 +53500,7 @@
       <c r="Z851" s="20"/>
     </row>
     <row r="852">
-      <c r="A852" s="23"/>
+      <c r="A852" s="25"/>
       <c r="B852" s="20"/>
       <c r="C852" s="20"/>
       <c r="D852" s="20"/>
@@ -53506,7 +53528,7 @@
       <c r="Z852" s="20"/>
     </row>
     <row r="853">
-      <c r="A853" s="23"/>
+      <c r="A853" s="25"/>
       <c r="B853" s="20"/>
       <c r="C853" s="20"/>
       <c r="D853" s="20"/>
@@ -53534,7 +53556,7 @@
       <c r="Z853" s="20"/>
     </row>
     <row r="854">
-      <c r="A854" s="23"/>
+      <c r="A854" s="25"/>
       <c r="B854" s="20"/>
       <c r="C854" s="20"/>
       <c r="D854" s="20"/>
@@ -53562,7 +53584,7 @@
       <c r="Z854" s="20"/>
     </row>
     <row r="855">
-      <c r="A855" s="23"/>
+      <c r="A855" s="25"/>
       <c r="B855" s="20"/>
       <c r="C855" s="20"/>
       <c r="D855" s="20"/>
@@ -53590,7 +53612,7 @@
       <c r="Z855" s="20"/>
     </row>
     <row r="856">
-      <c r="A856" s="23"/>
+      <c r="A856" s="25"/>
       <c r="B856" s="20"/>
       <c r="C856" s="20"/>
       <c r="D856" s="20"/>
@@ -53618,7 +53640,7 @@
       <c r="Z856" s="20"/>
     </row>
     <row r="857">
-      <c r="A857" s="23"/>
+      <c r="A857" s="25"/>
       <c r="B857" s="20"/>
       <c r="C857" s="20"/>
       <c r="D857" s="20"/>
@@ -53646,7 +53668,7 @@
       <c r="Z857" s="20"/>
     </row>
     <row r="858">
-      <c r="A858" s="23"/>
+      <c r="A858" s="25"/>
       <c r="B858" s="20"/>
       <c r="C858" s="20"/>
       <c r="D858" s="20"/>
@@ -53674,7 +53696,7 @@
       <c r="Z858" s="20"/>
     </row>
     <row r="859">
-      <c r="A859" s="23"/>
+      <c r="A859" s="25"/>
       <c r="B859" s="20"/>
       <c r="C859" s="20"/>
       <c r="D859" s="20"/>
@@ -53702,7 +53724,7 @@
       <c r="Z859" s="20"/>
     </row>
     <row r="860">
-      <c r="A860" s="23"/>
+      <c r="A860" s="25"/>
       <c r="B860" s="20"/>
       <c r="C860" s="20"/>
       <c r="D860" s="20"/>
@@ -53730,7 +53752,7 @@
       <c r="Z860" s="20"/>
     </row>
     <row r="861">
-      <c r="A861" s="23"/>
+      <c r="A861" s="25"/>
       <c r="B861" s="20"/>
       <c r="C861" s="20"/>
       <c r="D861" s="20"/>
@@ -53758,7 +53780,7 @@
       <c r="Z861" s="20"/>
     </row>
     <row r="862">
-      <c r="A862" s="23"/>
+      <c r="A862" s="25"/>
       <c r="B862" s="20"/>
       <c r="C862" s="20"/>
       <c r="D862" s="20"/>
@@ -53786,7 +53808,7 @@
       <c r="Z862" s="20"/>
     </row>
     <row r="863">
-      <c r="A863" s="23"/>
+      <c r="A863" s="25"/>
       <c r="B863" s="20"/>
       <c r="C863" s="20"/>
       <c r="D863" s="20"/>
@@ -53814,7 +53836,7 @@
       <c r="Z863" s="20"/>
     </row>
     <row r="864">
-      <c r="A864" s="23"/>
+      <c r="A864" s="25"/>
       <c r="B864" s="20"/>
       <c r="C864" s="20"/>
       <c r="D864" s="20"/>
@@ -53842,7 +53864,7 @@
       <c r="Z864" s="20"/>
     </row>
     <row r="865">
-      <c r="A865" s="23"/>
+      <c r="A865" s="25"/>
       <c r="B865" s="20"/>
       <c r="C865" s="20"/>
       <c r="D865" s="20"/>
@@ -53870,7 +53892,7 @@
       <c r="Z865" s="20"/>
     </row>
     <row r="866">
-      <c r="A866" s="23"/>
+      <c r="A866" s="25"/>
       <c r="B866" s="20"/>
       <c r="C866" s="20"/>
       <c r="D866" s="20"/>
@@ -53898,7 +53920,7 @@
       <c r="Z866" s="20"/>
     </row>
     <row r="867">
-      <c r="A867" s="23"/>
+      <c r="A867" s="25"/>
       <c r="B867" s="20"/>
       <c r="C867" s="20"/>
       <c r="D867" s="20"/>
@@ -53926,7 +53948,7 @@
       <c r="Z867" s="20"/>
     </row>
     <row r="868">
-      <c r="A868" s="23"/>
+      <c r="A868" s="25"/>
       <c r="B868" s="20"/>
       <c r="C868" s="20"/>
       <c r="D868" s="20"/>
@@ -53954,7 +53976,7 @@
       <c r="Z868" s="20"/>
     </row>
     <row r="869">
-      <c r="A869" s="23"/>
+      <c r="A869" s="25"/>
       <c r="B869" s="20"/>
       <c r="C869" s="20"/>
       <c r="D869" s="20"/>
@@ -53982,7 +54004,7 @@
       <c r="Z869" s="20"/>
     </row>
     <row r="870">
-      <c r="A870" s="23"/>
+      <c r="A870" s="25"/>
       <c r="B870" s="20"/>
       <c r="C870" s="20"/>
       <c r="D870" s="20"/>
@@ -54010,7 +54032,7 @@
       <c r="Z870" s="20"/>
     </row>
     <row r="871">
-      <c r="A871" s="23"/>
+      <c r="A871" s="25"/>
       <c r="B871" s="20"/>
       <c r="C871" s="20"/>
       <c r="D871" s="20"/>
@@ -54038,7 +54060,7 @@
       <c r="Z871" s="20"/>
     </row>
     <row r="872">
-      <c r="A872" s="23"/>
+      <c r="A872" s="25"/>
       <c r="B872" s="20"/>
       <c r="C872" s="20"/>
       <c r="D872" s="20"/>
@@ -54066,7 +54088,7 @@
       <c r="Z872" s="20"/>
     </row>
     <row r="873">
-      <c r="A873" s="23"/>
+      <c r="A873" s="25"/>
       <c r="B873" s="20"/>
       <c r="C873" s="20"/>
       <c r="D873" s="20"/>
@@ -54094,7 +54116,7 @@
       <c r="Z873" s="20"/>
     </row>
     <row r="874">
-      <c r="A874" s="23"/>
+      <c r="A874" s="25"/>
       <c r="B874" s="20"/>
       <c r="C874" s="20"/>
       <c r="D874" s="20"/>
@@ -54122,7 +54144,7 @@
       <c r="Z874" s="20"/>
     </row>
     <row r="875">
-      <c r="A875" s="23"/>
+      <c r="A875" s="25"/>
       <c r="B875" s="20"/>
       <c r="C875" s="20"/>
       <c r="D875" s="20"/>
@@ -54150,7 +54172,7 @@
       <c r="Z875" s="20"/>
     </row>
     <row r="876">
-      <c r="A876" s="23"/>
+      <c r="A876" s="25"/>
       <c r="B876" s="20"/>
       <c r="C876" s="20"/>
       <c r="D876" s="20"/>
@@ -54178,7 +54200,7 @@
       <c r="Z876" s="20"/>
     </row>
     <row r="877">
-      <c r="A877" s="23"/>
+      <c r="A877" s="25"/>
       <c r="B877" s="20"/>
       <c r="C877" s="20"/>
       <c r="D877" s="20"/>
@@ -54206,7 +54228,7 @@
       <c r="Z877" s="20"/>
     </row>
     <row r="878">
-      <c r="A878" s="23"/>
+      <c r="A878" s="25"/>
       <c r="B878" s="20"/>
       <c r="C878" s="20"/>
       <c r="D878" s="20"/>
@@ -54234,7 +54256,7 @@
       <c r="Z878" s="20"/>
     </row>
     <row r="879">
-      <c r="A879" s="23"/>
+      <c r="A879" s="25"/>
       <c r="B879" s="20"/>
       <c r="C879" s="20"/>
       <c r="D879" s="20"/>
@@ -54262,7 +54284,7 @@
       <c r="Z879" s="20"/>
     </row>
     <row r="880">
-      <c r="A880" s="23"/>
+      <c r="A880" s="25"/>
       <c r="B880" s="20"/>
       <c r="C880" s="20"/>
       <c r="D880" s="20"/>
@@ -54290,7 +54312,7 @@
       <c r="Z880" s="20"/>
     </row>
     <row r="881">
-      <c r="A881" s="23"/>
+      <c r="A881" s="25"/>
       <c r="B881" s="20"/>
       <c r="C881" s="20"/>
       <c r="D881" s="20"/>
@@ -54318,7 +54340,7 @@
       <c r="Z881" s="20"/>
     </row>
     <row r="882">
-      <c r="A882" s="23"/>
+      <c r="A882" s="25"/>
       <c r="B882" s="20"/>
       <c r="C882" s="20"/>
       <c r="D882" s="20"/>
@@ -54346,7 +54368,7 @@
       <c r="Z882" s="20"/>
     </row>
     <row r="883">
-      <c r="A883" s="23"/>
+      <c r="A883" s="25"/>
       <c r="B883" s="20"/>
       <c r="C883" s="20"/>
       <c r="D883" s="20"/>
@@ -54374,7 +54396,7 @@
       <c r="Z883" s="20"/>
     </row>
     <row r="884">
-      <c r="A884" s="23"/>
+      <c r="A884" s="25"/>
       <c r="B884" s="20"/>
       <c r="C884" s="20"/>
       <c r="D884" s="20"/>
@@ -54402,7 +54424,7 @@
       <c r="Z884" s="20"/>
     </row>
     <row r="885">
-      <c r="A885" s="23"/>
+      <c r="A885" s="25"/>
       <c r="B885" s="20"/>
       <c r="C885" s="20"/>
       <c r="D885" s="20"/>
@@ -54430,7 +54452,7 @@
       <c r="Z885" s="20"/>
     </row>
     <row r="886">
-      <c r="A886" s="23"/>
+      <c r="A886" s="25"/>
       <c r="B886" s="20"/>
       <c r="C886" s="20"/>
       <c r="D886" s="20"/>
@@ -54458,7 +54480,7 @@
       <c r="Z886" s="20"/>
     </row>
     <row r="887">
-      <c r="A887" s="23"/>
+      <c r="A887" s="25"/>
       <c r="B887" s="20"/>
       <c r="C887" s="20"/>
       <c r="D887" s="20"/>
@@ -54486,7 +54508,7 @@
       <c r="Z887" s="20"/>
     </row>
     <row r="888">
-      <c r="A888" s="23"/>
+      <c r="A888" s="25"/>
       <c r="B888" s="20"/>
       <c r="C888" s="20"/>
       <c r="D888" s="20"/>
@@ -54514,7 +54536,7 @@
       <c r="Z888" s="20"/>
     </row>
     <row r="889">
-      <c r="A889" s="23"/>
+      <c r="A889" s="25"/>
       <c r="B889" s="20"/>
       <c r="C889" s="20"/>
       <c r="D889" s="20"/>
@@ -54542,7 +54564,7 @@
       <c r="Z889" s="20"/>
     </row>
     <row r="890">
-      <c r="A890" s="23"/>
+      <c r="A890" s="25"/>
       <c r="B890" s="20"/>
       <c r="C890" s="20"/>
       <c r="D890" s="20"/>
@@ -54570,7 +54592,7 @@
       <c r="Z890" s="20"/>
     </row>
     <row r="891">
-      <c r="A891" s="23"/>
+      <c r="A891" s="25"/>
       <c r="B891" s="20"/>
       <c r="C891" s="20"/>
       <c r="D891" s="20"/>
@@ -54598,7 +54620,7 @@
       <c r="Z891" s="20"/>
     </row>
     <row r="892">
-      <c r="A892" s="23"/>
+      <c r="A892" s="25"/>
       <c r="B892" s="20"/>
       <c r="C892" s="20"/>
       <c r="D892" s="20"/>
@@ -54626,7 +54648,7 @@
       <c r="Z892" s="20"/>
     </row>
     <row r="893">
-      <c r="A893" s="23"/>
+      <c r="A893" s="25"/>
       <c r="B893" s="20"/>
       <c r="C893" s="20"/>
       <c r="D893" s="20"/>
@@ -54654,7 +54676,7 @@
       <c r="Z893" s="20"/>
     </row>
     <row r="894">
-      <c r="A894" s="23"/>
+      <c r="A894" s="25"/>
       <c r="B894" s="20"/>
       <c r="C894" s="20"/>
       <c r="D894" s="20"/>
@@ -54682,7 +54704,7 @@
       <c r="Z894" s="20"/>
     </row>
     <row r="895">
-      <c r="A895" s="23"/>
+      <c r="A895" s="25"/>
       <c r="B895" s="20"/>
       <c r="C895" s="20"/>
       <c r="D895" s="20"/>
@@ -54710,7 +54732,7 @@
       <c r="Z895" s="20"/>
     </row>
     <row r="896">
-      <c r="A896" s="23"/>
+      <c r="A896" s="25"/>
       <c r="B896" s="20"/>
       <c r="C896" s="20"/>
       <c r="D896" s="20"/>
@@ -54738,7 +54760,7 @@
       <c r="Z896" s="20"/>
     </row>
     <row r="897">
-      <c r="A897" s="23"/>
+      <c r="A897" s="25"/>
       <c r="B897" s="20"/>
       <c r="C897" s="20"/>
       <c r="D897" s="20"/>
@@ -54766,7 +54788,7 @@
       <c r="Z897" s="20"/>
     </row>
     <row r="898">
-      <c r="A898" s="23"/>
+      <c r="A898" s="25"/>
       <c r="B898" s="20"/>
       <c r="C898" s="20"/>
       <c r="D898" s="20"/>
@@ -54794,7 +54816,7 @@
       <c r="Z898" s="20"/>
     </row>
     <row r="899">
-      <c r="A899" s="23"/>
+      <c r="A899" s="25"/>
       <c r="B899" s="20"/>
       <c r="C899" s="20"/>
       <c r="D899" s="20"/>
@@ -54822,7 +54844,7 @@
       <c r="Z899" s="20"/>
     </row>
     <row r="900">
-      <c r="A900" s="23"/>
+      <c r="A900" s="25"/>
       <c r="B900" s="20"/>
       <c r="C900" s="20"/>
       <c r="D900" s="20"/>
@@ -54850,7 +54872,7 @@
       <c r="Z900" s="20"/>
     </row>
     <row r="901">
-      <c r="A901" s="23"/>
+      <c r="A901" s="25"/>
       <c r="B901" s="20"/>
       <c r="C901" s="20"/>
       <c r="D901" s="20"/>
@@ -54878,7 +54900,7 @@
       <c r="Z901" s="20"/>
     </row>
     <row r="902">
-      <c r="A902" s="23"/>
+      <c r="A902" s="25"/>
       <c r="B902" s="20"/>
       <c r="C902" s="20"/>
       <c r="D902" s="20"/>
@@ -54906,7 +54928,7 @@
       <c r="Z902" s="20"/>
     </row>
     <row r="903">
-      <c r="A903" s="23"/>
+      <c r="A903" s="25"/>
       <c r="B903" s="20"/>
       <c r="C903" s="20"/>
       <c r="D903" s="20"/>
@@ -54934,7 +54956,7 @@
       <c r="Z903" s="20"/>
     </row>
     <row r="904">
-      <c r="A904" s="23"/>
+      <c r="A904" s="25"/>
       <c r="B904" s="20"/>
       <c r="C904" s="20"/>
       <c r="D904" s="20"/>
@@ -54962,7 +54984,7 @@
       <c r="Z904" s="20"/>
     </row>
     <row r="905">
-      <c r="A905" s="23"/>
+      <c r="A905" s="25"/>
       <c r="B905" s="20"/>
       <c r="C905" s="20"/>
       <c r="D905" s="20"/>
@@ -54990,7 +55012,7 @@
       <c r="Z905" s="20"/>
     </row>
     <row r="906">
-      <c r="A906" s="23"/>
+      <c r="A906" s="25"/>
       <c r="B906" s="20"/>
       <c r="C906" s="20"/>
       <c r="D906" s="20"/>
@@ -55018,7 +55040,7 @@
       <c r="Z906" s="20"/>
     </row>
     <row r="907">
-      <c r="A907" s="23"/>
+      <c r="A907" s="25"/>
       <c r="B907" s="20"/>
       <c r="C907" s="20"/>
       <c r="D907" s="20"/>
@@ -55046,7 +55068,7 @@
       <c r="Z907" s="20"/>
     </row>
     <row r="908">
-      <c r="A908" s="23"/>
+      <c r="A908" s="25"/>
       <c r="B908" s="20"/>
       <c r="C908" s="20"/>
       <c r="D908" s="20"/>
@@ -55074,7 +55096,7 @@
       <c r="Z908" s="20"/>
     </row>
     <row r="909">
-      <c r="A909" s="23"/>
+      <c r="A909" s="25"/>
       <c r="B909" s="20"/>
       <c r="C909" s="20"/>
       <c r="D909" s="20"/>
@@ -55102,7 +55124,7 @@
       <c r="Z909" s="20"/>
     </row>
     <row r="910">
-      <c r="A910" s="23"/>
+      <c r="A910" s="25"/>
       <c r="B910" s="20"/>
       <c r="C910" s="20"/>
       <c r="D910" s="20"/>
@@ -55130,7 +55152,7 @@
       <c r="Z910" s="20"/>
     </row>
     <row r="911">
-      <c r="A911" s="23"/>
+      <c r="A911" s="25"/>
       <c r="B911" s="20"/>
       <c r="C911" s="20"/>
       <c r="D911" s="20"/>
@@ -55158,7 +55180,7 @@
       <c r="Z911" s="20"/>
     </row>
     <row r="912">
-      <c r="A912" s="23"/>
+      <c r="A912" s="25"/>
       <c r="B912" s="20"/>
       <c r="C912" s="20"/>
       <c r="D912" s="20"/>
@@ -55186,7 +55208,7 @@
       <c r="Z912" s="20"/>
     </row>
     <row r="913">
-      <c r="A913" s="23"/>
+      <c r="A913" s="25"/>
       <c r="B913" s="20"/>
       <c r="C913" s="20"/>
       <c r="D913" s="20"/>
@@ -55214,7 +55236,7 @@
       <c r="Z913" s="20"/>
     </row>
     <row r="914">
-      <c r="A914" s="23"/>
+      <c r="A914" s="25"/>
       <c r="B914" s="20"/>
       <c r="C914" s="20"/>
       <c r="D914" s="20"/>
@@ -55242,7 +55264,7 @@
       <c r="Z914" s="20"/>
     </row>
     <row r="915">
-      <c r="A915" s="23"/>
+      <c r="A915" s="25"/>
       <c r="B915" s="20"/>
       <c r="C915" s="20"/>
       <c r="D915" s="20"/>
@@ -55270,7 +55292,7 @@
       <c r="Z915" s="20"/>
     </row>
     <row r="916">
-      <c r="A916" s="23"/>
+      <c r="A916" s="25"/>
       <c r="B916" s="20"/>
       <c r="C916" s="20"/>
       <c r="D916" s="20"/>
@@ -55298,7 +55320,7 @@
       <c r="Z916" s="20"/>
     </row>
     <row r="917">
-      <c r="A917" s="23"/>
+      <c r="A917" s="25"/>
       <c r="B917" s="20"/>
       <c r="C917" s="20"/>
       <c r="D917" s="20"/>
@@ -55326,7 +55348,7 @@
       <c r="Z917" s="20"/>
     </row>
     <row r="918">
-      <c r="A918" s="23"/>
+      <c r="A918" s="25"/>
       <c r="B918" s="20"/>
       <c r="C918" s="20"/>
       <c r="D918" s="20"/>
@@ -55354,7 +55376,7 @@
       <c r="Z918" s="20"/>
     </row>
     <row r="919">
-      <c r="A919" s="23"/>
+      <c r="A919" s="25"/>
       <c r="B919" s="20"/>
       <c r="C919" s="20"/>
       <c r="D919" s="20"/>
@@ -55382,7 +55404,7 @@
       <c r="Z919" s="20"/>
     </row>
     <row r="920">
-      <c r="A920" s="23"/>
+      <c r="A920" s="25"/>
       <c r="B920" s="20"/>
       <c r="C920" s="20"/>
       <c r="D920" s="20"/>
@@ -55410,7 +55432,7 @@
       <c r="Z920" s="20"/>
     </row>
     <row r="921">
-      <c r="A921" s="23"/>
+      <c r="A921" s="25"/>
       <c r="B921" s="20"/>
       <c r="C921" s="20"/>
       <c r="D921" s="20"/>
@@ -55438,7 +55460,7 @@
       <c r="Z921" s="20"/>
     </row>
     <row r="922">
-      <c r="A922" s="23"/>
+      <c r="A922" s="25"/>
       <c r="B922" s="20"/>
       <c r="C922" s="20"/>
       <c r="D922" s="20"/>
@@ -55466,7 +55488,7 @@
       <c r="Z922" s="20"/>
     </row>
     <row r="923">
-      <c r="A923" s="23"/>
+      <c r="A923" s="25"/>
       <c r="B923" s="20"/>
       <c r="C923" s="20"/>
       <c r="D923" s="20"/>
@@ -55494,7 +55516,7 @@
       <c r="Z923" s="20"/>
     </row>
     <row r="924">
-      <c r="A924" s="23"/>
+      <c r="A924" s="25"/>
       <c r="B924" s="20"/>
       <c r="C924" s="20"/>
       <c r="D924" s="20"/>
@@ -55522,7 +55544,7 @@
       <c r="Z924" s="20"/>
     </row>
     <row r="925">
-      <c r="A925" s="23"/>
+      <c r="A925" s="25"/>
       <c r="B925" s="20"/>
       <c r="C925" s="20"/>
       <c r="D925" s="20"/>
@@ -55550,7 +55572,7 @@
       <c r="Z925" s="20"/>
     </row>
     <row r="926">
-      <c r="A926" s="23"/>
+      <c r="A926" s="25"/>
       <c r="B926" s="20"/>
       <c r="C926" s="20"/>
       <c r="D926" s="20"/>
@@ -55578,7 +55600,7 @@
       <c r="Z926" s="20"/>
     </row>
     <row r="927">
-      <c r="A927" s="23"/>
+      <c r="A927" s="25"/>
       <c r="B927" s="20"/>
       <c r="C927" s="20"/>
       <c r="D927" s="20"/>
@@ -55606,7 +55628,7 @@
       <c r="Z927" s="20"/>
     </row>
     <row r="928">
-      <c r="A928" s="23"/>
+      <c r="A928" s="25"/>
       <c r="B928" s="20"/>
       <c r="C928" s="20"/>
       <c r="D928" s="20"/>
@@ -55634,7 +55656,7 @@
       <c r="Z928" s="20"/>
     </row>
     <row r="929">
-      <c r="A929" s="23"/>
+      <c r="A929" s="25"/>
       <c r="B929" s="20"/>
       <c r="C929" s="20"/>
       <c r="D929" s="20"/>
@@ -55662,7 +55684,7 @@
       <c r="Z929" s="20"/>
     </row>
     <row r="930">
-      <c r="A930" s="23"/>
+      <c r="A930" s="25"/>
       <c r="B930" s="20"/>
       <c r="C930" s="20"/>
       <c r="D930" s="20"/>
@@ -55690,7 +55712,7 @@
       <c r="Z930" s="20"/>
     </row>
     <row r="931">
-      <c r="A931" s="23"/>
+      <c r="A931" s="25"/>
       <c r="B931" s="20"/>
       <c r="C931" s="20"/>
       <c r="D931" s="20"/>
@@ -55718,7 +55740,7 @@
       <c r="Z931" s="20"/>
     </row>
     <row r="932">
-      <c r="A932" s="23"/>
+      <c r="A932" s="25"/>
       <c r="B932" s="20"/>
       <c r="C932" s="20"/>
       <c r="D932" s="20"/>
@@ -55746,7 +55768,7 @@
       <c r="Z932" s="20"/>
     </row>
     <row r="933">
-      <c r="A933" s="23"/>
+      <c r="A933" s="25"/>
       <c r="B933" s="20"/>
       <c r="C933" s="20"/>
       <c r="D933" s="20"/>
@@ -55774,7 +55796,7 @@
       <c r="Z933" s="20"/>
     </row>
     <row r="934">
-      <c r="A934" s="23"/>
+      <c r="A934" s="25"/>
       <c r="B934" s="20"/>
       <c r="C934" s="20"/>
       <c r="D934" s="20"/>
@@ -55802,7 +55824,7 @@
       <c r="Z934" s="20"/>
     </row>
     <row r="935">
-      <c r="A935" s="23"/>
+      <c r="A935" s="25"/>
       <c r="B935" s="20"/>
       <c r="C935" s="20"/>
       <c r="D935" s="20"/>
@@ -55830,7 +55852,7 @@
       <c r="Z935" s="20"/>
     </row>
     <row r="936">
-      <c r="A936" s="23"/>
+      <c r="A936" s="25"/>
       <c r="B936" s="20"/>
       <c r="C936" s="20"/>
       <c r="D936" s="20"/>
@@ -55858,7 +55880,7 @@
       <c r="Z936" s="20"/>
     </row>
     <row r="937">
-      <c r="A937" s="23"/>
+      <c r="A937" s="25"/>
       <c r="B937" s="20"/>
       <c r="C937" s="20"/>
       <c r="D937" s="20"/>
@@ -55886,7 +55908,7 @@
       <c r="Z937" s="20"/>
     </row>
     <row r="938">
-      <c r="A938" s="23"/>
+      <c r="A938" s="25"/>
       <c r="B938" s="20"/>
       <c r="C938" s="20"/>
       <c r="D938" s="20"/>
@@ -55914,7 +55936,7 @@
       <c r="Z938" s="20"/>
     </row>
     <row r="939">
-      <c r="A939" s="23"/>
+      <c r="A939" s="25"/>
       <c r="B939" s="20"/>
       <c r="C939" s="20"/>
       <c r="D939" s="20"/>
@@ -55942,7 +55964,7 @@
       <c r="Z939" s="20"/>
     </row>
     <row r="940">
-      <c r="A940" s="23"/>
+      <c r="A940" s="25"/>
       <c r="B940" s="20"/>
       <c r="C940" s="20"/>
       <c r="D940" s="20"/>
@@ -55970,7 +55992,7 @@
       <c r="Z940" s="20"/>
     </row>
     <row r="941">
-      <c r="A941" s="23"/>
+      <c r="A941" s="25"/>
       <c r="B941" s="20"/>
       <c r="C941" s="20"/>
       <c r="D941" s="20"/>
@@ -55998,7 +56020,7 @@
       <c r="Z941" s="20"/>
     </row>
     <row r="942">
-      <c r="A942" s="23"/>
+      <c r="A942" s="25"/>
       <c r="B942" s="20"/>
       <c r="C942" s="20"/>
       <c r="D942" s="20"/>
@@ -56026,7 +56048,7 @@
       <c r="Z942" s="20"/>
     </row>
     <row r="943">
-      <c r="A943" s="23"/>
+      <c r="A943" s="25"/>
       <c r="B943" s="20"/>
       <c r="C943" s="20"/>
       <c r="D943" s="20"/>
@@ -56054,7 +56076,7 @@
       <c r="Z943" s="20"/>
     </row>
     <row r="944">
-      <c r="A944" s="23"/>
+      <c r="A944" s="25"/>
       <c r="B944" s="20"/>
       <c r="C944" s="20"/>
       <c r="D944" s="20"/>
@@ -56082,7 +56104,7 @@
       <c r="Z944" s="20"/>
     </row>
     <row r="945">
-      <c r="A945" s="23"/>
+      <c r="A945" s="25"/>
       <c r="B945" s="20"/>
       <c r="C945" s="20"/>
       <c r="D945" s="20"/>
@@ -56110,7 +56132,7 @@
       <c r="Z945" s="20"/>
     </row>
     <row r="946">
-      <c r="A946" s="23"/>
+      <c r="A946" s="25"/>
       <c r="B946" s="20"/>
       <c r="C946" s="20"/>
       <c r="D946" s="20"/>
@@ -56138,7 +56160,7 @@
       <c r="Z946" s="20"/>
     </row>
     <row r="947">
-      <c r="A947" s="23"/>
+      <c r="A947" s="25"/>
       <c r="B947" s="20"/>
       <c r="C947" s="20"/>
       <c r="D947" s="20"/>
@@ -56166,7 +56188,7 @@
       <c r="Z947" s="20"/>
     </row>
     <row r="948">
-      <c r="A948" s="23"/>
+      <c r="A948" s="25"/>
       <c r="B948" s="20"/>
       <c r="C948" s="20"/>
       <c r="D948" s="20"/>
@@ -56194,7 +56216,7 @@
       <c r="Z948" s="20"/>
     </row>
     <row r="949">
-      <c r="A949" s="23"/>
+      <c r="A949" s="25"/>
       <c r="B949" s="20"/>
       <c r="C949" s="20"/>
       <c r="D949" s="20"/>
@@ -56222,7 +56244,7 @@
       <c r="Z949" s="20"/>
     </row>
     <row r="950">
-      <c r="A950" s="23"/>
+      <c r="A950" s="25"/>
       <c r="B950" s="20"/>
       <c r="C950" s="20"/>
       <c r="D950" s="20"/>
@@ -56250,7 +56272,7 @@
       <c r="Z950" s="20"/>
     </row>
     <row r="951">
-      <c r="A951" s="23"/>
+      <c r="A951" s="25"/>
       <c r="B951" s="20"/>
       <c r="C951" s="20"/>
       <c r="D951" s="20"/>
@@ -56278,7 +56300,7 @@
       <c r="Z951" s="20"/>
     </row>
     <row r="952">
-      <c r="A952" s="23"/>
+      <c r="A952" s="25"/>
       <c r="B952" s="20"/>
       <c r="C952" s="20"/>
       <c r="D952" s="20"/>
@@ -56306,7 +56328,7 @@
       <c r="Z952" s="20"/>
     </row>
     <row r="953">
-      <c r="A953" s="23"/>
+      <c r="A953" s="25"/>
       <c r="B953" s="20"/>
       <c r="C953" s="20"/>
       <c r="D953" s="20"/>
@@ -56334,7 +56356,7 @@
       <c r="Z953" s="20"/>
     </row>
     <row r="954">
-      <c r="A954" s="23"/>
+      <c r="A954" s="25"/>
       <c r="B954" s="20"/>
       <c r="C954" s="20"/>
       <c r="D954" s="20"/>
@@ -56362,7 +56384,7 @@
       <c r="Z954" s="20"/>
     </row>
     <row r="955">
-      <c r="A955" s="23"/>
+      <c r="A955" s="25"/>
       <c r="B955" s="20"/>
       <c r="C955" s="20"/>
       <c r="D955" s="20"/>
@@ -56390,7 +56412,7 @@
       <c r="Z955" s="20"/>
     </row>
     <row r="956">
-      <c r="A956" s="23"/>
+      <c r="A956" s="25"/>
       <c r="B956" s="20"/>
       <c r="C956" s="20"/>
       <c r="D956" s="20"/>
@@ -56418,7 +56440,7 @@
       <c r="Z956" s="20"/>
     </row>
     <row r="957">
-      <c r="A957" s="23"/>
+      <c r="A957" s="25"/>
       <c r="B957" s="20"/>
       <c r="C957" s="20"/>
       <c r="D957" s="20"/>
@@ -56446,7 +56468,7 @@
       <c r="Z957" s="20"/>
     </row>
     <row r="958">
-      <c r="A958" s="23"/>
+      <c r="A958" s="25"/>
       <c r="B958" s="20"/>
       <c r="C958" s="20"/>
       <c r="D958" s="20"/>
@@ -56474,7 +56496,7 @@
       <c r="Z958" s="20"/>
     </row>
     <row r="959">
-      <c r="A959" s="23"/>
+      <c r="A959" s="25"/>
       <c r="B959" s="20"/>
       <c r="C959" s="20"/>
       <c r="D959" s="20"/>
@@ -56502,7 +56524,7 @@
       <c r="Z959" s="20"/>
     </row>
     <row r="960">
-      <c r="A960" s="23"/>
+      <c r="A960" s="25"/>
       <c r="B960" s="20"/>
       <c r="C960" s="20"/>
       <c r="D960" s="20"/>
@@ -56530,7 +56552,7 @@
       <c r="Z960" s="20"/>
     </row>
     <row r="961">
-      <c r="A961" s="23"/>
+      <c r="A961" s="25"/>
       <c r="B961" s="20"/>
       <c r="C961" s="20"/>
       <c r="D961" s="20"/>
@@ -56558,7 +56580,7 @@
       <c r="Z961" s="20"/>
     </row>
     <row r="962">
-      <c r="A962" s="23"/>
+      <c r="A962" s="25"/>
       <c r="B962" s="20"/>
       <c r="C962" s="20"/>
       <c r="D962" s="20"/>
@@ -56586,7 +56608,7 @@
       <c r="Z962" s="20"/>
     </row>
     <row r="963">
-      <c r="A963" s="23"/>
+      <c r="A963" s="25"/>
       <c r="B963" s="20"/>
       <c r="C963" s="20"/>
       <c r="D963" s="20"/>
@@ -56614,7 +56636,7 @@
       <c r="Z963" s="20"/>
     </row>
     <row r="964">
-      <c r="A964" s="23"/>
+      <c r="A964" s="25"/>
       <c r="B964" s="20"/>
       <c r="C964" s="20"/>
       <c r="D964" s="20"/>
@@ -56642,7 +56664,7 @@
       <c r="Z964" s="20"/>
     </row>
     <row r="965">
-      <c r="A965" s="23"/>
+      <c r="A965" s="25"/>
       <c r="B965" s="20"/>
       <c r="C965" s="20"/>
       <c r="D965" s="20"/>
@@ -56670,7 +56692,7 @@
       <c r="Z965" s="20"/>
     </row>
     <row r="966">
-      <c r="A966" s="23"/>
+      <c r="A966" s="25"/>
       <c r="B966" s="20"/>
       <c r="C966" s="20"/>
       <c r="D966" s="20"/>
@@ -56698,7 +56720,7 @@
       <c r="Z966" s="20"/>
     </row>
     <row r="967">
-      <c r="A967" s="23"/>
+      <c r="A967" s="25"/>
       <c r="B967" s="20"/>
       <c r="C967" s="20"/>
       <c r="D967" s="20"/>
@@ -56726,7 +56748,7 @@
       <c r="Z967" s="20"/>
     </row>
     <row r="968">
-      <c r="A968" s="23"/>
+      <c r="A968" s="25"/>
       <c r="B968" s="20"/>
       <c r="C968" s="20"/>
       <c r="D968" s="20"/>
@@ -56754,7 +56776,7 @@
       <c r="Z968" s="20"/>
     </row>
     <row r="969">
-      <c r="A969" s="23"/>
+      <c r="A969" s="25"/>
       <c r="B969" s="20"/>
       <c r="C969" s="20"/>
       <c r="D969" s="20"/>
@@ -56782,7 +56804,7 @@
       <c r="Z969" s="20"/>
     </row>
     <row r="970">
-      <c r="A970" s="23"/>
+      <c r="A970" s="25"/>
       <c r="B970" s="20"/>
       <c r="C970" s="20"/>
       <c r="D970" s="20"/>
@@ -56810,7 +56832,7 @@
       <c r="Z970" s="20"/>
     </row>
     <row r="971">
-      <c r="A971" s="23"/>
+      <c r="A971" s="25"/>
       <c r="B971" s="20"/>
       <c r="C971" s="20"/>
       <c r="D971" s="20"/>
@@ -56838,7 +56860,7 @@
       <c r="Z971" s="20"/>
     </row>
     <row r="972">
-      <c r="A972" s="23"/>
+      <c r="A972" s="25"/>
       <c r="B972" s="20"/>
       <c r="C972" s="20"/>
       <c r="D972" s="20"/>
@@ -56866,7 +56888,7 @@
       <c r="Z972" s="20"/>
     </row>
     <row r="973">
-      <c r="A973" s="23"/>
+      <c r="A973" s="25"/>
       <c r="B973" s="20"/>
       <c r="C973" s="20"/>
       <c r="D973" s="20"/>
@@ -56894,7 +56916,7 @@
       <c r="Z973" s="20"/>
     </row>
     <row r="974">
-      <c r="A974" s="23"/>
+      <c r="A974" s="25"/>
       <c r="B974" s="20"/>
       <c r="C974" s="20"/>
       <c r="D974" s="20"/>
@@ -56922,7 +56944,7 @@
       <c r="Z974" s="20"/>
     </row>
     <row r="975">
-      <c r="A975" s="23"/>
+      <c r="A975" s="25"/>
       <c r="B975" s="20"/>
       <c r="C975" s="20"/>
       <c r="D975" s="20"/>
@@ -56950,7 +56972,7 @@
       <c r="Z975" s="20"/>
     </row>
     <row r="976">
-      <c r="A976" s="23"/>
+      <c r="A976" s="25"/>
       <c r="B976" s="20"/>
       <c r="C976" s="20"/>
       <c r="D976" s="20"/>
@@ -56978,7 +57000,7 @@
       <c r="Z976" s="20"/>
     </row>
     <row r="977">
-      <c r="A977" s="23"/>
+      <c r="A977" s="25"/>
       <c r="B977" s="20"/>
       <c r="C977" s="20"/>
       <c r="D977" s="20"/>
@@ -57006,7 +57028,7 @@
       <c r="Z977" s="20"/>
     </row>
     <row r="978">
-      <c r="A978" s="23"/>
+      <c r="A978" s="25"/>
       <c r="B978" s="20"/>
       <c r="C978" s="20"/>
       <c r="D978" s="20"/>
@@ -57034,7 +57056,7 @@
       <c r="Z978" s="20"/>
     </row>
     <row r="979">
-      <c r="A979" s="23"/>
+      <c r="A979" s="25"/>
       <c r="B979" s="20"/>
       <c r="C979" s="20"/>
       <c r="D979" s="20"/>
@@ -57062,7 +57084,7 @@
       <c r="Z979" s="20"/>
     </row>
     <row r="980">
-      <c r="A980" s="23"/>
+      <c r="A980" s="25"/>
       <c r="B980" s="20"/>
       <c r="C980" s="20"/>
       <c r="D980" s="20"/>
@@ -57090,7 +57112,7 @@
       <c r="Z980" s="20"/>
     </row>
     <row r="981">
-      <c r="A981" s="23"/>
+      <c r="A981" s="25"/>
       <c r="B981" s="20"/>
       <c r="C981" s="20"/>
       <c r="D981" s="20"/>
@@ -57118,7 +57140,7 @@
       <c r="Z981" s="20"/>
     </row>
     <row r="982">
-      <c r="A982" s="23"/>
+      <c r="A982" s="25"/>
       <c r="B982" s="20"/>
       <c r="C982" s="20"/>
       <c r="D982" s="20"/>
@@ -57146,7 +57168,7 @@
       <c r="Z982" s="20"/>
     </row>
     <row r="983">
-      <c r="A983" s="23"/>
+      <c r="A983" s="25"/>
       <c r="B983" s="20"/>
       <c r="C983" s="20"/>
       <c r="D983" s="20"/>
@@ -57174,7 +57196,7 @@
       <c r="Z983" s="20"/>
     </row>
     <row r="984">
-      <c r="A984" s="23"/>
+      <c r="A984" s="25"/>
       <c r="B984" s="20"/>
       <c r="C984" s="20"/>
       <c r="D984" s="20"/>
@@ -57202,7 +57224,7 @@
       <c r="Z984" s="20"/>
     </row>
     <row r="985">
-      <c r="A985" s="23"/>
+      <c r="A985" s="25"/>
       <c r="B985" s="20"/>
       <c r="C985" s="20"/>
       <c r="D985" s="20"/>
@@ -57230,7 +57252,7 @@
       <c r="Z985" s="20"/>
     </row>
     <row r="986">
-      <c r="A986" s="23"/>
+      <c r="A986" s="25"/>
       <c r="B986" s="20"/>
       <c r="C986" s="20"/>
       <c r="D986" s="20"/>
@@ -57258,7 +57280,7 @@
       <c r="Z986" s="20"/>
     </row>
     <row r="987">
-      <c r="A987" s="23"/>
+      <c r="A987" s="25"/>
       <c r="B987" s="20"/>
       <c r="C987" s="20"/>
       <c r="D987" s="20"/>
@@ -57286,7 +57308,7 @@
       <c r="Z987" s="20"/>
     </row>
     <row r="988">
-      <c r="A988" s="23"/>
+      <c r="A988" s="25"/>
       <c r="B988" s="20"/>
       <c r="C988" s="20"/>
       <c r="D988" s="20"/>
@@ -57314,7 +57336,7 @@
       <c r="Z988" s="20"/>
     </row>
     <row r="989">
-      <c r="A989" s="23"/>
+      <c r="A989" s="25"/>
       <c r="B989" s="20"/>
       <c r="C989" s="20"/>
       <c r="D989" s="20"/>
@@ -57342,7 +57364,7 @@
       <c r="Z989" s="20"/>
     </row>
     <row r="990">
-      <c r="A990" s="23"/>
+      <c r="A990" s="25"/>
       <c r="B990" s="20"/>
       <c r="C990" s="20"/>
       <c r="D990" s="20"/>
@@ -57370,7 +57392,7 @@
       <c r="Z990" s="20"/>
     </row>
     <row r="991">
-      <c r="A991" s="23"/>
+      <c r="A991" s="25"/>
       <c r="B991" s="20"/>
       <c r="C991" s="20"/>
       <c r="D991" s="20"/>
@@ -57398,7 +57420,7 @@
       <c r="Z991" s="20"/>
     </row>
     <row r="992">
-      <c r="A992" s="23"/>
+      <c r="A992" s="25"/>
       <c r="B992" s="20"/>
       <c r="C992" s="20"/>
       <c r="D992" s="20"/>
@@ -57426,7 +57448,7 @@
       <c r="Z992" s="20"/>
     </row>
     <row r="993">
-      <c r="A993" s="23"/>
+      <c r="A993" s="25"/>
       <c r="B993" s="20"/>
       <c r="C993" s="20"/>
       <c r="D993" s="20"/>
@@ -57454,7 +57476,7 @@
       <c r="Z993" s="20"/>
     </row>
     <row r="994">
-      <c r="A994" s="23"/>
+      <c r="A994" s="25"/>
       <c r="B994" s="20"/>
       <c r="C994" s="20"/>
       <c r="D994" s="20"/>
@@ -57482,7 +57504,7 @@
       <c r="Z994" s="20"/>
     </row>
     <row r="995">
-      <c r="A995" s="23"/>
+      <c r="A995" s="25"/>
       <c r="B995" s="20"/>
       <c r="C995" s="20"/>
       <c r="D995" s="20"/>
@@ -57510,7 +57532,7 @@
       <c r="Z995" s="20"/>
     </row>
     <row r="996">
-      <c r="A996" s="23"/>
+      <c r="A996" s="25"/>
       <c r="B996" s="20"/>
       <c r="C996" s="20"/>
       <c r="D996" s="20"/>
@@ -57538,7 +57560,7 @@
       <c r="Z996" s="20"/>
     </row>
     <row r="997">
-      <c r="A997" s="23"/>
+      <c r="A997" s="25"/>
       <c r="B997" s="20"/>
       <c r="C997" s="20"/>
       <c r="D997" s="20"/>
@@ -57566,7 +57588,7 @@
       <c r="Z997" s="20"/>
     </row>
     <row r="998">
-      <c r="A998" s="23"/>
+      <c r="A998" s="25"/>
       <c r="B998" s="20"/>
       <c r="C998" s="20"/>
       <c r="D998" s="20"/>
@@ -57594,7 +57616,7 @@
       <c r="Z998" s="20"/>
     </row>
     <row r="999">
-      <c r="A999" s="23"/>
+      <c r="A999" s="25"/>
       <c r="B999" s="20"/>
       <c r="C999" s="20"/>
       <c r="D999" s="20"/>
@@ -57622,7 +57644,7 @@
       <c r="Z999" s="20"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="23"/>
+      <c r="A1000" s="25"/>
       <c r="B1000" s="20"/>
       <c r="C1000" s="20"/>
       <c r="D1000" s="20"/>
@@ -57650,7 +57672,7 @@
       <c r="Z1000" s="20"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="23"/>
+      <c r="A1001" s="25"/>
       <c r="B1001" s="20"/>
       <c r="C1001" s="20"/>
       <c r="D1001" s="20"/>
@@ -57678,7 +57700,7 @@
       <c r="Z1001" s="20"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="23"/>
+      <c r="A1002" s="25"/>
       <c r="B1002" s="20"/>
       <c r="C1002" s="20"/>
       <c r="D1002" s="20"/>
@@ -57706,7 +57728,7 @@
       <c r="Z1002" s="20"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="23"/>
+      <c r="A1003" s="25"/>
       <c r="B1003" s="20"/>
       <c r="C1003" s="20"/>
       <c r="D1003" s="20"/>
@@ -57734,7 +57756,7 @@
       <c r="Z1003" s="20"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="23"/>
+      <c r="A1004" s="25"/>
       <c r="B1004" s="20"/>
       <c r="C1004" s="20"/>
       <c r="D1004" s="20"/>
@@ -57762,7 +57784,7 @@
       <c r="Z1004" s="20"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="23"/>
+      <c r="A1005" s="25"/>
       <c r="B1005" s="20"/>
       <c r="C1005" s="20"/>
       <c r="D1005" s="20"/>
@@ -57790,7 +57812,7 @@
       <c r="Z1005" s="20"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="23"/>
+      <c r="A1006" s="25"/>
       <c r="B1006" s="20"/>
       <c r="C1006" s="20"/>
       <c r="D1006" s="20"/>
@@ -57818,7 +57840,7 @@
       <c r="Z1006" s="20"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="23"/>
+      <c r="A1007" s="25"/>
       <c r="B1007" s="20"/>
       <c r="C1007" s="20"/>
       <c r="D1007" s="20"/>
@@ -57846,7 +57868,7 @@
       <c r="Z1007" s="20"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="23"/>
+      <c r="A1008" s="25"/>
       <c r="B1008" s="20"/>
       <c r="C1008" s="20"/>
       <c r="D1008" s="20"/>
@@ -57874,7 +57896,7 @@
       <c r="Z1008" s="20"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="23"/>
+      <c r="A1009" s="25"/>
       <c r="B1009" s="20"/>
       <c r="C1009" s="20"/>
       <c r="D1009" s="20"/>
@@ -57902,7 +57924,7 @@
       <c r="Z1009" s="20"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="23"/>
+      <c r="A1010" s="25"/>
       <c r="B1010" s="20"/>
       <c r="C1010" s="20"/>
       <c r="D1010" s="20"/>
@@ -57930,7 +57952,7 @@
       <c r="Z1010" s="20"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="23"/>
+      <c r="A1011" s="25"/>
       <c r="B1011" s="20"/>
       <c r="C1011" s="20"/>
       <c r="D1011" s="20"/>
@@ -57958,7 +57980,7 @@
       <c r="Z1011" s="20"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="23"/>
+      <c r="A1012" s="25"/>
       <c r="B1012" s="20"/>
       <c r="C1012" s="20"/>
       <c r="D1012" s="20"/>
@@ -57986,7 +58008,7 @@
       <c r="Z1012" s="20"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="23"/>
+      <c r="A1013" s="25"/>
       <c r="B1013" s="20"/>
       <c r="C1013" s="20"/>
       <c r="D1013" s="20"/>
@@ -58014,7 +58036,7 @@
       <c r="Z1013" s="20"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="23"/>
+      <c r="A1014" s="25"/>
       <c r="B1014" s="20"/>
       <c r="C1014" s="20"/>
       <c r="D1014" s="20"/>
@@ -58042,7 +58064,7 @@
       <c r="Z1014" s="20"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="23"/>
+      <c r="A1015" s="25"/>
       <c r="B1015" s="20"/>
       <c r="C1015" s="20"/>
       <c r="D1015" s="20"/>
@@ -58070,7 +58092,7 @@
       <c r="Z1015" s="20"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="23"/>
+      <c r="A1016" s="25"/>
       <c r="B1016" s="20"/>
       <c r="C1016" s="20"/>
       <c r="D1016" s="20"/>
@@ -58098,7 +58120,7 @@
       <c r="Z1016" s="20"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="23"/>
+      <c r="A1017" s="25"/>
       <c r="B1017" s="20"/>
       <c r="C1017" s="20"/>
       <c r="D1017" s="20"/>
@@ -58126,7 +58148,7 @@
       <c r="Z1017" s="20"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="23"/>
+      <c r="A1018" s="25"/>
       <c r="B1018" s="20"/>
       <c r="C1018" s="20"/>
       <c r="D1018" s="20"/>
@@ -58154,7 +58176,7 @@
       <c r="Z1018" s="20"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="23"/>
+      <c r="A1019" s="25"/>
       <c r="B1019" s="20"/>
       <c r="C1019" s="20"/>
       <c r="D1019" s="20"/>
@@ -58182,7 +58204,7 @@
       <c r="Z1019" s="20"/>
     </row>
     <row r="1020">
-      <c r="A1020" s="23"/>
+      <c r="A1020" s="25"/>
       <c r="B1020" s="20"/>
       <c r="C1020" s="20"/>
       <c r="D1020" s="20"/>
@@ -58210,7 +58232,7 @@
       <c r="Z1020" s="20"/>
     </row>
     <row r="1021">
-      <c r="A1021" s="23"/>
+      <c r="A1021" s="25"/>
       <c r="B1021" s="20"/>
       <c r="C1021" s="20"/>
       <c r="D1021" s="20"/>
@@ -58238,7 +58260,7 @@
       <c r="Z1021" s="20"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="23"/>
+      <c r="A1022" s="25"/>
       <c r="B1022" s="20"/>
       <c r="C1022" s="20"/>
       <c r="D1022" s="20"/>
